--- a/exiter/etc/테이블DB.xlsx
+++ b/exiter/etc/테이블DB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11820" tabRatio="500" activeTab="2"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="14235" windowHeight="8550" tabRatio="500" activeTab="7"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="User" sheetId="1" r:id="rId4"/>
@@ -26,465 +26,468 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="153">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="154">
+  <x:si>
+    <x:t>rTime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>질문정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Table key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BoardComment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테마정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user 테이블 키값(FK)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Theme Table key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>답변정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Question 테이블 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업자정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer 테이블 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Board 테이블 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>줄거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>좌표x</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>난이도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매장명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>좌표y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연락처</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬럼명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테마명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방린이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장르</x:t>
+  </x:si>
+  <x:si>
+    <x:t>U</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>답변</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인원수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>질문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>테마</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엑시터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KEY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>길이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A(관리자) / U(일반회원)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈퇴유무 true / false</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BoardComment 테이블 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Company Table key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reservation 테이블 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Company 테이블 키값(FK)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Theme 테이블 키값(FK)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Question 테이블 키값(FK), 질문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Company 테이블 키값(FK), 작성자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방린이 - 방소년 - 방으른 - 엑시터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xxx-xxxx-xxxx (하이픈포함)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xxx-xxxx-xxxx(하이픈포함)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Board 테이블 키값(FK), 게시글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user 테이블 키값(FK), 작성자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xxx-xx-xxxxx (하이픈포함)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈퇴 유무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BOOLEAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로젝트명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TYPE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작  성  자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Company</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Board</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자 유무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 정의서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BIGINT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업무규칙</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카테고리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Theme</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업자번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모  듈  명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DOUBLE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬럼ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인  덱  스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TIME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작  성  일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qDef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uPasswd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tTime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rPrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 등급</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bcid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bDef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tLevel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>regDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 연락처</x:t>
+  </x:si>
   <x:si>
     <x:t>tPrice</x:t>
   </x:si>
   <x:si>
-    <x:t>uPasswd</x:t>
+    <x:t>uPhone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약일자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comTel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bcDef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rDate</x:t>
   </x:si>
   <x:si>
     <x:t>유저 비밀번호</x:t>
   </x:si>
   <x:si>
-    <x:t>regDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tTime</x:t>
+    <x:t>날짜시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aDef</x:t>
   </x:si>
   <x:si>
     <x:t>uGrade</x:t>
   </x:si>
   <x:si>
-    <x:t>aDef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rPrice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 등급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uPhone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tLevel</x:t>
+    <x:t>comNum</x:t>
   </x:si>
   <x:si>
     <x:t>bTitle</x:t>
   </x:si>
   <x:si>
-    <x:t>tName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약일자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날짜시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bcid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 연락처</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bDef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comTel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bcDef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uType</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qDef</x:t>
+    <x:t>tDef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uCheck</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업자 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tNum</x:t>
   </x:si>
   <x:si>
     <x:t>예약금액</x:t>
   </x:si>
   <x:si>
-    <x:t>tNum</x:t>
-  </x:si>
-  <x:si>
     <x:t>uName</x:t>
   </x:si>
   <x:si>
     <x:t>tImage</x:t>
   </x:si>
   <x:si>
-    <x:t>tDef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uCheck</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업자 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카테고리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업자번호</x:t>
+    <x:t>TIMESTAMP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Question</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.09.12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reservation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bCategory</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comAddress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tCategory</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comPasswd</x:t>
   </x:si>
   <x:si>
     <x:t>사업자 비밀번호</x:t>
   </x:si>
   <x:si>
-    <x:t>bCategory</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comPasswd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tCategory</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comAddress</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Answer 테이블 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user 테이블 키값(FK)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Question 테이블 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Board 테이블 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연락처</x:t>
-  </x:si>
-  <x:si>
-    <x:t>aid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>줄거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>좌표x</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>난이도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>매장명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>좌표y</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장르</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인원수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테마명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A(관리자) / U(일반회원)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reservation 테이블 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BoardComment 테이블 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Company 테이블 키값(FK)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈퇴유무 true / false</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Question 테이블 키값(FK), 질문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user 테이블 키값(FK), 작성자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Board 테이블 키값(FK), 게시글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Company 테이블 키값(FK), 작성자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업자정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Theme Table key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>답변정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>질문정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User Table key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BoardComment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xxx-xx-xxxxx (하이픈포함)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xxx-xxxx-xxxx(하이픈포함)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방린이 - 방소년 - 방으른 - 엑시터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xxx-xxxx-xxxx (하이픈포함)</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>댓글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테마</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>U</x:t>
-  </x:si>
-  <x:si>
-    <x:t>질문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엑시터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KEY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방린이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>길이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬럼명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>답변</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BIGINT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TIME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Theme</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모  듈  명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업무규칙</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DOUBLE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬럼ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Answer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작  성  일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인  덱  스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈퇴 유무</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TYPE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BOOLEAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로젝트명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작  성  자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 정의서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Company</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Board</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자 유무</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Theme 테이블 키값(FK)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Company Table key</x:t>
+    <x:t>Major Code</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Not Null</x:t>
   </x:si>
   <x:si>
     <x:t>NULLABLE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Major Code</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Not Null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reservation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.09.12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Question</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TIMESTAMP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테마정보를 가지는 테이블</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -745,7 +748,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -828,7 +830,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -863,7 +864,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -908,7 +908,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -952,7 +951,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1037,7 +1035,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1058,7 +1055,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1089,7 +1085,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1422,7 +1417,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
       <x:c r="A1" s="17" t="s">
-        <x:v>139</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B1" s="17"/>
       <x:c r="C1" s="17"/>
@@ -1436,36 +1431,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="15" t="s">
-        <x:v>135</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B2" s="15"/>
       <x:c r="C2" s="16" t="s">
-        <x:v>106</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D2" s="16"/>
       <x:c r="E2" s="16"/>
       <x:c r="F2" s="15" t="s">
-        <x:v>129</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G2" s="15"/>
       <x:c r="H2" s="15"/>
       <x:c r="I2" s="16" t="s">
-        <x:v>149</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="J2" s="16"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="15" t="s">
-        <x:v>122</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B3" s="15"/>
       <x:c r="C3" s="16" t="s">
-        <x:v>108</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D3" s="16"/>
       <x:c r="E3" s="16"/>
       <x:c r="F3" s="15" t="s">
-        <x:v>138</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G3" s="15"/>
       <x:c r="H3" s="15"/>
@@ -1474,54 +1469,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="15" t="s">
-        <x:v>117</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B4" s="15"/>
       <x:c r="C4" s="16" t="s">
-        <x:v>124</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D4" s="16"/>
       <x:c r="E4" s="16"/>
       <x:c r="F4" s="15" t="s">
-        <x:v>130</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G4" s="15"/>
       <x:c r="H4" s="15"/>
       <x:c r="I4" s="16" t="s">
-        <x:v>87</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="J4" s="16"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>133</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>113</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>107</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>145</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>146</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>55</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -1529,21 +1524,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="5" t="s">
-        <x:v>60</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
-        <x:v>91</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>118</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>101</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -1553,13 +1548,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C7" s="5" t="s">
-        <x:v>120</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>137</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>20</x:v>
@@ -1567,7 +1562,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -1577,13 +1572,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C8" s="9" t="s">
-        <x:v>2</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>137</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E8" s="4">
         <x:v>16</x:v>
@@ -1591,7 +1586,7 @@
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -1601,13 +1596,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="5" t="s">
-        <x:v>33</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C9" s="9" t="s">
-        <x:v>18</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>137</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E9" s="4">
         <x:v>20</x:v>
@@ -1615,7 +1610,7 @@
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="6"/>
@@ -1625,13 +1620,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="5" t="s">
-        <x:v>12</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C10" s="9" t="s">
-        <x:v>22</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>137</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E10" s="4">
         <x:v>13</x:v>
@@ -1639,11 +1634,11 @@
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="5" t="s">
-        <x:v>94</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -1651,27 +1646,27 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B11" s="9" t="s">
-        <x:v>5</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C11" s="9" t="s">
-        <x:v>9</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>137</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E11" s="4">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F11" s="4" t="s">
-        <x:v>109</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I11" s="7"/>
       <x:c r="J11" s="5" t="s">
-        <x:v>95</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -1679,27 +1674,27 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B12" s="9" t="s">
-        <x:v>26</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C12" s="8" t="s">
-        <x:v>142</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D12" s="4" t="s">
-        <x:v>123</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E12" s="7">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F12" s="7" t="s">
-        <x:v>103</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G12" s="7"/>
       <x:c r="H12" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I12" s="7"/>
       <x:c r="J12" s="8" t="s">
-        <x:v>74</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -1707,13 +1702,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B13" s="9" t="s">
-        <x:v>36</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C13" s="8" t="s">
-        <x:v>132</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D13" s="4" t="s">
-        <x:v>134</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E13" s="7"/>
       <x:c r="F13" s="7" t="b">
@@ -1721,11 +1716,11 @@
       </x:c>
       <x:c r="G13" s="7"/>
       <x:c r="H13" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I13" s="7"/>
       <x:c r="J13" s="8" t="s">
-        <x:v>78</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -1733,19 +1728,19 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B14" s="9" t="s">
-        <x:v>3</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C14" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D14" s="7" t="s">
-        <x:v>151</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E14" s="7"/>
       <x:c r="F14" s="7"/>
       <x:c r="G14" s="7"/>
       <x:c r="H14" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I14" s="7"/>
       <x:c r="J14" s="8"/>
@@ -1800,42 +1795,42 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A20" s="12" t="s">
-        <x:v>131</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B20" s="12" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C20" s="13"/>
       <x:c r="D20" s="13"/>
@@ -1848,10 +1843,10 @@
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A21" s="12" t="s">
-        <x:v>125</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B21" s="12" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C21" s="14"/>
       <x:c r="D21" s="13"/>
@@ -1915,7 +1910,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
       <x:c r="A1" s="17" t="s">
-        <x:v>139</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B1" s="17"/>
       <x:c r="C1" s="17"/>
@@ -1929,36 +1924,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="15" t="s">
-        <x:v>135</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B2" s="15"/>
       <x:c r="C2" s="16" t="s">
-        <x:v>106</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D2" s="16"/>
       <x:c r="E2" s="16"/>
       <x:c r="F2" s="15" t="s">
-        <x:v>129</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G2" s="15"/>
       <x:c r="H2" s="15"/>
       <x:c r="I2" s="16" t="s">
-        <x:v>149</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="J2" s="16"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="15" t="s">
-        <x:v>122</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B3" s="15"/>
       <x:c r="C3" s="16" t="s">
-        <x:v>99</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D3" s="16"/>
       <x:c r="E3" s="16"/>
       <x:c r="F3" s="15" t="s">
-        <x:v>138</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G3" s="15"/>
       <x:c r="H3" s="15"/>
@@ -1967,54 +1962,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="15" t="s">
-        <x:v>117</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B4" s="15"/>
       <x:c r="C4" s="16" t="s">
-        <x:v>140</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D4" s="16"/>
       <x:c r="E4" s="16"/>
       <x:c r="F4" s="15" t="s">
-        <x:v>130</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G4" s="15"/>
       <x:c r="H4" s="15"/>
       <x:c r="I4" s="16" t="s">
-        <x:v>85</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="J4" s="16"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>133</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>113</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>107</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>145</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>146</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>55</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -2022,21 +2017,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C6" s="5" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="C6" s="5" t="s">
-        <x:v>144</x:v>
-      </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>118</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>101</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -2046,13 +2041,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>28</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>38</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>137</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>20</x:v>
@@ -2060,7 +2055,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -2070,13 +2065,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
-        <x:v>44</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="C8" s="10" t="s">
-        <x:v>42</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>137</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E8" s="4">
         <x:v>16</x:v>
@@ -2084,7 +2079,7 @@
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -2094,13 +2089,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>64</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>137</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E9" s="4">
         <x:v>20</x:v>
@@ -2108,7 +2103,7 @@
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="6"/>
@@ -2118,13 +2113,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>41</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>137</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E10" s="4">
         <x:v>12</x:v>
@@ -2132,11 +2127,11 @@
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="5" t="s">
-        <x:v>93</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -2144,13 +2139,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B11" s="10" t="s">
-        <x:v>46</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="C11" s="10" t="s">
-        <x:v>58</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>137</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E11" s="4">
         <x:v>100</x:v>
@@ -2158,7 +2153,7 @@
       <x:c r="F11" s="4"/>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I11" s="7"/>
       <x:c r="J11" s="5"/>
@@ -2168,13 +2163,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B12" s="10" t="s">
-        <x:v>24</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C12" s="10" t="s">
-        <x:v>53</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D12" s="4" t="s">
-        <x:v>137</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E12" s="7">
         <x:v>13</x:v>
@@ -2182,11 +2177,11 @@
       <x:c r="F12" s="7"/>
       <x:c r="G12" s="7"/>
       <x:c r="H12" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I12" s="7"/>
       <x:c r="J12" s="8" t="s">
-        <x:v>96</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -2194,19 +2189,19 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B13" s="10" t="s">
-        <x:v>40</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C13" s="10" t="s">
-        <x:v>59</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D13" s="4" t="s">
-        <x:v>126</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E13" s="7"/>
       <x:c r="F13" s="7"/>
       <x:c r="G13" s="7"/>
       <x:c r="H13" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I13" s="7"/>
       <x:c r="J13" s="8"/>
@@ -2216,19 +2211,19 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B14" s="10" t="s">
-        <x:v>11</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C14" s="10" t="s">
-        <x:v>66</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D14" s="4" t="s">
-        <x:v>126</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E14" s="7"/>
       <x:c r="F14" s="7"/>
       <x:c r="G14" s="7"/>
       <x:c r="H14" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I14" s="7"/>
       <x:c r="J14" s="8"/>
@@ -2236,19 +2231,19 @@
     <x:row r="15" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A15" s="7"/>
       <x:c r="B15" s="10" t="s">
-        <x:v>3</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C15" s="10" t="s">
-        <x:v>17</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D15" s="7" t="s">
-        <x:v>151</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E15" s="7"/>
       <x:c r="F15" s="7"/>
       <x:c r="G15" s="7"/>
       <x:c r="H15" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I15" s="7"/>
       <x:c r="J15" s="8"/>
@@ -2291,42 +2286,42 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A20" s="12" t="s">
-        <x:v>131</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B20" s="12" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C20" s="13"/>
       <x:c r="D20" s="13"/>
@@ -2339,10 +2334,10 @@
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A21" s="12" t="s">
-        <x:v>125</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B21" s="12" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C21" s="14"/>
       <x:c r="D21" s="13"/>
@@ -2385,7 +2380,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:J21"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="I4" activeCellId="0" sqref="I4:J4"/>
     </x:sheetView>
   </x:sheetViews>
@@ -2406,7 +2401,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
       <x:c r="A1" s="17" t="s">
-        <x:v>139</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B1" s="17"/>
       <x:c r="C1" s="17"/>
@@ -2420,36 +2415,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="15" t="s">
-        <x:v>135</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B2" s="15"/>
       <x:c r="C2" s="16" t="s">
-        <x:v>106</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D2" s="16"/>
       <x:c r="E2" s="16"/>
       <x:c r="F2" s="15" t="s">
-        <x:v>129</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G2" s="15"/>
       <x:c r="H2" s="15"/>
       <x:c r="I2" s="16" t="s">
-        <x:v>149</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="J2" s="16"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="15" t="s">
-        <x:v>122</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B3" s="15"/>
       <x:c r="C3" s="16" t="s">
-        <x:v>100</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D3" s="16"/>
       <x:c r="E3" s="16"/>
       <x:c r="F3" s="15" t="s">
-        <x:v>138</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G3" s="15"/>
       <x:c r="H3" s="15"/>
@@ -2458,54 +2453,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="15" t="s">
-        <x:v>117</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B4" s="15"/>
       <x:c r="C4" s="16" t="s">
-        <x:v>121</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D4" s="16"/>
       <x:c r="E4" s="16"/>
       <x:c r="F4" s="15" t="s">
-        <x:v>130</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G4" s="15"/>
       <x:c r="H4" s="15"/>
       <x:c r="I4" s="16" t="s">
-        <x:v>152</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J4" s="16"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>133</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>113</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>107</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>145</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>146</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>55</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -2513,21 +2508,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
-        <x:v>65</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
-        <x:v>86</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>118</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>101</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -2537,13 +2532,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>15</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>70</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>137</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>20</x:v>
@@ -2551,7 +2546,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -2561,13 +2556,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
-        <x:v>45</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="C8" s="10" t="s">
-        <x:v>67</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>137</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E8" s="4">
         <x:v>10</x:v>
@@ -2575,7 +2570,7 @@
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -2585,19 +2580,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="10" t="s">
-        <x:v>13</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>63</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="6"/>
@@ -2607,19 +2602,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="5"/>
@@ -2629,19 +2624,19 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B11" s="10" t="s">
-        <x:v>0</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C11" s="10" t="s">
-        <x:v>72</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E11" s="4"/>
       <x:c r="F11" s="4"/>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I11" s="7"/>
       <x:c r="J11" s="5"/>
@@ -2651,13 +2646,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B12" s="10" t="s">
-        <x:v>35</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="C12" s="10" t="s">
-        <x:v>57</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D12" s="4" t="s">
-        <x:v>137</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E12" s="7">
         <x:v>500</x:v>
@@ -2665,7 +2660,7 @@
       <x:c r="F12" s="7"/>
       <x:c r="G12" s="7"/>
       <x:c r="H12" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I12" s="7"/>
       <x:c r="J12" s="8"/>
@@ -2675,19 +2670,19 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B13" s="10" t="s">
-        <x:v>4</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C13" s="10" t="s">
-        <x:v>56</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D13" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E13" s="7"/>
       <x:c r="F13" s="7"/>
       <x:c r="G13" s="7"/>
       <x:c r="H13" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I13" s="7"/>
       <x:c r="J13" s="8"/>
@@ -2697,13 +2692,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B14" s="10" t="s">
-        <x:v>34</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C14" s="10" t="s">
-        <x:v>73</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D14" s="4" t="s">
-        <x:v>137</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E14" s="7">
         <x:v>100</x:v>
@@ -2711,7 +2706,7 @@
       <x:c r="F14" s="7"/>
       <x:c r="G14" s="7"/>
       <x:c r="H14" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I14" s="7"/>
       <x:c r="J14" s="8"/>
@@ -2721,21 +2716,21 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B15" s="10" t="s">
-        <x:v>62</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C15" s="10" t="s">
-        <x:v>77</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D15" s="4" t="s">
-        <x:v>118</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E15" s="7"/>
       <x:c r="F15" s="7"/>
       <x:c r="G15" s="7" t="s">
-        <x:v>115</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H15" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I15" s="7"/>
       <x:c r="J15" s="8"/>
@@ -2745,19 +2740,19 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B16" s="10" t="s">
-        <x:v>3</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C16" s="10" t="s">
-        <x:v>17</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D16" s="7" t="s">
-        <x:v>151</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E16" s="7"/>
       <x:c r="F16" s="7"/>
       <x:c r="G16" s="7"/>
       <x:c r="H16" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I16" s="7"/>
       <x:c r="J16" s="8"/>
@@ -2788,42 +2783,42 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A20" s="12" t="s">
-        <x:v>131</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B20" s="12" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C20" s="13"/>
       <x:c r="D20" s="13"/>
@@ -2836,10 +2831,10 @@
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A21" s="12" t="s">
-        <x:v>125</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B21" s="12" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C21" s="14"/>
       <x:c r="D21" s="13"/>
@@ -2883,7 +2878,7 @@
   <x:dimension ref="A1:J21"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="F14" activeCellId="0" sqref="F14:F14"/>
+      <x:selection activeCell="B12" activeCellId="0" sqref="B12:B12"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
@@ -2903,7 +2898,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
       <x:c r="A1" s="17" t="s">
-        <x:v>139</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B1" s="17"/>
       <x:c r="C1" s="17"/>
@@ -2917,36 +2912,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="15" t="s">
-        <x:v>135</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B2" s="15"/>
       <x:c r="C2" s="16" t="s">
-        <x:v>106</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D2" s="16"/>
       <x:c r="E2" s="16"/>
       <x:c r="F2" s="15" t="s">
-        <x:v>129</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G2" s="15"/>
       <x:c r="H2" s="15"/>
       <x:c r="I2" s="16" t="s">
-        <x:v>149</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="J2" s="16"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="15" t="s">
-        <x:v>122</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B3" s="15"/>
       <x:c r="C3" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D3" s="16"/>
       <x:c r="E3" s="16"/>
       <x:c r="F3" s="15" t="s">
-        <x:v>138</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G3" s="15"/>
       <x:c r="H3" s="15"/>
@@ -2955,54 +2950,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="15" t="s">
-        <x:v>117</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B4" s="15"/>
       <x:c r="C4" s="16" t="s">
-        <x:v>148</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D4" s="16"/>
       <x:c r="E4" s="16"/>
       <x:c r="F4" s="15" t="s">
-        <x:v>130</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G4" s="15"/>
       <x:c r="H4" s="15"/>
       <x:c r="I4" s="16" t="s">
-        <x:v>83</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="J4" s="16"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>133</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>113</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>107</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>145</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>146</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>55</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -3010,21 +3005,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
-        <x:v>71</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C6" s="10" t="s">
-        <x:v>75</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>118</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>101</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -3034,23 +3029,23 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>60</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>137</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>20</x:v>
       </x:c>
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4" t="s">
-        <x:v>115</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H7" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -3060,21 +3055,21 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C8" s="5" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="C8" s="5" t="s">
-        <x:v>143</x:v>
-      </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>118</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E8" s="4"/>
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4" t="s">
-        <x:v>115</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H8" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -3084,19 +3079,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="10" t="s">
-        <x:v>8</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>31</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="5"/>
@@ -3106,19 +3101,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="10" t="s">
-        <x:v>10</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>16</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>136</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="11"/>
@@ -3128,19 +3123,19 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B11" s="10" t="s">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C11" s="10" t="s">
-        <x:v>37</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>119</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E11" s="4"/>
       <x:c r="F11" s="4"/>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I11" s="7"/>
       <x:c r="J11" s="5"/>
@@ -3150,19 +3145,19 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B12" s="10" t="s">
-        <x:v>19</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C12" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D12" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E12" s="4"/>
       <x:c r="F12" s="4"/>
       <x:c r="G12" s="4"/>
       <x:c r="H12" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I12" s="7"/>
       <x:c r="J12" s="8"/>
@@ -3172,19 +3167,19 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B13" s="10" t="s">
-        <x:v>3</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C13" s="10" t="s">
-        <x:v>17</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D13" s="4" t="s">
-        <x:v>151</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E13" s="7"/>
       <x:c r="F13" s="7"/>
       <x:c r="G13" s="7"/>
       <x:c r="H13" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I13" s="7"/>
       <x:c r="J13" s="8"/>
@@ -3251,42 +3246,42 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A20" s="12" t="s">
-        <x:v>131</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B20" s="12" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C20" s="13"/>
       <x:c r="D20" s="13"/>
@@ -3299,10 +3294,10 @@
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A21" s="12" t="s">
-        <x:v>125</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B21" s="12" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C21" s="14"/>
       <x:c r="D21" s="13"/>
@@ -3366,7 +3361,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
       <x:c r="A1" s="17" t="s">
-        <x:v>139</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B1" s="17"/>
       <x:c r="C1" s="17"/>
@@ -3380,36 +3375,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="15" t="s">
-        <x:v>135</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B2" s="15"/>
       <x:c r="C2" s="16" t="s">
-        <x:v>106</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D2" s="16"/>
       <x:c r="E2" s="16"/>
       <x:c r="F2" s="15" t="s">
-        <x:v>129</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G2" s="15"/>
       <x:c r="H2" s="15"/>
       <x:c r="I2" s="16" t="s">
-        <x:v>149</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="J2" s="16"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="15" t="s">
-        <x:v>122</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B3" s="15"/>
       <x:c r="C3" s="16" t="s">
-        <x:v>116</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D3" s="16"/>
       <x:c r="E3" s="16"/>
       <x:c r="F3" s="15" t="s">
-        <x:v>138</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G3" s="15"/>
       <x:c r="H3" s="15"/>
@@ -3418,54 +3413,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="15" t="s">
-        <x:v>117</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B4" s="15"/>
       <x:c r="C4" s="16" t="s">
-        <x:v>141</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D4" s="16"/>
       <x:c r="E4" s="16"/>
       <x:c r="F4" s="15" t="s">
-        <x:v>130</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G4" s="15"/>
       <x:c r="H4" s="15"/>
       <x:c r="I4" s="16" t="s">
-        <x:v>84</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="J4" s="16"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>133</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>113</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>107</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>145</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>146</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>55</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -3473,21 +3468,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C6" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>118</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>101</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -3497,13 +3492,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>14</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>137</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>100</x:v>
@@ -3511,7 +3506,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -3521,13 +3516,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
-        <x:v>23</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C8" s="10" t="s">
-        <x:v>69</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>137</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E8" s="4">
         <x:v>3000</x:v>
@@ -3535,7 +3530,7 @@
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -3545,13 +3540,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="10" t="s">
-        <x:v>43</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>39</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>137</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E9" s="4">
         <x:v>10</x:v>
@@ -3559,7 +3554,7 @@
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="5"/>
@@ -3569,21 +3564,21 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="10" t="s">
-        <x:v>60</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>80</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>118</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4" t="s">
-        <x:v>115</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H10" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="11"/>
@@ -3593,19 +3588,19 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B11" s="10" t="s">
-        <x:v>3</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C11" s="10" t="s">
-        <x:v>17</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>151</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E11" s="4"/>
       <x:c r="F11" s="4"/>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I11" s="7"/>
       <x:c r="J11" s="5"/>
@@ -3696,42 +3691,42 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A20" s="12" t="s">
-        <x:v>131</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B20" s="12" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C20" s="13"/>
       <x:c r="D20" s="13"/>
@@ -3744,10 +3739,10 @@
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A21" s="12" t="s">
-        <x:v>125</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B21" s="12" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C21" s="14"/>
       <x:c r="D21" s="13"/>
@@ -3811,7 +3806,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
       <x:c r="A1" s="17" t="s">
-        <x:v>139</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B1" s="17"/>
       <x:c r="C1" s="17"/>
@@ -3825,36 +3820,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="15" t="s">
-        <x:v>135</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B2" s="15"/>
       <x:c r="C2" s="16" t="s">
-        <x:v>106</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D2" s="16"/>
       <x:c r="E2" s="16"/>
       <x:c r="F2" s="15" t="s">
-        <x:v>129</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G2" s="15"/>
       <x:c r="H2" s="15"/>
       <x:c r="I2" s="16" t="s">
-        <x:v>149</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="J2" s="16"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="15" t="s">
-        <x:v>122</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B3" s="15"/>
       <x:c r="C3" s="16" t="s">
-        <x:v>98</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D3" s="16"/>
       <x:c r="E3" s="16"/>
       <x:c r="F3" s="15" t="s">
-        <x:v>138</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G3" s="15"/>
       <x:c r="H3" s="15"/>
@@ -3863,54 +3858,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="15" t="s">
-        <x:v>117</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B4" s="15"/>
       <x:c r="C4" s="16" t="s">
-        <x:v>92</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D4" s="16"/>
       <x:c r="E4" s="16"/>
       <x:c r="F4" s="15" t="s">
-        <x:v>130</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G4" s="15"/>
       <x:c r="H4" s="15"/>
       <x:c r="I4" s="16" t="s">
-        <x:v>88</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J4" s="16"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>133</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>113</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>107</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>145</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>146</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>55</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -3918,21 +3913,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
-        <x:v>21</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C6" s="10" t="s">
-        <x:v>76</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>118</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>101</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -3942,13 +3937,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>25</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>69</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>137</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>500</x:v>
@@ -3956,7 +3951,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -3966,21 +3961,21 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
-        <x:v>60</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C8" s="10" t="s">
-        <x:v>80</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>118</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E8" s="4"/>
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4" t="s">
-        <x:v>115</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H8" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -3990,21 +3985,21 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>81</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>118</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4" t="s">
-        <x:v>115</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H9" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="5"/>
@@ -4014,19 +4009,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="10" t="s">
-        <x:v>3</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>17</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>151</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="11"/>
@@ -4129,42 +4124,42 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A20" s="12" t="s">
-        <x:v>131</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B20" s="12" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C20" s="13"/>
       <x:c r="D20" s="13"/>
@@ -4177,10 +4172,10 @@
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A21" s="12" t="s">
-        <x:v>125</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B21" s="12" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C21" s="14"/>
       <x:c r="D21" s="13"/>
@@ -4244,7 +4239,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
       <x:c r="A1" s="17" t="s">
-        <x:v>139</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B1" s="17"/>
       <x:c r="C1" s="17"/>
@@ -4258,36 +4253,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="15" t="s">
-        <x:v>135</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B2" s="15"/>
       <x:c r="C2" s="16" t="s">
-        <x:v>106</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D2" s="16"/>
       <x:c r="E2" s="16"/>
       <x:c r="F2" s="15" t="s">
-        <x:v>129</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G2" s="15"/>
       <x:c r="H2" s="15"/>
       <x:c r="I2" s="16" t="s">
-        <x:v>149</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="J2" s="16"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="15" t="s">
-        <x:v>122</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B3" s="15"/>
       <x:c r="C3" s="16" t="s">
-        <x:v>104</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D3" s="16"/>
       <x:c r="E3" s="16"/>
       <x:c r="F3" s="15" t="s">
-        <x:v>138</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G3" s="15"/>
       <x:c r="H3" s="15"/>
@@ -4296,54 +4291,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="15" t="s">
-        <x:v>117</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B4" s="15"/>
       <x:c r="C4" s="16" t="s">
-        <x:v>150</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D4" s="16"/>
       <x:c r="E4" s="16"/>
       <x:c r="F4" s="15" t="s">
-        <x:v>130</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G4" s="15"/>
       <x:c r="H4" s="15"/>
       <x:c r="I4" s="16" t="s">
-        <x:v>90</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J4" s="16"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>133</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>113</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>107</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>145</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>146</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>55</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -4351,21 +4346,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C6" s="10" t="s">
-        <x:v>49</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>118</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>101</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -4375,13 +4370,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>7</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>137</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>100</x:v>
@@ -4389,7 +4384,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -4399,13 +4394,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
-        <x:v>30</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C8" s="10" t="s">
-        <x:v>69</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>137</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E8" s="4">
         <x:v>3000</x:v>
@@ -4413,7 +4408,7 @@
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -4423,21 +4418,21 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="10" t="s">
-        <x:v>60</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>80</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>118</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4" t="s">
-        <x:v>115</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H9" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="5"/>
@@ -4447,21 +4442,21 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="10" t="s">
-        <x:v>62</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>77</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>118</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4" t="s">
-        <x:v>115</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H10" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="11"/>
@@ -4471,19 +4466,19 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B11" s="10" t="s">
-        <x:v>3</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C11" s="10" t="s">
-        <x:v>17</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>151</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E11" s="4"/>
       <x:c r="F11" s="4"/>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I11" s="7"/>
       <x:c r="J11" s="5"/>
@@ -4574,42 +4569,42 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A20" s="12" t="s">
-        <x:v>131</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B20" s="12" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C20" s="13"/>
       <x:c r="D20" s="13"/>
@@ -4622,10 +4617,10 @@
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A21" s="12" t="s">
-        <x:v>125</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B21" s="12" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C21" s="14"/>
       <x:c r="D21" s="13"/>
@@ -4668,7 +4663,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:J21"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="E7" activeCellId="0" sqref="E7:E7"/>
     </x:sheetView>
   </x:sheetViews>
@@ -4689,7 +4684,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
       <x:c r="A1" s="17" t="s">
-        <x:v>139</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B1" s="17"/>
       <x:c r="C1" s="17"/>
@@ -4703,36 +4698,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="15" t="s">
-        <x:v>135</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B2" s="15"/>
       <x:c r="C2" s="16" t="s">
-        <x:v>106</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D2" s="16"/>
       <x:c r="E2" s="16"/>
       <x:c r="F2" s="15" t="s">
-        <x:v>129</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G2" s="15"/>
       <x:c r="H2" s="15"/>
       <x:c r="I2" s="16" t="s">
-        <x:v>149</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="J2" s="16"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="15" t="s">
-        <x:v>122</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B3" s="15"/>
       <x:c r="C3" s="16" t="s">
-        <x:v>114</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D3" s="16"/>
       <x:c r="E3" s="16"/>
       <x:c r="F3" s="15" t="s">
-        <x:v>138</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G3" s="15"/>
       <x:c r="H3" s="15"/>
@@ -4741,54 +4736,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="15" t="s">
-        <x:v>117</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B4" s="15"/>
       <x:c r="C4" s="16" t="s">
-        <x:v>128</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D4" s="16"/>
       <x:c r="E4" s="16"/>
       <x:c r="F4" s="15" t="s">
-        <x:v>130</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G4" s="15"/>
       <x:c r="H4" s="15"/>
       <x:c r="I4" s="16" t="s">
-        <x:v>89</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="J4" s="16"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>133</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>113</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>107</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>145</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>146</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>55</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -4796,21 +4791,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
-        <x:v>54</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C6" s="10" t="s">
-        <x:v>47</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>118</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>101</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -4820,13 +4815,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>6</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>69</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>137</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>1000</x:v>
@@ -4834,7 +4829,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -4844,21 +4839,21 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C8" s="10" t="s">
-        <x:v>79</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>118</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E8" s="4"/>
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4" t="s">
-        <x:v>115</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H8" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -4868,21 +4863,21 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="10" t="s">
-        <x:v>62</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>82</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>118</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4" t="s">
-        <x:v>115</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H9" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="5"/>
@@ -4892,19 +4887,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="10" t="s">
-        <x:v>3</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>17</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>151</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="11"/>
@@ -5007,42 +5002,42 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A20" s="12" t="s">
-        <x:v>131</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B20" s="12" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C20" s="13"/>
       <x:c r="D20" s="13"/>
@@ -5055,10 +5050,10 @@
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A21" s="12" t="s">
-        <x:v>125</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B21" s="12" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C21" s="14"/>
       <x:c r="D21" s="13"/>

--- a/exiter/etc/테이블DB.xlsx
+++ b/exiter/etc/테이블DB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="14235" windowHeight="8550" tabRatio="500" activeTab="7"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11700" tabRatio="500" activeTab="1"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="User" sheetId="1" r:id="rId4"/>
@@ -28,466 +28,466 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="154">
   <x:si>
+    <x:t>질문정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BoardComment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Table key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테마정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user 테이블 키값(FK)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Theme Table key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>답변정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Question 테이블 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업자정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer 테이블 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Board 테이블 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user 테이블 키값(FK), 작성자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xxx-xxxx-xxxx (하이픈포함)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방린이 - 방소년 - 방으른 - 엑시터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xxx-xx-xxxxx (하이픈포함)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xxx-xxxx-xxxx(하이픈포함)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Question 테이블 키값(FK), 질문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Board 테이블 키값(FK), 게시글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Company 테이블 키값(FK), 작성자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매장명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>좌표y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연락처</x:t>
+  </x:si>
+  <x:si>
+    <x:t>줄거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>좌표x</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>난이도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테마명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>U</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장르</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>답변</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인원수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>질문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방린이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬럼명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테마</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엑시터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KEY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>길이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>TIMESTAMP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reservation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comAddress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comPasswd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.09.12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업자 비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Major Code</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NULLABLE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Not Null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bCategory</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tCategory</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Question</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈퇴 유무</x:t>
+  </x:si>
+  <x:si>
     <x:t>rTime</x:t>
   </x:si>
   <x:si>
-    <x:t>질문정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User Table key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BoardComment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테마정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user 테이블 키값(FK)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Theme Table key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>답변정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Question 테이블 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업자정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Answer 테이블 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Board 테이블 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>줄거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>좌표x</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>난이도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>매장명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>좌표y</x:t>
-  </x:si>
-  <x:si>
-    <x:t>aid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연락처</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬럼명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테마명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방린이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장르</x:t>
-  </x:si>
-  <x:si>
-    <x:t>U</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>답변</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인원수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>질문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미지</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>테마</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엑시터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KEY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>길이</x:t>
+    <x:t>프로젝트명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Company</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 정의서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작  성  자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Board</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BIGINT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BOOLEAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TYPE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업무규칙</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uPasswd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tTime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rPrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 등급</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TIME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업자번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모  듈  명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인  덱  스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qDef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카테고리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Theme</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DOUBLE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬럼ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작  성  일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uPhone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aDef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uCheck</x:t>
+  </x:si>
+  <x:si>
+    <x:t>regDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tPrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약일자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uGrade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tLevel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tDef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업자 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bDef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 연락처</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날짜시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bcid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bcDef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약금액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comTel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tImage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reservation 테이블 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Company Table key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Theme 테이블 키값(FK)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈퇴유무 true / false</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BoardComment 테이블 키값</x:t>
   </x:si>
   <x:si>
     <x:t>A(관리자) / U(일반회원)</x:t>
   </x:si>
   <x:si>
-    <x:t>탈퇴유무 true / false</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BoardComment 테이블 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Company Table key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reservation 테이블 키값</x:t>
-  </x:si>
-  <x:si>
     <x:t>Company 테이블 키값(FK)</x:t>
   </x:si>
   <x:si>
-    <x:t>Theme 테이블 키값(FK)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Question 테이블 키값(FK), 질문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Company 테이블 키값(FK), 작성자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방린이 - 방소년 - 방으른 - 엑시터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xxx-xxxx-xxxx (하이픈포함)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xxx-xxxx-xxxx(하이픈포함)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Board 테이블 키값(FK), 게시글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user 테이블 키값(FK), 작성자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xxx-xx-xxxxx (하이픈포함)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈퇴 유무</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BOOLEAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로젝트명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TYPE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작  성  자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Answer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Company</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Board</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자 유무</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 정의서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BIGINT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업무규칙</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카테고리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Theme</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업자번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모  듈  명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DOUBLE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬럼ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인  덱  스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TIME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작  성  일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qDef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uPasswd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tTime</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rPrice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 등급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bcid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bDef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tLevel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>regDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 연락처</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tPrice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uPhone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약일자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comTel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bcDef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날짜시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uType</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>aDef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uGrade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tDef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uCheck</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업자 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약금액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tImage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TIMESTAMP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Question</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.09.12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reservation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bCategory</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comAddress</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tCategory</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comPasswd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업자 비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Major Code</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Not Null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NULLABLE</x:t>
+    <x:t>회원 타입</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -748,6 +748,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -830,6 +831,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -864,6 +866,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -908,6 +911,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -951,6 +955,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1035,6 +1040,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1055,6 +1061,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1085,6 +1092,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1397,7 +1405,7 @@
   <x:dimension ref="A1:J21"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="J10" activeCellId="0" sqref="J10:J10"/>
+      <x:selection activeCell="K14" activeCellId="0" sqref="K14:K14"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
@@ -1431,36 +1439,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="15" t="s">
-        <x:v>77</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B2" s="15"/>
       <x:c r="C2" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D2" s="16"/>
       <x:c r="E2" s="16"/>
       <x:c r="F2" s="15" t="s">
-        <x:v>102</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="G2" s="15"/>
       <x:c r="H2" s="15"/>
       <x:c r="I2" s="16" t="s">
-        <x:v>144</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="J2" s="16"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="15" t="s">
-        <x:v>97</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B3" s="15"/>
       <x:c r="C3" s="16" t="s">
-        <x:v>48</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D3" s="16"/>
       <x:c r="E3" s="16"/>
       <x:c r="F3" s="15" t="s">
-        <x:v>81</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G3" s="15"/>
       <x:c r="H3" s="15"/>
@@ -1469,54 +1477,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="15" t="s">
-        <x:v>79</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B4" s="15"/>
       <x:c r="C4" s="16" t="s">
-        <x:v>89</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D4" s="16"/>
       <x:c r="E4" s="16"/>
       <x:c r="F4" s="15" t="s">
-        <x:v>74</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G4" s="15"/>
       <x:c r="H4" s="15"/>
       <x:c r="I4" s="16" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="J4" s="16"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>99</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>32</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>78</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>46</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>153</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>151</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>30</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -1524,21 +1532,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>49</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -1548,13 +1556,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="5" t="s">
-        <x:v>113</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C7" s="5" t="s">
-        <x:v>93</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>80</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>20</x:v>
@@ -1562,7 +1570,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -1572,13 +1580,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="5" t="s">
-        <x:v>104</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C8" s="9" t="s">
-        <x:v>126</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>80</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E8" s="4">
         <x:v>16</x:v>
@@ -1586,7 +1594,7 @@
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -1596,13 +1604,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="5" t="s">
-        <x:v>140</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C9" s="9" t="s">
-        <x:v>105</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>80</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E9" s="4">
         <x:v>20</x:v>
@@ -1610,7 +1618,7 @@
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="6"/>
@@ -1620,13 +1628,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="5" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C10" s="9" t="s">
-        <x:v>118</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>80</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E10" s="4">
         <x:v>13</x:v>
@@ -1634,11 +1642,11 @@
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="5" t="s">
-        <x:v>70</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -1646,27 +1654,27 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B11" s="9" t="s">
-        <x:v>131</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C11" s="9" t="s">
-        <x:v>109</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>80</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E11" s="4">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F11" s="4" t="s">
-        <x:v>37</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I11" s="7"/>
       <x:c r="J11" s="5" t="s">
-        <x:v>68</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -1674,27 +1682,27 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B12" s="9" t="s">
-        <x:v>128</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="C12" s="8" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="D12" s="4" t="s">
         <x:v>86</x:v>
-      </x:c>
-      <x:c r="D12" s="4" t="s">
-        <x:v>88</x:v>
       </x:c>
       <x:c r="E12" s="7">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F12" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G12" s="7"/>
       <x:c r="H12" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I12" s="7"/>
       <x:c r="J12" s="8" t="s">
-        <x:v>59</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -1702,13 +1710,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B13" s="9" t="s">
-        <x:v>135</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C13" s="8" t="s">
-        <x:v>75</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D13" s="4" t="s">
-        <x:v>76</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E13" s="7"/>
       <x:c r="F13" s="7" t="b">
@@ -1716,11 +1724,11 @@
       </x:c>
       <x:c r="G13" s="7"/>
       <x:c r="H13" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I13" s="7"/>
       <x:c r="J13" s="8" t="s">
-        <x:v>60</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -1728,19 +1736,19 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B14" s="9" t="s">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C14" s="8" t="s">
-        <x:v>127</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D14" s="7" t="s">
-        <x:v>142</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E14" s="7"/>
       <x:c r="F14" s="7"/>
       <x:c r="G14" s="7"/>
       <x:c r="H14" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I14" s="7"/>
       <x:c r="J14" s="8"/>
@@ -1795,42 +1803,42 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A20" s="12" t="s">
-        <x:v>100</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B20" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C20" s="13"/>
       <x:c r="D20" s="13"/>
@@ -1843,10 +1851,10 @@
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A21" s="12" t="s">
-        <x:v>91</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B21" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C21" s="14"/>
       <x:c r="D21" s="13"/>
@@ -1889,8 +1897,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:J21"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D16" activeCellId="0" sqref="D16:D16"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="H14" activeCellId="0" sqref="H14:H14"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
@@ -1924,36 +1932,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="15" t="s">
-        <x:v>77</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B2" s="15"/>
       <x:c r="C2" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D2" s="16"/>
       <x:c r="E2" s="16"/>
       <x:c r="F2" s="15" t="s">
-        <x:v>102</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="G2" s="15"/>
       <x:c r="H2" s="15"/>
       <x:c r="I2" s="16" t="s">
-        <x:v>144</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="J2" s="16"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="15" t="s">
-        <x:v>97</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B3" s="15"/>
       <x:c r="C3" s="16" t="s">
-        <x:v>36</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D3" s="16"/>
       <x:c r="E3" s="16"/>
       <x:c r="F3" s="15" t="s">
-        <x:v>81</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G3" s="15"/>
       <x:c r="H3" s="15"/>
@@ -1962,54 +1970,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="15" t="s">
-        <x:v>79</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B4" s="15"/>
       <x:c r="C4" s="16" t="s">
-        <x:v>84</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D4" s="16"/>
       <x:c r="E4" s="16"/>
       <x:c r="F4" s="15" t="s">
-        <x:v>74</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G4" s="15"/>
       <x:c r="H4" s="15"/>
       <x:c r="I4" s="16" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="J4" s="16"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>99</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>32</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>78</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>46</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>153</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>151</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>30</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -2017,21 +2025,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
-        <x:v>24</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
-        <x:v>62</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>49</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -2041,13 +2049,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>129</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>137</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>80</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>20</x:v>
@@ -2055,7 +2063,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -2065,13 +2073,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
-        <x:v>149</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C8" s="10" t="s">
-        <x:v>150</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>80</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E8" s="4">
         <x:v>16</x:v>
@@ -2079,7 +2087,7 @@
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -2089,13 +2097,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="10" t="s">
-        <x:v>110</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>25</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>80</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E9" s="4">
         <x:v>20</x:v>
@@ -2103,7 +2111,7 @@
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="6"/>
@@ -2113,13 +2121,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="10" t="s">
-        <x:v>132</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>96</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>80</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E10" s="4">
         <x:v>12</x:v>
@@ -2127,11 +2135,11 @@
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="5" t="s">
-        <x:v>73</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -2139,13 +2147,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B11" s="10" t="s">
-        <x:v>147</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C11" s="10" t="s">
-        <x:v>18</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>80</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E11" s="4">
         <x:v>100</x:v>
@@ -2153,7 +2161,7 @@
       <x:c r="F11" s="4"/>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I11" s="7"/>
       <x:c r="J11" s="5"/>
@@ -2163,13 +2171,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B12" s="10" t="s">
-        <x:v>123</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C12" s="10" t="s">
-        <x:v>31</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D12" s="4" t="s">
-        <x:v>80</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E12" s="7">
         <x:v>13</x:v>
@@ -2177,11 +2185,11 @@
       <x:c r="F12" s="7"/>
       <x:c r="G12" s="7"/>
       <x:c r="H12" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I12" s="7"/>
       <x:c r="J12" s="8" t="s">
-        <x:v>69</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -2189,19 +2197,19 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B13" s="10" t="s">
-        <x:v>94</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C13" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D13" s="4" t="s">
-        <x:v>98</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E13" s="7"/>
       <x:c r="F13" s="7"/>
       <x:c r="G13" s="7"/>
       <x:c r="H13" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I13" s="7"/>
       <x:c r="J13" s="8"/>
@@ -2211,39 +2219,41 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B14" s="10" t="s">
-        <x:v>107</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C14" s="10" t="s">
-        <x:v>27</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D14" s="4" t="s">
-        <x:v>98</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E14" s="7"/>
       <x:c r="F14" s="7"/>
       <x:c r="G14" s="7"/>
       <x:c r="H14" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I14" s="7"/>
       <x:c r="J14" s="8"/>
     </x:row>
     <x:row r="15" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <x:c r="A15" s="7"/>
+      <x:c r="A15" s="7">
+        <x:v>9</x:v>
+      </x:c>
       <x:c r="B15" s="10" t="s">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C15" s="10" t="s">
-        <x:v>127</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D15" s="7" t="s">
-        <x:v>142</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E15" s="7"/>
       <x:c r="F15" s="7"/>
       <x:c r="G15" s="7"/>
       <x:c r="H15" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I15" s="7"/>
       <x:c r="J15" s="8"/>
@@ -2286,42 +2296,42 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A20" s="12" t="s">
-        <x:v>100</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B20" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C20" s="13"/>
       <x:c r="D20" s="13"/>
@@ -2334,10 +2344,10 @@
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A21" s="12" t="s">
-        <x:v>91</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B21" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C21" s="14"/>
       <x:c r="D21" s="13"/>
@@ -2415,36 +2425,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="15" t="s">
-        <x:v>77</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B2" s="15"/>
       <x:c r="C2" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D2" s="16"/>
       <x:c r="E2" s="16"/>
       <x:c r="F2" s="15" t="s">
-        <x:v>102</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="G2" s="15"/>
       <x:c r="H2" s="15"/>
       <x:c r="I2" s="16" t="s">
-        <x:v>144</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="J2" s="16"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="15" t="s">
-        <x:v>97</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B3" s="15"/>
       <x:c r="C3" s="16" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D3" s="16"/>
       <x:c r="E3" s="16"/>
       <x:c r="F3" s="15" t="s">
-        <x:v>81</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G3" s="15"/>
       <x:c r="H3" s="15"/>
@@ -2453,54 +2463,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="15" t="s">
-        <x:v>79</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B4" s="15"/>
       <x:c r="C4" s="16" t="s">
-        <x:v>95</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D4" s="16"/>
       <x:c r="E4" s="16"/>
       <x:c r="F4" s="15" t="s">
-        <x:v>74</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G4" s="15"/>
       <x:c r="H4" s="15"/>
       <x:c r="I4" s="16" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="J4" s="16"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>99</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>32</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>78</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>46</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>153</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>151</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>30</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -2508,21 +2518,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
-        <x:v>19</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>49</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -2532,13 +2542,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>117</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>80</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>20</x:v>
@@ -2546,7 +2556,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -2556,13 +2566,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
-        <x:v>148</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C8" s="10" t="s">
-        <x:v>38</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>80</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E8" s="4">
         <x:v>10</x:v>
@@ -2570,7 +2580,7 @@
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -2580,19 +2590,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="10" t="s">
-        <x:v>114</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>23</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>50</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="6"/>
@@ -2602,19 +2612,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="10" t="s">
-        <x:v>138</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>42</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>50</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="5"/>
@@ -2624,19 +2634,19 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B11" s="10" t="s">
-        <x:v>119</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C11" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>50</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E11" s="4"/>
       <x:c r="F11" s="4"/>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I11" s="7"/>
       <x:c r="J11" s="5"/>
@@ -2646,13 +2656,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B12" s="10" t="s">
-        <x:v>134</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C12" s="10" t="s">
-        <x:v>17</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D12" s="4" t="s">
-        <x:v>80</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E12" s="7">
         <x:v>500</x:v>
@@ -2660,7 +2670,7 @@
       <x:c r="F12" s="7"/>
       <x:c r="G12" s="7"/>
       <x:c r="H12" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I12" s="7"/>
       <x:c r="J12" s="8"/>
@@ -2670,19 +2680,19 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B13" s="10" t="s">
-        <x:v>106</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C13" s="10" t="s">
-        <x:v>16</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D13" s="4" t="s">
-        <x:v>50</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E13" s="7"/>
       <x:c r="F13" s="7"/>
       <x:c r="G13" s="7"/>
       <x:c r="H13" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I13" s="7"/>
       <x:c r="J13" s="8"/>
@@ -2692,13 +2702,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B14" s="10" t="s">
-        <x:v>141</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C14" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D14" s="4" t="s">
-        <x:v>80</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E14" s="7">
         <x:v>100</x:v>
@@ -2706,7 +2716,7 @@
       <x:c r="F14" s="7"/>
       <x:c r="G14" s="7"/>
       <x:c r="H14" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I14" s="7"/>
       <x:c r="J14" s="8"/>
@@ -2716,21 +2726,21 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B15" s="10" t="s">
-        <x:v>24</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C15" s="10" t="s">
-        <x:v>64</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D15" s="4" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E15" s="7"/>
       <x:c r="F15" s="7"/>
       <x:c r="G15" s="7" t="s">
-        <x:v>45</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H15" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I15" s="7"/>
       <x:c r="J15" s="8"/>
@@ -2740,19 +2750,19 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B16" s="10" t="s">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C16" s="10" t="s">
-        <x:v>127</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D16" s="7" t="s">
-        <x:v>142</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E16" s="7"/>
       <x:c r="F16" s="7"/>
       <x:c r="G16" s="7"/>
       <x:c r="H16" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I16" s="7"/>
       <x:c r="J16" s="8"/>
@@ -2783,42 +2793,42 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A20" s="12" t="s">
-        <x:v>100</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B20" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C20" s="13"/>
       <x:c r="D20" s="13"/>
@@ -2831,10 +2841,10 @@
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A21" s="12" t="s">
-        <x:v>91</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B21" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C21" s="14"/>
       <x:c r="D21" s="13"/>
@@ -2912,36 +2922,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="15" t="s">
-        <x:v>77</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B2" s="15"/>
       <x:c r="C2" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D2" s="16"/>
       <x:c r="E2" s="16"/>
       <x:c r="F2" s="15" t="s">
-        <x:v>102</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="G2" s="15"/>
       <x:c r="H2" s="15"/>
       <x:c r="I2" s="16" t="s">
-        <x:v>144</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="J2" s="16"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="15" t="s">
-        <x:v>97</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B3" s="15"/>
       <x:c r="C3" s="16" t="s">
-        <x:v>33</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D3" s="16"/>
       <x:c r="E3" s="16"/>
       <x:c r="F3" s="15" t="s">
-        <x:v>81</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G3" s="15"/>
       <x:c r="H3" s="15"/>
@@ -2950,54 +2960,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="15" t="s">
-        <x:v>79</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B4" s="15"/>
       <x:c r="C4" s="16" t="s">
-        <x:v>145</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D4" s="16"/>
       <x:c r="E4" s="16"/>
       <x:c r="F4" s="15" t="s">
-        <x:v>74</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G4" s="15"/>
       <x:c r="H4" s="15"/>
       <x:c r="I4" s="16" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J4" s="16"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>99</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>32</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>78</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>46</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>153</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>151</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>30</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -3005,21 +3015,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
-        <x:v>34</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C6" s="10" t="s">
-        <x:v>63</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>49</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -3029,23 +3039,23 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>21</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>80</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>20</x:v>
       </x:c>
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4" t="s">
-        <x:v>45</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H7" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -3055,21 +3065,21 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
-        <x:v>19</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C8" s="5" t="s">
-        <x:v>65</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E8" s="4"/>
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4" t="s">
-        <x:v>45</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H8" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -3079,19 +3089,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="10" t="s">
-        <x:v>108</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>139</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>50</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="5"/>
@@ -3101,19 +3111,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="10" t="s">
-        <x:v>125</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>121</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="11"/>
@@ -3123,19 +3133,19 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B11" s="10" t="s">
-        <x:v>0</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C11" s="10" t="s">
-        <x:v>136</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E11" s="4"/>
       <x:c r="F11" s="4"/>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I11" s="7"/>
       <x:c r="J11" s="5"/>
@@ -3145,19 +3155,19 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B12" s="10" t="s">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C12" s="10" t="s">
-        <x:v>42</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D12" s="4" t="s">
-        <x:v>50</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E12" s="4"/>
       <x:c r="F12" s="4"/>
       <x:c r="G12" s="4"/>
       <x:c r="H12" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I12" s="7"/>
       <x:c r="J12" s="8"/>
@@ -3167,19 +3177,19 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B13" s="10" t="s">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C13" s="10" t="s">
-        <x:v>127</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D13" s="4" t="s">
-        <x:v>142</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E13" s="7"/>
       <x:c r="F13" s="7"/>
       <x:c r="G13" s="7"/>
       <x:c r="H13" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I13" s="7"/>
       <x:c r="J13" s="8"/>
@@ -3246,42 +3256,42 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A20" s="12" t="s">
-        <x:v>100</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B20" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C20" s="13"/>
       <x:c r="D20" s="13"/>
@@ -3294,10 +3304,10 @@
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A21" s="12" t="s">
-        <x:v>91</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B21" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C21" s="14"/>
       <x:c r="D21" s="13"/>
@@ -3375,36 +3385,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="15" t="s">
-        <x:v>77</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B2" s="15"/>
       <x:c r="C2" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D2" s="16"/>
       <x:c r="E2" s="16"/>
       <x:c r="F2" s="15" t="s">
-        <x:v>102</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="G2" s="15"/>
       <x:c r="H2" s="15"/>
       <x:c r="I2" s="16" t="s">
-        <x:v>144</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="J2" s="16"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="15" t="s">
-        <x:v>97</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B3" s="15"/>
       <x:c r="C3" s="16" t="s">
-        <x:v>47</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D3" s="16"/>
       <x:c r="E3" s="16"/>
       <x:c r="F3" s="15" t="s">
-        <x:v>81</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G3" s="15"/>
       <x:c r="H3" s="15"/>
@@ -3413,54 +3423,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="15" t="s">
-        <x:v>79</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B4" s="15"/>
       <x:c r="C4" s="16" t="s">
-        <x:v>85</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D4" s="16"/>
       <x:c r="E4" s="16"/>
       <x:c r="F4" s="15" t="s">
-        <x:v>74</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G4" s="15"/>
       <x:c r="H4" s="15"/>
       <x:c r="I4" s="16" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="J4" s="16"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>99</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>32</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>78</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>46</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>153</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>151</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>30</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -3468,21 +3478,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
-        <x:v>22</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C6" s="10" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>49</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -3492,13 +3502,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>133</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>80</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>100</x:v>
@@ -3506,7 +3516,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -3516,13 +3526,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
-        <x:v>112</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C8" s="10" t="s">
-        <x:v>57</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>80</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E8" s="4">
         <x:v>3000</x:v>
@@ -3530,7 +3540,7 @@
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -3540,13 +3550,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="10" t="s">
-        <x:v>146</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>92</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>80</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E9" s="4">
         <x:v>10</x:v>
@@ -3554,7 +3564,7 @@
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="5"/>
@@ -3564,21 +3574,21 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="10" t="s">
-        <x:v>21</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>72</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4" t="s">
-        <x:v>45</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H10" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="11"/>
@@ -3588,19 +3598,19 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B11" s="10" t="s">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C11" s="10" t="s">
-        <x:v>127</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>142</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E11" s="4"/>
       <x:c r="F11" s="4"/>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I11" s="7"/>
       <x:c r="J11" s="5"/>
@@ -3691,42 +3701,42 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A20" s="12" t="s">
-        <x:v>100</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B20" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C20" s="13"/>
       <x:c r="D20" s="13"/>
@@ -3739,10 +3749,10 @@
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A21" s="12" t="s">
-        <x:v>91</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B21" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C21" s="14"/>
       <x:c r="D21" s="13"/>
@@ -3820,36 +3830,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="15" t="s">
-        <x:v>77</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B2" s="15"/>
       <x:c r="C2" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D2" s="16"/>
       <x:c r="E2" s="16"/>
       <x:c r="F2" s="15" t="s">
-        <x:v>102</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="G2" s="15"/>
       <x:c r="H2" s="15"/>
       <x:c r="I2" s="16" t="s">
-        <x:v>144</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="J2" s="16"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="15" t="s">
-        <x:v>97</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B3" s="15"/>
       <x:c r="C3" s="16" t="s">
-        <x:v>43</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D3" s="16"/>
       <x:c r="E3" s="16"/>
       <x:c r="F3" s="15" t="s">
-        <x:v>81</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G3" s="15"/>
       <x:c r="H3" s="15"/>
@@ -3858,54 +3868,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="15" t="s">
-        <x:v>79</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B4" s="15"/>
       <x:c r="C4" s="16" t="s">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D4" s="16"/>
       <x:c r="E4" s="16"/>
       <x:c r="F4" s="15" t="s">
-        <x:v>74</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G4" s="15"/>
       <x:c r="H4" s="15"/>
       <x:c r="I4" s="16" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J4" s="16"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>99</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>32</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>78</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>46</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>153</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>151</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>30</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -3913,21 +3923,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
-        <x:v>111</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="C6" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>49</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -3937,13 +3947,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>124</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>57</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>80</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>500</x:v>
@@ -3951,7 +3961,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -3961,21 +3971,21 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
-        <x:v>21</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C8" s="10" t="s">
-        <x:v>72</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E8" s="4"/>
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4" t="s">
-        <x:v>45</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H8" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -3985,21 +3995,21 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="10" t="s">
-        <x:v>22</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>71</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4" t="s">
-        <x:v>45</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H9" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="5"/>
@@ -4009,19 +4019,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="10" t="s">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>127</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>142</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="11"/>
@@ -4124,42 +4134,42 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A20" s="12" t="s">
-        <x:v>100</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B20" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C20" s="13"/>
       <x:c r="D20" s="13"/>
@@ -4172,10 +4182,10 @@
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A21" s="12" t="s">
-        <x:v>91</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B21" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C21" s="14"/>
       <x:c r="D21" s="13"/>
@@ -4253,36 +4263,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="15" t="s">
-        <x:v>77</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B2" s="15"/>
       <x:c r="C2" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D2" s="16"/>
       <x:c r="E2" s="16"/>
       <x:c r="F2" s="15" t="s">
-        <x:v>102</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="G2" s="15"/>
       <x:c r="H2" s="15"/>
       <x:c r="I2" s="16" t="s">
-        <x:v>144</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="J2" s="16"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="15" t="s">
-        <x:v>97</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B3" s="15"/>
       <x:c r="C3" s="16" t="s">
-        <x:v>44</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D3" s="16"/>
       <x:c r="E3" s="16"/>
       <x:c r="F3" s="15" t="s">
-        <x:v>81</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G3" s="15"/>
       <x:c r="H3" s="15"/>
@@ -4291,54 +4301,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="15" t="s">
-        <x:v>79</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B4" s="15"/>
       <x:c r="C4" s="16" t="s">
-        <x:v>143</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D4" s="16"/>
       <x:c r="E4" s="16"/>
       <x:c r="F4" s="15" t="s">
-        <x:v>74</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G4" s="15"/>
       <x:c r="H4" s="15"/>
       <x:c r="I4" s="16" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J4" s="16"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>99</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>32</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>78</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>46</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>153</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>151</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>30</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -4346,21 +4356,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C6" s="10" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>49</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -4370,13 +4380,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>116</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>80</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>100</x:v>
@@ -4384,7 +4394,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -4394,13 +4404,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
-        <x:v>103</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C8" s="10" t="s">
-        <x:v>57</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>80</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E8" s="4">
         <x:v>3000</x:v>
@@ -4408,7 +4418,7 @@
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -4418,21 +4428,21 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="10" t="s">
-        <x:v>21</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>72</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4" t="s">
-        <x:v>45</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H9" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="5"/>
@@ -4442,21 +4452,21 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="10" t="s">
-        <x:v>24</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>64</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4" t="s">
-        <x:v>45</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H10" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="11"/>
@@ -4466,19 +4476,19 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B11" s="10" t="s">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C11" s="10" t="s">
-        <x:v>127</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>142</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E11" s="4"/>
       <x:c r="F11" s="4"/>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I11" s="7"/>
       <x:c r="J11" s="5"/>
@@ -4569,42 +4579,42 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A20" s="12" t="s">
-        <x:v>100</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B20" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C20" s="13"/>
       <x:c r="D20" s="13"/>
@@ -4617,10 +4627,10 @@
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A21" s="12" t="s">
-        <x:v>91</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B21" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C21" s="14"/>
       <x:c r="D21" s="13"/>
@@ -4663,7 +4673,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:J21"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="E7" activeCellId="0" sqref="E7:E7"/>
     </x:sheetView>
   </x:sheetViews>
@@ -4698,36 +4708,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="15" t="s">
-        <x:v>77</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B2" s="15"/>
       <x:c r="C2" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D2" s="16"/>
       <x:c r="E2" s="16"/>
       <x:c r="F2" s="15" t="s">
-        <x:v>102</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="G2" s="15"/>
       <x:c r="H2" s="15"/>
       <x:c r="I2" s="16" t="s">
-        <x:v>144</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="J2" s="16"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="15" t="s">
-        <x:v>97</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B3" s="15"/>
       <x:c r="C3" s="16" t="s">
-        <x:v>41</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D3" s="16"/>
       <x:c r="E3" s="16"/>
       <x:c r="F3" s="15" t="s">
-        <x:v>81</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G3" s="15"/>
       <x:c r="H3" s="15"/>
@@ -4736,54 +4746,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="15" t="s">
-        <x:v>79</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B4" s="15"/>
       <x:c r="C4" s="16" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D4" s="16"/>
       <x:c r="E4" s="16"/>
       <x:c r="F4" s="15" t="s">
-        <x:v>74</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G4" s="15"/>
       <x:c r="H4" s="15"/>
       <x:c r="I4" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="J4" s="16"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>99</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>32</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>78</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>46</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>153</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>151</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>30</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -4794,18 +4804,18 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C6" s="10" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>49</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -4815,13 +4825,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>130</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>57</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>80</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>1000</x:v>
@@ -4829,7 +4839,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -4839,21 +4849,21 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C8" s="10" t="s">
-        <x:v>66</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E8" s="4"/>
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4" t="s">
-        <x:v>45</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H8" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -4863,21 +4873,21 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="10" t="s">
-        <x:v>24</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>67</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4" t="s">
-        <x:v>45</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H9" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="5"/>
@@ -4887,19 +4897,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="10" t="s">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>127</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>142</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="11"/>
@@ -5002,42 +5012,42 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A20" s="12" t="s">
-        <x:v>100</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B20" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C20" s="13"/>
       <x:c r="D20" s="13"/>
@@ -5050,10 +5060,10 @@
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A21" s="12" t="s">
-        <x:v>91</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B21" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C21" s="14"/>
       <x:c r="D21" s="13"/>

--- a/exiter/etc/테이블DB.xlsx
+++ b/exiter/etc/테이블DB.xlsx
@@ -26,7 +26,433 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="154">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="158">
+  <x:si>
+    <x:t>지점이 없는 경우 null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지점명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comPocus</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Question</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TIMESTAMP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.09.12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comPasswd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comAddress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업자 비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Not Null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NULLABLE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bCategory</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tCategory</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reservation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Major Code</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tLevel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bDef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업자 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날짜시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tImage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 연락처</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bcDef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tDef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bcid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약금액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comTel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈퇴 유무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로젝트명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rTime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Company</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Theme</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작  성  자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BOOLEAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uPasswd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인  덱  스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DOUBLE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 정의서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬럼ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qDef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Board</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BIGINT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TYPE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rPrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업무규칙</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tTime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업자번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 등급</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모  듈  명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카테고리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TIME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tPrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약일자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uGrade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uPhone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작  성  일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aDef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uCheck</x:t>
+  </x:si>
+  <x:si>
+    <x:t>regDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매장명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>좌표y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>질문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬럼명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>답변</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장르</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>줄거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테마명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>난이도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인원수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>U</x:t>
+  </x:si>
+  <x:si>
+    <x:t>좌표x</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테마</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연락처</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방린이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엑시터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>길이</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>KEY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reservation 테이블 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Theme 테이블 키값(FK)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈퇴유무 true / false</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BoardComment 테이블 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A(관리자) / U(일반회원)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Company Table key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Company 테이블 키값(FK)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xxx-xxxx-xxxx (하이픈포함)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Board 테이블 키값(FK), 게시글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Company 테이블 키값(FK), 작성자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Question 테이블 키값(FK), 질문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방린이 - 방소년 - 방으른 - 엑시터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xxx-xxxx-xxxx(하이픈포함)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user 테이블 키값(FK), 작성자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xxx-xx-xxxxx (하이픈포함)</x:t>
+  </x:si>
   <x:si>
     <x:t>질문정보를 가지는 테이블</x:t>
   </x:si>
@@ -37,16 +463,22 @@
     <x:t>BoardComment</x:t>
   </x:si>
   <x:si>
+    <x:t>테마정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user 테이블 키값(FK)</x:t>
+  </x:si>
+  <x:si>
     <x:t>User Table key</x:t>
   </x:si>
   <x:si>
-    <x:t>테마정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user 테이블 키값(FK)</x:t>
+    <x:t>Question 테이블 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업자정보를 가지는 테이블</x:t>
   </x:si>
   <x:si>
     <x:t>Theme Table key</x:t>
@@ -55,439 +487,19 @@
     <x:t>답변정보를 가지는 테이블</x:t>
   </x:si>
   <x:si>
-    <x:t>Question 테이블 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업자정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
     <x:t>게시글정보를 가지는 테이블</x:t>
   </x:si>
   <x:si>
+    <x:t>사용자정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Board 테이블 키값</x:t>
+  </x:si>
+  <x:si>
     <x:t>Answer 테이블 키값</x:t>
   </x:si>
   <x:si>
-    <x:t>사용자정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Board 테이블 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user 테이블 키값(FK), 작성자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xxx-xxxx-xxxx (하이픈포함)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방린이 - 방소년 - 방으른 - 엑시터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xxx-xx-xxxxx (하이픈포함)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xxx-xxxx-xxxx(하이픈포함)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Question 테이블 키값(FK), 질문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Board 테이블 키값(FK), 게시글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Company 테이블 키값(FK), 작성자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>매장명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>좌표y</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>aid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연락처</x:t>
-  </x:si>
-  <x:si>
-    <x:t>줄거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>좌표x</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>난이도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테마명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>U</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장르</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>답변</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인원수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>질문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방린이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬럼명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테마</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엑시터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KEY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>길이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>TIMESTAMP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reservation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comAddress</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comPasswd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.09.12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업자 비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Major Code</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NULLABLE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Not Null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bCategory</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tCategory</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Question</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈퇴 유무</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rTime</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로젝트명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Company</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Answer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 정의서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작  성  자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Board</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BIGINT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BOOLEAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TYPE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업무규칙</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uPasswd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tTime</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rPrice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 등급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TIME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업자번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모  듈  명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인  덱  스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qDef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카테고리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Theme</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DOUBLE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬럼ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작  성  일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uPhone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>aDef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uCheck</x:t>
-  </x:si>
-  <x:si>
-    <x:t>regDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tPrice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약일자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uGrade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tLevel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tDef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업자 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uType</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bDef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 연락처</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날짜시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bcid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bcDef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약금액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comTel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tImage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reservation 테이블 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Company Table key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Theme 테이블 키값(FK)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈퇴유무 true / false</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BoardComment 테이블 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A(관리자) / U(일반회원)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Company 테이블 키값(FK)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 타입</x:t>
+    <x:t>Null</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -612,7 +624,7 @@
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="18">
+  <x:cellXfs count="19">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -737,6 +749,9 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="2">
     <x:cellStyle name="표준" xfId="0" builtinId="0" iLevel="0"/>
@@ -748,7 +763,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -831,7 +845,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -866,7 +879,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -911,7 +923,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -955,7 +966,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1040,7 +1050,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1061,7 +1070,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1092,7 +1100,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1425,7 +1432,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
       <x:c r="A1" s="17" t="s">
-        <x:v>87</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B1" s="17"/>
       <x:c r="C1" s="17"/>
@@ -1439,36 +1446,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="15" t="s">
-        <x:v>81</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B2" s="15"/>
       <x:c r="C2" s="16" t="s">
-        <x:v>60</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D2" s="16"/>
       <x:c r="E2" s="16"/>
       <x:c r="F2" s="15" t="s">
-        <x:v>113</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G2" s="15"/>
       <x:c r="H2" s="15"/>
       <x:c r="I2" s="16" t="s">
-        <x:v>70</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J2" s="16"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="15" t="s">
-        <x:v>105</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B3" s="15"/>
       <x:c r="C3" s="16" t="s">
-        <x:v>57</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D3" s="16"/>
       <x:c r="E3" s="16"/>
       <x:c r="F3" s="15" t="s">
-        <x:v>88</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G3" s="15"/>
       <x:c r="H3" s="15"/>
@@ -1477,54 +1484,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="15" t="s">
-        <x:v>85</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B4" s="15"/>
       <x:c r="C4" s="16" t="s">
-        <x:v>91</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D4" s="16"/>
       <x:c r="E4" s="16"/>
       <x:c r="F4" s="15" t="s">
-        <x:v>78</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G4" s="15"/>
       <x:c r="H4" s="15"/>
       <x:c r="I4" s="16" t="s">
-        <x:v>13</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="J4" s="16"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>43</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>51</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>94</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>62</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>61</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>73</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>72</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -1532,21 +1539,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="5" t="s">
-        <x:v>33</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>92</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>58</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -1556,13 +1563,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="5" t="s">
-        <x:v>121</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C7" s="5" t="s">
-        <x:v>103</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>20</x:v>
@@ -1570,7 +1577,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -1580,13 +1587,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="5" t="s">
-        <x:v>96</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C8" s="9" t="s">
-        <x:v>144</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E8" s="4">
         <x:v>16</x:v>
@@ -1594,7 +1601,7 @@
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -1604,13 +1611,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="5" t="s">
-        <x:v>131</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C9" s="9" t="s">
-        <x:v>97</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E9" s="4">
         <x:v>20</x:v>
@@ -1618,7 +1625,7 @@
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="6"/>
@@ -1628,13 +1635,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="5" t="s">
-        <x:v>114</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C10" s="9" t="s">
-        <x:v>134</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E10" s="4">
         <x:v>13</x:v>
@@ -1642,11 +1649,11 @@
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="5" t="s">
-        <x:v>19</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -1654,27 +1661,27 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B11" s="9" t="s">
-        <x:v>120</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C11" s="9" t="s">
-        <x:v>101</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E11" s="4">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F11" s="4" t="s">
-        <x:v>50</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I11" s="7"/>
       <x:c r="J11" s="5" t="s">
-        <x:v>17</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -1682,27 +1689,27 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B12" s="9" t="s">
-        <x:v>130</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C12" s="8" t="s">
-        <x:v>153</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D12" s="4" t="s">
-        <x:v>86</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E12" s="7">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F12" s="7" t="s">
-        <x:v>40</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="G12" s="7"/>
       <x:c r="H12" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I12" s="7"/>
       <x:c r="J12" s="8" t="s">
-        <x:v>151</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -1710,13 +1717,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B13" s="9" t="s">
-        <x:v>116</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C13" s="8" t="s">
-        <x:v>79</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D13" s="4" t="s">
-        <x:v>93</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E13" s="7"/>
       <x:c r="F13" s="7" t="b">
@@ -1724,11 +1731,11 @@
       </x:c>
       <x:c r="G13" s="7"/>
       <x:c r="H13" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I13" s="7"/>
       <x:c r="J13" s="8" t="s">
-        <x:v>149</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -1736,19 +1743,19 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B14" s="9" t="s">
-        <x:v>117</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C14" s="8" t="s">
-        <x:v>136</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D14" s="7" t="s">
-        <x:v>66</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E14" s="7"/>
       <x:c r="F14" s="7"/>
       <x:c r="G14" s="7"/>
       <x:c r="H14" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I14" s="7"/>
       <x:c r="J14" s="8"/>
@@ -1803,42 +1810,42 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A20" s="12" t="s">
-        <x:v>106</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B20" s="12" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C20" s="13"/>
       <x:c r="D20" s="13"/>
@@ -1851,10 +1858,10 @@
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A21" s="12" t="s">
-        <x:v>95</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B21" s="12" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C21" s="14"/>
       <x:c r="D21" s="13"/>
@@ -1895,10 +1902,10 @@
   <x:sheetPr codeName="Sheet2">
     <x:tabColor rgb="ff70ad47"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J21"/>
+  <x:dimension ref="A1:J22"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="H14" activeCellId="0" sqref="H14:H14"/>
+      <x:selection activeCell="B10" activeCellId="0" sqref="B10:B10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
@@ -1918,7 +1925,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
       <x:c r="A1" s="17" t="s">
-        <x:v>87</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B1" s="17"/>
       <x:c r="C1" s="17"/>
@@ -1932,36 +1939,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="15" t="s">
-        <x:v>81</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B2" s="15"/>
       <x:c r="C2" s="16" t="s">
-        <x:v>60</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D2" s="16"/>
       <x:c r="E2" s="16"/>
       <x:c r="F2" s="15" t="s">
-        <x:v>113</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G2" s="15"/>
       <x:c r="H2" s="15"/>
       <x:c r="I2" s="16" t="s">
-        <x:v>70</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J2" s="16"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="15" t="s">
-        <x:v>105</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B3" s="15"/>
       <x:c r="C3" s="16" t="s">
-        <x:v>48</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D3" s="16"/>
       <x:c r="E3" s="16"/>
       <x:c r="F3" s="15" t="s">
-        <x:v>88</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G3" s="15"/>
       <x:c r="H3" s="15"/>
@@ -1970,54 +1977,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="15" t="s">
-        <x:v>85</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B4" s="15"/>
       <x:c r="C4" s="16" t="s">
-        <x:v>82</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D4" s="16"/>
       <x:c r="E4" s="16"/>
       <x:c r="F4" s="15" t="s">
-        <x:v>78</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G4" s="15"/>
       <x:c r="H4" s="15"/>
       <x:c r="I4" s="16" t="s">
-        <x:v>10</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="J4" s="16"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>43</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>51</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>94</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>62</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>61</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>73</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>72</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -2025,21 +2032,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
-        <x:v>36</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
-        <x:v>147</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>92</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>58</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -2049,13 +2056,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>125</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>127</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>20</x:v>
@@ -2063,7 +2070,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -2073,13 +2080,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
-        <x:v>69</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C8" s="10" t="s">
-        <x:v>71</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E8" s="4">
         <x:v>16</x:v>
@@ -2087,7 +2094,7 @@
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -2097,13 +2104,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="10" t="s">
-        <x:v>132</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>23</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E9" s="4">
         <x:v>20</x:v>
@@ -2111,168 +2118,182 @@
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="6"/>
     </x:row>
     <x:row r="10" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <x:c r="A10" s="7">
+      <x:c r="A10" s="4">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B10" s="10" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="C10" s="10" t="s">
-        <x:v>104</x:v>
+      <x:c r="B10" s="18" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C10" s="18" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E10" s="4">
-        <x:v>12</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <x:c r="A11" s="7">
-        <x:v>5</x:v>
+      <x:c r="A11" s="4">
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B11" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C11" s="10" t="s">
-        <x:v>34</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E11" s="4">
-        <x:v>100</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F11" s="4"/>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="I11" s="7"/>
-      <x:c r="J11" s="5"/>
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="I11" s="4"/>
+      <x:c r="J11" s="5" t="s">
+        <x:v>141</x:v>
+      </x:c>
     </x:row>
     <x:row r="12" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <x:c r="A12" s="7">
-        <x:v>6</x:v>
+      <x:c r="A12" s="4">
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B12" s="10" t="s">
-        <x:v>143</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C12" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D12" s="4" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="E12" s="7">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E12" s="4">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="F12" s="4"/>
+      <x:c r="G12" s="4"/>
+      <x:c r="H12" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="I12" s="7"/>
+      <x:c r="J12" s="5"/>
+    </x:row>
+    <x:row r="13" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <x:c r="A13" s="4">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B13" s="10" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C13" s="10" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D13" s="4" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E13" s="7">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="F12" s="7"/>
-      <x:c r="G12" s="7"/>
-      <x:c r="H12" s="4" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="I12" s="7"/>
-      <x:c r="J12" s="8" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <x:c r="A13" s="7">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B13" s="10" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="C13" s="10" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="D13" s="4" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="E13" s="7"/>
       <x:c r="F13" s="7"/>
       <x:c r="G13" s="7"/>
       <x:c r="H13" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I13" s="7"/>
-      <x:c r="J13" s="8"/>
+      <x:c r="J13" s="8" t="s">
+        <x:v>134</x:v>
+      </x:c>
     </x:row>
     <x:row r="14" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <x:c r="A14" s="7">
-        <x:v>8</x:v>
+      <x:c r="A14" s="4">
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B14" s="10" t="s">
-        <x:v>99</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C14" s="10" t="s">
-        <x:v>25</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D14" s="4" t="s">
-        <x:v>111</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E14" s="7"/>
       <x:c r="F14" s="7"/>
       <x:c r="G14" s="7"/>
       <x:c r="H14" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I14" s="7"/>
       <x:c r="J14" s="8"/>
     </x:row>
     <x:row r="15" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <x:c r="A15" s="7">
-        <x:v>9</x:v>
+      <x:c r="A15" s="4">
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B15" s="10" t="s">
-        <x:v>117</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C15" s="10" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="D15" s="7" t="s">
-        <x:v>66</x:v>
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D15" s="4" t="s">
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E15" s="7"/>
       <x:c r="F15" s="7"/>
       <x:c r="G15" s="7"/>
       <x:c r="H15" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I15" s="7"/>
       <x:c r="J15" s="8"/>
     </x:row>
     <x:row r="16" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <x:c r="A16" s="7"/>
-      <x:c r="B16" s="9"/>
-      <x:c r="C16" s="8"/>
-      <x:c r="D16" s="7"/>
+      <x:c r="A16" s="4">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B16" s="10" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C16" s="10" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D16" s="7" t="s">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="E16" s="7"/>
       <x:c r="F16" s="7"/>
       <x:c r="G16" s="7"/>
-      <x:c r="H16" s="7"/>
+      <x:c r="H16" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
       <x:c r="I16" s="7"/>
       <x:c r="J16" s="8"/>
     </x:row>
     <x:row r="17" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A17" s="7"/>
-      <x:c r="B17" s="8"/>
+      <x:c r="B17" s="9"/>
       <x:c r="C17" s="8"/>
       <x:c r="D17" s="7"/>
       <x:c r="E17" s="7"/>
@@ -2295,61 +2316,57 @@
       <x:c r="J18" s="8"/>
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <x:c r="A19" s="7" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="B19" s="8" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="C19" s="8" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="D19" s="7" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="E19" s="7" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="F19" s="7" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="G19" s="7" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="H19" s="7" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="I19" s="7" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="J19" s="8" t="s">
-        <x:v>65</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
-      <x:c r="A20" s="12" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="B20" s="12" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="C20" s="13"/>
-      <x:c r="D20" s="13"/>
-      <x:c r="E20" s="13"/>
-      <x:c r="F20" s="13"/>
-      <x:c r="G20" s="13"/>
-      <x:c r="H20" s="13"/>
-      <x:c r="I20" s="13"/>
-      <x:c r="J20" s="13"/>
-    </x:row>
-    <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
+      <x:c r="A19" s="7"/>
+      <x:c r="B19" s="8"/>
+      <x:c r="C19" s="8"/>
+      <x:c r="D19" s="7"/>
+      <x:c r="E19" s="7"/>
+      <x:c r="F19" s="7"/>
+      <x:c r="G19" s="7"/>
+      <x:c r="H19" s="7"/>
+      <x:c r="I19" s="7"/>
+      <x:c r="J19" s="8"/>
+    </x:row>
+    <x:row r="20" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <x:c r="A20" s="7" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="B20" s="8" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="C20" s="8" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="D20" s="7" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="E20" s="7" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="F20" s="7" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="G20" s="7" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="H20" s="7" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="I20" s="7" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="J20" s="8" t="s">
+        <x:v>123</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A21" s="12" t="s">
-        <x:v>95</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B21" s="12" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="C21" s="14"/>
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="C21" s="13"/>
       <x:c r="D21" s="13"/>
       <x:c r="E21" s="13"/>
       <x:c r="F21" s="13"/>
@@ -2358,12 +2375,28 @@
       <x:c r="I21" s="13"/>
       <x:c r="J21" s="13"/>
     </x:row>
+    <x:row r="22" spans="1:10" ht="224.09999999999999" customHeight="1">
+      <x:c r="A22" s="12" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B22" s="12" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="C22" s="14"/>
+      <x:c r="D22" s="13"/>
+      <x:c r="E22" s="13"/>
+      <x:c r="F22" s="13"/>
+      <x:c r="G22" s="13"/>
+      <x:c r="H22" s="13"/>
+      <x:c r="I22" s="13"/>
+      <x:c r="J22" s="13"/>
+    </x:row>
   </x:sheetData>
   <x:mergeCells count="17">
-    <x:mergeCell ref="A20:B20"/>
-    <x:mergeCell ref="C20:J20"/>
     <x:mergeCell ref="A21:B21"/>
     <x:mergeCell ref="C21:J21"/>
+    <x:mergeCell ref="A22:B22"/>
+    <x:mergeCell ref="C22:J22"/>
     <x:mergeCell ref="A4:B4"/>
     <x:mergeCell ref="F4:H4"/>
     <x:mergeCell ref="I4:J4"/>
@@ -2411,7 +2444,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
       <x:c r="A1" s="17" t="s">
-        <x:v>87</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B1" s="17"/>
       <x:c r="C1" s="17"/>
@@ -2425,36 +2458,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="15" t="s">
-        <x:v>81</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B2" s="15"/>
       <x:c r="C2" s="16" t="s">
-        <x:v>60</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D2" s="16"/>
       <x:c r="E2" s="16"/>
       <x:c r="F2" s="15" t="s">
-        <x:v>113</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G2" s="15"/>
       <x:c r="H2" s="15"/>
       <x:c r="I2" s="16" t="s">
-        <x:v>70</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J2" s="16"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="15" t="s">
-        <x:v>105</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B3" s="15"/>
       <x:c r="C3" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D3" s="16"/>
       <x:c r="E3" s="16"/>
       <x:c r="F3" s="15" t="s">
-        <x:v>88</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G3" s="15"/>
       <x:c r="H3" s="15"/>
@@ -2463,54 +2496,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="15" t="s">
-        <x:v>85</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B4" s="15"/>
       <x:c r="C4" s="16" t="s">
-        <x:v>110</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D4" s="16"/>
       <x:c r="E4" s="16"/>
       <x:c r="F4" s="15" t="s">
-        <x:v>78</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G4" s="15"/>
       <x:c r="H4" s="15"/>
       <x:c r="I4" s="16" t="s">
-        <x:v>4</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="J4" s="16"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>43</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>51</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>94</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>62</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>61</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>73</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>72</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -2518,21 +2551,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
-        <x:v>35</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>92</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>58</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -2542,13 +2575,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>123</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>39</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>20</x:v>
@@ -2556,7 +2589,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -2566,13 +2599,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
-        <x:v>76</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C8" s="10" t="s">
-        <x:v>42</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E8" s="4">
         <x:v>10</x:v>
@@ -2580,7 +2613,7 @@
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -2590,19 +2623,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="10" t="s">
-        <x:v>122</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>37</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>53</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="6"/>
@@ -2612,19 +2645,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="10" t="s">
-        <x:v>135</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>45</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>53</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="5"/>
@@ -2634,19 +2667,19 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B11" s="10" t="s">
-        <x:v>118</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C11" s="10" t="s">
-        <x:v>54</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>53</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E11" s="4"/>
       <x:c r="F11" s="4"/>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I11" s="7"/>
       <x:c r="J11" s="5"/>
@@ -2656,13 +2689,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B12" s="10" t="s">
-        <x:v>126</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C12" s="10" t="s">
-        <x:v>30</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D12" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E12" s="7">
         <x:v>500</x:v>
@@ -2670,7 +2703,7 @@
       <x:c r="F12" s="7"/>
       <x:c r="G12" s="7"/>
       <x:c r="H12" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I12" s="7"/>
       <x:c r="J12" s="8"/>
@@ -2680,19 +2713,19 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B13" s="10" t="s">
-        <x:v>98</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C13" s="10" t="s">
-        <x:v>38</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D13" s="4" t="s">
-        <x:v>53</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E13" s="7"/>
       <x:c r="F13" s="7"/>
       <x:c r="G13" s="7"/>
       <x:c r="H13" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I13" s="7"/>
       <x:c r="J13" s="8"/>
@@ -2702,13 +2735,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B14" s="10" t="s">
-        <x:v>145</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C14" s="10" t="s">
-        <x:v>59</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D14" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E14" s="7">
         <x:v>100</x:v>
@@ -2716,7 +2749,7 @@
       <x:c r="F14" s="7"/>
       <x:c r="G14" s="7"/>
       <x:c r="H14" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I14" s="7"/>
       <x:c r="J14" s="8"/>
@@ -2726,21 +2759,21 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B15" s="10" t="s">
-        <x:v>36</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C15" s="10" t="s">
-        <x:v>152</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D15" s="4" t="s">
-        <x:v>92</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E15" s="7"/>
       <x:c r="F15" s="7"/>
       <x:c r="G15" s="7" t="s">
-        <x:v>56</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H15" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I15" s="7"/>
       <x:c r="J15" s="8"/>
@@ -2750,19 +2783,19 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B16" s="10" t="s">
-        <x:v>117</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C16" s="10" t="s">
-        <x:v>136</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D16" s="7" t="s">
-        <x:v>66</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E16" s="7"/>
       <x:c r="F16" s="7"/>
       <x:c r="G16" s="7"/>
       <x:c r="H16" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I16" s="7"/>
       <x:c r="J16" s="8"/>
@@ -2793,42 +2826,42 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A20" s="12" t="s">
-        <x:v>106</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B20" s="12" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C20" s="13"/>
       <x:c r="D20" s="13"/>
@@ -2841,10 +2874,10 @@
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A21" s="12" t="s">
-        <x:v>95</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B21" s="12" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C21" s="14"/>
       <x:c r="D21" s="13"/>
@@ -2908,7 +2941,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
       <x:c r="A1" s="17" t="s">
-        <x:v>87</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B1" s="17"/>
       <x:c r="C1" s="17"/>
@@ -2922,36 +2955,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="15" t="s">
-        <x:v>81</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B2" s="15"/>
       <x:c r="C2" s="16" t="s">
-        <x:v>60</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D2" s="16"/>
       <x:c r="E2" s="16"/>
       <x:c r="F2" s="15" t="s">
-        <x:v>113</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G2" s="15"/>
       <x:c r="H2" s="15"/>
       <x:c r="I2" s="16" t="s">
-        <x:v>70</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J2" s="16"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="15" t="s">
-        <x:v>105</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B3" s="15"/>
       <x:c r="C3" s="16" t="s">
-        <x:v>47</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D3" s="16"/>
       <x:c r="E3" s="16"/>
       <x:c r="F3" s="15" t="s">
-        <x:v>88</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G3" s="15"/>
       <x:c r="H3" s="15"/>
@@ -2960,54 +2993,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="15" t="s">
-        <x:v>85</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B4" s="15"/>
       <x:c r="C4" s="16" t="s">
-        <x:v>67</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D4" s="16"/>
       <x:c r="E4" s="16"/>
       <x:c r="F4" s="15" t="s">
-        <x:v>78</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G4" s="15"/>
       <x:c r="H4" s="15"/>
       <x:c r="I4" s="16" t="s">
-        <x:v>5</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="J4" s="16"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>43</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>51</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>94</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>62</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>61</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>73</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>72</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -3015,21 +3048,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
-        <x:v>41</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C6" s="10" t="s">
-        <x:v>146</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>92</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>58</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -3039,23 +3072,23 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>33</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>6</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>20</x:v>
       </x:c>
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4" t="s">
-        <x:v>56</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H7" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -3065,21 +3098,21 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
-        <x:v>35</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C8" s="5" t="s">
-        <x:v>148</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>92</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E8" s="4"/>
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4" t="s">
-        <x:v>56</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H8" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -3089,19 +3122,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="10" t="s">
-        <x:v>100</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>142</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>53</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="5"/>
@@ -3111,19 +3144,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="10" t="s">
-        <x:v>141</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>119</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>84</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="11"/>
@@ -3133,19 +3166,19 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B11" s="10" t="s">
-        <x:v>80</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C11" s="10" t="s">
-        <x:v>140</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E11" s="4"/>
       <x:c r="F11" s="4"/>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I11" s="7"/>
       <x:c r="J11" s="5"/>
@@ -3155,19 +3188,19 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B12" s="10" t="s">
-        <x:v>124</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C12" s="10" t="s">
-        <x:v>45</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D12" s="4" t="s">
-        <x:v>53</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E12" s="4"/>
       <x:c r="F12" s="4"/>
       <x:c r="G12" s="4"/>
       <x:c r="H12" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I12" s="7"/>
       <x:c r="J12" s="8"/>
@@ -3177,19 +3210,19 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B13" s="10" t="s">
-        <x:v>117</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C13" s="10" t="s">
-        <x:v>136</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D13" s="4" t="s">
-        <x:v>66</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E13" s="7"/>
       <x:c r="F13" s="7"/>
       <x:c r="G13" s="7"/>
       <x:c r="H13" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I13" s="7"/>
       <x:c r="J13" s="8"/>
@@ -3256,42 +3289,42 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A20" s="12" t="s">
-        <x:v>106</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B20" s="12" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C20" s="13"/>
       <x:c r="D20" s="13"/>
@@ -3304,10 +3337,10 @@
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A21" s="12" t="s">
-        <x:v>95</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B21" s="12" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C21" s="14"/>
       <x:c r="D21" s="13"/>
@@ -3371,7 +3404,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
       <x:c r="A1" s="17" t="s">
-        <x:v>87</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B1" s="17"/>
       <x:c r="C1" s="17"/>
@@ -3385,36 +3418,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="15" t="s">
-        <x:v>81</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B2" s="15"/>
       <x:c r="C2" s="16" t="s">
-        <x:v>60</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D2" s="16"/>
       <x:c r="E2" s="16"/>
       <x:c r="F2" s="15" t="s">
-        <x:v>113</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G2" s="15"/>
       <x:c r="H2" s="15"/>
       <x:c r="I2" s="16" t="s">
-        <x:v>70</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J2" s="16"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="15" t="s">
-        <x:v>105</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B3" s="15"/>
       <x:c r="C3" s="16" t="s">
-        <x:v>64</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D3" s="16"/>
       <x:c r="E3" s="16"/>
       <x:c r="F3" s="15" t="s">
-        <x:v>88</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G3" s="15"/>
       <x:c r="H3" s="15"/>
@@ -3423,54 +3456,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="15" t="s">
-        <x:v>85</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B4" s="15"/>
       <x:c r="C4" s="16" t="s">
-        <x:v>90</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D4" s="16"/>
       <x:c r="E4" s="16"/>
       <x:c r="F4" s="15" t="s">
-        <x:v>78</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G4" s="15"/>
       <x:c r="H4" s="15"/>
       <x:c r="I4" s="16" t="s">
-        <x:v>11</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="J4" s="16"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>43</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>51</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>94</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>62</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>61</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>73</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>72</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -3478,21 +3511,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
-        <x:v>27</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C6" s="10" t="s">
-        <x:v>14</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>92</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>58</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -3502,13 +3535,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>139</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>26</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>100</x:v>
@@ -3516,7 +3549,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -3526,13 +3559,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
-        <x:v>133</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C8" s="10" t="s">
-        <x:v>63</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E8" s="4">
         <x:v>3000</x:v>
@@ -3540,7 +3573,7 @@
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -3550,13 +3583,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="10" t="s">
-        <x:v>75</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>108</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E9" s="4">
         <x:v>10</x:v>
@@ -3564,7 +3597,7 @@
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="5"/>
@@ -3574,21 +3607,21 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="10" t="s">
-        <x:v>33</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>15</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>92</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4" t="s">
-        <x:v>56</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H10" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="11"/>
@@ -3598,19 +3631,19 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B11" s="10" t="s">
-        <x:v>117</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C11" s="10" t="s">
-        <x:v>136</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>66</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E11" s="4"/>
       <x:c r="F11" s="4"/>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I11" s="7"/>
       <x:c r="J11" s="5"/>
@@ -3701,42 +3734,42 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A20" s="12" t="s">
-        <x:v>106</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B20" s="12" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C20" s="13"/>
       <x:c r="D20" s="13"/>
@@ -3749,10 +3782,10 @@
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A21" s="12" t="s">
-        <x:v>95</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B21" s="12" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C21" s="14"/>
       <x:c r="D21" s="13"/>
@@ -3816,7 +3849,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
       <x:c r="A1" s="17" t="s">
-        <x:v>87</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B1" s="17"/>
       <x:c r="C1" s="17"/>
@@ -3830,36 +3863,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="15" t="s">
-        <x:v>81</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B2" s="15"/>
       <x:c r="C2" s="16" t="s">
-        <x:v>60</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D2" s="16"/>
       <x:c r="E2" s="16"/>
       <x:c r="F2" s="15" t="s">
-        <x:v>113</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G2" s="15"/>
       <x:c r="H2" s="15"/>
       <x:c r="I2" s="16" t="s">
-        <x:v>70</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J2" s="16"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="15" t="s">
-        <x:v>105</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B3" s="15"/>
       <x:c r="C3" s="16" t="s">
-        <x:v>46</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D3" s="16"/>
       <x:c r="E3" s="16"/>
       <x:c r="F3" s="15" t="s">
-        <x:v>88</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G3" s="15"/>
       <x:c r="H3" s="15"/>
@@ -3868,54 +3901,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="15" t="s">
-        <x:v>85</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B4" s="15"/>
       <x:c r="C4" s="16" t="s">
-        <x:v>2</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D4" s="16"/>
       <x:c r="E4" s="16"/>
       <x:c r="F4" s="15" t="s">
-        <x:v>78</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G4" s="15"/>
       <x:c r="H4" s="15"/>
       <x:c r="I4" s="16" t="s">
-        <x:v>1</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="J4" s="16"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>43</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>51</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>94</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>62</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>61</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>73</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>72</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -3923,21 +3956,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
-        <x:v>137</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C6" s="10" t="s">
-        <x:v>150</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>92</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>58</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -3947,13 +3980,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>138</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>63</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>500</x:v>
@@ -3961,7 +3994,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -3971,21 +4004,21 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
-        <x:v>33</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C8" s="10" t="s">
-        <x:v>15</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>92</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E8" s="4"/>
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4" t="s">
-        <x:v>56</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H8" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -3995,21 +4028,21 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="10" t="s">
-        <x:v>27</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>21</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>92</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4" t="s">
-        <x:v>56</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H9" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="5"/>
@@ -4019,19 +4052,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="10" t="s">
-        <x:v>117</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>136</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>66</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="11"/>
@@ -4134,42 +4167,42 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A20" s="12" t="s">
-        <x:v>106</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B20" s="12" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C20" s="13"/>
       <x:c r="D20" s="13"/>
@@ -4182,10 +4215,10 @@
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A21" s="12" t="s">
-        <x:v>95</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B21" s="12" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C21" s="14"/>
       <x:c r="D21" s="13"/>
@@ -4249,7 +4282,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
       <x:c r="A1" s="17" t="s">
-        <x:v>87</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B1" s="17"/>
       <x:c r="C1" s="17"/>
@@ -4263,36 +4296,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="15" t="s">
-        <x:v>81</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B2" s="15"/>
       <x:c r="C2" s="16" t="s">
-        <x:v>60</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D2" s="16"/>
       <x:c r="E2" s="16"/>
       <x:c r="F2" s="15" t="s">
-        <x:v>113</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G2" s="15"/>
       <x:c r="H2" s="15"/>
       <x:c r="I2" s="16" t="s">
-        <x:v>70</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J2" s="16"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="15" t="s">
-        <x:v>105</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B3" s="15"/>
       <x:c r="C3" s="16" t="s">
-        <x:v>49</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D3" s="16"/>
       <x:c r="E3" s="16"/>
       <x:c r="F3" s="15" t="s">
-        <x:v>88</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G3" s="15"/>
       <x:c r="H3" s="15"/>
@@ -4301,54 +4334,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="15" t="s">
-        <x:v>85</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B4" s="15"/>
       <x:c r="C4" s="16" t="s">
-        <x:v>77</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D4" s="16"/>
       <x:c r="E4" s="16"/>
       <x:c r="F4" s="15" t="s">
-        <x:v>78</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G4" s="15"/>
       <x:c r="H4" s="15"/>
       <x:c r="I4" s="16" t="s">
-        <x:v>0</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="J4" s="16"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>43</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>51</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>94</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>62</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>61</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>73</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>72</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -4356,21 +4389,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C6" s="10" t="s">
-        <x:v>9</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>92</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>58</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -4380,13 +4413,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>128</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>26</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>100</x:v>
@@ -4394,7 +4427,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -4404,13 +4437,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
-        <x:v>107</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C8" s="10" t="s">
-        <x:v>63</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E8" s="4">
         <x:v>3000</x:v>
@@ -4418,7 +4451,7 @@
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -4428,21 +4461,21 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="10" t="s">
-        <x:v>33</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>15</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>92</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4" t="s">
-        <x:v>56</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H9" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="5"/>
@@ -4452,21 +4485,21 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="10" t="s">
-        <x:v>36</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>152</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>92</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4" t="s">
-        <x:v>56</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H10" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="11"/>
@@ -4476,19 +4509,19 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B11" s="10" t="s">
-        <x:v>117</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C11" s="10" t="s">
-        <x:v>136</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>66</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E11" s="4"/>
       <x:c r="F11" s="4"/>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I11" s="7"/>
       <x:c r="J11" s="5"/>
@@ -4579,42 +4612,42 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A20" s="12" t="s">
-        <x:v>106</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B20" s="12" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C20" s="13"/>
       <x:c r="D20" s="13"/>
@@ -4627,10 +4660,10 @@
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A21" s="12" t="s">
-        <x:v>95</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B21" s="12" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C21" s="14"/>
       <x:c r="D21" s="13"/>
@@ -4694,7 +4727,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
       <x:c r="A1" s="17" t="s">
-        <x:v>87</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B1" s="17"/>
       <x:c r="C1" s="17"/>
@@ -4708,36 +4741,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="15" t="s">
-        <x:v>81</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B2" s="15"/>
       <x:c r="C2" s="16" t="s">
-        <x:v>60</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D2" s="16"/>
       <x:c r="E2" s="16"/>
       <x:c r="F2" s="15" t="s">
-        <x:v>113</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G2" s="15"/>
       <x:c r="H2" s="15"/>
       <x:c r="I2" s="16" t="s">
-        <x:v>70</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J2" s="16"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="15" t="s">
-        <x:v>105</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B3" s="15"/>
       <x:c r="C3" s="16" t="s">
-        <x:v>44</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D3" s="16"/>
       <x:c r="E3" s="16"/>
       <x:c r="F3" s="15" t="s">
-        <x:v>88</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G3" s="15"/>
       <x:c r="H3" s="15"/>
@@ -4746,54 +4779,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="15" t="s">
-        <x:v>85</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B4" s="15"/>
       <x:c r="C4" s="16" t="s">
-        <x:v>83</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D4" s="16"/>
       <x:c r="E4" s="16"/>
       <x:c r="F4" s="15" t="s">
-        <x:v>78</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G4" s="15"/>
       <x:c r="H4" s="15"/>
       <x:c r="I4" s="16" t="s">
-        <x:v>8</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="J4" s="16"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>43</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>51</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>94</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>62</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>61</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>73</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>72</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -4801,21 +4834,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
-        <x:v>28</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C6" s="10" t="s">
-        <x:v>12</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>92</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>58</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -4825,13 +4858,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>115</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>63</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>1000</x:v>
@@ -4839,7 +4872,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -4849,21 +4882,21 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C8" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>92</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E8" s="4"/>
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4" t="s">
-        <x:v>56</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H8" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -4873,21 +4906,21 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="10" t="s">
-        <x:v>36</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>22</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>92</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4" t="s">
-        <x:v>56</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H9" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="5"/>
@@ -4897,19 +4930,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="10" t="s">
-        <x:v>117</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>136</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>66</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="11"/>
@@ -5012,42 +5045,42 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A20" s="12" t="s">
-        <x:v>106</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B20" s="12" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C20" s="13"/>
       <x:c r="D20" s="13"/>
@@ -5060,10 +5093,10 @@
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A21" s="12" t="s">
-        <x:v>95</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B21" s="12" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C21" s="14"/>
       <x:c r="D21" s="13"/>

--- a/exiter/etc/테이블DB.xlsx
+++ b/exiter/etc/테이블DB.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fileVersion appName="HCell" lastEdited="11.0" lowestEdited="11.0" rupBuild="0.3321"/>
+  <x:fileVersion appName="HCell" lastEdited="11.0" lowestEdited="11.0" rupBuild="0.2292"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NCS\escape\exiter\etc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NCSDongHwan\eclipse workspace\escape\exiter\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11700" tabRatio="500" activeTab="1"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11820" tabRatio="500" activeTab="1"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="User" sheetId="1" r:id="rId4"/>
@@ -26,480 +26,498 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="158">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="164">
+  <x:si>
+    <x:t>comAddress4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도로명주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글정보를 가지는 테이블</x:t>
+  </x:si>
   <x:si>
     <x:t>지점이 없는 경우 null</x:t>
   </x:si>
   <x:si>
+    <x:t>테마정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BoardComment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user 테이블 키값(FK)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Table key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Question 테이블 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>질문정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업자정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Theme Table key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>답변정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Board 테이블 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer 테이블 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Question 테이블 키값(FK), 질문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Board 테이블 키값(FK), 게시글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user 테이블 키값(FK), 작성자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방린이 - 방소년 - 방으른 - 엑시터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Company 테이블 키값(FK), 작성자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xxx-xxxx-xxxx(하이픈포함)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xxx-xxxx-xxxx (하이픈포함)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comAddress1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.09.12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업자 비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TIMESTAMP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comPocus</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comPasswd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Question</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Not Null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tCategory</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NULLABLE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bCategory</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Major Code</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reservation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업자 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bDef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tLevel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bcid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tDef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약금액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날짜시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comTel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 연락처</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bcDef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tImage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 정의서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬럼ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qDef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uPasswd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Company</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈퇴 유무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Theme</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로젝트명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rTime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작  성  자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BOOLEAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인  덱  스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DOUBLE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BIGINT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Board</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aDef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uCheck</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약일자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업자번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모  듈  명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 등급</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tPrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업무규칙</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TIME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uGrade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uPhone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rPrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TYPE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작  성  일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>regDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tTime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카테고리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Company Table key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A(관리자) / U(일반회원)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Company 테이블 키값(FK)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Theme 테이블 키값(FK)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈퇴유무 true / false</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reservation 테이블 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BoardComment 테이블 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방린이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>난이도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연락처</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>KEY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>줄거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>U</x:t>
+  </x:si>
+  <x:si>
+    <x:t>길이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인원수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엑시터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테마명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테마</x:t>
+  </x:si>
+  <x:si>
+    <x:t>좌표x</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매장명</x:t>
+  </x:si>
+  <x:si>
     <x:t>지점명</x:t>
   </x:si>
   <x:si>
-    <x:t>comPocus</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Question</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TIMESTAMP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.09.12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comPasswd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comAddress</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업자 비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Not Null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NULLABLE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bCategory</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tCategory</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reservation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Major Code</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tLevel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bDef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업자 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uType</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날짜시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tImage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 연락처</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bcDef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tDef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bcid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약금액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comTel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Answer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈퇴 유무</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로젝트명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rTime</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Company</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Theme</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작  성  자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BOOLEAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uPasswd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인  덱  스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DOUBLE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 정의서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬럼ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qDef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Board</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BIGINT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TYPE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rPrice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업무규칙</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tTime</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업자번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 등급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모  듈  명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카테고리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TIME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tPrice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약일자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uGrade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uPhone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작  성  일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>aDef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uCheck</x:t>
-  </x:si>
-  <x:si>
-    <x:t>regDate</x:t>
+    <x:t>좌표y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제목</x:t>
   </x:si>
   <x:si>
     <x:t>비고</x:t>
   </x:si>
   <x:si>
-    <x:t>매장명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>좌표y</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제목</x:t>
-  </x:si>
-  <x:si>
     <x:t>bid</x:t>
   </x:si>
   <x:si>
+    <x:t>사용자</x:t>
+  </x:si>
+  <x:si>
     <x:t>이미지</x:t>
   </x:si>
   <x:si>
-    <x:t>사용자</x:t>
+    <x:t>NO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>답변</x:t>
+  </x:si>
+  <x:si>
+    <x:t>질문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬럼명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장르</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INT</x:t>
   </x:si>
   <x:si>
     <x:t>aid</x:t>
   </x:si>
   <x:si>
-    <x:t>NO</x:t>
+    <x:t>qid</x:t>
   </x:si>
   <x:si>
     <x:t>사업자</x:t>
   </x:si>
   <x:si>
-    <x:t>예약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>질문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬럼명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>답변</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장르</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>줄거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테마명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>난이도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인원수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>U</x:t>
-  </x:si>
-  <x:si>
-    <x:t>좌표x</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테마</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연락처</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방린이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엑시터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>길이</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>KEY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reservation 테이블 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Theme 테이블 키값(FK)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈퇴유무 true / false</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BoardComment 테이블 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A(관리자) / U(일반회원)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Company Table key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Company 테이블 키값(FK)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xxx-xxxx-xxxx (하이픈포함)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Board 테이블 키값(FK), 게시글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Company 테이블 키값(FK), 작성자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Question 테이블 키값(FK), 질문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방린이 - 방소년 - 방으른 - 엑시터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xxx-xxxx-xxxx(하이픈포함)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user 테이블 키값(FK), 작성자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xxx-xx-xxxxx (하이픈포함)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>질문정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BoardComment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테마정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user 테이블 키값(FK)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User Table key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Question 테이블 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업자정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Theme Table key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>답변정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Board 테이블 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Answer 테이블 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Null</x:t>
+    <x:t>xxxxxxxxxx(하이픈 미포함) 10자리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지번주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상세주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comAddress2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comAddress3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우편주소</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -589,30 +607,30 @@
   <x:borders count="2">
     <x:border>
       <x:left>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:right>
       <x:top>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left style="thin">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right style="thin">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:right>
       <x:top style="thin">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom style="thin">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:bottom>
     </x:border>
   </x:borders>
@@ -691,6 +709,9 @@
     <x:xf numFmtId="20" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
@@ -749,9 +770,6 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="2">
     <x:cellStyle name="표준" xfId="0" builtinId="0" iLevel="0"/>
@@ -973,10 +991,10 @@
           </x:font>
           <x:border>
             <x:left>
-              <x:color auto="1"/>
+              <x:color indexed="64"/>
             </x:left>
             <x:right>
-              <x:color auto="1"/>
+              <x:color indexed="64"/>
             </x:right>
             <x:top style="medium">
               <x:color rgb="ff6182d6"/>
@@ -985,10 +1003,10 @@
               <x:color rgb="ff6182d6"/>
             </x:bottom>
             <x:vertical>
-              <x:color auto="1"/>
+              <x:color indexed="64"/>
             </x:vertical>
             <x:horizontal>
-              <x:color auto="1"/>
+              <x:color indexed="64"/>
             </x:horizontal>
           </x:border>
         </x:dxf>
@@ -1000,10 +1018,10 @@
           </x:font>
           <x:border>
             <x:left>
-              <x:color auto="1"/>
+              <x:color indexed="64"/>
             </x:left>
             <x:right>
-              <x:color auto="1"/>
+              <x:color indexed="64"/>
             </x:right>
             <x:top style="medium">
               <x:color rgb="ff6182d6"/>
@@ -1012,10 +1030,10 @@
               <x:color rgb="ff6182d6"/>
             </x:bottom>
             <x:vertical>
-              <x:color auto="1"/>
+              <x:color indexed="64"/>
             </x:vertical>
             <x:horizontal>
-              <x:color auto="1"/>
+              <x:color indexed="64"/>
             </x:horizontal>
           </x:border>
         </x:dxf>
@@ -1431,107 +1449,107 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A1" s="17" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="B1" s="17"/>
-      <x:c r="C1" s="17"/>
-      <x:c r="D1" s="17"/>
-      <x:c r="E1" s="17"/>
-      <x:c r="F1" s="17"/>
-      <x:c r="G1" s="17"/>
-      <x:c r="H1" s="17"/>
-      <x:c r="I1" s="17"/>
-      <x:c r="J1" s="17"/>
+      <x:c r="A1" s="18" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B1" s="18"/>
+      <x:c r="C1" s="18"/>
+      <x:c r="D1" s="18"/>
+      <x:c r="E1" s="18"/>
+      <x:c r="F1" s="18"/>
+      <x:c r="G1" s="18"/>
+      <x:c r="H1" s="18"/>
+      <x:c r="I1" s="18"/>
+      <x:c r="J1" s="18"/>
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A2" s="15" t="s">
+      <x:c r="A2" s="16" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B2" s="16"/>
+      <x:c r="C2" s="17" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="D2" s="17"/>
+      <x:c r="E2" s="17"/>
+      <x:c r="F2" s="16" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="G2" s="16"/>
+      <x:c r="H2" s="16"/>
+      <x:c r="I2" s="17" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J2" s="17"/>
+    </x:row>
+    <x:row r="3" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A3" s="16" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B3" s="16"/>
+      <x:c r="C3" s="17" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D3" s="17"/>
+      <x:c r="E3" s="17"/>
+      <x:c r="F3" s="16" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="G3" s="16"/>
+      <x:c r="H3" s="16"/>
+      <x:c r="I3" s="17"/>
+      <x:c r="J3" s="17"/>
+    </x:row>
+    <x:row r="4" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A4" s="16" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B4" s="16"/>
+      <x:c r="C4" s="17" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D4" s="17"/>
+      <x:c r="E4" s="17"/>
+      <x:c r="F4" s="16" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="B2" s="15"/>
-      <x:c r="C2" s="16" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="D2" s="16"/>
-      <x:c r="E2" s="16"/>
-      <x:c r="F2" s="15" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G2" s="15"/>
-      <x:c r="H2" s="15"/>
-      <x:c r="I2" s="16" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="J2" s="16"/>
-    </x:row>
-    <x:row r="3" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A3" s="15" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="B3" s="15"/>
-      <x:c r="C3" s="16" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="D3" s="16"/>
-      <x:c r="E3" s="16"/>
-      <x:c r="F3" s="15" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="G3" s="15"/>
-      <x:c r="H3" s="15"/>
-      <x:c r="I3" s="16"/>
-      <x:c r="J3" s="16"/>
-    </x:row>
-    <x:row r="4" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A4" s="15" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="B4" s="15"/>
-      <x:c r="C4" s="16" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="D4" s="16"/>
-      <x:c r="E4" s="16"/>
-      <x:c r="F4" s="15" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="G4" s="15"/>
-      <x:c r="H4" s="15"/>
-      <x:c r="I4" s="16" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="J4" s="16"/>
+      <x:c r="G4" s="16"/>
+      <x:c r="H4" s="16"/>
+      <x:c r="I4" s="17" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="J4" s="17"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>92</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>59</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>98</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>64</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>122</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>96</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>124</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>84</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -1539,21 +1557,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="5" t="s">
-        <x:v>101</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
-        <x:v>148</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>63</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>119</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -1563,13 +1581,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="5" t="s">
-        <x:v>40</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C7" s="5" t="s">
-        <x:v>68</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>52</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>20</x:v>
@@ -1577,7 +1595,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -1587,13 +1605,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="5" t="s">
-        <x:v>55</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C8" s="9" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>52</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E8" s="4">
         <x:v>16</x:v>
@@ -1601,7 +1619,7 @@
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -1611,13 +1629,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="5" t="s">
-        <x:v>32</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C9" s="9" t="s">
-        <x:v>74</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>52</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E9" s="4">
         <x:v>20</x:v>
@@ -1625,7 +1643,7 @@
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="6"/>
@@ -1635,13 +1653,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="5" t="s">
-        <x:v>79</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C10" s="9" t="s">
-        <x:v>24</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>52</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E10" s="4">
         <x:v>13</x:v>
@@ -1649,11 +1667,11 @@
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="5" t="s">
-        <x:v>139</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -1661,27 +1679,27 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B11" s="9" t="s">
-        <x:v>78</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C11" s="9" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="D11" s="4" t="s">
         <x:v>70</x:v>
-      </x:c>
-      <x:c r="D11" s="4" t="s">
-        <x:v>52</x:v>
       </x:c>
       <x:c r="E11" s="4">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F11" s="4" t="s">
-        <x:v>118</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I11" s="7"/>
       <x:c r="J11" s="5" t="s">
-        <x:v>138</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -1689,27 +1707,27 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B12" s="9" t="s">
-        <x:v>20</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C12" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D12" s="4" t="s">
-        <x:v>49</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E12" s="7">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F12" s="7" t="s">
-        <x:v>112</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="G12" s="7"/>
       <x:c r="H12" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I12" s="7"/>
       <x:c r="J12" s="8" t="s">
-        <x:v>131</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -1717,13 +1735,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B13" s="9" t="s">
-        <x:v>82</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C13" s="8" t="s">
-        <x:v>43</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D13" s="4" t="s">
-        <x:v>54</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E13" s="7"/>
       <x:c r="F13" s="7" t="b">
@@ -1731,11 +1749,11 @@
       </x:c>
       <x:c r="G13" s="7"/>
       <x:c r="H13" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I13" s="7"/>
       <x:c r="J13" s="8" t="s">
-        <x:v>129</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -1743,19 +1761,19 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B14" s="9" t="s">
-        <x:v>83</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C14" s="8" t="s">
-        <x:v>21</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D14" s="7" t="s">
-        <x:v>4</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E14" s="7"/>
       <x:c r="F14" s="7"/>
       <x:c r="G14" s="7"/>
       <x:c r="H14" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I14" s="7"/>
       <x:c r="J14" s="8"/>
@@ -1810,67 +1828,67 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
-      <x:c r="A20" s="12" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="B20" s="12" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="C20" s="13"/>
-      <x:c r="D20" s="13"/>
-      <x:c r="E20" s="13"/>
-      <x:c r="F20" s="13"/>
-      <x:c r="G20" s="13"/>
-      <x:c r="H20" s="13"/>
-      <x:c r="I20" s="13"/>
-      <x:c r="J20" s="13"/>
+      <x:c r="A20" s="13" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B20" s="13" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C20" s="14"/>
+      <x:c r="D20" s="14"/>
+      <x:c r="E20" s="14"/>
+      <x:c r="F20" s="14"/>
+      <x:c r="G20" s="14"/>
+      <x:c r="H20" s="14"/>
+      <x:c r="I20" s="14"/>
+      <x:c r="J20" s="14"/>
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
-      <x:c r="A21" s="12" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="B21" s="12" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="C21" s="14"/>
-      <x:c r="D21" s="13"/>
-      <x:c r="E21" s="13"/>
-      <x:c r="F21" s="13"/>
-      <x:c r="G21" s="13"/>
-      <x:c r="H21" s="13"/>
-      <x:c r="I21" s="13"/>
-      <x:c r="J21" s="13"/>
+      <x:c r="A21" s="13" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="B21" s="13" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C21" s="15"/>
+      <x:c r="D21" s="14"/>
+      <x:c r="E21" s="14"/>
+      <x:c r="F21" s="14"/>
+      <x:c r="G21" s="14"/>
+      <x:c r="H21" s="14"/>
+      <x:c r="I21" s="14"/>
+      <x:c r="J21" s="14"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="17">
@@ -1905,7 +1923,7 @@
   <x:dimension ref="A1:J22"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B10" activeCellId="0" sqref="B10:B10"/>
+      <x:selection activeCell="N15" activeCellId="0" sqref="N15:N15"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
@@ -1924,107 +1942,107 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A1" s="17" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="B1" s="17"/>
-      <x:c r="C1" s="17"/>
-      <x:c r="D1" s="17"/>
-      <x:c r="E1" s="17"/>
-      <x:c r="F1" s="17"/>
-      <x:c r="G1" s="17"/>
-      <x:c r="H1" s="17"/>
-      <x:c r="I1" s="17"/>
-      <x:c r="J1" s="17"/>
+      <x:c r="A1" s="18" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B1" s="18"/>
+      <x:c r="C1" s="18"/>
+      <x:c r="D1" s="18"/>
+      <x:c r="E1" s="18"/>
+      <x:c r="F1" s="18"/>
+      <x:c r="G1" s="18"/>
+      <x:c r="H1" s="18"/>
+      <x:c r="I1" s="18"/>
+      <x:c r="J1" s="18"/>
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A2" s="15" t="s">
+      <x:c r="A2" s="16" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B2" s="16"/>
+      <x:c r="C2" s="17" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="D2" s="17"/>
+      <x:c r="E2" s="17"/>
+      <x:c r="F2" s="16" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="G2" s="16"/>
+      <x:c r="H2" s="16"/>
+      <x:c r="I2" s="17" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J2" s="17"/>
+    </x:row>
+    <x:row r="3" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A3" s="16" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B3" s="16"/>
+      <x:c r="C3" s="17" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D3" s="17"/>
+      <x:c r="E3" s="17"/>
+      <x:c r="F3" s="16" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="G3" s="16"/>
+      <x:c r="H3" s="16"/>
+      <x:c r="I3" s="17"/>
+      <x:c r="J3" s="17"/>
+    </x:row>
+    <x:row r="4" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A4" s="16" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B4" s="16"/>
+      <x:c r="C4" s="17" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D4" s="17"/>
+      <x:c r="E4" s="17"/>
+      <x:c r="F4" s="16" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="B2" s="15"/>
-      <x:c r="C2" s="16" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="D2" s="16"/>
-      <x:c r="E2" s="16"/>
-      <x:c r="F2" s="15" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G2" s="15"/>
-      <x:c r="H2" s="15"/>
-      <x:c r="I2" s="16" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="J2" s="16"/>
-    </x:row>
-    <x:row r="3" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A3" s="15" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="B3" s="15"/>
-      <x:c r="C3" s="16" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D3" s="16"/>
-      <x:c r="E3" s="16"/>
-      <x:c r="F3" s="15" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="G3" s="15"/>
-      <x:c r="H3" s="15"/>
-      <x:c r="I3" s="16"/>
-      <x:c r="J3" s="16"/>
-    </x:row>
-    <x:row r="4" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A4" s="15" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="B4" s="15"/>
-      <x:c r="C4" s="16" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="D4" s="16"/>
-      <x:c r="E4" s="16"/>
-      <x:c r="F4" s="15" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="G4" s="15"/>
-      <x:c r="H4" s="15"/>
-      <x:c r="I4" s="16" t="s">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="J4" s="16"/>
+      <x:c r="G4" s="16"/>
+      <x:c r="H4" s="16"/>
+      <x:c r="I4" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="J4" s="17"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>92</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>59</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>98</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>64</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>122</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>96</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>124</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>84</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -2032,21 +2050,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
-        <x:v>103</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
-        <x:v>132</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>63</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>119</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -2056,13 +2074,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>34</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>18</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>52</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>20</x:v>
@@ -2070,7 +2088,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -2080,13 +2098,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
-        <x:v>6</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C8" s="10" t="s">
-        <x:v>8</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>52</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E8" s="4">
         <x:v>16</x:v>
@@ -2094,7 +2112,7 @@
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -2104,13 +2122,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="10" t="s">
-        <x:v>15</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>85</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>52</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E9" s="4">
         <x:v>20</x:v>
@@ -2118,7 +2136,7 @@
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="6"/>
@@ -2127,14 +2145,14 @@
       <x:c r="A10" s="4">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B10" s="18" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C10" s="18" t="s">
-        <x:v>1</x:v>
+      <x:c r="B10" s="12" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C10" s="12" t="s">
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>52</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E10" s="4">
         <x:v>20</x:v>
@@ -2142,11 +2160,11 @@
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>157</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="5" t="s">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -2154,25 +2172,25 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B11" s="10" t="s">
-        <x:v>19</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C11" s="10" t="s">
-        <x:v>69</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>52</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E11" s="4">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F11" s="4"/>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I11" s="4"/>
       <x:c r="J11" s="5" t="s">
-        <x:v>141</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -2180,216 +2198,252 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B12" s="10" t="s">
-        <x:v>7</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C12" s="10" t="s">
-        <x:v>100</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="D12" s="4" t="s">
-        <x:v>52</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E12" s="4">
-        <x:v>100</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F12" s="4"/>
       <x:c r="G12" s="4"/>
       <x:c r="H12" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I12" s="7"/>
-      <x:c r="J12" s="5"/>
+      <x:c r="J12" s="10"/>
     </x:row>
     <x:row r="13" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A13" s="4">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B13" s="10" t="s">
-        <x:v>39</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C13" s="10" t="s">
-        <x:v>117</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D13" s="4" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="E13" s="7">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F13" s="7"/>
-      <x:c r="G13" s="7"/>
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E13" s="4">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="F13" s="4"/>
+      <x:c r="G13" s="4"/>
       <x:c r="H13" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I13" s="7"/>
-      <x:c r="J13" s="8" t="s">
-        <x:v>134</x:v>
-      </x:c>
+      <x:c r="J13" s="10"/>
     </x:row>
     <x:row r="14" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A14" s="4">
         <x:v>9</x:v>
       </x:c>
       <x:c r="B14" s="10" t="s">
-        <x:v>73</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="C14" s="10" t="s">
-        <x:v>113</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="D14" s="4" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="E14" s="7"/>
-      <x:c r="F14" s="7"/>
-      <x:c r="G14" s="7"/>
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E14" s="4">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="F14" s="4"/>
+      <x:c r="G14" s="4"/>
       <x:c r="H14" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I14" s="7"/>
-      <x:c r="J14" s="8"/>
+      <x:c r="J14" s="10"/>
     </x:row>
     <x:row r="15" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A15" s="4">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B15" s="10" t="s">
-        <x:v>62</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C15" s="10" t="s">
-        <x:v>86</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="D15" s="4" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="E15" s="7"/>
-      <x:c r="F15" s="7"/>
-      <x:c r="G15" s="7"/>
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E15" s="4">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="F15" s="4"/>
+      <x:c r="G15" s="4"/>
       <x:c r="H15" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I15" s="7"/>
-      <x:c r="J15" s="8"/>
+      <x:c r="J15" s="10"/>
     </x:row>
     <x:row r="16" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A16" s="4">
         <x:v>11</x:v>
       </x:c>
       <x:c r="B16" s="10" t="s">
-        <x:v>83</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C16" s="10" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D16" s="7" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="E16" s="7"/>
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="D16" s="4" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E16" s="7">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="F16" s="7"/>
       <x:c r="G16" s="7"/>
       <x:c r="H16" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I16" s="7"/>
-      <x:c r="J16" s="8"/>
+      <x:c r="J16" s="8" t="s">
+        <x:v>24</x:v>
+      </x:c>
     </x:row>
     <x:row r="17" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <x:c r="A17" s="7"/>
-      <x:c r="B17" s="9"/>
-      <x:c r="C17" s="8"/>
-      <x:c r="D17" s="7"/>
+      <x:c r="A17" s="7">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B17" s="10" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C17" s="10" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="D17" s="4" t="s">
+        <x:v>82</x:v>
+      </x:c>
       <x:c r="E17" s="7"/>
       <x:c r="F17" s="7"/>
       <x:c r="G17" s="7"/>
-      <x:c r="H17" s="7"/>
+      <x:c r="H17" s="4" t="s">
+        <x:v>32</x:v>
+      </x:c>
       <x:c r="I17" s="7"/>
       <x:c r="J17" s="8"/>
     </x:row>
     <x:row r="18" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <x:c r="A18" s="7"/>
-      <x:c r="B18" s="8"/>
-      <x:c r="C18" s="8"/>
-      <x:c r="D18" s="7"/>
+      <x:c r="A18" s="7">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B18" s="10" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C18" s="10" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="D18" s="4" t="s">
+        <x:v>82</x:v>
+      </x:c>
       <x:c r="E18" s="7"/>
       <x:c r="F18" s="7"/>
       <x:c r="G18" s="7"/>
-      <x:c r="H18" s="7"/>
+      <x:c r="H18" s="4" t="s">
+        <x:v>32</x:v>
+      </x:c>
       <x:c r="I18" s="7"/>
       <x:c r="J18" s="8"/>
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <x:c r="A19" s="7"/>
-      <x:c r="B19" s="8"/>
-      <x:c r="C19" s="8"/>
-      <x:c r="D19" s="7"/>
+      <x:c r="A19" s="7">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B19" s="10" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C19" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D19" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
       <x:c r="E19" s="7"/>
       <x:c r="F19" s="7"/>
       <x:c r="G19" s="7"/>
-      <x:c r="H19" s="7"/>
+      <x:c r="H19" s="4" t="s">
+        <x:v>32</x:v>
+      </x:c>
       <x:c r="I19" s="7"/>
       <x:c r="J19" s="8"/>
     </x:row>
     <x:row r="20" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A20" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B20" s="8" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C20" s="8" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D20" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E20" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F20" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G20" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="H20" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="I20" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="J20" s="8" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:10" ht="49.5" customHeight="1">
-      <x:c r="A21" s="12" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="B21" s="12" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="C21" s="13"/>
-      <x:c r="D21" s="13"/>
-      <x:c r="E21" s="13"/>
-      <x:c r="F21" s="13"/>
-      <x:c r="G21" s="13"/>
-      <x:c r="H21" s="13"/>
-      <x:c r="I21" s="13"/>
-      <x:c r="J21" s="13"/>
+      <x:c r="A21" s="13" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B21" s="13" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C21" s="14"/>
+      <x:c r="D21" s="14"/>
+      <x:c r="E21" s="14"/>
+      <x:c r="F21" s="14"/>
+      <x:c r="G21" s="14"/>
+      <x:c r="H21" s="14"/>
+      <x:c r="I21" s="14"/>
+      <x:c r="J21" s="14"/>
     </x:row>
     <x:row r="22" spans="1:10" ht="224.09999999999999" customHeight="1">
-      <x:c r="A22" s="12" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="B22" s="12" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="C22" s="14"/>
-      <x:c r="D22" s="13"/>
-      <x:c r="E22" s="13"/>
-      <x:c r="F22" s="13"/>
-      <x:c r="G22" s="13"/>
-      <x:c r="H22" s="13"/>
-      <x:c r="I22" s="13"/>
-      <x:c r="J22" s="13"/>
+      <x:c r="A22" s="13" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="B22" s="13" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C22" s="15"/>
+      <x:c r="D22" s="14"/>
+      <x:c r="E22" s="14"/>
+      <x:c r="F22" s="14"/>
+      <x:c r="G22" s="14"/>
+      <x:c r="H22" s="14"/>
+      <x:c r="I22" s="14"/>
+      <x:c r="J22" s="14"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="17">
@@ -2443,107 +2497,107 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A1" s="17" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="B1" s="17"/>
-      <x:c r="C1" s="17"/>
-      <x:c r="D1" s="17"/>
-      <x:c r="E1" s="17"/>
-      <x:c r="F1" s="17"/>
-      <x:c r="G1" s="17"/>
-      <x:c r="H1" s="17"/>
-      <x:c r="I1" s="17"/>
-      <x:c r="J1" s="17"/>
+      <x:c r="A1" s="18" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B1" s="18"/>
+      <x:c r="C1" s="18"/>
+      <x:c r="D1" s="18"/>
+      <x:c r="E1" s="18"/>
+      <x:c r="F1" s="18"/>
+      <x:c r="G1" s="18"/>
+      <x:c r="H1" s="18"/>
+      <x:c r="I1" s="18"/>
+      <x:c r="J1" s="18"/>
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A2" s="15" t="s">
+      <x:c r="A2" s="16" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B2" s="16"/>
+      <x:c r="C2" s="17" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="D2" s="17"/>
+      <x:c r="E2" s="17"/>
+      <x:c r="F2" s="16" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="G2" s="16"/>
+      <x:c r="H2" s="16"/>
+      <x:c r="I2" s="17" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J2" s="17"/>
+    </x:row>
+    <x:row r="3" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A3" s="16" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B3" s="16"/>
+      <x:c r="C3" s="17" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="D3" s="17"/>
+      <x:c r="E3" s="17"/>
+      <x:c r="F3" s="16" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="G3" s="16"/>
+      <x:c r="H3" s="16"/>
+      <x:c r="I3" s="17"/>
+      <x:c r="J3" s="17"/>
+    </x:row>
+    <x:row r="4" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A4" s="16" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B4" s="16"/>
+      <x:c r="C4" s="17" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="D4" s="17"/>
+      <x:c r="E4" s="17"/>
+      <x:c r="F4" s="16" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="B2" s="15"/>
-      <x:c r="C2" s="16" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="D2" s="16"/>
-      <x:c r="E2" s="16"/>
-      <x:c r="F2" s="15" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G2" s="15"/>
-      <x:c r="H2" s="15"/>
-      <x:c r="I2" s="16" t="s">
+      <x:c r="G4" s="16"/>
+      <x:c r="H4" s="16"/>
+      <x:c r="I4" s="17" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="J2" s="16"/>
-    </x:row>
-    <x:row r="3" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A3" s="15" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="B3" s="15"/>
-      <x:c r="C3" s="16" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="D3" s="16"/>
-      <x:c r="E3" s="16"/>
-      <x:c r="F3" s="15" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="G3" s="15"/>
-      <x:c r="H3" s="15"/>
-      <x:c r="I3" s="16"/>
-      <x:c r="J3" s="16"/>
-    </x:row>
-    <x:row r="4" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A4" s="15" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="B4" s="15"/>
-      <x:c r="C4" s="16" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="D4" s="16"/>
-      <x:c r="E4" s="16"/>
-      <x:c r="F4" s="15" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="G4" s="15"/>
-      <x:c r="H4" s="15"/>
-      <x:c r="I4" s="16" t="s">
-        <x:v>145</x:v>
-      </x:c>
-      <x:c r="J4" s="16"/>
+      <x:c r="J4" s="17"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>92</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>59</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>98</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>64</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>122</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>96</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>124</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>84</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -2551,21 +2605,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
-        <x:v>102</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
-        <x:v>151</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>63</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>119</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -2575,13 +2629,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>37</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>109</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>52</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>20</x:v>
@@ -2589,7 +2643,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -2599,13 +2653,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
-        <x:v>12</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C8" s="10" t="s">
-        <x:v>104</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>52</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E8" s="4">
         <x:v>10</x:v>
@@ -2613,7 +2667,7 @@
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -2623,19 +2677,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="10" t="s">
-        <x:v>16</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>110</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>106</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="6"/>
@@ -2645,19 +2699,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="10" t="s">
-        <x:v>33</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>111</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>106</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="5"/>
@@ -2667,19 +2721,19 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B11" s="10" t="s">
-        <x:v>76</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C11" s="10" t="s">
-        <x:v>114</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>106</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E11" s="4"/>
       <x:c r="F11" s="4"/>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I11" s="7"/>
       <x:c r="J11" s="5"/>
@@ -2689,13 +2743,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B12" s="10" t="s">
-        <x:v>28</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C12" s="10" t="s">
-        <x:v>108</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D12" s="4" t="s">
-        <x:v>52</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E12" s="7">
         <x:v>500</x:v>
@@ -2703,7 +2757,7 @@
       <x:c r="F12" s="7"/>
       <x:c r="G12" s="7"/>
       <x:c r="H12" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I12" s="7"/>
       <x:c r="J12" s="8"/>
@@ -2713,19 +2767,19 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B13" s="10" t="s">
-        <x:v>67</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C13" s="10" t="s">
-        <x:v>120</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D13" s="4" t="s">
-        <x:v>106</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E13" s="7"/>
       <x:c r="F13" s="7"/>
       <x:c r="G13" s="7"/>
       <x:c r="H13" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I13" s="7"/>
       <x:c r="J13" s="8"/>
@@ -2735,13 +2789,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B14" s="10" t="s">
-        <x:v>22</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C14" s="10" t="s">
-        <x:v>89</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D14" s="4" t="s">
-        <x:v>52</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E14" s="7">
         <x:v>100</x:v>
@@ -2749,7 +2803,7 @@
       <x:c r="F14" s="7"/>
       <x:c r="G14" s="7"/>
       <x:c r="H14" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I14" s="7"/>
       <x:c r="J14" s="8"/>
@@ -2759,21 +2813,21 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B15" s="10" t="s">
-        <x:v>103</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="C15" s="10" t="s">
-        <x:v>133</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D15" s="4" t="s">
-        <x:v>63</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E15" s="7"/>
       <x:c r="F15" s="7"/>
       <x:c r="G15" s="7" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H15" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I15" s="7"/>
       <x:c r="J15" s="8"/>
@@ -2783,19 +2837,19 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B16" s="10" t="s">
-        <x:v>83</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C16" s="10" t="s">
-        <x:v>21</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D16" s="7" t="s">
-        <x:v>4</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E16" s="7"/>
       <x:c r="F16" s="7"/>
       <x:c r="G16" s="7"/>
       <x:c r="H16" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I16" s="7"/>
       <x:c r="J16" s="8"/>
@@ -2826,67 +2880,67 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
-      <x:c r="A20" s="12" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="B20" s="12" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="C20" s="13"/>
-      <x:c r="D20" s="13"/>
-      <x:c r="E20" s="13"/>
-      <x:c r="F20" s="13"/>
-      <x:c r="G20" s="13"/>
-      <x:c r="H20" s="13"/>
-      <x:c r="I20" s="13"/>
-      <x:c r="J20" s="13"/>
+      <x:c r="A20" s="13" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B20" s="13" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C20" s="14"/>
+      <x:c r="D20" s="14"/>
+      <x:c r="E20" s="14"/>
+      <x:c r="F20" s="14"/>
+      <x:c r="G20" s="14"/>
+      <x:c r="H20" s="14"/>
+      <x:c r="I20" s="14"/>
+      <x:c r="J20" s="14"/>
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
-      <x:c r="A21" s="12" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="B21" s="12" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="C21" s="14"/>
-      <x:c r="D21" s="13"/>
-      <x:c r="E21" s="13"/>
-      <x:c r="F21" s="13"/>
-      <x:c r="G21" s="13"/>
-      <x:c r="H21" s="13"/>
-      <x:c r="I21" s="13"/>
-      <x:c r="J21" s="13"/>
+      <x:c r="A21" s="13" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="B21" s="13" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C21" s="15"/>
+      <x:c r="D21" s="14"/>
+      <x:c r="E21" s="14"/>
+      <x:c r="F21" s="14"/>
+      <x:c r="G21" s="14"/>
+      <x:c r="H21" s="14"/>
+      <x:c r="I21" s="14"/>
+      <x:c r="J21" s="14"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="17">
@@ -2940,107 +2994,107 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A1" s="17" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="B1" s="17"/>
-      <x:c r="C1" s="17"/>
-      <x:c r="D1" s="17"/>
-      <x:c r="E1" s="17"/>
-      <x:c r="F1" s="17"/>
-      <x:c r="G1" s="17"/>
-      <x:c r="H1" s="17"/>
-      <x:c r="I1" s="17"/>
-      <x:c r="J1" s="17"/>
+      <x:c r="A1" s="18" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B1" s="18"/>
+      <x:c r="C1" s="18"/>
+      <x:c r="D1" s="18"/>
+      <x:c r="E1" s="18"/>
+      <x:c r="F1" s="18"/>
+      <x:c r="G1" s="18"/>
+      <x:c r="H1" s="18"/>
+      <x:c r="I1" s="18"/>
+      <x:c r="J1" s="18"/>
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A2" s="15" t="s">
+      <x:c r="A2" s="16" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B2" s="16"/>
+      <x:c r="C2" s="17" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="D2" s="17"/>
+      <x:c r="E2" s="17"/>
+      <x:c r="F2" s="16" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="G2" s="16"/>
+      <x:c r="H2" s="16"/>
+      <x:c r="I2" s="17" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J2" s="17"/>
+    </x:row>
+    <x:row r="3" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A3" s="16" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B3" s="16"/>
+      <x:c r="C3" s="17" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="D3" s="17"/>
+      <x:c r="E3" s="17"/>
+      <x:c r="F3" s="16" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="G3" s="16"/>
+      <x:c r="H3" s="16"/>
+      <x:c r="I3" s="17"/>
+      <x:c r="J3" s="17"/>
+    </x:row>
+    <x:row r="4" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A4" s="16" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B4" s="16"/>
+      <x:c r="C4" s="17" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D4" s="17"/>
+      <x:c r="E4" s="17"/>
+      <x:c r="F4" s="16" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="B2" s="15"/>
-      <x:c r="C2" s="16" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="D2" s="16"/>
-      <x:c r="E2" s="16"/>
-      <x:c r="F2" s="15" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G2" s="15"/>
-      <x:c r="H2" s="15"/>
-      <x:c r="I2" s="16" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="J2" s="16"/>
-    </x:row>
-    <x:row r="3" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A3" s="15" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="B3" s="15"/>
-      <x:c r="C3" s="16" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="D3" s="16"/>
-      <x:c r="E3" s="16"/>
-      <x:c r="F3" s="15" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="G3" s="15"/>
-      <x:c r="H3" s="15"/>
-      <x:c r="I3" s="16"/>
-      <x:c r="J3" s="16"/>
-    </x:row>
-    <x:row r="4" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A4" s="15" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="B4" s="15"/>
-      <x:c r="C4" s="16" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D4" s="16"/>
-      <x:c r="E4" s="16"/>
-      <x:c r="F4" s="15" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="G4" s="15"/>
-      <x:c r="H4" s="15"/>
-      <x:c r="I4" s="16" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="J4" s="16"/>
+      <x:c r="G4" s="16"/>
+      <x:c r="H4" s="16"/>
+      <x:c r="I4" s="17" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="J4" s="17"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>92</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>59</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>98</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>64</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>122</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>96</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>124</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>84</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -3048,21 +3102,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
-        <x:v>97</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="C6" s="10" t="s">
-        <x:v>127</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>63</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>119</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -3072,23 +3126,23 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>101</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>147</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>52</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>20</x:v>
       </x:c>
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H7" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -3098,21 +3152,21 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
-        <x:v>102</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="C8" s="5" t="s">
-        <x:v>128</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>63</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E8" s="4"/>
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H8" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -3122,19 +3176,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="10" t="s">
-        <x:v>65</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>31</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>106</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="5"/>
@@ -3144,19 +3198,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="10" t="s">
-        <x:v>27</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>77</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>47</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="11"/>
@@ -3166,19 +3220,19 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B11" s="10" t="s">
-        <x:v>45</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C11" s="10" t="s">
-        <x:v>38</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>75</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E11" s="4"/>
       <x:c r="F11" s="4"/>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I11" s="7"/>
       <x:c r="J11" s="5"/>
@@ -3188,19 +3242,19 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B12" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C12" s="10" t="s">
-        <x:v>111</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D12" s="4" t="s">
-        <x:v>106</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E12" s="4"/>
       <x:c r="F12" s="4"/>
       <x:c r="G12" s="4"/>
       <x:c r="H12" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I12" s="7"/>
       <x:c r="J12" s="8"/>
@@ -3210,19 +3264,19 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B13" s="10" t="s">
-        <x:v>83</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C13" s="10" t="s">
-        <x:v>21</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D13" s="4" t="s">
-        <x:v>4</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E13" s="7"/>
       <x:c r="F13" s="7"/>
       <x:c r="G13" s="7"/>
       <x:c r="H13" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I13" s="7"/>
       <x:c r="J13" s="8"/>
@@ -3289,67 +3343,67 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
-      <x:c r="A20" s="12" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="B20" s="12" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="C20" s="13"/>
-      <x:c r="D20" s="13"/>
-      <x:c r="E20" s="13"/>
-      <x:c r="F20" s="13"/>
-      <x:c r="G20" s="13"/>
-      <x:c r="H20" s="13"/>
-      <x:c r="I20" s="13"/>
-      <x:c r="J20" s="13"/>
+      <x:c r="A20" s="13" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B20" s="13" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C20" s="14"/>
+      <x:c r="D20" s="14"/>
+      <x:c r="E20" s="14"/>
+      <x:c r="F20" s="14"/>
+      <x:c r="G20" s="14"/>
+      <x:c r="H20" s="14"/>
+      <x:c r="I20" s="14"/>
+      <x:c r="J20" s="14"/>
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
-      <x:c r="A21" s="12" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="B21" s="12" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="C21" s="14"/>
-      <x:c r="D21" s="13"/>
-      <x:c r="E21" s="13"/>
-      <x:c r="F21" s="13"/>
-      <x:c r="G21" s="13"/>
-      <x:c r="H21" s="13"/>
-      <x:c r="I21" s="13"/>
-      <x:c r="J21" s="13"/>
+      <x:c r="A21" s="13" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="B21" s="13" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C21" s="15"/>
+      <x:c r="D21" s="14"/>
+      <x:c r="E21" s="14"/>
+      <x:c r="F21" s="14"/>
+      <x:c r="G21" s="14"/>
+      <x:c r="H21" s="14"/>
+      <x:c r="I21" s="14"/>
+      <x:c r="J21" s="14"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="17">
@@ -3403,107 +3457,107 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A1" s="17" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="B1" s="17"/>
-      <x:c r="C1" s="17"/>
-      <x:c r="D1" s="17"/>
-      <x:c r="E1" s="17"/>
-      <x:c r="F1" s="17"/>
-      <x:c r="G1" s="17"/>
-      <x:c r="H1" s="17"/>
-      <x:c r="I1" s="17"/>
-      <x:c r="J1" s="17"/>
+      <x:c r="A1" s="18" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B1" s="18"/>
+      <x:c r="C1" s="18"/>
+      <x:c r="D1" s="18"/>
+      <x:c r="E1" s="18"/>
+      <x:c r="F1" s="18"/>
+      <x:c r="G1" s="18"/>
+      <x:c r="H1" s="18"/>
+      <x:c r="I1" s="18"/>
+      <x:c r="J1" s="18"/>
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A2" s="15" t="s">
+      <x:c r="A2" s="16" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B2" s="16"/>
+      <x:c r="C2" s="17" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="D2" s="17"/>
+      <x:c r="E2" s="17"/>
+      <x:c r="F2" s="16" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="G2" s="16"/>
+      <x:c r="H2" s="16"/>
+      <x:c r="I2" s="17" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J2" s="17"/>
+    </x:row>
+    <x:row r="3" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A3" s="16" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B3" s="16"/>
+      <x:c r="C3" s="17" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="D3" s="17"/>
+      <x:c r="E3" s="17"/>
+      <x:c r="F3" s="16" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="G3" s="16"/>
+      <x:c r="H3" s="16"/>
+      <x:c r="I3" s="17"/>
+      <x:c r="J3" s="17"/>
+    </x:row>
+    <x:row r="4" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A4" s="16" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B4" s="16"/>
+      <x:c r="C4" s="17" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D4" s="17"/>
+      <x:c r="E4" s="17"/>
+      <x:c r="F4" s="16" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="B2" s="15"/>
-      <x:c r="C2" s="16" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="D2" s="16"/>
-      <x:c r="E2" s="16"/>
-      <x:c r="F2" s="15" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G2" s="15"/>
-      <x:c r="H2" s="15"/>
-      <x:c r="I2" s="16" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="J2" s="16"/>
-    </x:row>
-    <x:row r="3" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A3" s="15" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="B3" s="15"/>
-      <x:c r="C3" s="16" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="D3" s="16"/>
-      <x:c r="E3" s="16"/>
-      <x:c r="F3" s="15" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="G3" s="15"/>
-      <x:c r="H3" s="15"/>
-      <x:c r="I3" s="16"/>
-      <x:c r="J3" s="16"/>
-    </x:row>
-    <x:row r="4" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A4" s="15" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="B4" s="15"/>
-      <x:c r="C4" s="16" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="D4" s="16"/>
-      <x:c r="E4" s="16"/>
-      <x:c r="F4" s="15" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="G4" s="15"/>
-      <x:c r="H4" s="15"/>
-      <x:c r="I4" s="16" t="s">
-        <x:v>153</x:v>
-      </x:c>
-      <x:c r="J4" s="16"/>
+      <x:c r="G4" s="16"/>
+      <x:c r="H4" s="16"/>
+      <x:c r="I4" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J4" s="17"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>92</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>59</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>98</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>64</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>122</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>96</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>124</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>84</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -3511,21 +3565,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
-        <x:v>88</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C6" s="10" t="s">
-        <x:v>155</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>63</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>119</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -3535,13 +3589,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>23</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>52</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>100</x:v>
@@ -3549,7 +3603,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -3559,13 +3613,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
-        <x:v>17</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C8" s="10" t="s">
-        <x:v>125</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>52</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E8" s="4">
         <x:v>3000</x:v>
@@ -3573,7 +3627,7 @@
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -3583,13 +3637,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="10" t="s">
-        <x:v>11</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>72</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>52</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E9" s="4">
         <x:v>10</x:v>
@@ -3597,7 +3651,7 @@
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="5"/>
@@ -3607,21 +3661,21 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="10" t="s">
-        <x:v>101</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>140</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>63</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H10" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="11"/>
@@ -3631,19 +3685,19 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B11" s="10" t="s">
-        <x:v>83</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C11" s="10" t="s">
-        <x:v>21</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>4</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E11" s="4"/>
       <x:c r="F11" s="4"/>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I11" s="7"/>
       <x:c r="J11" s="5"/>
@@ -3734,67 +3788,67 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
-      <x:c r="A20" s="12" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="B20" s="12" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="C20" s="13"/>
-      <x:c r="D20" s="13"/>
-      <x:c r="E20" s="13"/>
-      <x:c r="F20" s="13"/>
-      <x:c r="G20" s="13"/>
-      <x:c r="H20" s="13"/>
-      <x:c r="I20" s="13"/>
-      <x:c r="J20" s="13"/>
+      <x:c r="A20" s="13" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B20" s="13" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C20" s="14"/>
+      <x:c r="D20" s="14"/>
+      <x:c r="E20" s="14"/>
+      <x:c r="F20" s="14"/>
+      <x:c r="G20" s="14"/>
+      <x:c r="H20" s="14"/>
+      <x:c r="I20" s="14"/>
+      <x:c r="J20" s="14"/>
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
-      <x:c r="A21" s="12" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="B21" s="12" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="C21" s="14"/>
-      <x:c r="D21" s="13"/>
-      <x:c r="E21" s="13"/>
-      <x:c r="F21" s="13"/>
-      <x:c r="G21" s="13"/>
-      <x:c r="H21" s="13"/>
-      <x:c r="I21" s="13"/>
-      <x:c r="J21" s="13"/>
+      <x:c r="A21" s="13" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="B21" s="13" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C21" s="15"/>
+      <x:c r="D21" s="14"/>
+      <x:c r="E21" s="14"/>
+      <x:c r="F21" s="14"/>
+      <x:c r="G21" s="14"/>
+      <x:c r="H21" s="14"/>
+      <x:c r="I21" s="14"/>
+      <x:c r="J21" s="14"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="17">
@@ -3848,107 +3902,107 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A1" s="17" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="B1" s="17"/>
-      <x:c r="C1" s="17"/>
-      <x:c r="D1" s="17"/>
-      <x:c r="E1" s="17"/>
-      <x:c r="F1" s="17"/>
-      <x:c r="G1" s="17"/>
-      <x:c r="H1" s="17"/>
-      <x:c r="I1" s="17"/>
-      <x:c r="J1" s="17"/>
+      <x:c r="A1" s="18" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B1" s="18"/>
+      <x:c r="C1" s="18"/>
+      <x:c r="D1" s="18"/>
+      <x:c r="E1" s="18"/>
+      <x:c r="F1" s="18"/>
+      <x:c r="G1" s="18"/>
+      <x:c r="H1" s="18"/>
+      <x:c r="I1" s="18"/>
+      <x:c r="J1" s="18"/>
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A2" s="15" t="s">
+      <x:c r="A2" s="16" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B2" s="16"/>
+      <x:c r="C2" s="17" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="D2" s="17"/>
+      <x:c r="E2" s="17"/>
+      <x:c r="F2" s="16" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="G2" s="16"/>
+      <x:c r="H2" s="16"/>
+      <x:c r="I2" s="17" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J2" s="17"/>
+    </x:row>
+    <x:row r="3" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A3" s="16" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B3" s="16"/>
+      <x:c r="C3" s="17" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="D3" s="17"/>
+      <x:c r="E3" s="17"/>
+      <x:c r="F3" s="16" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="G3" s="16"/>
+      <x:c r="H3" s="16"/>
+      <x:c r="I3" s="17"/>
+      <x:c r="J3" s="17"/>
+    </x:row>
+    <x:row r="4" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A4" s="16" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B4" s="16"/>
+      <x:c r="C4" s="17" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D4" s="17"/>
+      <x:c r="E4" s="17"/>
+      <x:c r="F4" s="16" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="B2" s="15"/>
-      <x:c r="C2" s="16" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="D2" s="16"/>
-      <x:c r="E2" s="16"/>
-      <x:c r="F2" s="15" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G2" s="15"/>
-      <x:c r="H2" s="15"/>
-      <x:c r="I2" s="16" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="J2" s="16"/>
-    </x:row>
-    <x:row r="3" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A3" s="15" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="B3" s="15"/>
-      <x:c r="C3" s="16" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D3" s="16"/>
-      <x:c r="E3" s="16"/>
-      <x:c r="F3" s="15" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="G3" s="15"/>
-      <x:c r="H3" s="15"/>
-      <x:c r="I3" s="16"/>
-      <x:c r="J3" s="16"/>
-    </x:row>
-    <x:row r="4" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A4" s="15" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="B4" s="15"/>
-      <x:c r="C4" s="16" t="s">
-        <x:v>144</x:v>
-      </x:c>
-      <x:c r="D4" s="16"/>
-      <x:c r="E4" s="16"/>
-      <x:c r="F4" s="15" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="G4" s="15"/>
-      <x:c r="H4" s="15"/>
-      <x:c r="I4" s="16" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="J4" s="16"/>
+      <x:c r="G4" s="16"/>
+      <x:c r="H4" s="16"/>
+      <x:c r="I4" s="17" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="J4" s="17"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>92</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>59</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>98</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>64</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>122</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>96</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>124</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>84</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -3956,21 +4010,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
-        <x:v>30</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C6" s="10" t="s">
-        <x:v>130</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>63</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>119</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -3980,13 +4034,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>26</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>125</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>52</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>500</x:v>
@@ -3994,7 +4048,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -4004,21 +4058,21 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
-        <x:v>101</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="C8" s="10" t="s">
-        <x:v>140</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>63</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E8" s="4"/>
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H8" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -4028,21 +4082,21 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="10" t="s">
-        <x:v>88</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>135</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>63</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H9" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="5"/>
@@ -4052,19 +4106,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="10" t="s">
-        <x:v>83</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>21</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>4</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="11"/>
@@ -4167,67 +4221,67 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
-      <x:c r="A20" s="12" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="B20" s="12" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="C20" s="13"/>
-      <x:c r="D20" s="13"/>
-      <x:c r="E20" s="13"/>
-      <x:c r="F20" s="13"/>
-      <x:c r="G20" s="13"/>
-      <x:c r="H20" s="13"/>
-      <x:c r="I20" s="13"/>
-      <x:c r="J20" s="13"/>
+      <x:c r="A20" s="13" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B20" s="13" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C20" s="14"/>
+      <x:c r="D20" s="14"/>
+      <x:c r="E20" s="14"/>
+      <x:c r="F20" s="14"/>
+      <x:c r="G20" s="14"/>
+      <x:c r="H20" s="14"/>
+      <x:c r="I20" s="14"/>
+      <x:c r="J20" s="14"/>
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
-      <x:c r="A21" s="12" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="B21" s="12" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="C21" s="14"/>
-      <x:c r="D21" s="13"/>
-      <x:c r="E21" s="13"/>
-      <x:c r="F21" s="13"/>
-      <x:c r="G21" s="13"/>
-      <x:c r="H21" s="13"/>
-      <x:c r="I21" s="13"/>
-      <x:c r="J21" s="13"/>
+      <x:c r="A21" s="13" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="B21" s="13" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C21" s="15"/>
+      <x:c r="D21" s="14"/>
+      <x:c r="E21" s="14"/>
+      <x:c r="F21" s="14"/>
+      <x:c r="G21" s="14"/>
+      <x:c r="H21" s="14"/>
+      <x:c r="I21" s="14"/>
+      <x:c r="J21" s="14"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="17">
@@ -4281,107 +4335,107 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A1" s="17" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="B1" s="17"/>
-      <x:c r="C1" s="17"/>
-      <x:c r="D1" s="17"/>
-      <x:c r="E1" s="17"/>
-      <x:c r="F1" s="17"/>
-      <x:c r="G1" s="17"/>
-      <x:c r="H1" s="17"/>
-      <x:c r="I1" s="17"/>
-      <x:c r="J1" s="17"/>
+      <x:c r="A1" s="18" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B1" s="18"/>
+      <x:c r="C1" s="18"/>
+      <x:c r="D1" s="18"/>
+      <x:c r="E1" s="18"/>
+      <x:c r="F1" s="18"/>
+      <x:c r="G1" s="18"/>
+      <x:c r="H1" s="18"/>
+      <x:c r="I1" s="18"/>
+      <x:c r="J1" s="18"/>
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A2" s="15" t="s">
+      <x:c r="A2" s="16" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B2" s="16"/>
+      <x:c r="C2" s="17" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="D2" s="17"/>
+      <x:c r="E2" s="17"/>
+      <x:c r="F2" s="16" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="G2" s="16"/>
+      <x:c r="H2" s="16"/>
+      <x:c r="I2" s="17" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J2" s="17"/>
+    </x:row>
+    <x:row r="3" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A3" s="16" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B3" s="16"/>
+      <x:c r="C3" s="17" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="D3" s="17"/>
+      <x:c r="E3" s="17"/>
+      <x:c r="F3" s="16" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="G3" s="16"/>
+      <x:c r="H3" s="16"/>
+      <x:c r="I3" s="17"/>
+      <x:c r="J3" s="17"/>
+    </x:row>
+    <x:row r="4" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A4" s="16" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B4" s="16"/>
+      <x:c r="C4" s="17" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D4" s="17"/>
+      <x:c r="E4" s="17"/>
+      <x:c r="F4" s="16" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="B2" s="15"/>
-      <x:c r="C2" s="16" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="D2" s="16"/>
-      <x:c r="E2" s="16"/>
-      <x:c r="F2" s="15" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G2" s="15"/>
-      <x:c r="H2" s="15"/>
-      <x:c r="I2" s="16" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="J2" s="16"/>
-    </x:row>
-    <x:row r="3" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A3" s="15" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="B3" s="15"/>
-      <x:c r="C3" s="16" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="D3" s="16"/>
-      <x:c r="E3" s="16"/>
-      <x:c r="F3" s="15" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="G3" s="15"/>
-      <x:c r="H3" s="15"/>
-      <x:c r="I3" s="16"/>
-      <x:c r="J3" s="16"/>
-    </x:row>
-    <x:row r="4" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A4" s="15" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="B4" s="15"/>
-      <x:c r="C4" s="16" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D4" s="16"/>
-      <x:c r="E4" s="16"/>
-      <x:c r="F4" s="15" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="G4" s="15"/>
-      <x:c r="H4" s="15"/>
-      <x:c r="I4" s="16" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="J4" s="16"/>
+      <x:c r="G4" s="16"/>
+      <x:c r="H4" s="16"/>
+      <x:c r="I4" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="J4" s="17"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>92</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>59</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>98</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>64</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>122</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>96</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>124</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>84</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -4389,21 +4443,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
-        <x:v>107</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="C6" s="10" t="s">
-        <x:v>149</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>63</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>119</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -4413,13 +4467,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>36</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>52</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>100</x:v>
@@ -4427,7 +4481,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -4437,13 +4491,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
-        <x:v>60</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C8" s="10" t="s">
-        <x:v>125</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>52</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E8" s="4">
         <x:v>3000</x:v>
@@ -4451,7 +4505,7 @@
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -4461,21 +4515,21 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="10" t="s">
-        <x:v>101</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>140</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>63</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H9" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="5"/>
@@ -4485,21 +4539,21 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="10" t="s">
-        <x:v>103</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>133</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>63</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H10" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="11"/>
@@ -4509,19 +4563,19 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B11" s="10" t="s">
-        <x:v>83</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C11" s="10" t="s">
-        <x:v>21</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>4</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E11" s="4"/>
       <x:c r="F11" s="4"/>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I11" s="7"/>
       <x:c r="J11" s="5"/>
@@ -4612,67 +4666,67 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
-      <x:c r="A20" s="12" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="B20" s="12" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="C20" s="13"/>
-      <x:c r="D20" s="13"/>
-      <x:c r="E20" s="13"/>
-      <x:c r="F20" s="13"/>
-      <x:c r="G20" s="13"/>
-      <x:c r="H20" s="13"/>
-      <x:c r="I20" s="13"/>
-      <x:c r="J20" s="13"/>
+      <x:c r="A20" s="13" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B20" s="13" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C20" s="14"/>
+      <x:c r="D20" s="14"/>
+      <x:c r="E20" s="14"/>
+      <x:c r="F20" s="14"/>
+      <x:c r="G20" s="14"/>
+      <x:c r="H20" s="14"/>
+      <x:c r="I20" s="14"/>
+      <x:c r="J20" s="14"/>
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
-      <x:c r="A21" s="12" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="B21" s="12" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="C21" s="14"/>
-      <x:c r="D21" s="13"/>
-      <x:c r="E21" s="13"/>
-      <x:c r="F21" s="13"/>
-      <x:c r="G21" s="13"/>
-      <x:c r="H21" s="13"/>
-      <x:c r="I21" s="13"/>
-      <x:c r="J21" s="13"/>
+      <x:c r="A21" s="13" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="B21" s="13" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C21" s="15"/>
+      <x:c r="D21" s="14"/>
+      <x:c r="E21" s="14"/>
+      <x:c r="F21" s="14"/>
+      <x:c r="G21" s="14"/>
+      <x:c r="H21" s="14"/>
+      <x:c r="I21" s="14"/>
+      <x:c r="J21" s="14"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="17">
@@ -4726,107 +4780,107 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A1" s="17" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="B1" s="17"/>
-      <x:c r="C1" s="17"/>
-      <x:c r="D1" s="17"/>
-      <x:c r="E1" s="17"/>
-      <x:c r="F1" s="17"/>
-      <x:c r="G1" s="17"/>
-      <x:c r="H1" s="17"/>
-      <x:c r="I1" s="17"/>
-      <x:c r="J1" s="17"/>
+      <x:c r="A1" s="18" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B1" s="18"/>
+      <x:c r="C1" s="18"/>
+      <x:c r="D1" s="18"/>
+      <x:c r="E1" s="18"/>
+      <x:c r="F1" s="18"/>
+      <x:c r="G1" s="18"/>
+      <x:c r="H1" s="18"/>
+      <x:c r="I1" s="18"/>
+      <x:c r="J1" s="18"/>
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A2" s="15" t="s">
+      <x:c r="A2" s="16" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B2" s="16"/>
+      <x:c r="C2" s="17" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="D2" s="17"/>
+      <x:c r="E2" s="17"/>
+      <x:c r="F2" s="16" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="G2" s="16"/>
+      <x:c r="H2" s="16"/>
+      <x:c r="I2" s="17" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J2" s="17"/>
+    </x:row>
+    <x:row r="3" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A3" s="16" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B3" s="16"/>
+      <x:c r="C3" s="17" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="D3" s="17"/>
+      <x:c r="E3" s="17"/>
+      <x:c r="F3" s="16" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="G3" s="16"/>
+      <x:c r="H3" s="16"/>
+      <x:c r="I3" s="17"/>
+      <x:c r="J3" s="17"/>
+    </x:row>
+    <x:row r="4" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A4" s="16" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B4" s="16"/>
+      <x:c r="C4" s="17" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="D4" s="17"/>
+      <x:c r="E4" s="17"/>
+      <x:c r="F4" s="16" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="B2" s="15"/>
-      <x:c r="C2" s="16" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="D2" s="16"/>
-      <x:c r="E2" s="16"/>
-      <x:c r="F2" s="15" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G2" s="15"/>
-      <x:c r="H2" s="15"/>
-      <x:c r="I2" s="16" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="J2" s="16"/>
-    </x:row>
-    <x:row r="3" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A3" s="15" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="B3" s="15"/>
-      <x:c r="C3" s="16" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="D3" s="16"/>
-      <x:c r="E3" s="16"/>
-      <x:c r="F3" s="15" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="G3" s="15"/>
-      <x:c r="H3" s="15"/>
-      <x:c r="I3" s="16"/>
-      <x:c r="J3" s="16"/>
-    </x:row>
-    <x:row r="4" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A4" s="15" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="B4" s="15"/>
-      <x:c r="C4" s="16" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D4" s="16"/>
-      <x:c r="E4" s="16"/>
-      <x:c r="F4" s="15" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="G4" s="15"/>
-      <x:c r="H4" s="15"/>
-      <x:c r="I4" s="16" t="s">
-        <x:v>152</x:v>
-      </x:c>
-      <x:c r="J4" s="16"/>
+      <x:c r="G4" s="16"/>
+      <x:c r="H4" s="16"/>
+      <x:c r="I4" s="17" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J4" s="17"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>92</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>59</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>98</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>64</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>122</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>96</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>124</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>84</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -4834,21 +4888,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
-        <x:v>91</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="C6" s="10" t="s">
-        <x:v>156</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>63</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>119</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -4858,13 +4912,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>81</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>125</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>52</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>1000</x:v>
@@ -4872,7 +4926,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -4882,21 +4936,21 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
-        <x:v>107</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="C8" s="10" t="s">
-        <x:v>137</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>63</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E8" s="4"/>
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H8" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -4906,21 +4960,21 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="10" t="s">
-        <x:v>103</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>136</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>63</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H9" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="5"/>
@@ -4930,19 +4984,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="10" t="s">
-        <x:v>83</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>21</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>4</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="11"/>
@@ -5045,67 +5099,67 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
-      <x:c r="A20" s="12" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="B20" s="12" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="C20" s="13"/>
-      <x:c r="D20" s="13"/>
-      <x:c r="E20" s="13"/>
-      <x:c r="F20" s="13"/>
-      <x:c r="G20" s="13"/>
-      <x:c r="H20" s="13"/>
-      <x:c r="I20" s="13"/>
-      <x:c r="J20" s="13"/>
+      <x:c r="A20" s="13" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B20" s="13" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C20" s="14"/>
+      <x:c r="D20" s="14"/>
+      <x:c r="E20" s="14"/>
+      <x:c r="F20" s="14"/>
+      <x:c r="G20" s="14"/>
+      <x:c r="H20" s="14"/>
+      <x:c r="I20" s="14"/>
+      <x:c r="J20" s="14"/>
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
-      <x:c r="A21" s="12" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="B21" s="12" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="C21" s="14"/>
-      <x:c r="D21" s="13"/>
-      <x:c r="E21" s="13"/>
-      <x:c r="F21" s="13"/>
-      <x:c r="G21" s="13"/>
-      <x:c r="H21" s="13"/>
-      <x:c r="I21" s="13"/>
-      <x:c r="J21" s="13"/>
+      <x:c r="A21" s="13" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="B21" s="13" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C21" s="15"/>
+      <x:c r="D21" s="14"/>
+      <x:c r="E21" s="14"/>
+      <x:c r="F21" s="14"/>
+      <x:c r="G21" s="14"/>
+      <x:c r="H21" s="14"/>
+      <x:c r="I21" s="14"/>
+      <x:c r="J21" s="14"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="17">

--- a/exiter/etc/테이블DB.xlsx
+++ b/exiter/etc/테이블DB.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fileVersion appName="HCell" lastEdited="11.0" lowestEdited="11.0" rupBuild="0.2292"/>
+  <x:fileVersion appName="HCell" lastEdited="11.0" lowestEdited="11.0" rupBuild="0.3321"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NCSDongHwan\eclipse workspace\escape\exiter\etc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NCS\escape\exiter\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11820" tabRatio="500" activeTab="1"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="17160" windowHeight="11670" tabRatio="500" activeTab="2"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="User" sheetId="1" r:id="rId4"/>
@@ -26,498 +26,501 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="164">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="165">
+  <x:si>
+    <x:t>인원수(MAX)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>답변정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Table key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>질문정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업자정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Theme Table key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Board 테이블 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테마정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지점이 없는 경우 null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Question 테이블 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BoardComment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer 테이블 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user 테이블 키값(FK)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글정보를 가지는 테이블</x:t>
+  </x:si>
   <x:si>
     <x:t>comAddress4</x:t>
   </x:si>
   <x:si>
+    <x:t>사업자 비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TIMESTAMP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comPocus</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comPasswd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.09.12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comAddress1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우편주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uGrade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상세주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tPrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업무규칙</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rPrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TIME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>regDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TYPE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카테고리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작  성  일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tTime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uPhone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지번주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bcDef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rTime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Theme</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬럼ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로젝트명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comTel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qDef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uPasswd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈퇴 유무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Company</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 연락처</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 정의서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tImage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작  성  자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업자번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DOUBLE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Board</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BIGINT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aDef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모  듈  명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 등급</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uCheck</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약일자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인  덱  스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BOOLEAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xxxxxxxxxx(하이픈 미포함) 10자리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테마명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테마</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>좌표x</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매장명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지점명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>좌표y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엑시터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬럼명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장르</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>질문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>답변</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방린이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>U</x:t>
+  </x:si>
+  <x:si>
+    <x:t>길이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>난이도</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KEY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>줄거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인원수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연락처</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A(관리자) / U(일반회원)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Company 테이블 키값(FK)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈퇴유무 true / false</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BoardComment 테이블 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Company Table key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reservation 테이블 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Theme 테이블 키값(FK)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tName</x:t>
+  </x:si>
+  <x:si>
     <x:t>도로명주소</x:t>
   </x:si>
   <x:si>
-    <x:t>예약정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지점이 없는 경우 null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테마정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BoardComment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user 테이블 키값(FK)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User Table key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Question 테이블 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>질문정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업자정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Theme Table key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>답변정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Board 테이블 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Answer 테이블 키값</x:t>
+    <x:t>사업자 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날짜시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약금액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tLevel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bDef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bcid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tDef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Board 테이블 키값(FK), 게시글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user 테이블 키값(FK), 작성자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xxx-xxxx-xxxx(하이픈포함)</x:t>
   </x:si>
   <x:si>
     <x:t>Question 테이블 키값(FK), 질문</x:t>
   </x:si>
   <x:si>
-    <x:t>Board 테이블 키값(FK), 게시글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user 테이블 키값(FK), 작성자</x:t>
-  </x:si>
-  <x:si>
     <x:t>방린이 - 방소년 - 방으른 - 엑시터</x:t>
   </x:si>
   <x:si>
+    <x:t>xxx-xxxx-xxxx (하이픈포함)</x:t>
+  </x:si>
+  <x:si>
     <x:t>Company 테이블 키값(FK), 작성자</x:t>
   </x:si>
   <x:si>
-    <x:t>xxx-xxxx-xxxx(하이픈포함)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xxx-xxxx-xxxx (하이픈포함)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comAddress1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.09.12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업자 비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TIMESTAMP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comPocus</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comPasswd</x:t>
+    <x:t>comAddress3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comAddress2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Major Code</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Not Null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NULLABLE</x:t>
   </x:si>
   <x:si>
     <x:t>Question</x:t>
   </x:si>
   <x:si>
-    <x:t>Not Null</x:t>
+    <x:t>bCategory</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reservation</x:t>
   </x:si>
   <x:si>
     <x:t>tCategory</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NULLABLE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bCategory</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Major Code</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reservation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업자 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bDef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tLevel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bcid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tDef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uType</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약금액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날짜시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comTel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 연락처</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bcDef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tImage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 정의서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬럼ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qDef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uPasswd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Company</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Answer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈퇴 유무</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Theme</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로젝트명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rTime</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작  성  자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BOOLEAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인  덱  스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DOUBLE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BIGINT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Board</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>aDef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uCheck</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약일자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업자번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모  듈  명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 등급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tPrice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업무규칙</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TIME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uGrade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uPhone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rPrice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TYPE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작  성  일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>regDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tTime</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카테고리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Company Table key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A(관리자) / U(일반회원)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Company 테이블 키값(FK)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Theme 테이블 키값(FK)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈퇴유무 true / false</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reservation 테이블 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BoardComment 테이블 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방린이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>난이도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연락처</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>KEY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>줄거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>U</x:t>
-  </x:si>
-  <x:si>
-    <x:t>길이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인원수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엑시터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테마명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테마</x:t>
-  </x:si>
-  <x:si>
-    <x:t>좌표x</x:t>
-  </x:si>
-  <x:si>
-    <x:t>매장명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지점명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>좌표y</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>답변</x:t>
-  </x:si>
-  <x:si>
-    <x:t>질문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬럼명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장르</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>aid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xxxxxxxxxx(하이픈 미포함) 10자리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지번주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상세주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comAddress2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comAddress3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우편주소</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -607,30 +610,30 @@
   <x:borders count="2">
     <x:border>
       <x:left>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:left>
       <x:right>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:right>
       <x:top>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:top>
       <x:bottom>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left style="thin">
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:left>
       <x:right style="thin">
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:right>
       <x:top style="thin">
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:top>
       <x:bottom style="thin">
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:bottom>
     </x:border>
   </x:borders>
@@ -781,6 +784,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -863,6 +867,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -897,6 +902,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -941,6 +947,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -984,6 +991,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -991,10 +999,10 @@
           </x:font>
           <x:border>
             <x:left>
-              <x:color indexed="64"/>
+              <x:color auto="1"/>
             </x:left>
             <x:right>
-              <x:color indexed="64"/>
+              <x:color auto="1"/>
             </x:right>
             <x:top style="medium">
               <x:color rgb="ff6182d6"/>
@@ -1003,10 +1011,10 @@
               <x:color rgb="ff6182d6"/>
             </x:bottom>
             <x:vertical>
-              <x:color indexed="64"/>
+              <x:color auto="1"/>
             </x:vertical>
             <x:horizontal>
-              <x:color indexed="64"/>
+              <x:color auto="1"/>
             </x:horizontal>
           </x:border>
         </x:dxf>
@@ -1018,10 +1026,10 @@
           </x:font>
           <x:border>
             <x:left>
-              <x:color indexed="64"/>
+              <x:color auto="1"/>
             </x:left>
             <x:right>
-              <x:color indexed="64"/>
+              <x:color auto="1"/>
             </x:right>
             <x:top style="medium">
               <x:color rgb="ff6182d6"/>
@@ -1030,10 +1038,10 @@
               <x:color rgb="ff6182d6"/>
             </x:bottom>
             <x:vertical>
-              <x:color indexed="64"/>
+              <x:color auto="1"/>
             </x:vertical>
             <x:horizontal>
-              <x:color indexed="64"/>
+              <x:color auto="1"/>
             </x:horizontal>
           </x:border>
         </x:dxf>
@@ -1068,6 +1076,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1088,6 +1097,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1118,6 +1128,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1450,7 +1461,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
       <x:c r="A1" s="18" t="s">
-        <x:v>65</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B1" s="18"/>
       <x:c r="C1" s="18"/>
@@ -1464,36 +1475,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="16" t="s">
-        <x:v>75</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B2" s="16"/>
       <x:c r="C2" s="17" t="s">
-        <x:v>128</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D2" s="17"/>
       <x:c r="E2" s="17"/>
       <x:c r="F2" s="16" t="s">
-        <x:v>104</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G2" s="16"/>
       <x:c r="H2" s="16"/>
       <x:c r="I2" s="17" t="s">
-        <x:v>26</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J2" s="17"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="16" t="s">
-        <x:v>93</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B3" s="16"/>
       <x:c r="C3" s="17" t="s">
-        <x:v>140</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D3" s="17"/>
       <x:c r="E3" s="17"/>
       <x:c r="F3" s="16" t="s">
-        <x:v>79</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G3" s="16"/>
       <x:c r="H3" s="16"/>
@@ -1502,54 +1513,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="16" t="s">
-        <x:v>77</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B4" s="16"/>
       <x:c r="C4" s="17" t="s">
-        <x:v>83</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D4" s="17"/>
       <x:c r="E4" s="17"/>
       <x:c r="F4" s="16" t="s">
-        <x:v>44</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="G4" s="16"/>
       <x:c r="H4" s="16"/>
       <x:c r="I4" s="17" t="s">
-        <x:v>12</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J4" s="17"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>142</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>147</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>125</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>149</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>121</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>34</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>36</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>138</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -1557,21 +1568,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="5" t="s">
-        <x:v>148</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>85</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -1581,13 +1592,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="5" t="s">
-        <x:v>43</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="C7" s="5" t="s">
-        <x:v>101</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>70</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>20</x:v>
@@ -1595,7 +1606,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -1605,13 +1616,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="5" t="s">
-        <x:v>68</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C8" s="9" t="s">
-        <x:v>54</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>70</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E8" s="4">
         <x:v>16</x:v>
@@ -1619,7 +1630,7 @@
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -1629,13 +1640,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="5" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="C9" s="9" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D9" s="4" t="s">
         <x:v>51</x:v>
-      </x:c>
-      <x:c r="C9" s="9" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="D9" s="4" t="s">
-        <x:v>70</x:v>
       </x:c>
       <x:c r="E9" s="4">
         <x:v>20</x:v>
@@ -1643,7 +1654,7 @@
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="6"/>
@@ -1653,13 +1664,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="5" t="s">
-        <x:v>100</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C10" s="9" t="s">
-        <x:v>60</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>70</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E10" s="4">
         <x:v>13</x:v>
@@ -1667,11 +1678,11 @@
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="5" t="s">
-        <x:v>23</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -1679,27 +1690,27 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B11" s="9" t="s">
-        <x:v>99</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C11" s="9" t="s">
-        <x:v>95</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>70</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E11" s="4">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F11" s="4" t="s">
-        <x:v>115</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I11" s="7"/>
       <x:c r="J11" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -1707,27 +1718,27 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B12" s="9" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C12" s="8" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D12" s="4" t="s">
         <x:v>48</x:v>
-      </x:c>
-      <x:c r="C12" s="8" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="D12" s="4" t="s">
-        <x:v>76</x:v>
       </x:c>
       <x:c r="E12" s="7">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F12" s="7" t="s">
-        <x:v>124</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="G12" s="7"/>
       <x:c r="H12" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I12" s="7"/>
       <x:c r="J12" s="8" t="s">
-        <x:v>109</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -1735,13 +1746,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B13" s="9" t="s">
-        <x:v>89</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C13" s="8" t="s">
-        <x:v>72</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D13" s="4" t="s">
-        <x:v>80</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E13" s="7"/>
       <x:c r="F13" s="7" t="b">
@@ -1749,11 +1760,11 @@
       </x:c>
       <x:c r="G13" s="7"/>
       <x:c r="H13" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I13" s="7"/>
       <x:c r="J13" s="8" t="s">
-        <x:v>112</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -1761,19 +1772,19 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B14" s="9" t="s">
-        <x:v>105</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C14" s="8" t="s">
-        <x:v>53</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D14" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E14" s="7"/>
       <x:c r="F14" s="7"/>
       <x:c r="G14" s="7"/>
       <x:c r="H14" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I14" s="7"/>
       <x:c r="J14" s="8"/>
@@ -1828,42 +1839,42 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A20" s="13" t="s">
-        <x:v>81</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B20" s="13" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C20" s="14"/>
       <x:c r="D20" s="14"/>
@@ -1876,10 +1887,10 @@
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A21" s="13" t="s">
-        <x:v>97</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B21" s="13" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C21" s="15"/>
       <x:c r="D21" s="14"/>
@@ -1922,7 +1933,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:J22"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="N15" activeCellId="0" sqref="N15:N15"/>
     </x:sheetView>
   </x:sheetViews>
@@ -1943,7 +1954,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
       <x:c r="A1" s="18" t="s">
-        <x:v>65</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B1" s="18"/>
       <x:c r="C1" s="18"/>
@@ -1957,36 +1968,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="16" t="s">
-        <x:v>75</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B2" s="16"/>
       <x:c r="C2" s="17" t="s">
-        <x:v>128</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D2" s="17"/>
       <x:c r="E2" s="17"/>
       <x:c r="F2" s="16" t="s">
-        <x:v>104</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G2" s="16"/>
       <x:c r="H2" s="16"/>
       <x:c r="I2" s="17" t="s">
-        <x:v>26</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J2" s="17"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="16" t="s">
-        <x:v>93</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B3" s="16"/>
       <x:c r="C3" s="17" t="s">
-        <x:v>157</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D3" s="17"/>
       <x:c r="E3" s="17"/>
       <x:c r="F3" s="16" t="s">
-        <x:v>79</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G3" s="16"/>
       <x:c r="H3" s="16"/>
@@ -1995,54 +2006,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="16" t="s">
-        <x:v>77</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B4" s="16"/>
       <x:c r="C4" s="17" t="s">
-        <x:v>69</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D4" s="17"/>
       <x:c r="E4" s="17"/>
       <x:c r="F4" s="16" t="s">
-        <x:v>44</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="G4" s="16"/>
       <x:c r="H4" s="16"/>
       <x:c r="I4" s="17" t="s">
-        <x:v>11</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="J4" s="17"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>142</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>147</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>125</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>149</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>121</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>34</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>36</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>138</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -2050,21 +2061,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
-        <x:v>151</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
-        <x:v>108</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>85</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -2074,13 +2085,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>38</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>70</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>20</x:v>
@@ -2088,7 +2099,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -2098,13 +2109,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
-        <x:v>30</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C8" s="10" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>70</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E8" s="4">
         <x:v>16</x:v>
@@ -2112,7 +2123,7 @@
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -2122,13 +2133,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="10" t="s">
-        <x:v>40</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>134</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>70</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E9" s="4">
         <x:v>20</x:v>
@@ -2136,7 +2147,7 @@
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="6"/>
@@ -2146,13 +2157,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="12" t="s">
-        <x:v>29</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C10" s="12" t="s">
-        <x:v>135</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>70</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E10" s="4">
         <x:v>20</x:v>
@@ -2160,11 +2171,11 @@
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>91</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -2172,13 +2183,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B11" s="10" t="s">
-        <x:v>64</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C11" s="10" t="s">
-        <x:v>92</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>70</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E11" s="4">
         <x:v>10</x:v>
@@ -2186,11 +2197,11 @@
       <x:c r="F11" s="4"/>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I11" s="4"/>
       <x:c r="J11" s="5" t="s">
-        <x:v>158</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -2198,13 +2209,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B12" s="10" t="s">
-        <x:v>25</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C12" s="10" t="s">
-        <x:v>163</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D12" s="4" t="s">
-        <x:v>70</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E12" s="4">
         <x:v>10</x:v>
@@ -2212,7 +2223,7 @@
       <x:c r="F12" s="4"/>
       <x:c r="G12" s="4"/>
       <x:c r="H12" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I12" s="7"/>
       <x:c r="J12" s="10"/>
@@ -2222,13 +2233,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B13" s="10" t="s">
-        <x:v>161</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C13" s="10" t="s">
-        <x:v>1</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="D13" s="4" t="s">
-        <x:v>70</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E13" s="4">
         <x:v>50</x:v>
@@ -2236,7 +2247,7 @@
       <x:c r="F13" s="4"/>
       <x:c r="G13" s="4"/>
       <x:c r="H13" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I13" s="7"/>
       <x:c r="J13" s="10"/>
@@ -2246,13 +2257,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B14" s="10" t="s">
-        <x:v>162</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="C14" s="10" t="s">
-        <x:v>159</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D14" s="4" t="s">
-        <x:v>70</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E14" s="4">
         <x:v>50</x:v>
@@ -2260,7 +2271,7 @@
       <x:c r="F14" s="4"/>
       <x:c r="G14" s="4"/>
       <x:c r="H14" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I14" s="7"/>
       <x:c r="J14" s="10"/>
@@ -2270,13 +2281,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B15" s="10" t="s">
-        <x:v>0</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C15" s="10" t="s">
-        <x:v>160</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D15" s="4" t="s">
-        <x:v>70</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E15" s="4">
         <x:v>50</x:v>
@@ -2284,7 +2295,7 @@
       <x:c r="F15" s="4"/>
       <x:c r="G15" s="4"/>
       <x:c r="H15" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I15" s="7"/>
       <x:c r="J15" s="10"/>
@@ -2294,13 +2305,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B16" s="10" t="s">
-        <x:v>58</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C16" s="10" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D16" s="4" t="s">
-        <x:v>70</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E16" s="7">
         <x:v>13</x:v>
@@ -2308,11 +2319,11 @@
       <x:c r="F16" s="7"/>
       <x:c r="G16" s="7"/>
       <x:c r="H16" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I16" s="7"/>
       <x:c r="J16" s="8" t="s">
-        <x:v>24</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -2320,19 +2331,19 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B17" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C17" s="10" t="s">
-        <x:v>133</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D17" s="4" t="s">
-        <x:v>82</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E17" s="7"/>
       <x:c r="F17" s="7"/>
       <x:c r="G17" s="7"/>
       <x:c r="H17" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I17" s="7"/>
       <x:c r="J17" s="8"/>
@@ -2342,19 +2353,19 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B18" s="10" t="s">
-        <x:v>84</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C18" s="10" t="s">
-        <x:v>136</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D18" s="4" t="s">
-        <x:v>82</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E18" s="7"/>
       <x:c r="F18" s="7"/>
       <x:c r="G18" s="7"/>
       <x:c r="H18" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I18" s="7"/>
       <x:c r="J18" s="8"/>
@@ -2364,61 +2375,61 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B19" s="10" t="s">
-        <x:v>105</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C19" s="10" t="s">
-        <x:v>53</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E19" s="7"/>
       <x:c r="F19" s="7"/>
       <x:c r="G19" s="7"/>
       <x:c r="H19" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I19" s="7"/>
       <x:c r="J19" s="8"/>
     </x:row>
     <x:row r="20" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A20" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B20" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C20" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D20" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E20" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F20" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G20" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="H20" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="I20" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="J20" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A21" s="13" t="s">
-        <x:v>81</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B21" s="13" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C21" s="14"/>
       <x:c r="D21" s="14"/>
@@ -2431,10 +2442,10 @@
     </x:row>
     <x:row r="22" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A22" s="13" t="s">
-        <x:v>97</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B22" s="13" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C22" s="15"/>
       <x:c r="D22" s="14"/>
@@ -2477,8 +2488,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:J21"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="I4" activeCellId="0" sqref="I4:J4"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="C10" activeCellId="0" sqref="C10:C10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
@@ -2498,7 +2509,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
       <x:c r="A1" s="18" t="s">
-        <x:v>65</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B1" s="18"/>
       <x:c r="C1" s="18"/>
@@ -2512,36 +2523,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="16" t="s">
-        <x:v>75</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B2" s="16"/>
       <x:c r="C2" s="17" t="s">
-        <x:v>128</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D2" s="17"/>
       <x:c r="E2" s="17"/>
       <x:c r="F2" s="16" t="s">
-        <x:v>104</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G2" s="16"/>
       <x:c r="H2" s="16"/>
       <x:c r="I2" s="17" t="s">
-        <x:v>26</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J2" s="17"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="16" t="s">
-        <x:v>93</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B3" s="16"/>
       <x:c r="C3" s="17" t="s">
-        <x:v>132</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D3" s="17"/>
       <x:c r="E3" s="17"/>
       <x:c r="F3" s="16" t="s">
-        <x:v>79</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G3" s="16"/>
       <x:c r="H3" s="16"/>
@@ -2550,54 +2561,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="16" t="s">
-        <x:v>77</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B4" s="16"/>
       <x:c r="C4" s="17" t="s">
-        <x:v>74</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D4" s="17"/>
       <x:c r="E4" s="17"/>
       <x:c r="F4" s="16" t="s">
-        <x:v>44</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="G4" s="16"/>
       <x:c r="H4" s="16"/>
       <x:c r="I4" s="17" t="s">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="J4" s="17"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>142</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>147</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>125</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>149</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>121</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>34</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>36</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>138</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -2605,21 +2616,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
-        <x:v>150</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>85</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -2629,13 +2640,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>57</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>130</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>70</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>20</x:v>
@@ -2643,7 +2654,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -2653,13 +2664,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
-        <x:v>33</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="C8" s="10" t="s">
-        <x:v>152</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>70</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E8" s="4">
         <x:v>10</x:v>
@@ -2667,7 +2678,7 @@
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -2677,19 +2688,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="10" t="s">
-        <x:v>41</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>118</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>154</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="6"/>
@@ -2699,19 +2710,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="10" t="s">
-        <x:v>45</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>126</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>154</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="5"/>
@@ -2721,19 +2732,19 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B11" s="10" t="s">
-        <x:v>96</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C11" s="10" t="s">
-        <x:v>131</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>154</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E11" s="4"/>
       <x:c r="F11" s="4"/>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I11" s="7"/>
       <x:c r="J11" s="5"/>
@@ -2743,13 +2754,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B12" s="10" t="s">
-        <x:v>47</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="C12" s="10" t="s">
-        <x:v>123</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D12" s="4" t="s">
-        <x:v>70</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E12" s="7">
         <x:v>500</x:v>
@@ -2757,7 +2768,7 @@
       <x:c r="F12" s="7"/>
       <x:c r="G12" s="7"/>
       <x:c r="H12" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I12" s="7"/>
       <x:c r="J12" s="8"/>
@@ -2767,19 +2778,19 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B13" s="10" t="s">
-        <x:v>106</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C13" s="10" t="s">
-        <x:v>129</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D13" s="4" t="s">
-        <x:v>154</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E13" s="7"/>
       <x:c r="F13" s="7"/>
       <x:c r="G13" s="7"/>
       <x:c r="H13" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I13" s="7"/>
       <x:c r="J13" s="8"/>
@@ -2789,13 +2800,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B14" s="10" t="s">
-        <x:v>62</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C14" s="10" t="s">
-        <x:v>141</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D14" s="4" t="s">
-        <x:v>70</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E14" s="7">
         <x:v>100</x:v>
@@ -2803,7 +2814,7 @@
       <x:c r="F14" s="7"/>
       <x:c r="G14" s="7"/>
       <x:c r="H14" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I14" s="7"/>
       <x:c r="J14" s="8"/>
@@ -2813,21 +2824,21 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B15" s="10" t="s">
-        <x:v>151</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C15" s="10" t="s">
-        <x:v>110</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D15" s="4" t="s">
-        <x:v>85</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E15" s="7"/>
       <x:c r="F15" s="7"/>
       <x:c r="G15" s="7" t="s">
-        <x:v>117</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="H15" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I15" s="7"/>
       <x:c r="J15" s="8"/>
@@ -2837,19 +2848,19 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B16" s="10" t="s">
-        <x:v>105</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C16" s="10" t="s">
-        <x:v>53</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D16" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E16" s="7"/>
       <x:c r="F16" s="7"/>
       <x:c r="G16" s="7"/>
       <x:c r="H16" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I16" s="7"/>
       <x:c r="J16" s="8"/>
@@ -2880,42 +2891,42 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A20" s="13" t="s">
-        <x:v>81</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B20" s="13" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C20" s="14"/>
       <x:c r="D20" s="14"/>
@@ -2928,10 +2939,10 @@
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A21" s="13" t="s">
-        <x:v>97</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B21" s="13" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C21" s="15"/>
       <x:c r="D21" s="14"/>
@@ -2995,7 +3006,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
       <x:c r="A1" s="18" t="s">
-        <x:v>65</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B1" s="18"/>
       <x:c r="C1" s="18"/>
@@ -3009,36 +3020,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="16" t="s">
-        <x:v>75</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B2" s="16"/>
       <x:c r="C2" s="17" t="s">
-        <x:v>128</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D2" s="17"/>
       <x:c r="E2" s="17"/>
       <x:c r="F2" s="16" t="s">
-        <x:v>104</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G2" s="16"/>
       <x:c r="H2" s="16"/>
       <x:c r="I2" s="17" t="s">
-        <x:v>26</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J2" s="17"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="16" t="s">
-        <x:v>93</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B3" s="16"/>
       <x:c r="C3" s="17" t="s">
-        <x:v>143</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D3" s="17"/>
       <x:c r="E3" s="17"/>
       <x:c r="F3" s="16" t="s">
-        <x:v>79</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G3" s="16"/>
       <x:c r="H3" s="16"/>
@@ -3047,54 +3058,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="16" t="s">
-        <x:v>77</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B4" s="16"/>
       <x:c r="C4" s="17" t="s">
-        <x:v>37</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="D4" s="17"/>
       <x:c r="E4" s="17"/>
       <x:c r="F4" s="16" t="s">
-        <x:v>44</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="G4" s="16"/>
       <x:c r="H4" s="16"/>
       <x:c r="I4" s="17" t="s">
-        <x:v>2</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="J4" s="17"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>142</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>147</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>125</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>149</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>121</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>34</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>36</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>138</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -3102,21 +3113,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
-        <x:v>144</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C6" s="10" t="s">
-        <x:v>113</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>85</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -3126,23 +3137,23 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>148</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>70</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>20</x:v>
       </x:c>
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4" t="s">
-        <x:v>117</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="H7" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -3152,21 +3163,21 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
-        <x:v>150</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C8" s="5" t="s">
-        <x:v>111</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>85</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E8" s="4"/>
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4" t="s">
-        <x:v>117</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="H8" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -3176,19 +3187,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="10" t="s">
-        <x:v>102</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>49</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>154</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="5"/>
@@ -3198,19 +3209,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="10" t="s">
-        <x:v>42</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>90</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>73</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="11"/>
@@ -3220,19 +3231,19 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B11" s="10" t="s">
-        <x:v>78</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C11" s="10" t="s">
-        <x:v>56</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>98</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E11" s="4"/>
       <x:c r="F11" s="4"/>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I11" s="7"/>
       <x:c r="J11" s="5"/>
@@ -3242,19 +3253,19 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B12" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="C12" s="10" t="s">
-        <x:v>126</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D12" s="4" t="s">
-        <x:v>154</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E12" s="4"/>
       <x:c r="F12" s="4"/>
       <x:c r="G12" s="4"/>
       <x:c r="H12" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I12" s="7"/>
       <x:c r="J12" s="8"/>
@@ -3264,19 +3275,19 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B13" s="10" t="s">
-        <x:v>105</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C13" s="10" t="s">
-        <x:v>53</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D13" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E13" s="7"/>
       <x:c r="F13" s="7"/>
       <x:c r="G13" s="7"/>
       <x:c r="H13" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I13" s="7"/>
       <x:c r="J13" s="8"/>
@@ -3343,42 +3354,42 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A20" s="13" t="s">
-        <x:v>81</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B20" s="13" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C20" s="14"/>
       <x:c r="D20" s="14"/>
@@ -3391,10 +3402,10 @@
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A21" s="13" t="s">
-        <x:v>97</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B21" s="13" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C21" s="15"/>
       <x:c r="D21" s="14"/>
@@ -3458,7 +3469,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
       <x:c r="A1" s="18" t="s">
-        <x:v>65</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B1" s="18"/>
       <x:c r="C1" s="18"/>
@@ -3472,36 +3483,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="16" t="s">
-        <x:v>75</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B2" s="16"/>
       <x:c r="C2" s="17" t="s">
-        <x:v>128</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D2" s="17"/>
       <x:c r="E2" s="17"/>
       <x:c r="F2" s="16" t="s">
-        <x:v>104</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G2" s="16"/>
       <x:c r="H2" s="16"/>
       <x:c r="I2" s="17" t="s">
-        <x:v>26</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J2" s="17"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="16" t="s">
-        <x:v>93</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B3" s="16"/>
       <x:c r="C3" s="17" t="s">
-        <x:v>127</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D3" s="17"/>
       <x:c r="E3" s="17"/>
       <x:c r="F3" s="16" t="s">
-        <x:v>79</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G3" s="16"/>
       <x:c r="H3" s="16"/>
@@ -3510,54 +3521,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="16" t="s">
-        <x:v>77</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B4" s="16"/>
       <x:c r="C4" s="17" t="s">
-        <x:v>86</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D4" s="17"/>
       <x:c r="E4" s="17"/>
       <x:c r="F4" s="16" t="s">
-        <x:v>44</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="G4" s="16"/>
       <x:c r="H4" s="16"/>
       <x:c r="I4" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="J4" s="17"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>142</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>147</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>125</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>149</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>121</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>34</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>36</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>138</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -3565,21 +3576,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
-        <x:v>139</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C6" s="10" t="s">
-        <x:v>15</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>85</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -3589,13 +3600,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>63</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>137</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>70</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>100</x:v>
@@ -3603,7 +3614,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -3613,13 +3624,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
-        <x:v>39</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C8" s="10" t="s">
-        <x:v>122</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>70</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E8" s="4">
         <x:v>3000</x:v>
@@ -3627,7 +3638,7 @@
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -3637,13 +3648,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="10" t="s">
-        <x:v>35</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>107</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>70</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E9" s="4">
         <x:v>10</x:v>
@@ -3651,7 +3662,7 @@
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="5"/>
@@ -3661,21 +3672,21 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="10" t="s">
-        <x:v>148</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>85</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4" t="s">
-        <x:v>117</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="H10" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="11"/>
@@ -3685,19 +3696,19 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B11" s="10" t="s">
-        <x:v>105</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C11" s="10" t="s">
-        <x:v>53</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E11" s="4"/>
       <x:c r="F11" s="4"/>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I11" s="7"/>
       <x:c r="J11" s="5"/>
@@ -3788,42 +3799,42 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A20" s="13" t="s">
-        <x:v>81</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B20" s="13" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C20" s="14"/>
       <x:c r="D20" s="14"/>
@@ -3836,10 +3847,10 @@
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A21" s="13" t="s">
-        <x:v>97</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B21" s="13" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C21" s="15"/>
       <x:c r="D21" s="14"/>
@@ -3903,7 +3914,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
       <x:c r="A1" s="18" t="s">
-        <x:v>65</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B1" s="18"/>
       <x:c r="C1" s="18"/>
@@ -3917,36 +3928,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="16" t="s">
-        <x:v>75</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B2" s="16"/>
       <x:c r="C2" s="17" t="s">
-        <x:v>128</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D2" s="17"/>
       <x:c r="E2" s="17"/>
       <x:c r="F2" s="16" t="s">
-        <x:v>104</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G2" s="16"/>
       <x:c r="H2" s="16"/>
       <x:c r="I2" s="17" t="s">
-        <x:v>26</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J2" s="17"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="16" t="s">
-        <x:v>93</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B3" s="16"/>
       <x:c r="C3" s="17" t="s">
-        <x:v>153</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D3" s="17"/>
       <x:c r="E3" s="17"/>
       <x:c r="F3" s="16" t="s">
-        <x:v>79</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G3" s="16"/>
       <x:c r="H3" s="16"/>
@@ -3955,54 +3966,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="16" t="s">
-        <x:v>77</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B4" s="16"/>
       <x:c r="C4" s="17" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D4" s="17"/>
       <x:c r="E4" s="17"/>
       <x:c r="F4" s="16" t="s">
-        <x:v>44</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="G4" s="16"/>
       <x:c r="H4" s="16"/>
       <x:c r="I4" s="17" t="s">
-        <x:v>3</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="J4" s="17"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>142</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>147</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>125</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>149</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>121</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>34</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>36</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>138</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -4010,21 +4021,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
-        <x:v>46</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C6" s="10" t="s">
-        <x:v>114</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>85</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -4034,13 +4045,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>122</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>70</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>500</x:v>
@@ -4048,7 +4059,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -4058,21 +4069,21 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
-        <x:v>148</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C8" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>85</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E8" s="4"/>
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4" t="s">
-        <x:v>117</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="H8" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -4082,21 +4093,21 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="10" t="s">
-        <x:v>139</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>19</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>85</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4" t="s">
-        <x:v>117</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="H9" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="5"/>
@@ -4106,19 +4117,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="10" t="s">
-        <x:v>105</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>53</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="11"/>
@@ -4221,42 +4232,42 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A20" s="13" t="s">
-        <x:v>81</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B20" s="13" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C20" s="14"/>
       <x:c r="D20" s="14"/>
@@ -4269,10 +4280,10 @@
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A21" s="13" t="s">
-        <x:v>97</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B21" s="13" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C21" s="15"/>
       <x:c r="D21" s="14"/>
@@ -4336,7 +4347,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
       <x:c r="A1" s="18" t="s">
-        <x:v>65</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B1" s="18"/>
       <x:c r="C1" s="18"/>
@@ -4350,36 +4361,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="16" t="s">
-        <x:v>75</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B2" s="16"/>
       <x:c r="C2" s="17" t="s">
-        <x:v>128</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D2" s="17"/>
       <x:c r="E2" s="17"/>
       <x:c r="F2" s="16" t="s">
-        <x:v>104</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G2" s="16"/>
       <x:c r="H2" s="16"/>
       <x:c r="I2" s="17" t="s">
-        <x:v>26</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J2" s="17"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="16" t="s">
-        <x:v>93</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B3" s="16"/>
       <x:c r="C3" s="17" t="s">
-        <x:v>146</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D3" s="17"/>
       <x:c r="E3" s="17"/>
       <x:c r="F3" s="16" t="s">
-        <x:v>79</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G3" s="16"/>
       <x:c r="H3" s="16"/>
@@ -4388,54 +4399,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="16" t="s">
-        <x:v>77</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B4" s="16"/>
       <x:c r="C4" s="17" t="s">
-        <x:v>31</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D4" s="17"/>
       <x:c r="E4" s="17"/>
       <x:c r="F4" s="16" t="s">
-        <x:v>44</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="G4" s="16"/>
       <x:c r="H4" s="16"/>
       <x:c r="I4" s="17" t="s">
-        <x:v>10</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J4" s="17"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>142</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>147</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>125</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>149</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>121</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>34</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>36</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>138</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -4443,21 +4454,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
-        <x:v>156</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C6" s="10" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>85</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -4467,13 +4478,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>55</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>137</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>70</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>100</x:v>
@@ -4481,7 +4492,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -4491,13 +4502,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
-        <x:v>67</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C8" s="10" t="s">
-        <x:v>122</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>70</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E8" s="4">
         <x:v>3000</x:v>
@@ -4505,7 +4516,7 @@
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -4515,21 +4526,21 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="10" t="s">
-        <x:v>148</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>85</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4" t="s">
-        <x:v>117</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="H9" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="5"/>
@@ -4539,21 +4550,21 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="10" t="s">
-        <x:v>151</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>110</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>85</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4" t="s">
-        <x:v>117</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="H10" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="11"/>
@@ -4563,19 +4574,19 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B11" s="10" t="s">
-        <x:v>105</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C11" s="10" t="s">
-        <x:v>53</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E11" s="4"/>
       <x:c r="F11" s="4"/>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I11" s="7"/>
       <x:c r="J11" s="5"/>
@@ -4666,42 +4677,42 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A20" s="13" t="s">
-        <x:v>81</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B20" s="13" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C20" s="14"/>
       <x:c r="D20" s="14"/>
@@ -4714,10 +4725,10 @@
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A21" s="13" t="s">
-        <x:v>97</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B21" s="13" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C21" s="15"/>
       <x:c r="D21" s="14"/>
@@ -4781,7 +4792,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
       <x:c r="A1" s="18" t="s">
-        <x:v>65</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B1" s="18"/>
       <x:c r="C1" s="18"/>
@@ -4795,36 +4806,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="16" t="s">
-        <x:v>75</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B2" s="16"/>
       <x:c r="C2" s="17" t="s">
-        <x:v>128</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D2" s="17"/>
       <x:c r="E2" s="17"/>
       <x:c r="F2" s="16" t="s">
-        <x:v>104</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G2" s="16"/>
       <x:c r="H2" s="16"/>
       <x:c r="I2" s="17" t="s">
-        <x:v>26</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J2" s="17"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="16" t="s">
-        <x:v>93</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B3" s="16"/>
       <x:c r="C3" s="17" t="s">
-        <x:v>145</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D3" s="17"/>
       <x:c r="E3" s="17"/>
       <x:c r="F3" s="16" t="s">
-        <x:v>79</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G3" s="16"/>
       <x:c r="H3" s="16"/>
@@ -4833,54 +4844,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="16" t="s">
-        <x:v>77</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B4" s="16"/>
       <x:c r="C4" s="17" t="s">
-        <x:v>71</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D4" s="17"/>
       <x:c r="E4" s="17"/>
       <x:c r="F4" s="16" t="s">
-        <x:v>44</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="G4" s="16"/>
       <x:c r="H4" s="16"/>
       <x:c r="I4" s="17" t="s">
-        <x:v>14</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J4" s="17"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>142</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>147</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>125</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>149</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>121</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>34</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>36</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>138</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -4888,21 +4899,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
-        <x:v>155</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C6" s="10" t="s">
-        <x:v>17</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>85</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -4912,13 +4923,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>88</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>122</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>70</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>1000</x:v>
@@ -4926,7 +4937,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -4936,21 +4947,21 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
-        <x:v>156</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C8" s="10" t="s">
-        <x:v>18</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>85</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E8" s="4"/>
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4" t="s">
-        <x:v>117</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="H8" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -4960,21 +4971,21 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="10" t="s">
-        <x:v>151</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>22</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>85</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4" t="s">
-        <x:v>117</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="H9" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="5"/>
@@ -4984,19 +4995,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="10" t="s">
-        <x:v>105</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>53</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="11"/>
@@ -5099,42 +5110,42 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A20" s="13" t="s">
-        <x:v>81</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B20" s="13" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C20" s="14"/>
       <x:c r="D20" s="14"/>
@@ -5147,10 +5158,10 @@
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A21" s="13" t="s">
-        <x:v>97</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B21" s="13" t="s">
-        <x:v>120</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C21" s="15"/>
       <x:c r="D21" s="14"/>

--- a/exiter/etc/테이블DB.xlsx
+++ b/exiter/etc/테이블DB.xlsx
@@ -9,76 +9,489 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="17160" windowHeight="11670" tabRatio="500" activeTab="2"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="11670" tabRatio="500" activeTab="5"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="User" sheetId="1" r:id="rId4"/>
     <x:sheet name="Company" sheetId="2" r:id="rId5"/>
     <x:sheet name="Theme" sheetId="3" r:id="rId6"/>
-    <x:sheet name="Reservation" sheetId="4" r:id="rId7"/>
-    <x:sheet name="Board" sheetId="5" r:id="rId8"/>
-    <x:sheet name="BoardComment" sheetId="6" r:id="rId9"/>
-    <x:sheet name="Question" sheetId="7" r:id="rId10"/>
-    <x:sheet name="Answer" sheetId="8" r:id="rId11"/>
+    <x:sheet name="ThemePrice" sheetId="4" r:id="rId7"/>
+    <x:sheet name="Reservation" sheetId="5" r:id="rId8"/>
+    <x:sheet name="ThemeReservationTime" sheetId="6" r:id="rId9"/>
+    <x:sheet name="Board" sheetId="7" r:id="rId10"/>
+    <x:sheet name="BoardComment" sheetId="8" r:id="rId11"/>
+    <x:sheet name="Question" sheetId="9" r:id="rId12"/>
+    <x:sheet name="Answer" sheetId="10" r:id="rId13"/>
   </x:sheets>
   <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="165">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="179">
+  <x:si>
+    <x:t>ThemePrice Table key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테마예약시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tpid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테마예약시간 정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ThemePrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬럼명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>좌표y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>좌표x</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엑시터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지점명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테마</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테마명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매장명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>길이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인원수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>난이도</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>답변</x:t>
+  </x:si>
+  <x:si>
+    <x:t>U</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연락처</x:t>
+  </x:si>
+  <x:si>
+    <x:t>줄거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>질문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KEY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장르</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방린이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Table key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업자정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>답변정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>질문정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Theme Table key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테마정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer 테이블 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user 테이블 키값(FK)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BoardComment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Board 테이블 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Question 테이블 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지점이 없는 경우 null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Company 테이블 키값(FK)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈퇴유무 true / false</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Company Table key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reservation 테이블 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A(관리자) / U(일반회원)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BoardComment 테이블 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Theme 테이블 키값(FK)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xxxxxxxxxx(하이픈 미포함) 10자리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상세주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카테고리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로젝트명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uPasswd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우편주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qDef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TIME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tTime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rPrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tPrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TYPE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작  성  일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업무규칙</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uPhone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지번주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bcDef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Theme</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rTime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comTel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>regDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬럼ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uGrade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BIGINT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aDef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 정의서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작  성  자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인  덱  스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 연락처</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도로명주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모  듈  명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업자 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DOUBLE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업자번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날짜시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 등급</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tImage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uCheck</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약일자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Company</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Board</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BOOLEAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈퇴 유무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tLevel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tDef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bDef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약금액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bcid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xxx-xxxx-xxxx (하이픈포함)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xxx-xxxx-xxxx(하이픈포함)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Board 테이블 키값(FK), 게시글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Company 테이블 키값(FK), 작성자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방린이 - 방소년 - 방으른 - 엑시터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Question 테이블 키값(FK), 질문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user 테이블 키값(FK), 작성자</x:t>
+  </x:si>
   <x:si>
     <x:t>인원수(MAX)</x:t>
   </x:si>
   <x:si>
-    <x:t>답변정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User Table key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>질문정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업자정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Theme Table key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Board 테이블 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테마정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지점이 없는 경우 null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Question 테이블 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BoardComment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Answer 테이블 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user 테이블 키값(FK)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
     <x:t>comAddress4</x:t>
   </x:si>
   <x:si>
@@ -88,432 +501,36 @@
     <x:t>TIMESTAMP</x:t>
   </x:si>
   <x:si>
+    <x:t>comPasswd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.09.12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comAddress1</x:t>
+  </x:si>
+  <x:si>
     <x:t>comPocus</x:t>
   </x:si>
   <x:si>
-    <x:t>comPasswd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.09.12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comAddress1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우편주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uGrade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상세주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tPrice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업무규칙</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rPrice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TIME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>regDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TYPE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카테고리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작  성  일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tTime</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uPhone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지번주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bcDef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rTime</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Theme</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬럼ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로젝트명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comTel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qDef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uPasswd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈퇴 유무</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Company</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Answer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 연락처</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 정의서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tImage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작  성  자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업자번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DOUBLE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Board</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BIGINT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>aDef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모  듈  명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 등급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uCheck</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약일자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인  덱  스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BOOLEAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xxxxxxxxxx(하이픈 미포함) 10자리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테마명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테마</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>좌표x</x:t>
-  </x:si>
-  <x:si>
-    <x:t>매장명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지점명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>좌표y</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엑시터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>aid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬럼명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장르</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>질문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>답변</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방린이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>U</x:t>
-  </x:si>
-  <x:si>
-    <x:t>길이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>난이도</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KEY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>줄거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인원수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연락처</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A(관리자) / U(일반회원)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Company 테이블 키값(FK)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈퇴유무 true / false</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BoardComment 테이블 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Company Table key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reservation 테이블 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Theme 테이블 키값(FK)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도로명주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업자 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날짜시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약금액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tLevel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bDef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bcid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uType</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tDef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Board 테이블 키값(FK), 게시글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user 테이블 키값(FK), 작성자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xxx-xxxx-xxxx(하이픈포함)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Question 테이블 키값(FK), 질문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방린이 - 방소년 - 방으른 - 엑시터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xxx-xxxx-xxxx (하이픈포함)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Company 테이블 키값(FK), 작성자</x:t>
+    <x:t>Major Code</x:t>
   </x:si>
   <x:si>
     <x:t>comAddress3</x:t>
   </x:si>
   <x:si>
+    <x:t>Not Null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NULLABLE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Question</x:t>
+  </x:si>
+  <x:si>
     <x:t>comAddress2</x:t>
   </x:si>
   <x:si>
-    <x:t>Major Code</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Not Null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NULLABLE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Question</x:t>
-  </x:si>
-  <x:si>
     <x:t>bCategory</x:t>
   </x:si>
   <x:si>
@@ -521,6 +538,33 @@
   </x:si>
   <x:si>
     <x:t>tCategory</x:t>
+  </x:si>
+  <x:si>
+    <x:t>trTime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테마가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테마가격 정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ThemeReservationTime 테이블 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tpNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>trid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ThemeReservationTime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ex) 10:00 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인원당 금액</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -645,7 +689,7 @@
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="19">
+  <x:cellXfs count="22">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -712,9 +756,6 @@
     <x:xf numFmtId="20" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
@@ -773,6 +814,18 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="2">
     <x:cellStyle name="표준" xfId="0" builtinId="0" iLevel="0"/>
@@ -784,7 +837,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -867,7 +919,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -902,7 +953,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -947,7 +997,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -991,7 +1040,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1076,7 +1124,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1097,7 +1144,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1128,7 +1174,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1441,7 +1486,7 @@
   <x:dimension ref="A1:J21"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="K14" activeCellId="0" sqref="K14:K14"/>
+      <x:selection activeCell="C17" activeCellId="0" sqref="C17:C17"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
@@ -1460,129 +1505,129 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A1" s="18" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="B1" s="18"/>
-      <x:c r="C1" s="18"/>
-      <x:c r="D1" s="18"/>
-      <x:c r="E1" s="18"/>
-      <x:c r="F1" s="18"/>
-      <x:c r="G1" s="18"/>
-      <x:c r="H1" s="18"/>
-      <x:c r="I1" s="18"/>
-      <x:c r="J1" s="18"/>
+      <x:c r="A1" s="17" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B1" s="17"/>
+      <x:c r="C1" s="17"/>
+      <x:c r="D1" s="17"/>
+      <x:c r="E1" s="17"/>
+      <x:c r="F1" s="17"/>
+      <x:c r="G1" s="17"/>
+      <x:c r="H1" s="17"/>
+      <x:c r="I1" s="17"/>
+      <x:c r="J1" s="17"/>
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A2" s="16" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="B2" s="16"/>
-      <x:c r="C2" s="17" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="D2" s="17"/>
-      <x:c r="E2" s="17"/>
-      <x:c r="F2" s="16" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="G2" s="16"/>
-      <x:c r="H2" s="16"/>
-      <x:c r="I2" s="17" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="J2" s="17"/>
+      <x:c r="A2" s="15" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B2" s="15"/>
+      <x:c r="C2" s="16" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D2" s="16"/>
+      <x:c r="E2" s="16"/>
+      <x:c r="F2" s="15" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="G2" s="15"/>
+      <x:c r="H2" s="15"/>
+      <x:c r="I2" s="16" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="J2" s="16"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A3" s="16" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="B3" s="16"/>
-      <x:c r="C3" s="17" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="D3" s="17"/>
-      <x:c r="E3" s="17"/>
-      <x:c r="F3" s="16" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="G3" s="16"/>
-      <x:c r="H3" s="16"/>
-      <x:c r="I3" s="17"/>
-      <x:c r="J3" s="17"/>
+      <x:c r="A3" s="15" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B3" s="15"/>
+      <x:c r="C3" s="16" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D3" s="16"/>
+      <x:c r="E3" s="16"/>
+      <x:c r="F3" s="15" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="G3" s="15"/>
+      <x:c r="H3" s="15"/>
+      <x:c r="I3" s="16"/>
+      <x:c r="J3" s="16"/>
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A4" s="16" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="B4" s="16"/>
-      <x:c r="C4" s="17" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="D4" s="17"/>
-      <x:c r="E4" s="17"/>
-      <x:c r="F4" s="16" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="G4" s="16"/>
-      <x:c r="H4" s="16"/>
-      <x:c r="I4" s="17" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="J4" s="17"/>
+      <x:c r="A4" s="15" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="B4" s="15"/>
+      <x:c r="C4" s="16" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="D4" s="16"/>
+      <x:c r="E4" s="16"/>
+      <x:c r="F4" s="15" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="G4" s="15"/>
+      <x:c r="H4" s="15"/>
+      <x:c r="I4" s="16" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J4" s="16"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>43</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>92</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>33</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>96</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>160</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>158</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A6" s="4">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B6" s="5" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="C6" s="5" t="s">
-        <x:v>2</x:v>
+      <x:c r="B6" s="18" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C6" s="18" t="s">
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>64</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>119</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -1591,14 +1636,14 @@
       <x:c r="A7" s="4">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B7" s="5" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="C7" s="5" t="s">
-        <x:v>29</x:v>
+      <x:c r="B7" s="18" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="C7" s="18" t="s">
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>51</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>20</x:v>
@@ -1606,7 +1651,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -1615,14 +1660,14 @@
       <x:c r="A8" s="4">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B8" s="5" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C8" s="9" t="s">
-        <x:v>133</x:v>
+      <x:c r="B8" s="18" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C8" s="19" t="s">
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>51</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E8" s="4">
         <x:v>16</x:v>
@@ -1630,7 +1675,7 @@
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -1639,14 +1684,14 @@
       <x:c r="A9" s="4">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B9" s="5" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="C9" s="9" t="s">
-        <x:v>66</x:v>
+      <x:c r="B9" s="18" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="C9" s="19" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>51</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E9" s="4">
         <x:v>20</x:v>
@@ -1654,7 +1699,7 @@
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="6"/>
@@ -1663,14 +1708,14 @@
       <x:c r="A10" s="7">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B10" s="5" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C10" s="9" t="s">
-        <x:v>57</x:v>
+      <x:c r="B10" s="18" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C10" s="19" t="s">
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>51</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E10" s="4">
         <x:v>13</x:v>
@@ -1678,81 +1723,81 @@
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="5" t="s">
-        <x:v>151</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A11" s="7">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B11" s="9" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C11" s="9" t="s">
-        <x:v>68</x:v>
+      <x:c r="B11" s="19" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C11" s="19" t="s">
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>51</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E11" s="4">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F11" s="4" t="s">
-        <x:v>109</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I11" s="7"/>
       <x:c r="J11" s="5" t="s">
-        <x:v>153</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A12" s="7">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B12" s="9" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="C12" s="8" t="s">
-        <x:v>46</x:v>
+      <x:c r="B12" s="19" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="C12" s="20" t="s">
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D12" s="4" t="s">
-        <x:v>48</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E12" s="7">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F12" s="7" t="s">
-        <x:v>110</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G12" s="7"/>
       <x:c r="H12" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I12" s="7"/>
       <x:c r="J12" s="8" t="s">
-        <x:v>121</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A13" s="7">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B13" s="9" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="C13" s="8" t="s">
-        <x:v>53</x:v>
+      <x:c r="B13" s="19" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="C13" s="20" t="s">
+        <x:v>132</x:v>
       </x:c>
       <x:c r="D13" s="4" t="s">
-        <x:v>76</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E13" s="7"/>
       <x:c r="F13" s="7" t="b">
@@ -1760,31 +1805,31 @@
       </x:c>
       <x:c r="G13" s="7"/>
       <x:c r="H13" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I13" s="7"/>
       <x:c r="J13" s="8" t="s">
-        <x:v>123</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A14" s="7">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B14" s="9" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C14" s="8" t="s">
-        <x:v>135</x:v>
+      <x:c r="B14" s="19" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C14" s="20" t="s">
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D14" s="7" t="s">
-        <x:v>19</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="E14" s="7"/>
       <x:c r="F14" s="7"/>
       <x:c r="G14" s="7"/>
       <x:c r="H14" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I14" s="7"/>
       <x:c r="J14" s="8"/>
@@ -1839,67 +1884,500 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
-      <x:c r="A20" s="13" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="B20" s="13" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C20" s="14"/>
-      <x:c r="D20" s="14"/>
-      <x:c r="E20" s="14"/>
-      <x:c r="F20" s="14"/>
-      <x:c r="G20" s="14"/>
-      <x:c r="H20" s="14"/>
-      <x:c r="I20" s="14"/>
-      <x:c r="J20" s="14"/>
+      <x:c r="A20" s="12" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B20" s="12" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C20" s="13"/>
+      <x:c r="D20" s="13"/>
+      <x:c r="E20" s="13"/>
+      <x:c r="F20" s="13"/>
+      <x:c r="G20" s="13"/>
+      <x:c r="H20" s="13"/>
+      <x:c r="I20" s="13"/>
+      <x:c r="J20" s="13"/>
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
-      <x:c r="A21" s="13" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B21" s="13" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C21" s="15"/>
-      <x:c r="D21" s="14"/>
-      <x:c r="E21" s="14"/>
-      <x:c r="F21" s="14"/>
-      <x:c r="G21" s="14"/>
-      <x:c r="H21" s="14"/>
-      <x:c r="I21" s="14"/>
-      <x:c r="J21" s="14"/>
+      <x:c r="A21" s="12" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B21" s="12" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C21" s="14"/>
+      <x:c r="D21" s="13"/>
+      <x:c r="E21" s="13"/>
+      <x:c r="F21" s="13"/>
+      <x:c r="G21" s="13"/>
+      <x:c r="H21" s="13"/>
+      <x:c r="I21" s="13"/>
+      <x:c r="J21" s="13"/>
+    </x:row>
+  </x:sheetData>
+  <x:mergeCells count="17">
+    <x:mergeCell ref="A20:B20"/>
+    <x:mergeCell ref="C20:J20"/>
+    <x:mergeCell ref="A21:B21"/>
+    <x:mergeCell ref="C21:J21"/>
+    <x:mergeCell ref="A4:B4"/>
+    <x:mergeCell ref="F4:H4"/>
+    <x:mergeCell ref="I4:J4"/>
+    <x:mergeCell ref="C4:E4"/>
+    <x:mergeCell ref="A1:J1"/>
+    <x:mergeCell ref="A2:B2"/>
+    <x:mergeCell ref="A3:B3"/>
+    <x:mergeCell ref="F2:H2"/>
+    <x:mergeCell ref="F3:H3"/>
+    <x:mergeCell ref="I2:J2"/>
+    <x:mergeCell ref="I3:J3"/>
+    <x:mergeCell ref="C2:E2"/>
+    <x:mergeCell ref="C3:E3"/>
+  </x:mergeCells>
+  <x:pageMargins left="0.39347222447395325" right="0.31486111879348755" top="0.59041666984558105" bottom="0.55097222328186035" header="0.31486111879348755" footer="0.31486111879348755"/>
+  <x:pageSetup paperSize="9" scale="75" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet8">
+    <x:tabColor rgb="ff70ad47"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:J21"/>
+  <x:sheetViews>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="E7" activeCellId="0" sqref="E7:E7"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
+  <x:cols>
+    <x:col min="1" max="1" width="5.375" style="2" customWidth="1"/>
+    <x:col min="2" max="2" width="17.75" style="2" customWidth="1"/>
+    <x:col min="3" max="3" width="29.375" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="5" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="6" width="8.5" style="2" customWidth="1"/>
+    <x:col min="7" max="7" width="5" style="2" customWidth="1"/>
+    <x:col min="8" max="8" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="9" max="9" width="10.625" style="2" customWidth="1"/>
+    <x:col min="10" max="10" width="29.875" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="11" max="16384" width="9" style="2"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A1" s="17" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B1" s="17"/>
+      <x:c r="C1" s="17"/>
+      <x:c r="D1" s="17"/>
+      <x:c r="E1" s="17"/>
+      <x:c r="F1" s="17"/>
+      <x:c r="G1" s="17"/>
+      <x:c r="H1" s="17"/>
+      <x:c r="I1" s="17"/>
+      <x:c r="J1" s="17"/>
+    </x:row>
+    <x:row r="2" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A2" s="15" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B2" s="15"/>
+      <x:c r="C2" s="16" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D2" s="16"/>
+      <x:c r="E2" s="16"/>
+      <x:c r="F2" s="15" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="G2" s="15"/>
+      <x:c r="H2" s="15"/>
+      <x:c r="I2" s="16" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="J2" s="16"/>
+    </x:row>
+    <x:row r="3" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A3" s="15" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B3" s="15"/>
+      <x:c r="C3" s="16" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D3" s="16"/>
+      <x:c r="E3" s="16"/>
+      <x:c r="F3" s="15" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="G3" s="15"/>
+      <x:c r="H3" s="15"/>
+      <x:c r="I3" s="16"/>
+      <x:c r="J3" s="16"/>
+    </x:row>
+    <x:row r="4" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A4" s="15" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="B4" s="15"/>
+      <x:c r="C4" s="16" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="D4" s="16"/>
+      <x:c r="E4" s="16"/>
+      <x:c r="F4" s="15" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="G4" s="15"/>
+      <x:c r="H4" s="15"/>
+      <x:c r="I4" s="16" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="J4" s="16"/>
+    </x:row>
+    <x:row r="5" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A5" s="3" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B5" s="3" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C5" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E5" s="3" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F5" s="3" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G5" s="3" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H5" s="3" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="I5" s="3" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="J5" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <x:c r="A6" s="4">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B6" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C6" s="10" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D6" s="4" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="E6" s="4"/>
+      <x:c r="F6" s="4"/>
+      <x:c r="G6" s="4" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H6" s="4" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="I6" s="4"/>
+      <x:c r="J6" s="6"/>
+    </x:row>
+    <x:row r="7" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <x:c r="A7" s="4">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B7" s="10" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C7" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D7" s="4" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E7" s="4">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="F7" s="4"/>
+      <x:c r="G7" s="4"/>
+      <x:c r="H7" s="4" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="I7" s="4"/>
+      <x:c r="J7" s="6"/>
+    </x:row>
+    <x:row r="8" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <x:c r="A8" s="4">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B8" s="10" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C8" s="10" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="D8" s="4" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="E8" s="4"/>
+      <x:c r="F8" s="4"/>
+      <x:c r="G8" s="4" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H8" s="4" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="I8" s="4"/>
+      <x:c r="J8" s="6"/>
+    </x:row>
+    <x:row r="9" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <x:c r="A9" s="4">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B9" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C9" s="10" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="D9" s="4" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="E9" s="4"/>
+      <x:c r="F9" s="4"/>
+      <x:c r="G9" s="4" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H9" s="4" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="I9" s="4"/>
+      <x:c r="J9" s="5"/>
+    </x:row>
+    <x:row r="10" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <x:c r="A10" s="4">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B10" s="10" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C10" s="10" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="D10" s="4" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="E10" s="4"/>
+      <x:c r="F10" s="4"/>
+      <x:c r="G10" s="4"/>
+      <x:c r="H10" s="4" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="I10" s="4"/>
+      <x:c r="J10" s="11"/>
+    </x:row>
+    <x:row r="11" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <x:c r="A11" s="4"/>
+      <x:c r="B11" s="10"/>
+      <x:c r="C11" s="10"/>
+      <x:c r="D11" s="4"/>
+      <x:c r="E11" s="4"/>
+      <x:c r="F11" s="4"/>
+      <x:c r="G11" s="4"/>
+      <x:c r="H11" s="4"/>
+      <x:c r="I11" s="7"/>
+      <x:c r="J11" s="5"/>
+    </x:row>
+    <x:row r="12" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <x:c r="A12" s="4"/>
+      <x:c r="B12" s="10"/>
+      <x:c r="C12" s="10"/>
+      <x:c r="D12" s="4"/>
+      <x:c r="E12" s="7"/>
+      <x:c r="F12" s="7"/>
+      <x:c r="G12" s="7"/>
+      <x:c r="H12" s="4"/>
+      <x:c r="I12" s="7"/>
+      <x:c r="J12" s="8"/>
+    </x:row>
+    <x:row r="13" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <x:c r="A13" s="4"/>
+      <x:c r="B13" s="10"/>
+      <x:c r="C13" s="10"/>
+      <x:c r="D13" s="4"/>
+      <x:c r="E13" s="7"/>
+      <x:c r="F13" s="7"/>
+      <x:c r="G13" s="7"/>
+      <x:c r="H13" s="4"/>
+      <x:c r="I13" s="7"/>
+      <x:c r="J13" s="8"/>
+    </x:row>
+    <x:row r="14" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <x:c r="A14" s="4"/>
+      <x:c r="B14" s="10"/>
+      <x:c r="C14" s="10"/>
+      <x:c r="D14" s="4"/>
+      <x:c r="E14" s="7"/>
+      <x:c r="F14" s="7"/>
+      <x:c r="G14" s="7"/>
+      <x:c r="H14" s="4"/>
+      <x:c r="I14" s="7"/>
+      <x:c r="J14" s="8"/>
+    </x:row>
+    <x:row r="15" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <x:c r="A15" s="4"/>
+      <x:c r="B15" s="10"/>
+      <x:c r="C15" s="10"/>
+      <x:c r="D15" s="4"/>
+      <x:c r="E15" s="7"/>
+      <x:c r="F15" s="7"/>
+      <x:c r="G15" s="7"/>
+      <x:c r="H15" s="4"/>
+      <x:c r="I15" s="7"/>
+      <x:c r="J15" s="8"/>
+    </x:row>
+    <x:row r="16" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <x:c r="A16" s="4"/>
+      <x:c r="B16" s="10"/>
+      <x:c r="C16" s="10"/>
+      <x:c r="D16" s="7"/>
+      <x:c r="E16" s="7"/>
+      <x:c r="F16" s="7"/>
+      <x:c r="G16" s="7"/>
+      <x:c r="H16" s="4"/>
+      <x:c r="I16" s="7"/>
+      <x:c r="J16" s="8"/>
+    </x:row>
+    <x:row r="17" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <x:c r="A17" s="7"/>
+      <x:c r="B17" s="8"/>
+      <x:c r="C17" s="8"/>
+      <x:c r="D17" s="7"/>
+      <x:c r="E17" s="7"/>
+      <x:c r="F17" s="7"/>
+      <x:c r="G17" s="7"/>
+      <x:c r="H17" s="7"/>
+      <x:c r="I17" s="7"/>
+      <x:c r="J17" s="8"/>
+    </x:row>
+    <x:row r="18" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <x:c r="A18" s="7"/>
+      <x:c r="B18" s="8"/>
+      <x:c r="C18" s="8"/>
+      <x:c r="D18" s="7"/>
+      <x:c r="E18" s="7"/>
+      <x:c r="F18" s="7"/>
+      <x:c r="G18" s="7"/>
+      <x:c r="H18" s="7"/>
+      <x:c r="I18" s="7"/>
+      <x:c r="J18" s="8"/>
+    </x:row>
+    <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <x:c r="A19" s="7" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B19" s="8" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C19" s="8" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D19" s="7" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E19" s="7" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F19" s="7" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G19" s="7" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H19" s="7" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I19" s="7" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J19" s="8" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
+      <x:c r="A20" s="12" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B20" s="12" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C20" s="13"/>
+      <x:c r="D20" s="13"/>
+      <x:c r="E20" s="13"/>
+      <x:c r="F20" s="13"/>
+      <x:c r="G20" s="13"/>
+      <x:c r="H20" s="13"/>
+      <x:c r="I20" s="13"/>
+      <x:c r="J20" s="13"/>
+    </x:row>
+    <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
+      <x:c r="A21" s="12" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B21" s="12" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C21" s="14"/>
+      <x:c r="D21" s="13"/>
+      <x:c r="E21" s="13"/>
+      <x:c r="F21" s="13"/>
+      <x:c r="G21" s="13"/>
+      <x:c r="H21" s="13"/>
+      <x:c r="I21" s="13"/>
+      <x:c r="J21" s="13"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="17">
@@ -1934,7 +2412,7 @@
   <x:dimension ref="A1:J22"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="N15" activeCellId="0" sqref="N15:N15"/>
+      <x:selection activeCell="C15" activeCellId="0" sqref="C15:C15"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
@@ -1953,129 +2431,129 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A1" s="18" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="B1" s="18"/>
-      <x:c r="C1" s="18"/>
-      <x:c r="D1" s="18"/>
-      <x:c r="E1" s="18"/>
-      <x:c r="F1" s="18"/>
-      <x:c r="G1" s="18"/>
-      <x:c r="H1" s="18"/>
-      <x:c r="I1" s="18"/>
-      <x:c r="J1" s="18"/>
+      <x:c r="A1" s="17" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B1" s="17"/>
+      <x:c r="C1" s="17"/>
+      <x:c r="D1" s="17"/>
+      <x:c r="E1" s="17"/>
+      <x:c r="F1" s="17"/>
+      <x:c r="G1" s="17"/>
+      <x:c r="H1" s="17"/>
+      <x:c r="I1" s="17"/>
+      <x:c r="J1" s="17"/>
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A2" s="16" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="B2" s="16"/>
-      <x:c r="C2" s="17" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="D2" s="17"/>
-      <x:c r="E2" s="17"/>
-      <x:c r="F2" s="16" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="G2" s="16"/>
-      <x:c r="H2" s="16"/>
-      <x:c r="I2" s="17" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="J2" s="17"/>
+      <x:c r="A2" s="15" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B2" s="15"/>
+      <x:c r="C2" s="16" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D2" s="16"/>
+      <x:c r="E2" s="16"/>
+      <x:c r="F2" s="15" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="G2" s="15"/>
+      <x:c r="H2" s="15"/>
+      <x:c r="I2" s="16" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="J2" s="16"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A3" s="16" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="B3" s="16"/>
-      <x:c r="C3" s="17" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="D3" s="17"/>
-      <x:c r="E3" s="17"/>
-      <x:c r="F3" s="16" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="G3" s="16"/>
-      <x:c r="H3" s="16"/>
-      <x:c r="I3" s="17"/>
-      <x:c r="J3" s="17"/>
+      <x:c r="A3" s="15" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B3" s="15"/>
+      <x:c r="C3" s="16" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D3" s="16"/>
+      <x:c r="E3" s="16"/>
+      <x:c r="F3" s="15" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="G3" s="15"/>
+      <x:c r="H3" s="15"/>
+      <x:c r="I3" s="16"/>
+      <x:c r="J3" s="16"/>
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A4" s="16" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="B4" s="16"/>
-      <x:c r="C4" s="17" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D4" s="17"/>
-      <x:c r="E4" s="17"/>
-      <x:c r="F4" s="16" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="G4" s="16"/>
-      <x:c r="H4" s="16"/>
-      <x:c r="I4" s="17" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="J4" s="17"/>
+      <x:c r="A4" s="15" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="B4" s="15"/>
+      <x:c r="C4" s="16" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="D4" s="16"/>
+      <x:c r="E4" s="16"/>
+      <x:c r="F4" s="15" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="G4" s="15"/>
+      <x:c r="H4" s="15"/>
+      <x:c r="I4" s="16" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="J4" s="16"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>43</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>92</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>33</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>96</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>160</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>158</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A6" s="4">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B6" s="10" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="C6" s="5" t="s">
-        <x:v>125</x:v>
+      <x:c r="B6" s="19" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C6" s="18" t="s">
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>64</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>119</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -2084,14 +2562,14 @@
       <x:c r="A7" s="4">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B7" s="10" t="s">
-        <x:v>144</x:v>
-      </x:c>
-      <x:c r="C7" s="10" t="s">
-        <x:v>132</x:v>
+      <x:c r="B7" s="19" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="C7" s="19" t="s">
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>51</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>20</x:v>
@@ -2099,7 +2577,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -2108,14 +2586,14 @@
       <x:c r="A8" s="4">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B8" s="10" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C8" s="10" t="s">
-        <x:v>18</x:v>
+      <x:c r="B8" s="19" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="C8" s="19" t="s">
+        <x:v>155</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>51</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E8" s="4">
         <x:v>16</x:v>
@@ -2123,7 +2601,7 @@
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -2132,14 +2610,14 @@
       <x:c r="A9" s="4">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B9" s="10" t="s">
+      <x:c r="B9" s="19" t="s">
         <x:v>139</x:v>
       </x:c>
-      <x:c r="C9" s="10" t="s">
-        <x:v>83</x:v>
+      <x:c r="C9" s="19" t="s">
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>51</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E9" s="4">
         <x:v>20</x:v>
@@ -2147,7 +2625,7 @@
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="6"/>
@@ -2156,14 +2634,14 @@
       <x:c r="A10" s="4">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B10" s="12" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C10" s="12" t="s">
-        <x:v>84</x:v>
+      <x:c r="B10" s="21" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="C10" s="21" t="s">
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>51</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E10" s="4">
         <x:v>20</x:v>
@@ -2171,25 +2649,25 @@
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>71</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A11" s="4">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B11" s="10" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C11" s="10" t="s">
-        <x:v>61</x:v>
+      <x:c r="B11" s="19" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C11" s="19" t="s">
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>51</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E11" s="4">
         <x:v>10</x:v>
@@ -2197,25 +2675,25 @@
       <x:c r="F11" s="4"/>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I11" s="4"/>
       <x:c r="J11" s="5" t="s">
-        <x:v>77</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A12" s="4">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B12" s="10" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C12" s="10" t="s">
-        <x:v>24</x:v>
+      <x:c r="B12" s="19" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="C12" s="19" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D12" s="4" t="s">
-        <x:v>51</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E12" s="4">
         <x:v>10</x:v>
@@ -2223,7 +2701,7 @@
       <x:c r="F12" s="4"/>
       <x:c r="G12" s="4"/>
       <x:c r="H12" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I12" s="7"/>
       <x:c r="J12" s="10"/>
@@ -2232,14 +2710,14 @@
       <x:c r="A13" s="4">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B13" s="10" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="C13" s="10" t="s">
-        <x:v>131</x:v>
+      <x:c r="B13" s="19" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="C13" s="19" t="s">
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D13" s="4" t="s">
-        <x:v>51</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E13" s="4">
         <x:v>50</x:v>
@@ -2247,7 +2725,7 @@
       <x:c r="F13" s="4"/>
       <x:c r="G13" s="4"/>
       <x:c r="H13" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I13" s="7"/>
       <x:c r="J13" s="10"/>
@@ -2256,14 +2734,14 @@
       <x:c r="A14" s="4">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B14" s="10" t="s">
-        <x:v>156</x:v>
-      </x:c>
-      <x:c r="C14" s="10" t="s">
-        <x:v>38</x:v>
+      <x:c r="B14" s="19" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="C14" s="19" t="s">
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D14" s="4" t="s">
-        <x:v>51</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E14" s="4">
         <x:v>50</x:v>
@@ -2271,7 +2749,7 @@
       <x:c r="F14" s="4"/>
       <x:c r="G14" s="4"/>
       <x:c r="H14" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I14" s="7"/>
       <x:c r="J14" s="10"/>
@@ -2280,14 +2758,14 @@
       <x:c r="A15" s="4">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B15" s="10" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C15" s="10" t="s">
-        <x:v>26</x:v>
+      <x:c r="B15" s="19" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="C15" s="19" t="s">
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D15" s="4" t="s">
-        <x:v>51</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E15" s="4">
         <x:v>50</x:v>
@@ -2295,7 +2773,7 @@
       <x:c r="F15" s="4"/>
       <x:c r="G15" s="4"/>
       <x:c r="H15" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I15" s="7"/>
       <x:c r="J15" s="10"/>
@@ -2304,14 +2782,14 @@
       <x:c r="A16" s="4">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B16" s="10" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="C16" s="10" t="s">
-        <x:v>120</x:v>
+      <x:c r="B16" s="19" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C16" s="19" t="s">
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D16" s="4" t="s">
-        <x:v>51</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E16" s="7">
         <x:v>13</x:v>
@@ -2319,31 +2797,31 @@
       <x:c r="F16" s="7"/>
       <x:c r="G16" s="7"/>
       <x:c r="H16" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I16" s="7"/>
       <x:c r="J16" s="8" t="s">
-        <x:v>154</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A17" s="7">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B17" s="10" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="C17" s="10" t="s">
-        <x:v>82</x:v>
+      <x:c r="B17" s="19" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C17" s="19" t="s">
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D17" s="4" t="s">
-        <x:v>62</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E17" s="7"/>
       <x:c r="F17" s="7"/>
       <x:c r="G17" s="7"/>
       <x:c r="H17" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I17" s="7"/>
       <x:c r="J17" s="8"/>
@@ -2352,20 +2830,20 @@
       <x:c r="A18" s="7">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="B18" s="10" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="C18" s="10" t="s">
-        <x:v>85</x:v>
+      <x:c r="B18" s="19" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C18" s="19" t="s">
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D18" s="4" t="s">
-        <x:v>62</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E18" s="7"/>
       <x:c r="F18" s="7"/>
       <x:c r="G18" s="7"/>
       <x:c r="H18" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I18" s="7"/>
       <x:c r="J18" s="8"/>
@@ -2374,87 +2852,87 @@
       <x:c r="A19" s="7">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B19" s="10" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C19" s="10" t="s">
-        <x:v>135</x:v>
+      <x:c r="B19" s="19" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C19" s="19" t="s">
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>19</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="E19" s="7"/>
       <x:c r="F19" s="7"/>
       <x:c r="G19" s="7"/>
       <x:c r="H19" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I19" s="7"/>
       <x:c r="J19" s="8"/>
     </x:row>
     <x:row r="20" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A20" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B20" s="8" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C20" s="8" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D20" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E20" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F20" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G20" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H20" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I20" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J20" s="8" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:10" ht="49.5" customHeight="1">
-      <x:c r="A21" s="13" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="B21" s="13" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C21" s="14"/>
-      <x:c r="D21" s="14"/>
-      <x:c r="E21" s="14"/>
-      <x:c r="F21" s="14"/>
-      <x:c r="G21" s="14"/>
-      <x:c r="H21" s="14"/>
-      <x:c r="I21" s="14"/>
-      <x:c r="J21" s="14"/>
+      <x:c r="A21" s="12" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B21" s="12" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C21" s="13"/>
+      <x:c r="D21" s="13"/>
+      <x:c r="E21" s="13"/>
+      <x:c r="F21" s="13"/>
+      <x:c r="G21" s="13"/>
+      <x:c r="H21" s="13"/>
+      <x:c r="I21" s="13"/>
+      <x:c r="J21" s="13"/>
     </x:row>
     <x:row r="22" spans="1:10" ht="224.09999999999999" customHeight="1">
-      <x:c r="A22" s="13" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B22" s="13" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C22" s="15"/>
-      <x:c r="D22" s="14"/>
-      <x:c r="E22" s="14"/>
-      <x:c r="F22" s="14"/>
-      <x:c r="G22" s="14"/>
-      <x:c r="H22" s="14"/>
-      <x:c r="I22" s="14"/>
-      <x:c r="J22" s="14"/>
+      <x:c r="A22" s="12" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B22" s="12" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C22" s="14"/>
+      <x:c r="D22" s="13"/>
+      <x:c r="E22" s="13"/>
+      <x:c r="F22" s="13"/>
+      <x:c r="G22" s="13"/>
+      <x:c r="H22" s="13"/>
+      <x:c r="I22" s="13"/>
+      <x:c r="J22" s="13"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="17">
@@ -2488,8 +2966,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:J21"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C10" activeCellId="0" sqref="C10:C10"/>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="B6" activeCellId="0" sqref="B6:C16"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
@@ -2508,129 +2986,129 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A1" s="18" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="B1" s="18"/>
-      <x:c r="C1" s="18"/>
-      <x:c r="D1" s="18"/>
-      <x:c r="E1" s="18"/>
-      <x:c r="F1" s="18"/>
-      <x:c r="G1" s="18"/>
-      <x:c r="H1" s="18"/>
-      <x:c r="I1" s="18"/>
-      <x:c r="J1" s="18"/>
+      <x:c r="A1" s="17" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B1" s="17"/>
+      <x:c r="C1" s="17"/>
+      <x:c r="D1" s="17"/>
+      <x:c r="E1" s="17"/>
+      <x:c r="F1" s="17"/>
+      <x:c r="G1" s="17"/>
+      <x:c r="H1" s="17"/>
+      <x:c r="I1" s="17"/>
+      <x:c r="J1" s="17"/>
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A2" s="16" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="B2" s="16"/>
-      <x:c r="C2" s="17" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="D2" s="17"/>
-      <x:c r="E2" s="17"/>
-      <x:c r="F2" s="16" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="G2" s="16"/>
-      <x:c r="H2" s="16"/>
-      <x:c r="I2" s="17" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="J2" s="17"/>
+      <x:c r="A2" s="15" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B2" s="15"/>
+      <x:c r="C2" s="16" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D2" s="16"/>
+      <x:c r="E2" s="16"/>
+      <x:c r="F2" s="15" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="G2" s="15"/>
+      <x:c r="H2" s="15"/>
+      <x:c r="I2" s="16" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="J2" s="16"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A3" s="16" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="B3" s="16"/>
-      <x:c r="C3" s="17" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="D3" s="17"/>
-      <x:c r="E3" s="17"/>
-      <x:c r="F3" s="16" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="G3" s="16"/>
-      <x:c r="H3" s="16"/>
-      <x:c r="I3" s="17"/>
-      <x:c r="J3" s="17"/>
+      <x:c r="A3" s="15" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B3" s="15"/>
+      <x:c r="C3" s="16" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D3" s="16"/>
+      <x:c r="E3" s="16"/>
+      <x:c r="F3" s="15" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="G3" s="15"/>
+      <x:c r="H3" s="15"/>
+      <x:c r="I3" s="16"/>
+      <x:c r="J3" s="16"/>
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A4" s="16" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="B4" s="16"/>
-      <x:c r="C4" s="17" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D4" s="17"/>
-      <x:c r="E4" s="17"/>
-      <x:c r="F4" s="16" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="G4" s="16"/>
-      <x:c r="H4" s="16"/>
-      <x:c r="I4" s="17" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="J4" s="17"/>
+      <x:c r="A4" s="15" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="B4" s="15"/>
+      <x:c r="C4" s="16" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D4" s="16"/>
+      <x:c r="E4" s="16"/>
+      <x:c r="F4" s="15" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="G4" s="15"/>
+      <x:c r="H4" s="15"/>
+      <x:c r="I4" s="16" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="J4" s="16"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>43</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>92</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>33</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>96</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>160</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>158</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A6" s="4">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B6" s="10" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="C6" s="5" t="s">
-        <x:v>6</x:v>
+      <x:c r="B6" s="19" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C6" s="18" t="s">
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>64</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>119</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -2639,14 +3117,14 @@
       <x:c r="A7" s="4">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B7" s="10" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="C7" s="10" t="s">
-        <x:v>78</x:v>
+      <x:c r="B7" s="19" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C7" s="19" t="s">
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>51</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>20</x:v>
@@ -2654,7 +3132,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -2663,14 +3141,14 @@
       <x:c r="A8" s="4">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B8" s="10" t="s">
-        <x:v>164</x:v>
-      </x:c>
-      <x:c r="C8" s="10" t="s">
-        <x:v>93</x:v>
+      <x:c r="B8" s="19" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="C8" s="19" t="s">
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>51</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E8" s="4">
         <x:v>10</x:v>
@@ -2678,7 +3156,7 @@
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -2687,20 +3165,20 @@
       <x:c r="A9" s="4">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B9" s="10" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="C9" s="10" t="s">
-        <x:v>113</x:v>
+      <x:c r="B9" s="19" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C9" s="19" t="s">
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>103</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="6"/>
@@ -2709,20 +3187,20 @@
       <x:c r="A10" s="4">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B10" s="10" t="s">
+      <x:c r="B10" s="19" t="s">
         <x:v>145</x:v>
       </x:c>
-      <x:c r="C10" s="10" t="s">
-        <x:v>0</x:v>
+      <x:c r="C10" s="19" t="s">
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>103</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="5"/>
@@ -2731,20 +3209,20 @@
       <x:c r="A11" s="4">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B11" s="10" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C11" s="10" t="s">
-        <x:v>80</x:v>
+      <x:c r="B11" s="19" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C11" s="19" t="s">
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>103</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E11" s="4"/>
       <x:c r="F11" s="4"/>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I11" s="7"/>
       <x:c r="J11" s="5"/>
@@ -2753,14 +3231,14 @@
       <x:c r="A12" s="4">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B12" s="10" t="s">
-        <x:v>147</x:v>
-      </x:c>
-      <x:c r="C12" s="10" t="s">
-        <x:v>117</x:v>
+      <x:c r="B12" s="19" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="C12" s="19" t="s">
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D12" s="4" t="s">
-        <x:v>51</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E12" s="7">
         <x:v>500</x:v>
@@ -2768,7 +3246,7 @@
       <x:c r="F12" s="7"/>
       <x:c r="G12" s="7"/>
       <x:c r="H12" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I12" s="7"/>
       <x:c r="J12" s="8"/>
@@ -2777,20 +3255,20 @@
       <x:c r="A13" s="4">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B13" s="10" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C13" s="10" t="s">
+      <x:c r="B13" s="19" t="s">
         <x:v>81</x:v>
       </x:c>
+      <x:c r="C13" s="19" t="s">
+        <x:v>17</x:v>
+      </x:c>
       <x:c r="D13" s="4" t="s">
-        <x:v>103</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E13" s="7"/>
       <x:c r="F13" s="7"/>
       <x:c r="G13" s="7"/>
       <x:c r="H13" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I13" s="7"/>
       <x:c r="J13" s="8"/>
@@ -2799,14 +3277,14 @@
       <x:c r="A14" s="4">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B14" s="10" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="C14" s="10" t="s">
-        <x:v>99</x:v>
+      <x:c r="B14" s="19" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C14" s="19" t="s">
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D14" s="4" t="s">
-        <x:v>51</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E14" s="7">
         <x:v>100</x:v>
@@ -2814,7 +3292,7 @@
       <x:c r="F14" s="7"/>
       <x:c r="G14" s="7"/>
       <x:c r="H14" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I14" s="7"/>
       <x:c r="J14" s="8"/>
@@ -2823,22 +3301,22 @@
       <x:c r="A15" s="4">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B15" s="10" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="C15" s="10" t="s">
-        <x:v>122</x:v>
+      <x:c r="B15" s="19" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C15" s="19" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D15" s="4" t="s">
-        <x:v>64</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E15" s="7"/>
       <x:c r="F15" s="7"/>
       <x:c r="G15" s="7" t="s">
-        <x:v>112</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H15" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I15" s="7"/>
       <x:c r="J15" s="8"/>
@@ -2847,20 +3325,20 @@
       <x:c r="A16" s="4">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B16" s="10" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C16" s="10" t="s">
-        <x:v>135</x:v>
+      <x:c r="B16" s="19" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C16" s="19" t="s">
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D16" s="7" t="s">
-        <x:v>19</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="E16" s="7"/>
       <x:c r="F16" s="7"/>
       <x:c r="G16" s="7"/>
       <x:c r="H16" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I16" s="7"/>
       <x:c r="J16" s="8"/>
@@ -2891,67 +3369,67 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
-      <x:c r="A20" s="13" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="B20" s="13" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C20" s="14"/>
-      <x:c r="D20" s="14"/>
-      <x:c r="E20" s="14"/>
-      <x:c r="F20" s="14"/>
-      <x:c r="G20" s="14"/>
-      <x:c r="H20" s="14"/>
-      <x:c r="I20" s="14"/>
-      <x:c r="J20" s="14"/>
+      <x:c r="A20" s="12" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B20" s="12" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C20" s="13"/>
+      <x:c r="D20" s="13"/>
+      <x:c r="E20" s="13"/>
+      <x:c r="F20" s="13"/>
+      <x:c r="G20" s="13"/>
+      <x:c r="H20" s="13"/>
+      <x:c r="I20" s="13"/>
+      <x:c r="J20" s="13"/>
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
-      <x:c r="A21" s="13" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B21" s="13" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C21" s="15"/>
-      <x:c r="D21" s="14"/>
-      <x:c r="E21" s="14"/>
-      <x:c r="F21" s="14"/>
-      <x:c r="G21" s="14"/>
-      <x:c r="H21" s="14"/>
-      <x:c r="I21" s="14"/>
-      <x:c r="J21" s="14"/>
+      <x:c r="A21" s="12" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B21" s="12" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C21" s="14"/>
+      <x:c r="D21" s="13"/>
+      <x:c r="E21" s="13"/>
+      <x:c r="F21" s="13"/>
+      <x:c r="G21" s="13"/>
+      <x:c r="H21" s="13"/>
+      <x:c r="I21" s="13"/>
+      <x:c r="J21" s="13"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="17">
@@ -2980,13 +3458,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet4">
+  <x:sheetPr codeName="Sheet9">
     <x:tabColor rgb="ff70ad47"/>
   </x:sheetPr>
   <x:dimension ref="A1:J21"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B12" activeCellId="0" sqref="B12:B12"/>
+      <x:selection activeCell="C8" activeCellId="0" sqref="C8:C8"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
@@ -3005,129 +3483,129 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A1" s="18" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="B1" s="18"/>
-      <x:c r="C1" s="18"/>
-      <x:c r="D1" s="18"/>
-      <x:c r="E1" s="18"/>
-      <x:c r="F1" s="18"/>
-      <x:c r="G1" s="18"/>
-      <x:c r="H1" s="18"/>
-      <x:c r="I1" s="18"/>
-      <x:c r="J1" s="18"/>
+      <x:c r="A1" s="17" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B1" s="17"/>
+      <x:c r="C1" s="17"/>
+      <x:c r="D1" s="17"/>
+      <x:c r="E1" s="17"/>
+      <x:c r="F1" s="17"/>
+      <x:c r="G1" s="17"/>
+      <x:c r="H1" s="17"/>
+      <x:c r="I1" s="17"/>
+      <x:c r="J1" s="17"/>
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A2" s="16" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="B2" s="16"/>
-      <x:c r="C2" s="17" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="D2" s="17"/>
-      <x:c r="E2" s="17"/>
-      <x:c r="F2" s="16" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="G2" s="16"/>
-      <x:c r="H2" s="16"/>
-      <x:c r="I2" s="17" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="J2" s="17"/>
+      <x:c r="A2" s="15" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B2" s="15"/>
+      <x:c r="C2" s="16" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D2" s="16"/>
+      <x:c r="E2" s="16"/>
+      <x:c r="F2" s="15" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="G2" s="15"/>
+      <x:c r="H2" s="15"/>
+      <x:c r="I2" s="16" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="J2" s="16"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A3" s="16" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="B3" s="16"/>
-      <x:c r="C3" s="17" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="D3" s="17"/>
-      <x:c r="E3" s="17"/>
-      <x:c r="F3" s="16" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="G3" s="16"/>
-      <x:c r="H3" s="16"/>
-      <x:c r="I3" s="17"/>
-      <x:c r="J3" s="17"/>
+      <x:c r="A3" s="15" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B3" s="15"/>
+      <x:c r="C3" s="16" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D3" s="16"/>
+      <x:c r="E3" s="16"/>
+      <x:c r="F3" s="15" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="G3" s="15"/>
+      <x:c r="H3" s="15"/>
+      <x:c r="I3" s="16"/>
+      <x:c r="J3" s="16"/>
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A4" s="16" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="B4" s="16"/>
-      <x:c r="C4" s="17" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="D4" s="17"/>
-      <x:c r="E4" s="17"/>
-      <x:c r="F4" s="16" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="G4" s="16"/>
-      <x:c r="H4" s="16"/>
-      <x:c r="I4" s="17" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="J4" s="17"/>
+      <x:c r="A4" s="15" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="B4" s="15"/>
+      <x:c r="C4" s="16" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D4" s="16"/>
+      <x:c r="E4" s="16"/>
+      <x:c r="F4" s="15" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="G4" s="15"/>
+      <x:c r="H4" s="15"/>
+      <x:c r="I4" s="16" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="J4" s="16"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>43</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>92</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>33</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>96</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>160</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>158</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A6" s="4">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B6" s="10" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C6" s="10" t="s">
-        <x:v>126</x:v>
+      <x:c r="B6" s="19" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C6" s="18" t="s">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>64</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>119</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -3136,24 +3614,22 @@
       <x:c r="A7" s="4">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B7" s="10" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="C7" s="10" t="s">
-        <x:v>14</x:v>
+      <x:c r="B7" s="19" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C7" s="18" t="s">
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="E7" s="4">
-        <x:v>20</x:v>
-      </x:c>
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="E7" s="4"/>
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4" t="s">
-        <x:v>112</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H7" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -3162,22 +3638,20 @@
       <x:c r="A8" s="4">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B8" s="10" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="C8" s="5" t="s">
-        <x:v>127</x:v>
+      <x:c r="B8" s="19" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="C8" s="19" t="s">
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>64</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E8" s="4"/>
       <x:c r="F8" s="4"/>
-      <x:c r="G8" s="4" t="s">
-        <x:v>112</x:v>
-      </x:c>
+      <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -3186,65 +3660,49 @@
       <x:c r="A9" s="4">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B9" s="10" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C9" s="10" t="s">
-        <x:v>138</x:v>
+      <x:c r="B9" s="19" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C9" s="19" t="s">
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>103</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
-      <x:c r="J9" s="5"/>
+      <x:c r="J9" s="6"/>
     </x:row>
     <x:row r="10" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A10" s="4">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B10" s="10" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="C10" s="10" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="D10" s="4" t="s">
-        <x:v>52</x:v>
-      </x:c>
+      <x:c r="B10" s="10"/>
+      <x:c r="C10" s="9"/>
+      <x:c r="D10" s="4"/>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
-      <x:c r="H10" s="4" t="s">
-        <x:v>159</x:v>
-      </x:c>
+      <x:c r="H10" s="4"/>
       <x:c r="I10" s="4"/>
-      <x:c r="J10" s="11"/>
+      <x:c r="J10" s="5"/>
     </x:row>
     <x:row r="11" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A11" s="4">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B11" s="10" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C11" s="10" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="D11" s="4" t="s">
-        <x:v>31</x:v>
-      </x:c>
+      <x:c r="B11" s="10"/>
+      <x:c r="C11" s="10"/>
+      <x:c r="D11" s="4"/>
       <x:c r="E11" s="4"/>
       <x:c r="F11" s="4"/>
       <x:c r="G11" s="4"/>
-      <x:c r="H11" s="4" t="s">
-        <x:v>159</x:v>
-      </x:c>
+      <x:c r="H11" s="4"/>
       <x:c r="I11" s="7"/>
       <x:c r="J11" s="5"/>
     </x:row>
@@ -3252,21 +3710,13 @@
       <x:c r="A12" s="4">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B12" s="10" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="C12" s="10" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="D12" s="4" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="E12" s="4"/>
-      <x:c r="F12" s="4"/>
-      <x:c r="G12" s="4"/>
-      <x:c r="H12" s="4" t="s">
-        <x:v>159</x:v>
-      </x:c>
+      <x:c r="B12" s="10"/>
+      <x:c r="C12" s="10"/>
+      <x:c r="D12" s="4"/>
+      <x:c r="E12" s="7"/>
+      <x:c r="F12" s="7"/>
+      <x:c r="G12" s="7"/>
+      <x:c r="H12" s="4"/>
       <x:c r="I12" s="7"/>
       <x:c r="J12" s="8"/>
     </x:row>
@@ -3274,26 +3724,20 @@
       <x:c r="A13" s="4">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B13" s="10" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C13" s="10" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="D13" s="4" t="s">
-        <x:v>19</x:v>
-      </x:c>
+      <x:c r="B13" s="10"/>
+      <x:c r="C13" s="10"/>
+      <x:c r="D13" s="4"/>
       <x:c r="E13" s="7"/>
       <x:c r="F13" s="7"/>
       <x:c r="G13" s="7"/>
-      <x:c r="H13" s="4" t="s">
-        <x:v>159</x:v>
-      </x:c>
+      <x:c r="H13" s="4"/>
       <x:c r="I13" s="7"/>
       <x:c r="J13" s="8"/>
     </x:row>
     <x:row r="14" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <x:c r="A14" s="4"/>
+      <x:c r="A14" s="4">
+        <x:v>9</x:v>
+      </x:c>
       <x:c r="B14" s="10"/>
       <x:c r="C14" s="10"/>
       <x:c r="D14" s="4"/>
@@ -3305,7 +3749,9 @@
       <x:c r="J14" s="8"/>
     </x:row>
     <x:row r="15" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <x:c r="A15" s="4"/>
+      <x:c r="A15" s="4">
+        <x:v>10</x:v>
+      </x:c>
       <x:c r="B15" s="10"/>
       <x:c r="C15" s="10"/>
       <x:c r="D15" s="4"/>
@@ -3317,7 +3763,9 @@
       <x:c r="J15" s="8"/>
     </x:row>
     <x:row r="16" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <x:c r="A16" s="4"/>
+      <x:c r="A16" s="4">
+        <x:v>11</x:v>
+      </x:c>
       <x:c r="B16" s="10"/>
       <x:c r="C16" s="10"/>
       <x:c r="D16" s="7"/>
@@ -3354,67 +3802,67 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
-      <x:c r="A20" s="13" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="B20" s="13" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C20" s="14"/>
-      <x:c r="D20" s="14"/>
-      <x:c r="E20" s="14"/>
-      <x:c r="F20" s="14"/>
-      <x:c r="G20" s="14"/>
-      <x:c r="H20" s="14"/>
-      <x:c r="I20" s="14"/>
-      <x:c r="J20" s="14"/>
+      <x:c r="A20" s="12" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B20" s="12" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C20" s="13"/>
+      <x:c r="D20" s="13"/>
+      <x:c r="E20" s="13"/>
+      <x:c r="F20" s="13"/>
+      <x:c r="G20" s="13"/>
+      <x:c r="H20" s="13"/>
+      <x:c r="I20" s="13"/>
+      <x:c r="J20" s="13"/>
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
-      <x:c r="A21" s="13" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B21" s="13" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C21" s="15"/>
-      <x:c r="D21" s="14"/>
-      <x:c r="E21" s="14"/>
-      <x:c r="F21" s="14"/>
-      <x:c r="G21" s="14"/>
-      <x:c r="H21" s="14"/>
-      <x:c r="I21" s="14"/>
-      <x:c r="J21" s="14"/>
+      <x:c r="A21" s="12" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B21" s="12" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C21" s="14"/>
+      <x:c r="D21" s="13"/>
+      <x:c r="E21" s="13"/>
+      <x:c r="F21" s="13"/>
+      <x:c r="G21" s="13"/>
+      <x:c r="H21" s="13"/>
+      <x:c r="I21" s="13"/>
+      <x:c r="J21" s="13"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="17">
@@ -3443,13 +3891,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet5">
+  <x:sheetPr codeName="Sheet4">
     <x:tabColor rgb="ff70ad47"/>
   </x:sheetPr>
   <x:dimension ref="A1:J21"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E13" activeCellId="0" sqref="E13:E13"/>
+      <x:selection activeCell="E7" activeCellId="0" sqref="E7:E7"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
@@ -3468,129 +3916,129 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A1" s="18" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="B1" s="18"/>
-      <x:c r="C1" s="18"/>
-      <x:c r="D1" s="18"/>
-      <x:c r="E1" s="18"/>
-      <x:c r="F1" s="18"/>
-      <x:c r="G1" s="18"/>
-      <x:c r="H1" s="18"/>
-      <x:c r="I1" s="18"/>
-      <x:c r="J1" s="18"/>
+      <x:c r="A1" s="17" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B1" s="17"/>
+      <x:c r="C1" s="17"/>
+      <x:c r="D1" s="17"/>
+      <x:c r="E1" s="17"/>
+      <x:c r="F1" s="17"/>
+      <x:c r="G1" s="17"/>
+      <x:c r="H1" s="17"/>
+      <x:c r="I1" s="17"/>
+      <x:c r="J1" s="17"/>
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A2" s="16" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="B2" s="16"/>
-      <x:c r="C2" s="17" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="D2" s="17"/>
-      <x:c r="E2" s="17"/>
-      <x:c r="F2" s="16" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="G2" s="16"/>
-      <x:c r="H2" s="16"/>
-      <x:c r="I2" s="17" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="J2" s="17"/>
+      <x:c r="A2" s="15" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B2" s="15"/>
+      <x:c r="C2" s="16" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D2" s="16"/>
+      <x:c r="E2" s="16"/>
+      <x:c r="F2" s="15" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="G2" s="15"/>
+      <x:c r="H2" s="15"/>
+      <x:c r="I2" s="16" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="J2" s="16"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A3" s="16" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="B3" s="16"/>
-      <x:c r="C3" s="17" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="D3" s="17"/>
-      <x:c r="E3" s="17"/>
-      <x:c r="F3" s="16" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="G3" s="16"/>
-      <x:c r="H3" s="16"/>
-      <x:c r="I3" s="17"/>
-      <x:c r="J3" s="17"/>
+      <x:c r="A3" s="15" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B3" s="15"/>
+      <x:c r="C3" s="16" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D3" s="16"/>
+      <x:c r="E3" s="16"/>
+      <x:c r="F3" s="15" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="G3" s="15"/>
+      <x:c r="H3" s="15"/>
+      <x:c r="I3" s="16"/>
+      <x:c r="J3" s="16"/>
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A4" s="16" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="B4" s="16"/>
-      <x:c r="C4" s="17" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="D4" s="17"/>
-      <x:c r="E4" s="17"/>
-      <x:c r="F4" s="16" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="G4" s="16"/>
-      <x:c r="H4" s="16"/>
-      <x:c r="I4" s="17" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="J4" s="17"/>
+      <x:c r="A4" s="15" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="B4" s="15"/>
+      <x:c r="C4" s="16" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="D4" s="16"/>
+      <x:c r="E4" s="16"/>
+      <x:c r="F4" s="15" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="G4" s="15"/>
+      <x:c r="H4" s="15"/>
+      <x:c r="I4" s="16" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="J4" s="16"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>43</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>92</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>33</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>96</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>160</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>158</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A6" s="4">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B6" s="10" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="C6" s="10" t="s">
-        <x:v>7</x:v>
+      <x:c r="B6" s="19" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C6" s="19" t="s">
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>64</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>119</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -3599,22 +4047,22 @@
       <x:c r="A7" s="4">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B7" s="10" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="C7" s="10" t="s">
-        <x:v>86</x:v>
+      <x:c r="B7" s="19" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C7" s="19" t="s">
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="E7" s="4">
-        <x:v>100</x:v>
-      </x:c>
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="E7" s="4"/>
       <x:c r="F7" s="4"/>
-      <x:c r="G7" s="4"/>
+      <x:c r="G7" s="4" t="s">
+        <x:v>23</x:v>
+      </x:c>
       <x:c r="H7" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -3623,22 +4071,22 @@
       <x:c r="A8" s="4">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B8" s="10" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="C8" s="10" t="s">
-        <x:v>115</x:v>
+      <x:c r="B8" s="19" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C8" s="18" t="s">
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="E8" s="4">
-        <x:v>3000</x:v>
-      </x:c>
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="E8" s="4"/>
       <x:c r="F8" s="4"/>
-      <x:c r="G8" s="4"/>
+      <x:c r="G8" s="4" t="s">
+        <x:v>23</x:v>
+      </x:c>
       <x:c r="H8" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -3647,22 +4095,20 @@
       <x:c r="A9" s="4">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B9" s="10" t="s">
-        <x:v>162</x:v>
-      </x:c>
-      <x:c r="C9" s="10" t="s">
-        <x:v>34</x:v>
+      <x:c r="B9" s="19" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C9" s="19" t="s">
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="E9" s="4">
-        <x:v>10</x:v>
-      </x:c>
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="5"/>
@@ -3671,22 +4117,20 @@
       <x:c r="A10" s="4">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B10" s="10" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="C10" s="10" t="s">
-        <x:v>150</x:v>
+      <x:c r="B10" s="19" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C10" s="19" t="s">
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>64</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
-      <x:c r="G10" s="4" t="s">
-        <x:v>112</x:v>
-      </x:c>
+      <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="11"/>
@@ -3695,45 +4139,65 @@
       <x:c r="A11" s="4">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B11" s="10" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C11" s="10" t="s">
-        <x:v>135</x:v>
+      <x:c r="B11" s="19" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C11" s="19" t="s">
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>19</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E11" s="4"/>
       <x:c r="F11" s="4"/>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I11" s="7"/>
       <x:c r="J11" s="5"/>
     </x:row>
     <x:row r="12" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <x:c r="A12" s="4"/>
-      <x:c r="B12" s="10"/>
-      <x:c r="C12" s="10"/>
-      <x:c r="D12" s="4"/>
-      <x:c r="E12" s="7"/>
-      <x:c r="F12" s="7"/>
-      <x:c r="G12" s="7"/>
-      <x:c r="H12" s="4"/>
+      <x:c r="A12" s="4">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B12" s="19" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C12" s="19" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D12" s="4" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E12" s="4"/>
+      <x:c r="F12" s="4"/>
+      <x:c r="G12" s="4"/>
+      <x:c r="H12" s="4" t="s">
+        <x:v>163</x:v>
+      </x:c>
       <x:c r="I12" s="7"/>
       <x:c r="J12" s="8"/>
     </x:row>
     <x:row r="13" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <x:c r="A13" s="4"/>
-      <x:c r="B13" s="10"/>
-      <x:c r="C13" s="10"/>
-      <x:c r="D13" s="4"/>
+      <x:c r="A13" s="4">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B13" s="19" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C13" s="19" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="D13" s="4" t="s">
+        <x:v>156</x:v>
+      </x:c>
       <x:c r="E13" s="7"/>
       <x:c r="F13" s="7"/>
       <x:c r="G13" s="7"/>
-      <x:c r="H13" s="4"/>
+      <x:c r="H13" s="4" t="s">
+        <x:v>163</x:v>
+      </x:c>
       <x:c r="I13" s="7"/>
       <x:c r="J13" s="8"/>
     </x:row>
@@ -3799,67 +4263,67 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
-      <x:c r="A20" s="13" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="B20" s="13" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C20" s="14"/>
-      <x:c r="D20" s="14"/>
-      <x:c r="E20" s="14"/>
-      <x:c r="F20" s="14"/>
-      <x:c r="G20" s="14"/>
-      <x:c r="H20" s="14"/>
-      <x:c r="I20" s="14"/>
-      <x:c r="J20" s="14"/>
+      <x:c r="A20" s="12" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B20" s="12" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C20" s="13"/>
+      <x:c r="D20" s="13"/>
+      <x:c r="E20" s="13"/>
+      <x:c r="F20" s="13"/>
+      <x:c r="G20" s="13"/>
+      <x:c r="H20" s="13"/>
+      <x:c r="I20" s="13"/>
+      <x:c r="J20" s="13"/>
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
-      <x:c r="A21" s="13" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B21" s="13" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C21" s="15"/>
-      <x:c r="D21" s="14"/>
-      <x:c r="E21" s="14"/>
-      <x:c r="F21" s="14"/>
-      <x:c r="G21" s="14"/>
-      <x:c r="H21" s="14"/>
-      <x:c r="I21" s="14"/>
-      <x:c r="J21" s="14"/>
+      <x:c r="A21" s="12" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B21" s="12" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C21" s="14"/>
+      <x:c r="D21" s="13"/>
+      <x:c r="E21" s="13"/>
+      <x:c r="F21" s="13"/>
+      <x:c r="G21" s="13"/>
+      <x:c r="H21" s="13"/>
+      <x:c r="I21" s="13"/>
+      <x:c r="J21" s="13"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="17">
@@ -3888,13 +4352,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet6">
+  <x:sheetPr codeName="Sheet10">
     <x:tabColor rgb="ff70ad47"/>
   </x:sheetPr>
   <x:dimension ref="A1:J21"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D10" activeCellId="0" sqref="D10:D10"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="B8" activeCellId="0" sqref="B8:B8"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
@@ -3913,129 +4377,129 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A1" s="18" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="B1" s="18"/>
-      <x:c r="C1" s="18"/>
-      <x:c r="D1" s="18"/>
-      <x:c r="E1" s="18"/>
-      <x:c r="F1" s="18"/>
-      <x:c r="G1" s="18"/>
-      <x:c r="H1" s="18"/>
-      <x:c r="I1" s="18"/>
-      <x:c r="J1" s="18"/>
+      <x:c r="A1" s="17" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B1" s="17"/>
+      <x:c r="C1" s="17"/>
+      <x:c r="D1" s="17"/>
+      <x:c r="E1" s="17"/>
+      <x:c r="F1" s="17"/>
+      <x:c r="G1" s="17"/>
+      <x:c r="H1" s="17"/>
+      <x:c r="I1" s="17"/>
+      <x:c r="J1" s="17"/>
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A2" s="16" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="B2" s="16"/>
-      <x:c r="C2" s="17" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="D2" s="17"/>
-      <x:c r="E2" s="17"/>
-      <x:c r="F2" s="16" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="G2" s="16"/>
-      <x:c r="H2" s="16"/>
-      <x:c r="I2" s="17" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="J2" s="17"/>
+      <x:c r="A2" s="15" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B2" s="15"/>
+      <x:c r="C2" s="16" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D2" s="16"/>
+      <x:c r="E2" s="16"/>
+      <x:c r="F2" s="15" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="G2" s="15"/>
+      <x:c r="H2" s="15"/>
+      <x:c r="I2" s="16" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="J2" s="16"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A3" s="16" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="B3" s="16"/>
-      <x:c r="C3" s="17" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="D3" s="17"/>
-      <x:c r="E3" s="17"/>
-      <x:c r="F3" s="16" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="G3" s="16"/>
-      <x:c r="H3" s="16"/>
-      <x:c r="I3" s="17"/>
-      <x:c r="J3" s="17"/>
+      <x:c r="A3" s="15" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B3" s="15"/>
+      <x:c r="C3" s="16" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D3" s="16"/>
+      <x:c r="E3" s="16"/>
+      <x:c r="F3" s="15" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="G3" s="15"/>
+      <x:c r="H3" s="15"/>
+      <x:c r="I3" s="16"/>
+      <x:c r="J3" s="16"/>
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A4" s="16" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="B4" s="16"/>
-      <x:c r="C4" s="17" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D4" s="17"/>
-      <x:c r="E4" s="17"/>
-      <x:c r="F4" s="16" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="G4" s="16"/>
-      <x:c r="H4" s="16"/>
-      <x:c r="I4" s="17" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="J4" s="17"/>
+      <x:c r="A4" s="15" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="B4" s="15"/>
+      <x:c r="C4" s="16" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="D4" s="16"/>
+      <x:c r="E4" s="16"/>
+      <x:c r="F4" s="15" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="G4" s="15"/>
+      <x:c r="H4" s="15"/>
+      <x:c r="I4" s="16" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="J4" s="16"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>43</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>92</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>33</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>96</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>160</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>158</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A6" s="4">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B6" s="10" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="C6" s="10" t="s">
-        <x:v>124</x:v>
+      <x:c r="B6" s="19" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="C6" s="9" t="s">
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>64</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>119</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -4044,22 +4508,22 @@
       <x:c r="A7" s="4">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B7" s="10" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="C7" s="10" t="s">
-        <x:v>115</x:v>
+      <x:c r="B7" s="19" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C7" s="19" t="s">
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="E7" s="4">
-        <x:v>500</x:v>
-      </x:c>
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="E7" s="4"/>
       <x:c r="F7" s="4"/>
-      <x:c r="G7" s="4"/>
+      <x:c r="G7" s="4" t="s">
+        <x:v>23</x:v>
+      </x:c>
       <x:c r="H7" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -4068,47 +4532,39 @@
       <x:c r="A8" s="4">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B8" s="10" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="C8" s="10" t="s">
-        <x:v>150</x:v>
+      <x:c r="B8" s="19" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="C8" s="18" t="s">
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="E8" s="4"/>
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E8" s="4">
+        <x:v>10</x:v>
+      </x:c>
       <x:c r="F8" s="4"/>
-      <x:c r="G8" s="4" t="s">
-        <x:v>112</x:v>
-      </x:c>
+      <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
-      <x:c r="J8" s="6"/>
+      <x:c r="J8" s="5" t="s">
+        <x:v>177</x:v>
+      </x:c>
     </x:row>
     <x:row r="9" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A9" s="4">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B9" s="10" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="C9" s="10" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="D9" s="4" t="s">
-        <x:v>64</x:v>
-      </x:c>
+      <x:c r="B9" s="19"/>
+      <x:c r="C9" s="19"/>
+      <x:c r="D9" s="4"/>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
-      <x:c r="G9" s="4" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="H9" s="4" t="s">
-        <x:v>159</x:v>
-      </x:c>
+      <x:c r="G9" s="4"/>
+      <x:c r="H9" s="4"/>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="5"/>
     </x:row>
@@ -4116,28 +4572,22 @@
       <x:c r="A10" s="4">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B10" s="10" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C10" s="10" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="D10" s="4" t="s">
-        <x:v>19</x:v>
-      </x:c>
+      <x:c r="B10" s="19"/>
+      <x:c r="C10" s="19"/>
+      <x:c r="D10" s="4"/>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
-      <x:c r="H10" s="4" t="s">
-        <x:v>159</x:v>
-      </x:c>
+      <x:c r="H10" s="4"/>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="11"/>
     </x:row>
     <x:row r="11" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <x:c r="A11" s="4"/>
-      <x:c r="B11" s="10"/>
-      <x:c r="C11" s="10"/>
+      <x:c r="A11" s="4">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B11" s="19"/>
+      <x:c r="C11" s="19"/>
       <x:c r="D11" s="4"/>
       <x:c r="E11" s="4"/>
       <x:c r="F11" s="4"/>
@@ -4147,21 +4597,25 @@
       <x:c r="J11" s="5"/>
     </x:row>
     <x:row r="12" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <x:c r="A12" s="4"/>
-      <x:c r="B12" s="10"/>
-      <x:c r="C12" s="10"/>
+      <x:c r="A12" s="4">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B12" s="19"/>
+      <x:c r="C12" s="19"/>
       <x:c r="D12" s="4"/>
-      <x:c r="E12" s="7"/>
-      <x:c r="F12" s="7"/>
-      <x:c r="G12" s="7"/>
+      <x:c r="E12" s="4"/>
+      <x:c r="F12" s="4"/>
+      <x:c r="G12" s="4"/>
       <x:c r="H12" s="4"/>
       <x:c r="I12" s="7"/>
       <x:c r="J12" s="8"/>
     </x:row>
     <x:row r="13" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <x:c r="A13" s="4"/>
-      <x:c r="B13" s="10"/>
-      <x:c r="C13" s="10"/>
+      <x:c r="A13" s="4">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B13" s="19"/>
+      <x:c r="C13" s="19"/>
       <x:c r="D13" s="4"/>
       <x:c r="E13" s="7"/>
       <x:c r="F13" s="7"/>
@@ -4232,67 +4686,67 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
-      <x:c r="A20" s="13" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="B20" s="13" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C20" s="14"/>
-      <x:c r="D20" s="14"/>
-      <x:c r="E20" s="14"/>
-      <x:c r="F20" s="14"/>
-      <x:c r="G20" s="14"/>
-      <x:c r="H20" s="14"/>
-      <x:c r="I20" s="14"/>
-      <x:c r="J20" s="14"/>
+      <x:c r="A20" s="12" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B20" s="12" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C20" s="13"/>
+      <x:c r="D20" s="13"/>
+      <x:c r="E20" s="13"/>
+      <x:c r="F20" s="13"/>
+      <x:c r="G20" s="13"/>
+      <x:c r="H20" s="13"/>
+      <x:c r="I20" s="13"/>
+      <x:c r="J20" s="13"/>
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
-      <x:c r="A21" s="13" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B21" s="13" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C21" s="15"/>
-      <x:c r="D21" s="14"/>
-      <x:c r="E21" s="14"/>
-      <x:c r="F21" s="14"/>
-      <x:c r="G21" s="14"/>
-      <x:c r="H21" s="14"/>
-      <x:c r="I21" s="14"/>
-      <x:c r="J21" s="14"/>
+      <x:c r="A21" s="12" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B21" s="12" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C21" s="14"/>
+      <x:c r="D21" s="13"/>
+      <x:c r="E21" s="13"/>
+      <x:c r="F21" s="13"/>
+      <x:c r="G21" s="13"/>
+      <x:c r="H21" s="13"/>
+      <x:c r="I21" s="13"/>
+      <x:c r="J21" s="13"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="17">
@@ -4321,13 +4775,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet7">
+  <x:sheetPr codeName="Sheet5">
     <x:tabColor rgb="ff70ad47"/>
   </x:sheetPr>
   <x:dimension ref="A1:J21"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D11" activeCellId="0" sqref="D11:D11"/>
+      <x:selection activeCell="C14" activeCellId="0" sqref="C14:C14"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
@@ -4346,107 +4800,107 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A1" s="18" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="B1" s="18"/>
-      <x:c r="C1" s="18"/>
-      <x:c r="D1" s="18"/>
-      <x:c r="E1" s="18"/>
-      <x:c r="F1" s="18"/>
-      <x:c r="G1" s="18"/>
-      <x:c r="H1" s="18"/>
-      <x:c r="I1" s="18"/>
-      <x:c r="J1" s="18"/>
+      <x:c r="A1" s="17" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B1" s="17"/>
+      <x:c r="C1" s="17"/>
+      <x:c r="D1" s="17"/>
+      <x:c r="E1" s="17"/>
+      <x:c r="F1" s="17"/>
+      <x:c r="G1" s="17"/>
+      <x:c r="H1" s="17"/>
+      <x:c r="I1" s="17"/>
+      <x:c r="J1" s="17"/>
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A2" s="16" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="B2" s="16"/>
-      <x:c r="C2" s="17" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="D2" s="17"/>
-      <x:c r="E2" s="17"/>
-      <x:c r="F2" s="16" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="G2" s="16"/>
-      <x:c r="H2" s="16"/>
-      <x:c r="I2" s="17" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="J2" s="17"/>
+      <x:c r="A2" s="15" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B2" s="15"/>
+      <x:c r="C2" s="16" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D2" s="16"/>
+      <x:c r="E2" s="16"/>
+      <x:c r="F2" s="15" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="G2" s="15"/>
+      <x:c r="H2" s="15"/>
+      <x:c r="I2" s="16" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="J2" s="16"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A3" s="16" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="B3" s="16"/>
-      <x:c r="C3" s="17" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="D3" s="17"/>
-      <x:c r="E3" s="17"/>
-      <x:c r="F3" s="16" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="G3" s="16"/>
-      <x:c r="H3" s="16"/>
-      <x:c r="I3" s="17"/>
-      <x:c r="J3" s="17"/>
+      <x:c r="A3" s="15" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B3" s="15"/>
+      <x:c r="C3" s="16" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D3" s="16"/>
+      <x:c r="E3" s="16"/>
+      <x:c r="F3" s="15" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="G3" s="15"/>
+      <x:c r="H3" s="15"/>
+      <x:c r="I3" s="16"/>
+      <x:c r="J3" s="16"/>
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A4" s="16" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="B4" s="16"/>
-      <x:c r="C4" s="17" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="D4" s="17"/>
-      <x:c r="E4" s="17"/>
-      <x:c r="F4" s="16" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="G4" s="16"/>
-      <x:c r="H4" s="16"/>
-      <x:c r="I4" s="17" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="J4" s="17"/>
+      <x:c r="A4" s="15" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="B4" s="15"/>
+      <x:c r="C4" s="16" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="D4" s="16"/>
+      <x:c r="E4" s="16"/>
+      <x:c r="F4" s="15" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="G4" s="15"/>
+      <x:c r="H4" s="15"/>
+      <x:c r="I4" s="16" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="J4" s="16"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>43</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>92</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>33</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>96</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>160</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>158</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -4454,21 +4908,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
-        <x:v>108</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C6" s="10" t="s">
-        <x:v>10</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>64</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>119</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -4478,13 +4932,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>128</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>86</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>51</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>100</x:v>
@@ -4492,7 +4946,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -4502,13 +4956,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
-        <x:v>49</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C8" s="10" t="s">
-        <x:v>115</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>51</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E8" s="4">
         <x:v>3000</x:v>
@@ -4516,7 +4970,7 @@
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -4526,21 +4980,21 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="10" t="s">
-        <x:v>95</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>150</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="E9" s="4"/>
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E9" s="4">
+        <x:v>10</x:v>
+      </x:c>
       <x:c r="F9" s="4"/>
-      <x:c r="G9" s="4" t="s">
-        <x:v>112</x:v>
-      </x:c>
+      <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="5"/>
@@ -4550,21 +5004,21 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="10" t="s">
-        <x:v>106</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>122</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>64</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4" t="s">
-        <x:v>112</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H10" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="11"/>
@@ -4574,19 +5028,19 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B11" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C11" s="10" t="s">
-        <x:v>135</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>19</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="E11" s="4"/>
       <x:c r="F11" s="4"/>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I11" s="7"/>
       <x:c r="J11" s="5"/>
@@ -4677,67 +5131,67 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
-      <x:c r="A20" s="13" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="B20" s="13" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C20" s="14"/>
-      <x:c r="D20" s="14"/>
-      <x:c r="E20" s="14"/>
-      <x:c r="F20" s="14"/>
-      <x:c r="G20" s="14"/>
-      <x:c r="H20" s="14"/>
-      <x:c r="I20" s="14"/>
-      <x:c r="J20" s="14"/>
+      <x:c r="A20" s="12" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B20" s="12" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C20" s="13"/>
+      <x:c r="D20" s="13"/>
+      <x:c r="E20" s="13"/>
+      <x:c r="F20" s="13"/>
+      <x:c r="G20" s="13"/>
+      <x:c r="H20" s="13"/>
+      <x:c r="I20" s="13"/>
+      <x:c r="J20" s="13"/>
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
-      <x:c r="A21" s="13" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B21" s="13" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C21" s="15"/>
-      <x:c r="D21" s="14"/>
-      <x:c r="E21" s="14"/>
-      <x:c r="F21" s="14"/>
-      <x:c r="G21" s="14"/>
-      <x:c r="H21" s="14"/>
-      <x:c r="I21" s="14"/>
-      <x:c r="J21" s="14"/>
+      <x:c r="A21" s="12" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B21" s="12" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C21" s="14"/>
+      <x:c r="D21" s="13"/>
+      <x:c r="E21" s="13"/>
+      <x:c r="F21" s="13"/>
+      <x:c r="G21" s="13"/>
+      <x:c r="H21" s="13"/>
+      <x:c r="I21" s="13"/>
+      <x:c r="J21" s="13"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="17">
@@ -4766,13 +5220,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet8">
+  <x:sheetPr codeName="Sheet6">
     <x:tabColor rgb="ff70ad47"/>
   </x:sheetPr>
   <x:dimension ref="A1:J21"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E7" activeCellId="0" sqref="E7:E7"/>
+      <x:selection activeCell="D10" activeCellId="0" sqref="D10:D10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
@@ -4791,107 +5245,107 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A1" s="18" t="s">
+      <x:c r="A1" s="17" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B1" s="17"/>
+      <x:c r="C1" s="17"/>
+      <x:c r="D1" s="17"/>
+      <x:c r="E1" s="17"/>
+      <x:c r="F1" s="17"/>
+      <x:c r="G1" s="17"/>
+      <x:c r="H1" s="17"/>
+      <x:c r="I1" s="17"/>
+      <x:c r="J1" s="17"/>
+    </x:row>
+    <x:row r="2" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A2" s="15" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B2" s="15"/>
+      <x:c r="C2" s="16" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D2" s="16"/>
+      <x:c r="E2" s="16"/>
+      <x:c r="F2" s="15" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="G2" s="15"/>
+      <x:c r="H2" s="15"/>
+      <x:c r="I2" s="16" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="J2" s="16"/>
+    </x:row>
+    <x:row r="3" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A3" s="15" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B3" s="15"/>
+      <x:c r="C3" s="16" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D3" s="16"/>
+      <x:c r="E3" s="16"/>
+      <x:c r="F3" s="15" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="G3" s="15"/>
+      <x:c r="H3" s="15"/>
+      <x:c r="I3" s="16"/>
+      <x:c r="J3" s="16"/>
+    </x:row>
+    <x:row r="4" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A4" s="15" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="B4" s="15"/>
+      <x:c r="C4" s="16" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="B1" s="18"/>
-      <x:c r="C1" s="18"/>
-      <x:c r="D1" s="18"/>
-      <x:c r="E1" s="18"/>
-      <x:c r="F1" s="18"/>
-      <x:c r="G1" s="18"/>
-      <x:c r="H1" s="18"/>
-      <x:c r="I1" s="18"/>
-      <x:c r="J1" s="18"/>
-    </x:row>
-    <x:row r="2" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A2" s="16" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="B2" s="16"/>
-      <x:c r="C2" s="17" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="D2" s="17"/>
-      <x:c r="E2" s="17"/>
-      <x:c r="F2" s="16" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="G2" s="16"/>
-      <x:c r="H2" s="16"/>
-      <x:c r="I2" s="17" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="J2" s="17"/>
-    </x:row>
-    <x:row r="3" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A3" s="16" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="B3" s="16"/>
-      <x:c r="C3" s="17" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="D3" s="17"/>
-      <x:c r="E3" s="17"/>
-      <x:c r="F3" s="16" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="G3" s="16"/>
-      <x:c r="H3" s="16"/>
-      <x:c r="I3" s="17"/>
-      <x:c r="J3" s="17"/>
-    </x:row>
-    <x:row r="4" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A4" s="16" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="B4" s="16"/>
-      <x:c r="C4" s="17" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="D4" s="17"/>
-      <x:c r="E4" s="17"/>
-      <x:c r="F4" s="16" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="G4" s="16"/>
-      <x:c r="H4" s="16"/>
-      <x:c r="I4" s="17" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J4" s="17"/>
+      <x:c r="D4" s="16"/>
+      <x:c r="E4" s="16"/>
+      <x:c r="F4" s="15" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="G4" s="15"/>
+      <x:c r="H4" s="15"/>
+      <x:c r="I4" s="16" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="J4" s="16"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>43</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>92</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>33</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>96</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>160</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>158</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -4899,21 +5353,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
-        <x:v>91</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="C6" s="10" t="s">
-        <x:v>12</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>64</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>119</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -4923,21 +5377,21 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>65</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>115</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>51</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E7" s="4">
-        <x:v>1000</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -4947,21 +5401,21 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
-        <x:v>108</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C8" s="10" t="s">
         <x:v>152</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>64</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E8" s="4"/>
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4" t="s">
-        <x:v>112</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H8" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -4971,21 +5425,21 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="10" t="s">
-        <x:v>106</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>155</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>64</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4" t="s">
-        <x:v>112</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H9" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="5"/>
@@ -4995,19 +5449,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>135</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>19</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="11"/>
@@ -5110,67 +5564,512 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
-      <x:c r="A20" s="13" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="B20" s="13" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C20" s="14"/>
-      <x:c r="D20" s="14"/>
-      <x:c r="E20" s="14"/>
-      <x:c r="F20" s="14"/>
-      <x:c r="G20" s="14"/>
-      <x:c r="H20" s="14"/>
-      <x:c r="I20" s="14"/>
-      <x:c r="J20" s="14"/>
+      <x:c r="A20" s="12" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B20" s="12" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C20" s="13"/>
+      <x:c r="D20" s="13"/>
+      <x:c r="E20" s="13"/>
+      <x:c r="F20" s="13"/>
+      <x:c r="G20" s="13"/>
+      <x:c r="H20" s="13"/>
+      <x:c r="I20" s="13"/>
+      <x:c r="J20" s="13"/>
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
-      <x:c r="A21" s="13" t="s">
+      <x:c r="A21" s="12" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B21" s="12" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C21" s="14"/>
+      <x:c r="D21" s="13"/>
+      <x:c r="E21" s="13"/>
+      <x:c r="F21" s="13"/>
+      <x:c r="G21" s="13"/>
+      <x:c r="H21" s="13"/>
+      <x:c r="I21" s="13"/>
+      <x:c r="J21" s="13"/>
+    </x:row>
+  </x:sheetData>
+  <x:mergeCells count="17">
+    <x:mergeCell ref="A20:B20"/>
+    <x:mergeCell ref="C20:J20"/>
+    <x:mergeCell ref="A21:B21"/>
+    <x:mergeCell ref="C21:J21"/>
+    <x:mergeCell ref="A4:B4"/>
+    <x:mergeCell ref="F4:H4"/>
+    <x:mergeCell ref="I4:J4"/>
+    <x:mergeCell ref="C4:E4"/>
+    <x:mergeCell ref="A1:J1"/>
+    <x:mergeCell ref="A2:B2"/>
+    <x:mergeCell ref="A3:B3"/>
+    <x:mergeCell ref="F2:H2"/>
+    <x:mergeCell ref="F3:H3"/>
+    <x:mergeCell ref="I2:J2"/>
+    <x:mergeCell ref="I3:J3"/>
+    <x:mergeCell ref="C2:E2"/>
+    <x:mergeCell ref="C3:E3"/>
+  </x:mergeCells>
+  <x:pageMargins left="0.39347222447395325" right="0.31486111879348755" top="0.59041666984558105" bottom="0.55097222328186035" header="0.31486111879348755" footer="0.31486111879348755"/>
+  <x:pageSetup paperSize="9" scale="75" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet7">
+    <x:tabColor rgb="ff70ad47"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:J21"/>
+  <x:sheetViews>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="D11" activeCellId="0" sqref="D11:D11"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
+  <x:cols>
+    <x:col min="1" max="1" width="5.375" style="2" customWidth="1"/>
+    <x:col min="2" max="2" width="17.75" style="2" customWidth="1"/>
+    <x:col min="3" max="3" width="29.375" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="5" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="6" width="8.5" style="2" customWidth="1"/>
+    <x:col min="7" max="7" width="5" style="2" customWidth="1"/>
+    <x:col min="8" max="8" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="9" max="9" width="10.625" style="2" customWidth="1"/>
+    <x:col min="10" max="10" width="29.875" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="11" max="16384" width="9" style="2"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A1" s="17" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B1" s="17"/>
+      <x:c r="C1" s="17"/>
+      <x:c r="D1" s="17"/>
+      <x:c r="E1" s="17"/>
+      <x:c r="F1" s="17"/>
+      <x:c r="G1" s="17"/>
+      <x:c r="H1" s="17"/>
+      <x:c r="I1" s="17"/>
+      <x:c r="J1" s="17"/>
+    </x:row>
+    <x:row r="2" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A2" s="15" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B2" s="15"/>
+      <x:c r="C2" s="16" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D2" s="16"/>
+      <x:c r="E2" s="16"/>
+      <x:c r="F2" s="15" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="G2" s="15"/>
+      <x:c r="H2" s="15"/>
+      <x:c r="I2" s="16" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="J2" s="16"/>
+    </x:row>
+    <x:row r="3" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A3" s="15" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B3" s="15"/>
+      <x:c r="C3" s="16" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D3" s="16"/>
+      <x:c r="E3" s="16"/>
+      <x:c r="F3" s="15" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="G3" s="15"/>
+      <x:c r="H3" s="15"/>
+      <x:c r="I3" s="16"/>
+      <x:c r="J3" s="16"/>
+    </x:row>
+    <x:row r="4" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A4" s="15" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="B4" s="15"/>
+      <x:c r="C4" s="16" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="D4" s="16"/>
+      <x:c r="E4" s="16"/>
+      <x:c r="F4" s="15" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="G4" s="15"/>
+      <x:c r="H4" s="15"/>
+      <x:c r="I4" s="16" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="J4" s="16"/>
+    </x:row>
+    <x:row r="5" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A5" s="3" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B5" s="3" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C5" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E5" s="3" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F5" s="3" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G5" s="3" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H5" s="3" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="I5" s="3" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="J5" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <x:c r="A6" s="4">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B6" s="10" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C6" s="10" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D6" s="4" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="E6" s="4"/>
+      <x:c r="F6" s="4"/>
+      <x:c r="G6" s="4" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H6" s="4" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="I6" s="4"/>
+      <x:c r="J6" s="6"/>
+    </x:row>
+    <x:row r="7" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <x:c r="A7" s="4">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B7" s="10" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C7" s="10" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D7" s="4" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E7" s="4">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="F7" s="4"/>
+      <x:c r="G7" s="4"/>
+      <x:c r="H7" s="4" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="I7" s="4"/>
+      <x:c r="J7" s="6"/>
+    </x:row>
+    <x:row r="8" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <x:c r="A8" s="4">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B8" s="10" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C8" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D8" s="4" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E8" s="4">
+        <x:v>3000</x:v>
+      </x:c>
+      <x:c r="F8" s="4"/>
+      <x:c r="G8" s="4"/>
+      <x:c r="H8" s="4" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="I8" s="4"/>
+      <x:c r="J8" s="6"/>
+    </x:row>
+    <x:row r="9" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <x:c r="A9" s="4">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B9" s="10" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="B21" s="13" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C21" s="15"/>
-      <x:c r="D21" s="14"/>
-      <x:c r="E21" s="14"/>
-      <x:c r="F21" s="14"/>
-      <x:c r="G21" s="14"/>
-      <x:c r="H21" s="14"/>
-      <x:c r="I21" s="14"/>
-      <x:c r="J21" s="14"/>
+      <x:c r="C9" s="10" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="D9" s="4" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="E9" s="4"/>
+      <x:c r="F9" s="4"/>
+      <x:c r="G9" s="4" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H9" s="4" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="I9" s="4"/>
+      <x:c r="J9" s="5"/>
+    </x:row>
+    <x:row r="10" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <x:c r="A10" s="4">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B10" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C10" s="10" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D10" s="4" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="E10" s="4"/>
+      <x:c r="F10" s="4"/>
+      <x:c r="G10" s="4" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H10" s="4" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="I10" s="4"/>
+      <x:c r="J10" s="11"/>
+    </x:row>
+    <x:row r="11" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <x:c r="A11" s="4">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B11" s="10" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C11" s="10" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="D11" s="4" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="E11" s="4"/>
+      <x:c r="F11" s="4"/>
+      <x:c r="G11" s="4"/>
+      <x:c r="H11" s="4" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="I11" s="7"/>
+      <x:c r="J11" s="5"/>
+    </x:row>
+    <x:row r="12" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <x:c r="A12" s="4"/>
+      <x:c r="B12" s="10"/>
+      <x:c r="C12" s="10"/>
+      <x:c r="D12" s="4"/>
+      <x:c r="E12" s="7"/>
+      <x:c r="F12" s="7"/>
+      <x:c r="G12" s="7"/>
+      <x:c r="H12" s="4"/>
+      <x:c r="I12" s="7"/>
+      <x:c r="J12" s="8"/>
+    </x:row>
+    <x:row r="13" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <x:c r="A13" s="4"/>
+      <x:c r="B13" s="10"/>
+      <x:c r="C13" s="10"/>
+      <x:c r="D13" s="4"/>
+      <x:c r="E13" s="7"/>
+      <x:c r="F13" s="7"/>
+      <x:c r="G13" s="7"/>
+      <x:c r="H13" s="4"/>
+      <x:c r="I13" s="7"/>
+      <x:c r="J13" s="8"/>
+    </x:row>
+    <x:row r="14" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <x:c r="A14" s="4"/>
+      <x:c r="B14" s="10"/>
+      <x:c r="C14" s="10"/>
+      <x:c r="D14" s="4"/>
+      <x:c r="E14" s="7"/>
+      <x:c r="F14" s="7"/>
+      <x:c r="G14" s="7"/>
+      <x:c r="H14" s="4"/>
+      <x:c r="I14" s="7"/>
+      <x:c r="J14" s="8"/>
+    </x:row>
+    <x:row r="15" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <x:c r="A15" s="4"/>
+      <x:c r="B15" s="10"/>
+      <x:c r="C15" s="10"/>
+      <x:c r="D15" s="4"/>
+      <x:c r="E15" s="7"/>
+      <x:c r="F15" s="7"/>
+      <x:c r="G15" s="7"/>
+      <x:c r="H15" s="4"/>
+      <x:c r="I15" s="7"/>
+      <x:c r="J15" s="8"/>
+    </x:row>
+    <x:row r="16" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <x:c r="A16" s="4"/>
+      <x:c r="B16" s="10"/>
+      <x:c r="C16" s="10"/>
+      <x:c r="D16" s="7"/>
+      <x:c r="E16" s="7"/>
+      <x:c r="F16" s="7"/>
+      <x:c r="G16" s="7"/>
+      <x:c r="H16" s="4"/>
+      <x:c r="I16" s="7"/>
+      <x:c r="J16" s="8"/>
+    </x:row>
+    <x:row r="17" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <x:c r="A17" s="7"/>
+      <x:c r="B17" s="8"/>
+      <x:c r="C17" s="8"/>
+      <x:c r="D17" s="7"/>
+      <x:c r="E17" s="7"/>
+      <x:c r="F17" s="7"/>
+      <x:c r="G17" s="7"/>
+      <x:c r="H17" s="7"/>
+      <x:c r="I17" s="7"/>
+      <x:c r="J17" s="8"/>
+    </x:row>
+    <x:row r="18" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <x:c r="A18" s="7"/>
+      <x:c r="B18" s="8"/>
+      <x:c r="C18" s="8"/>
+      <x:c r="D18" s="7"/>
+      <x:c r="E18" s="7"/>
+      <x:c r="F18" s="7"/>
+      <x:c r="G18" s="7"/>
+      <x:c r="H18" s="7"/>
+      <x:c r="I18" s="7"/>
+      <x:c r="J18" s="8"/>
+    </x:row>
+    <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <x:c r="A19" s="7" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B19" s="8" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C19" s="8" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D19" s="7" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E19" s="7" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F19" s="7" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G19" s="7" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H19" s="7" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I19" s="7" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J19" s="8" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
+      <x:c r="A20" s="12" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B20" s="12" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C20" s="13"/>
+      <x:c r="D20" s="13"/>
+      <x:c r="E20" s="13"/>
+      <x:c r="F20" s="13"/>
+      <x:c r="G20" s="13"/>
+      <x:c r="H20" s="13"/>
+      <x:c r="I20" s="13"/>
+      <x:c r="J20" s="13"/>
+    </x:row>
+    <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
+      <x:c r="A21" s="12" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B21" s="12" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C21" s="14"/>
+      <x:c r="D21" s="13"/>
+      <x:c r="E21" s="13"/>
+      <x:c r="F21" s="13"/>
+      <x:c r="G21" s="13"/>
+      <x:c r="H21" s="13"/>
+      <x:c r="I21" s="13"/>
+      <x:c r="J21" s="13"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="17">

--- a/exiter/etc/테이블DB.xlsx
+++ b/exiter/etc/테이블DB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="11670" tabRatio="500" activeTab="5"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="17160" windowHeight="11670" tabRatio="500" activeTab="4"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="User" sheetId="1" r:id="rId4"/>
@@ -28,543 +28,540 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="179">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="178">
+  <x:si>
+    <x:t>좌표x</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>길이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>난이도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지점명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인원수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>답변</x:t>
+  </x:si>
+  <x:si>
+    <x:t>U</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매장명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rid</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>컬럼명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>좌표y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엑시터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테마</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테마명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방린이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KEY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>줄거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장르</x:t>
+  </x:si>
+  <x:si>
+    <x:t>질문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연락처</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.09.12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comAddress1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업자 비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comAddress4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인원수(MAX)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TIMESTAMP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comPasswd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ThemeReservationTime 테이블 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xxxxxxxxxx(하이픈 미포함) 10자리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BoardComment 테이블 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Company 테이블 키값(FK)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Company Table key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈퇴유무 true / false</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Theme 테이블 키값(FK)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테마예약시간 정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reservation 테이블 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테마가격 정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A(관리자) / U(일반회원)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카테고리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tTime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qDef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테마예약시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상세주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로젝트명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uPasswd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우편주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tpid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uPhone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지번주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rPrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bcDef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Theme</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rTime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comTel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TYPE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작  성  일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업무규칙</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tPrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬럼ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uGrade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BIGINT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>regDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 정의서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인  덱  스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작  성  자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도로명주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모  듈  명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업자번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날짜시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aDef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 연락처</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업자 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DOUBLE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uCheck</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Board</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BOOLEAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈퇴 유무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Company</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 등급</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tLevel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tDef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tImage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약일자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tpNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bcid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약금액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>trTime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테마가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>trid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인원당 금액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bDef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>답변정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer 테이블 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Theme Table key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테마정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업자정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user 테이블 키값(FK)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Table key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BoardComment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>질문정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ex) 10:00 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Board 테이블 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Question 테이블 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지점이 없는 경우 null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ThemePrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xxx-xxxx-xxxx (하이픈포함)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Question 테이블 키값(FK), 질문</x:t>
+  </x:si>
   <x:si>
     <x:t>ThemePrice Table key</x:t>
   </x:si>
   <x:si>
-    <x:t>테마예약시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tpid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테마예약시간 정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ThemePrice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>aid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬럼명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>좌표y</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>좌표x</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엑시터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지점명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테마</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테마명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>매장명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>길이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인원수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>난이도</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>답변</x:t>
-  </x:si>
-  <x:si>
-    <x:t>U</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연락처</x:t>
-  </x:si>
-  <x:si>
-    <x:t>줄거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>질문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KEY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장르</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방린이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User Table key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업자정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>답변정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>질문정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Theme Table key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테마정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Answer 테이블 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user 테이블 키값(FK)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BoardComment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Board 테이블 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Question 테이블 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지점이 없는 경우 null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Company 테이블 키값(FK)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈퇴유무 true / false</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Company Table key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reservation 테이블 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A(관리자) / U(일반회원)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BoardComment 테이블 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Theme 테이블 키값(FK)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xxxxxxxxxx(하이픈 미포함) 10자리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상세주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카테고리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로젝트명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uPasswd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우편주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qDef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TIME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tTime</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rPrice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tPrice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TYPE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작  성  일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업무규칙</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uPhone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지번주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bcDef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Theme</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rTime</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comTel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>regDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬럼ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uGrade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Answer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BIGINT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>aDef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 정의서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작  성  자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인  덱  스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 연락처</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도로명주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모  듈  명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업자 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DOUBLE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업자번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날짜시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 등급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tImage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uCheck</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약일자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Company</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Board</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BOOLEAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈퇴 유무</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tLevel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uType</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tDef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bDef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약금액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bcid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xxx-xxxx-xxxx (하이픈포함)</x:t>
+    <x:t>Company 테이블 키값(FK), 작성자</x:t>
   </x:si>
   <x:si>
     <x:t>xxx-xxxx-xxxx(하이픈포함)</x:t>
   </x:si>
   <x:si>
+    <x:t>ThemeReservationTime</x:t>
+  </x:si>
+  <x:si>
     <x:t>Board 테이블 키값(FK), 게시글</x:t>
   </x:si>
   <x:si>
-    <x:t>Company 테이블 키값(FK), 작성자</x:t>
-  </x:si>
-  <x:si>
     <x:t>방린이 - 방소년 - 방으른 - 엑시터</x:t>
   </x:si>
   <x:si>
-    <x:t>Question 테이블 키값(FK), 질문</x:t>
-  </x:si>
-  <x:si>
     <x:t>user 테이블 키값(FK), 작성자</x:t>
   </x:si>
   <x:si>
-    <x:t>인원수(MAX)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comAddress4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업자 비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TIMESTAMP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comPasswd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.09.12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comAddress1</x:t>
-  </x:si>
-  <x:si>
     <x:t>comPocus</x:t>
   </x:si>
   <x:si>
+    <x:t>comAddress2</x:t>
+  </x:si>
+  <x:si>
     <x:t>Major Code</x:t>
   </x:si>
   <x:si>
     <x:t>comAddress3</x:t>
   </x:si>
   <x:si>
+    <x:t>tCategory</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reservation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bCategory</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NULLABLE</x:t>
+  </x:si>
+  <x:si>
     <x:t>Not Null</x:t>
   </x:si>
   <x:si>
-    <x:t>NULLABLE</x:t>
-  </x:si>
-  <x:si>
     <x:t>Question</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comAddress2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bCategory</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reservation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tCategory</x:t>
-  </x:si>
-  <x:si>
-    <x:t>trTime</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테마가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테마가격 정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ThemeReservationTime 테이블 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tpNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>trid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ThemeReservationTime</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ex) 10:00 AM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인원당 금액</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -756,6 +753,18 @@
     <x:xf numFmtId="20" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
@@ -814,18 +823,6 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="2">
     <x:cellStyle name="표준" xfId="0" builtinId="0" iLevel="0"/>
@@ -837,6 +834,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -919,6 +917,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -953,6 +952,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -997,6 +997,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1040,6 +1041,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1124,6 +1126,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1144,6 +1147,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1174,6 +1178,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1505,129 +1510,129 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A1" s="17" t="s">
+      <x:c r="A1" s="21" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="B1" s="21"/>
+      <x:c r="C1" s="21"/>
+      <x:c r="D1" s="21"/>
+      <x:c r="E1" s="21"/>
+      <x:c r="F1" s="21"/>
+      <x:c r="G1" s="21"/>
+      <x:c r="H1" s="21"/>
+      <x:c r="I1" s="21"/>
+      <x:c r="J1" s="21"/>
+    </x:row>
+    <x:row r="2" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A2" s="19" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B2" s="19"/>
+      <x:c r="C2" s="20" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D2" s="20"/>
+      <x:c r="E2" s="20"/>
+      <x:c r="F2" s="19" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="G2" s="19"/>
+      <x:c r="H2" s="19"/>
+      <x:c r="I2" s="20" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="J2" s="20"/>
+    </x:row>
+    <x:row r="3" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A3" s="19" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B3" s="19"/>
+      <x:c r="C3" s="20" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D3" s="20"/>
+      <x:c r="E3" s="20"/>
+      <x:c r="F3" s="19" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="G3" s="19"/>
+      <x:c r="H3" s="19"/>
+      <x:c r="I3" s="20"/>
+      <x:c r="J3" s="20"/>
+    </x:row>
+    <x:row r="4" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A4" s="19" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="B1" s="17"/>
-      <x:c r="C1" s="17"/>
-      <x:c r="D1" s="17"/>
-      <x:c r="E1" s="17"/>
-      <x:c r="F1" s="17"/>
-      <x:c r="G1" s="17"/>
-      <x:c r="H1" s="17"/>
-      <x:c r="I1" s="17"/>
-      <x:c r="J1" s="17"/>
-    </x:row>
-    <x:row r="2" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A2" s="15" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="B2" s="15"/>
-      <x:c r="C2" s="16" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D2" s="16"/>
-      <x:c r="E2" s="16"/>
-      <x:c r="F2" s="15" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="G2" s="15"/>
-      <x:c r="H2" s="15"/>
-      <x:c r="I2" s="16" t="s">
-        <x:v>158</x:v>
-      </x:c>
-      <x:c r="J2" s="16"/>
-    </x:row>
-    <x:row r="3" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A3" s="15" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B3" s="15"/>
-      <x:c r="C3" s="16" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D3" s="16"/>
-      <x:c r="E3" s="16"/>
-      <x:c r="F3" s="15" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="G3" s="15"/>
-      <x:c r="H3" s="15"/>
-      <x:c r="I3" s="16"/>
-      <x:c r="J3" s="16"/>
-    </x:row>
-    <x:row r="4" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A4" s="15" t="s">
+      <x:c r="B4" s="19"/>
+      <x:c r="C4" s="20" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D4" s="20"/>
+      <x:c r="E4" s="20"/>
+      <x:c r="F4" s="19" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="B4" s="15"/>
-      <x:c r="C4" s="16" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="D4" s="16"/>
-      <x:c r="E4" s="16"/>
-      <x:c r="F4" s="15" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="G4" s="15"/>
-      <x:c r="H4" s="15"/>
-      <x:c r="I4" s="16" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="J4" s="16"/>
+      <x:c r="G4" s="19"/>
+      <x:c r="H4" s="19"/>
+      <x:c r="I4" s="20" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="J4" s="20"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B5" s="3" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C5" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="E5" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F5" s="3" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B5" s="3" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C5" s="3" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D5" s="3" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="E5" s="3" t="s">
+      <x:c r="G5" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H5" s="3" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="I5" s="3" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="J5" s="3" t="s">
         <x:v>21</x:v>
-      </x:c>
-      <x:c r="F5" s="3" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="G5" s="3" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="H5" s="3" t="s">
-        <x:v>164</x:v>
-      </x:c>
-      <x:c r="I5" s="3" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="J5" s="3" t="s">
-        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A6" s="4">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B6" s="18" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C6" s="18" t="s">
-        <x:v>48</x:v>
+      <x:c r="B6" s="12" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C6" s="12" t="s">
+        <x:v>149</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>36</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -1636,14 +1641,14 @@
       <x:c r="A7" s="4">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B7" s="18" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="C7" s="18" t="s">
-        <x:v>87</x:v>
+      <x:c r="B7" s="12" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C7" s="12" t="s">
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>76</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>20</x:v>
@@ -1651,7 +1656,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -1660,14 +1665,14 @@
       <x:c r="A8" s="4">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B8" s="18" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="C8" s="19" t="s">
-        <x:v>118</x:v>
+      <x:c r="B8" s="12" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C8" s="13" t="s">
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>76</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E8" s="4">
         <x:v>16</x:v>
@@ -1675,7 +1680,7 @@
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -1684,14 +1689,14 @@
       <x:c r="A9" s="4">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B9" s="18" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="C9" s="19" t="s">
-        <x:v>117</x:v>
+      <x:c r="B9" s="12" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="C9" s="13" t="s">
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>76</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E9" s="4">
         <x:v>20</x:v>
@@ -1699,7 +1704,7 @@
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="6"/>
@@ -1708,14 +1713,14 @@
       <x:c r="A10" s="7">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B10" s="18" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="C10" s="19" t="s">
-        <x:v>110</x:v>
+      <x:c r="B10" s="12" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C10" s="13" t="s">
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>76</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E10" s="4">
         <x:v>13</x:v>
@@ -1723,81 +1728,81 @@
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="5" t="s">
-        <x:v>147</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A11" s="7">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B11" s="19" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="C11" s="19" t="s">
-        <x:v>124</x:v>
+      <x:c r="B11" s="13" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C11" s="13" t="s">
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>76</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E11" s="4">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F11" s="4" t="s">
-        <x:v>47</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I11" s="7"/>
       <x:c r="J11" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>166</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A12" s="7">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B12" s="19" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="C12" s="20" t="s">
-        <x:v>96</x:v>
+      <x:c r="B12" s="13" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="C12" s="14" t="s">
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D12" s="4" t="s">
-        <x:v>99</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E12" s="7">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F12" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G12" s="7"/>
       <x:c r="H12" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I12" s="7"/>
       <x:c r="J12" s="8" t="s">
-        <x:v>68</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A13" s="7">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B13" s="19" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="C13" s="20" t="s">
-        <x:v>132</x:v>
+      <x:c r="B13" s="13" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="C13" s="14" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D13" s="4" t="s">
-        <x:v>131</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E13" s="7"/>
       <x:c r="F13" s="7" t="b">
@@ -1805,31 +1810,31 @@
       </x:c>
       <x:c r="G13" s="7"/>
       <x:c r="H13" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I13" s="7"/>
       <x:c r="J13" s="8" t="s">
-        <x:v>65</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A14" s="7">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B14" s="19" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="C14" s="20" t="s">
-        <x:v>123</x:v>
+      <x:c r="B14" s="13" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C14" s="14" t="s">
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D14" s="7" t="s">
-        <x:v>156</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E14" s="7"/>
       <x:c r="F14" s="7"/>
       <x:c r="G14" s="7"/>
       <x:c r="H14" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I14" s="7"/>
       <x:c r="J14" s="8"/>
@@ -1884,67 +1889,67 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
-      <x:c r="A20" s="12" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="B20" s="12" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C20" s="13"/>
-      <x:c r="D20" s="13"/>
-      <x:c r="E20" s="13"/>
-      <x:c r="F20" s="13"/>
-      <x:c r="G20" s="13"/>
-      <x:c r="H20" s="13"/>
-      <x:c r="I20" s="13"/>
-      <x:c r="J20" s="13"/>
+      <x:c r="A20" s="16" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="B20" s="16" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C20" s="17"/>
+      <x:c r="D20" s="17"/>
+      <x:c r="E20" s="17"/>
+      <x:c r="F20" s="17"/>
+      <x:c r="G20" s="17"/>
+      <x:c r="H20" s="17"/>
+      <x:c r="I20" s="17"/>
+      <x:c r="J20" s="17"/>
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
-      <x:c r="A21" s="12" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="B21" s="12" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C21" s="14"/>
-      <x:c r="D21" s="13"/>
-      <x:c r="E21" s="13"/>
-      <x:c r="F21" s="13"/>
-      <x:c r="G21" s="13"/>
-      <x:c r="H21" s="13"/>
-      <x:c r="I21" s="13"/>
-      <x:c r="J21" s="13"/>
+      <x:c r="A21" s="16" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B21" s="16" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C21" s="18"/>
+      <x:c r="D21" s="17"/>
+      <x:c r="E21" s="17"/>
+      <x:c r="F21" s="17"/>
+      <x:c r="G21" s="17"/>
+      <x:c r="H21" s="17"/>
+      <x:c r="I21" s="17"/>
+      <x:c r="J21" s="17"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="17">
@@ -1998,107 +2003,107 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A1" s="17" t="s">
+      <x:c r="A1" s="21" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="B1" s="21"/>
+      <x:c r="C1" s="21"/>
+      <x:c r="D1" s="21"/>
+      <x:c r="E1" s="21"/>
+      <x:c r="F1" s="21"/>
+      <x:c r="G1" s="21"/>
+      <x:c r="H1" s="21"/>
+      <x:c r="I1" s="21"/>
+      <x:c r="J1" s="21"/>
+    </x:row>
+    <x:row r="2" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A2" s="19" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B2" s="19"/>
+      <x:c r="C2" s="20" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D2" s="20"/>
+      <x:c r="E2" s="20"/>
+      <x:c r="F2" s="19" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="G2" s="19"/>
+      <x:c r="H2" s="19"/>
+      <x:c r="I2" s="20" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="J2" s="20"/>
+    </x:row>
+    <x:row r="3" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A3" s="19" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B3" s="19"/>
+      <x:c r="C3" s="20" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D3" s="20"/>
+      <x:c r="E3" s="20"/>
+      <x:c r="F3" s="19" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="G3" s="19"/>
+      <x:c r="H3" s="19"/>
+      <x:c r="I3" s="20"/>
+      <x:c r="J3" s="20"/>
+    </x:row>
+    <x:row r="4" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A4" s="19" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="B1" s="17"/>
-      <x:c r="C1" s="17"/>
-      <x:c r="D1" s="17"/>
-      <x:c r="E1" s="17"/>
-      <x:c r="F1" s="17"/>
-      <x:c r="G1" s="17"/>
-      <x:c r="H1" s="17"/>
-      <x:c r="I1" s="17"/>
-      <x:c r="J1" s="17"/>
-    </x:row>
-    <x:row r="2" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A2" s="15" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="B2" s="15"/>
-      <x:c r="C2" s="16" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D2" s="16"/>
-      <x:c r="E2" s="16"/>
-      <x:c r="F2" s="15" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="G2" s="15"/>
-      <x:c r="H2" s="15"/>
-      <x:c r="I2" s="16" t="s">
-        <x:v>158</x:v>
-      </x:c>
-      <x:c r="J2" s="16"/>
-    </x:row>
-    <x:row r="3" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A3" s="15" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B3" s="15"/>
-      <x:c r="C3" s="16" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D3" s="16"/>
-      <x:c r="E3" s="16"/>
-      <x:c r="F3" s="15" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="G3" s="15"/>
-      <x:c r="H3" s="15"/>
-      <x:c r="I3" s="16"/>
-      <x:c r="J3" s="16"/>
-    </x:row>
-    <x:row r="4" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A4" s="15" t="s">
+      <x:c r="B4" s="19"/>
+      <x:c r="C4" s="20" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="D4" s="20"/>
+      <x:c r="E4" s="20"/>
+      <x:c r="F4" s="19" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="B4" s="15"/>
-      <x:c r="C4" s="16" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="D4" s="16"/>
-      <x:c r="E4" s="16"/>
-      <x:c r="F4" s="15" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="G4" s="15"/>
-      <x:c r="H4" s="15"/>
-      <x:c r="I4" s="16" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="J4" s="16"/>
+      <x:c r="G4" s="19"/>
+      <x:c r="H4" s="19"/>
+      <x:c r="I4" s="20" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="J4" s="20"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B5" s="3" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C5" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="E5" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F5" s="3" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B5" s="3" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C5" s="3" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D5" s="3" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="E5" s="3" t="s">
+      <x:c r="G5" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H5" s="3" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="I5" s="3" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="J5" s="3" t="s">
         <x:v>21</x:v>
-      </x:c>
-      <x:c r="F5" s="3" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="G5" s="3" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="H5" s="3" t="s">
-        <x:v>164</x:v>
-      </x:c>
-      <x:c r="I5" s="3" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="J5" s="3" t="s">
-        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -2106,21 +2111,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C6" s="10" t="s">
-        <x:v>55</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>36</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -2130,13 +2135,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>103</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>76</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>1000</x:v>
@@ -2144,7 +2149,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -2154,21 +2159,21 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C8" s="10" t="s">
-        <x:v>151</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E8" s="4"/>
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4" t="s">
-        <x:v>23</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H8" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -2178,21 +2183,21 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="10" t="s">
-        <x:v>31</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>149</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4" t="s">
-        <x:v>23</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H9" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="5"/>
@@ -2202,19 +2207,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="10" t="s">
-        <x:v>95</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>123</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>156</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="11"/>
@@ -2317,67 +2322,67 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
-      <x:c r="A20" s="12" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="B20" s="12" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C20" s="13"/>
-      <x:c r="D20" s="13"/>
-      <x:c r="E20" s="13"/>
-      <x:c r="F20" s="13"/>
-      <x:c r="G20" s="13"/>
-      <x:c r="H20" s="13"/>
-      <x:c r="I20" s="13"/>
-      <x:c r="J20" s="13"/>
+      <x:c r="A20" s="16" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="B20" s="16" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C20" s="17"/>
+      <x:c r="D20" s="17"/>
+      <x:c r="E20" s="17"/>
+      <x:c r="F20" s="17"/>
+      <x:c r="G20" s="17"/>
+      <x:c r="H20" s="17"/>
+      <x:c r="I20" s="17"/>
+      <x:c r="J20" s="17"/>
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
-      <x:c r="A21" s="12" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="B21" s="12" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C21" s="14"/>
-      <x:c r="D21" s="13"/>
-      <x:c r="E21" s="13"/>
-      <x:c r="F21" s="13"/>
-      <x:c r="G21" s="13"/>
-      <x:c r="H21" s="13"/>
-      <x:c r="I21" s="13"/>
-      <x:c r="J21" s="13"/>
+      <x:c r="A21" s="16" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B21" s="16" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C21" s="18"/>
+      <x:c r="D21" s="17"/>
+      <x:c r="E21" s="17"/>
+      <x:c r="F21" s="17"/>
+      <x:c r="G21" s="17"/>
+      <x:c r="H21" s="17"/>
+      <x:c r="I21" s="17"/>
+      <x:c r="J21" s="17"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="17">
@@ -2431,129 +2436,129 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A1" s="17" t="s">
+      <x:c r="A1" s="21" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="B1" s="21"/>
+      <x:c r="C1" s="21"/>
+      <x:c r="D1" s="21"/>
+      <x:c r="E1" s="21"/>
+      <x:c r="F1" s="21"/>
+      <x:c r="G1" s="21"/>
+      <x:c r="H1" s="21"/>
+      <x:c r="I1" s="21"/>
+      <x:c r="J1" s="21"/>
+    </x:row>
+    <x:row r="2" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A2" s="19" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B2" s="19"/>
+      <x:c r="C2" s="20" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D2" s="20"/>
+      <x:c r="E2" s="20"/>
+      <x:c r="F2" s="19" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="G2" s="19"/>
+      <x:c r="H2" s="19"/>
+      <x:c r="I2" s="20" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="J2" s="20"/>
+    </x:row>
+    <x:row r="3" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A3" s="19" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B3" s="19"/>
+      <x:c r="C3" s="20" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D3" s="20"/>
+      <x:c r="E3" s="20"/>
+      <x:c r="F3" s="19" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="G3" s="19"/>
+      <x:c r="H3" s="19"/>
+      <x:c r="I3" s="20"/>
+      <x:c r="J3" s="20"/>
+    </x:row>
+    <x:row r="4" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A4" s="19" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="B1" s="17"/>
-      <x:c r="C1" s="17"/>
-      <x:c r="D1" s="17"/>
-      <x:c r="E1" s="17"/>
-      <x:c r="F1" s="17"/>
-      <x:c r="G1" s="17"/>
-      <x:c r="H1" s="17"/>
-      <x:c r="I1" s="17"/>
-      <x:c r="J1" s="17"/>
-    </x:row>
-    <x:row r="2" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A2" s="15" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="B2" s="15"/>
-      <x:c r="C2" s="16" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D2" s="16"/>
-      <x:c r="E2" s="16"/>
-      <x:c r="F2" s="15" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="G2" s="15"/>
-      <x:c r="H2" s="15"/>
-      <x:c r="I2" s="16" t="s">
-        <x:v>158</x:v>
-      </x:c>
-      <x:c r="J2" s="16"/>
-    </x:row>
-    <x:row r="3" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A3" s="15" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B3" s="15"/>
-      <x:c r="C3" s="16" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D3" s="16"/>
-      <x:c r="E3" s="16"/>
-      <x:c r="F3" s="15" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="G3" s="15"/>
-      <x:c r="H3" s="15"/>
-      <x:c r="I3" s="16"/>
-      <x:c r="J3" s="16"/>
-    </x:row>
-    <x:row r="4" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A4" s="15" t="s">
+      <x:c r="B4" s="19"/>
+      <x:c r="C4" s="20" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="D4" s="20"/>
+      <x:c r="E4" s="20"/>
+      <x:c r="F4" s="19" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="B4" s="15"/>
-      <x:c r="C4" s="16" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="D4" s="16"/>
-      <x:c r="E4" s="16"/>
-      <x:c r="F4" s="15" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="G4" s="15"/>
-      <x:c r="H4" s="15"/>
-      <x:c r="I4" s="16" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="J4" s="16"/>
+      <x:c r="G4" s="19"/>
+      <x:c r="H4" s="19"/>
+      <x:c r="I4" s="20" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="J4" s="20"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B5" s="3" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C5" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="E5" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F5" s="3" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B5" s="3" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C5" s="3" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D5" s="3" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="E5" s="3" t="s">
+      <x:c r="G5" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H5" s="3" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="I5" s="3" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="J5" s="3" t="s">
         <x:v>21</x:v>
-      </x:c>
-      <x:c r="F5" s="3" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="G5" s="3" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="H5" s="3" t="s">
-        <x:v>164</x:v>
-      </x:c>
-      <x:c r="I5" s="3" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="J5" s="3" t="s">
-        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A6" s="4">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B6" s="19" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C6" s="18" t="s">
-        <x:v>66</x:v>
+      <x:c r="B6" s="13" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C6" s="12" t="s">
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>36</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -2562,14 +2567,14 @@
       <x:c r="A7" s="4">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B7" s="19" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="C7" s="19" t="s">
-        <x:v>113</x:v>
+      <x:c r="B7" s="13" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C7" s="13" t="s">
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>76</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>20</x:v>
@@ -2577,7 +2582,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -2586,14 +2591,14 @@
       <x:c r="A8" s="4">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B8" s="19" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="C8" s="19" t="s">
-        <x:v>155</x:v>
+      <x:c r="B8" s="13" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C8" s="13" t="s">
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>76</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E8" s="4">
         <x:v>16</x:v>
@@ -2601,7 +2606,7 @@
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -2610,14 +2615,14 @@
       <x:c r="A9" s="4">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B9" s="19" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="C9" s="19" t="s">
-        <x:v>16</x:v>
+      <x:c r="B9" s="13" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C9" s="13" t="s">
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>76</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E9" s="4">
         <x:v>20</x:v>
@@ -2625,7 +2630,7 @@
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="6"/>
@@ -2634,14 +2639,14 @@
       <x:c r="A10" s="4">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B10" s="21" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="C10" s="21" t="s">
-        <x:v>11</x:v>
+      <x:c r="B10" s="15" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="C10" s="15" t="s">
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>76</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E10" s="4">
         <x:v>20</x:v>
@@ -2649,25 +2654,25 @@
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>114</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="5" t="s">
-        <x:v>63</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A11" s="4">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B11" s="19" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="C11" s="19" t="s">
-        <x:v>120</x:v>
+      <x:c r="B11" s="13" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C11" s="13" t="s">
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>76</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E11" s="4">
         <x:v>10</x:v>
@@ -2675,25 +2680,25 @@
       <x:c r="F11" s="4"/>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I11" s="4"/>
       <x:c r="J11" s="5" t="s">
-        <x:v>71</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A12" s="4">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B12" s="19" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="C12" s="19" t="s">
-        <x:v>78</x:v>
+      <x:c r="B12" s="13" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C12" s="13" t="s">
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D12" s="4" t="s">
-        <x:v>76</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E12" s="4">
         <x:v>10</x:v>
@@ -2701,7 +2706,7 @@
       <x:c r="F12" s="4"/>
       <x:c r="G12" s="4"/>
       <x:c r="H12" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I12" s="7"/>
       <x:c r="J12" s="10"/>
@@ -2710,14 +2715,14 @@
       <x:c r="A13" s="4">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B13" s="19" t="s">
-        <x:v>166</x:v>
-      </x:c>
-      <x:c r="C13" s="19" t="s">
-        <x:v>111</x:v>
+      <x:c r="B13" s="13" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="C13" s="13" t="s">
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D13" s="4" t="s">
-        <x:v>76</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E13" s="4">
         <x:v>50</x:v>
@@ -2725,7 +2730,7 @@
       <x:c r="F13" s="4"/>
       <x:c r="G13" s="4"/>
       <x:c r="H13" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I13" s="7"/>
       <x:c r="J13" s="10"/>
@@ -2734,14 +2739,14 @@
       <x:c r="A14" s="4">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B14" s="19" t="s">
-        <x:v>162</x:v>
-      </x:c>
-      <x:c r="C14" s="19" t="s">
-        <x:v>89</x:v>
+      <x:c r="B14" s="13" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="C14" s="13" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D14" s="4" t="s">
-        <x:v>76</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E14" s="4">
         <x:v>50</x:v>
@@ -2749,7 +2754,7 @@
       <x:c r="F14" s="4"/>
       <x:c r="G14" s="4"/>
       <x:c r="H14" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I14" s="7"/>
       <x:c r="J14" s="10"/>
@@ -2758,14 +2763,14 @@
       <x:c r="A15" s="4">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B15" s="19" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="C15" s="19" t="s">
-        <x:v>72</x:v>
+      <x:c r="B15" s="13" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C15" s="13" t="s">
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D15" s="4" t="s">
-        <x:v>76</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E15" s="4">
         <x:v>50</x:v>
@@ -2773,7 +2778,7 @@
       <x:c r="F15" s="4"/>
       <x:c r="G15" s="4"/>
       <x:c r="H15" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I15" s="7"/>
       <x:c r="J15" s="10"/>
@@ -2782,14 +2787,14 @@
       <x:c r="A16" s="4">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B16" s="19" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="C16" s="19" t="s">
-        <x:v>32</x:v>
+      <x:c r="B16" s="13" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C16" s="13" t="s">
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D16" s="4" t="s">
-        <x:v>76</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E16" s="7">
         <x:v>13</x:v>
@@ -2797,31 +2802,31 @@
       <x:c r="F16" s="7"/>
       <x:c r="G16" s="7"/>
       <x:c r="H16" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I16" s="7"/>
       <x:c r="J16" s="8" t="s">
-        <x:v>146</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A17" s="7">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B17" s="19" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="C17" s="19" t="s">
-        <x:v>9</x:v>
+      <x:c r="B17" s="13" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C17" s="13" t="s">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D17" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E17" s="7"/>
       <x:c r="F17" s="7"/>
       <x:c r="G17" s="7"/>
       <x:c r="H17" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I17" s="7"/>
       <x:c r="J17" s="8"/>
@@ -2830,20 +2835,20 @@
       <x:c r="A18" s="7">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="B18" s="19" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="C18" s="19" t="s">
-        <x:v>7</x:v>
+      <x:c r="B18" s="13" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C18" s="13" t="s">
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E18" s="7"/>
       <x:c r="F18" s="7"/>
       <x:c r="G18" s="7"/>
       <x:c r="H18" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I18" s="7"/>
       <x:c r="J18" s="8"/>
@@ -2852,87 +2857,87 @@
       <x:c r="A19" s="7">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B19" s="19" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="C19" s="19" t="s">
-        <x:v>123</x:v>
+      <x:c r="B19" s="13" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C19" s="13" t="s">
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>156</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E19" s="7"/>
       <x:c r="F19" s="7"/>
       <x:c r="G19" s="7"/>
       <x:c r="H19" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I19" s="7"/>
       <x:c r="J19" s="8"/>
     </x:row>
     <x:row r="20" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A20" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B20" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C20" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D20" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E20" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F20" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G20" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H20" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I20" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="J20" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:10" ht="49.5" customHeight="1">
-      <x:c r="A21" s="12" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="B21" s="12" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C21" s="13"/>
-      <x:c r="D21" s="13"/>
-      <x:c r="E21" s="13"/>
-      <x:c r="F21" s="13"/>
-      <x:c r="G21" s="13"/>
-      <x:c r="H21" s="13"/>
-      <x:c r="I21" s="13"/>
-      <x:c r="J21" s="13"/>
+      <x:c r="A21" s="16" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="B21" s="16" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C21" s="17"/>
+      <x:c r="D21" s="17"/>
+      <x:c r="E21" s="17"/>
+      <x:c r="F21" s="17"/>
+      <x:c r="G21" s="17"/>
+      <x:c r="H21" s="17"/>
+      <x:c r="I21" s="17"/>
+      <x:c r="J21" s="17"/>
     </x:row>
     <x:row r="22" spans="1:10" ht="224.09999999999999" customHeight="1">
-      <x:c r="A22" s="12" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="B22" s="12" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C22" s="14"/>
-      <x:c r="D22" s="13"/>
-      <x:c r="E22" s="13"/>
-      <x:c r="F22" s="13"/>
-      <x:c r="G22" s="13"/>
-      <x:c r="H22" s="13"/>
-      <x:c r="I22" s="13"/>
-      <x:c r="J22" s="13"/>
+      <x:c r="A22" s="16" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B22" s="16" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C22" s="18"/>
+      <x:c r="D22" s="17"/>
+      <x:c r="E22" s="17"/>
+      <x:c r="F22" s="17"/>
+      <x:c r="G22" s="17"/>
+      <x:c r="H22" s="17"/>
+      <x:c r="I22" s="17"/>
+      <x:c r="J22" s="17"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="17">
@@ -2986,129 +2991,129 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A1" s="17" t="s">
+      <x:c r="A1" s="21" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="B1" s="21"/>
+      <x:c r="C1" s="21"/>
+      <x:c r="D1" s="21"/>
+      <x:c r="E1" s="21"/>
+      <x:c r="F1" s="21"/>
+      <x:c r="G1" s="21"/>
+      <x:c r="H1" s="21"/>
+      <x:c r="I1" s="21"/>
+      <x:c r="J1" s="21"/>
+    </x:row>
+    <x:row r="2" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A2" s="19" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B2" s="19"/>
+      <x:c r="C2" s="20" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D2" s="20"/>
+      <x:c r="E2" s="20"/>
+      <x:c r="F2" s="19" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="G2" s="19"/>
+      <x:c r="H2" s="19"/>
+      <x:c r="I2" s="20" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="J2" s="20"/>
+    </x:row>
+    <x:row r="3" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A3" s="19" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B3" s="19"/>
+      <x:c r="C3" s="20" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D3" s="20"/>
+      <x:c r="E3" s="20"/>
+      <x:c r="F3" s="19" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="G3" s="19"/>
+      <x:c r="H3" s="19"/>
+      <x:c r="I3" s="20"/>
+      <x:c r="J3" s="20"/>
+    </x:row>
+    <x:row r="4" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A4" s="19" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="B1" s="17"/>
-      <x:c r="C1" s="17"/>
-      <x:c r="D1" s="17"/>
-      <x:c r="E1" s="17"/>
-      <x:c r="F1" s="17"/>
-      <x:c r="G1" s="17"/>
-      <x:c r="H1" s="17"/>
-      <x:c r="I1" s="17"/>
-      <x:c r="J1" s="17"/>
-    </x:row>
-    <x:row r="2" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A2" s="15" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="B2" s="15"/>
-      <x:c r="C2" s="16" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D2" s="16"/>
-      <x:c r="E2" s="16"/>
-      <x:c r="F2" s="15" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="G2" s="15"/>
-      <x:c r="H2" s="15"/>
-      <x:c r="I2" s="16" t="s">
-        <x:v>158</x:v>
-      </x:c>
-      <x:c r="J2" s="16"/>
-    </x:row>
-    <x:row r="3" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A3" s="15" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B3" s="15"/>
-      <x:c r="C3" s="16" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D3" s="16"/>
-      <x:c r="E3" s="16"/>
-      <x:c r="F3" s="15" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="G3" s="15"/>
-      <x:c r="H3" s="15"/>
-      <x:c r="I3" s="16"/>
-      <x:c r="J3" s="16"/>
-    </x:row>
-    <x:row r="4" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A4" s="15" t="s">
+      <x:c r="B4" s="19"/>
+      <x:c r="C4" s="20" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="D4" s="20"/>
+      <x:c r="E4" s="20"/>
+      <x:c r="F4" s="19" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="B4" s="15"/>
-      <x:c r="C4" s="16" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="D4" s="16"/>
-      <x:c r="E4" s="16"/>
-      <x:c r="F4" s="15" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="G4" s="15"/>
-      <x:c r="H4" s="15"/>
-      <x:c r="I4" s="16" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="J4" s="16"/>
+      <x:c r="G4" s="19"/>
+      <x:c r="H4" s="19"/>
+      <x:c r="I4" s="20" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="J4" s="20"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B5" s="3" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C5" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="E5" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F5" s="3" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B5" s="3" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C5" s="3" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D5" s="3" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="E5" s="3" t="s">
+      <x:c r="G5" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H5" s="3" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="I5" s="3" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="J5" s="3" t="s">
         <x:v>21</x:v>
-      </x:c>
-      <x:c r="F5" s="3" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="G5" s="3" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="H5" s="3" t="s">
-        <x:v>164</x:v>
-      </x:c>
-      <x:c r="I5" s="3" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="J5" s="3" t="s">
-        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A6" s="4">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B6" s="19" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C6" s="18" t="s">
-        <x:v>53</x:v>
+      <x:c r="B6" s="13" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C6" s="12" t="s">
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>36</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -3117,14 +3122,14 @@
       <x:c r="A7" s="4">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B7" s="19" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="C7" s="19" t="s">
-        <x:v>14</x:v>
+      <x:c r="B7" s="13" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C7" s="13" t="s">
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>76</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>20</x:v>
@@ -3132,7 +3137,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -3141,14 +3146,14 @@
       <x:c r="A8" s="4">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B8" s="19" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="C8" s="19" t="s">
-        <x:v>45</x:v>
+      <x:c r="B8" s="13" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="C8" s="13" t="s">
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>76</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E8" s="4">
         <x:v>10</x:v>
@@ -3156,7 +3161,7 @@
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -3165,20 +3170,20 @@
       <x:c r="A9" s="4">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B9" s="19" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="C9" s="19" t="s">
-        <x:v>24</x:v>
+      <x:c r="B9" s="13" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="C9" s="13" t="s">
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="6"/>
@@ -3187,20 +3192,20 @@
       <x:c r="A10" s="4">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B10" s="19" t="s">
-        <x:v>145</x:v>
-      </x:c>
-      <x:c r="C10" s="19" t="s">
-        <x:v>153</x:v>
+      <x:c r="B10" s="13" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="C10" s="13" t="s">
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="5"/>
@@ -3209,20 +3214,20 @@
       <x:c r="A11" s="4">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B11" s="19" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="C11" s="19" t="s">
-        <x:v>8</x:v>
+      <x:c r="B11" s="13" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C11" s="13" t="s">
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E11" s="4"/>
       <x:c r="F11" s="4"/>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I11" s="7"/>
       <x:c r="J11" s="5"/>
@@ -3231,14 +3236,14 @@
       <x:c r="A12" s="4">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B12" s="19" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="C12" s="19" t="s">
-        <x:v>33</x:v>
+      <x:c r="B12" s="13" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="C12" s="13" t="s">
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D12" s="4" t="s">
-        <x:v>76</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E12" s="7">
         <x:v>500</x:v>
@@ -3246,7 +3251,7 @@
       <x:c r="F12" s="7"/>
       <x:c r="G12" s="7"/>
       <x:c r="H12" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I12" s="7"/>
       <x:c r="J12" s="8"/>
@@ -3255,20 +3260,20 @@
       <x:c r="A13" s="4">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B13" s="19" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="C13" s="19" t="s">
-        <x:v>17</x:v>
+      <x:c r="B13" s="13" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C13" s="13" t="s">
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D13" s="4" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E13" s="7"/>
       <x:c r="F13" s="7"/>
       <x:c r="G13" s="7"/>
       <x:c r="H13" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I13" s="7"/>
       <x:c r="J13" s="8"/>
@@ -3277,14 +3282,14 @@
       <x:c r="A14" s="4">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B14" s="19" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="C14" s="19" t="s">
-        <x:v>35</x:v>
+      <x:c r="B14" s="13" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="C14" s="13" t="s">
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D14" s="4" t="s">
-        <x:v>76</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E14" s="7">
         <x:v>100</x:v>
@@ -3292,7 +3297,7 @@
       <x:c r="F14" s="7"/>
       <x:c r="G14" s="7"/>
       <x:c r="H14" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I14" s="7"/>
       <x:c r="J14" s="8"/>
@@ -3301,22 +3306,22 @@
       <x:c r="A15" s="4">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B15" s="19" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C15" s="19" t="s">
-        <x:v>64</x:v>
+      <x:c r="B15" s="13" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C15" s="13" t="s">
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D15" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E15" s="7"/>
       <x:c r="F15" s="7"/>
       <x:c r="G15" s="7" t="s">
-        <x:v>23</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H15" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I15" s="7"/>
       <x:c r="J15" s="8"/>
@@ -3325,20 +3330,20 @@
       <x:c r="A16" s="4">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B16" s="19" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="C16" s="19" t="s">
-        <x:v>123</x:v>
+      <x:c r="B16" s="13" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C16" s="13" t="s">
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D16" s="7" t="s">
-        <x:v>156</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="7"/>
       <x:c r="F16" s="7"/>
       <x:c r="G16" s="7"/>
       <x:c r="H16" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I16" s="7"/>
       <x:c r="J16" s="8"/>
@@ -3369,67 +3374,67 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
-      <x:c r="A20" s="12" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="B20" s="12" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C20" s="13"/>
-      <x:c r="D20" s="13"/>
-      <x:c r="E20" s="13"/>
-      <x:c r="F20" s="13"/>
-      <x:c r="G20" s="13"/>
-      <x:c r="H20" s="13"/>
-      <x:c r="I20" s="13"/>
-      <x:c r="J20" s="13"/>
+      <x:c r="A20" s="16" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="B20" s="16" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C20" s="17"/>
+      <x:c r="D20" s="17"/>
+      <x:c r="E20" s="17"/>
+      <x:c r="F20" s="17"/>
+      <x:c r="G20" s="17"/>
+      <x:c r="H20" s="17"/>
+      <x:c r="I20" s="17"/>
+      <x:c r="J20" s="17"/>
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
-      <x:c r="A21" s="12" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="B21" s="12" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C21" s="14"/>
-      <x:c r="D21" s="13"/>
-      <x:c r="E21" s="13"/>
-      <x:c r="F21" s="13"/>
-      <x:c r="G21" s="13"/>
-      <x:c r="H21" s="13"/>
-      <x:c r="I21" s="13"/>
-      <x:c r="J21" s="13"/>
+      <x:c r="A21" s="16" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B21" s="16" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C21" s="18"/>
+      <x:c r="D21" s="17"/>
+      <x:c r="E21" s="17"/>
+      <x:c r="F21" s="17"/>
+      <x:c r="G21" s="17"/>
+      <x:c r="H21" s="17"/>
+      <x:c r="I21" s="17"/>
+      <x:c r="J21" s="17"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="17">
@@ -3483,129 +3488,129 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A1" s="17" t="s">
+      <x:c r="A1" s="21" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="B1" s="21"/>
+      <x:c r="C1" s="21"/>
+      <x:c r="D1" s="21"/>
+      <x:c r="E1" s="21"/>
+      <x:c r="F1" s="21"/>
+      <x:c r="G1" s="21"/>
+      <x:c r="H1" s="21"/>
+      <x:c r="I1" s="21"/>
+      <x:c r="J1" s="21"/>
+    </x:row>
+    <x:row r="2" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A2" s="19" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B2" s="19"/>
+      <x:c r="C2" s="20" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D2" s="20"/>
+      <x:c r="E2" s="20"/>
+      <x:c r="F2" s="19" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="G2" s="19"/>
+      <x:c r="H2" s="19"/>
+      <x:c r="I2" s="20" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="J2" s="20"/>
+    </x:row>
+    <x:row r="3" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A3" s="19" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B3" s="19"/>
+      <x:c r="C3" s="20" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="D3" s="20"/>
+      <x:c r="E3" s="20"/>
+      <x:c r="F3" s="19" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="G3" s="19"/>
+      <x:c r="H3" s="19"/>
+      <x:c r="I3" s="20"/>
+      <x:c r="J3" s="20"/>
+    </x:row>
+    <x:row r="4" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A4" s="19" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="B1" s="17"/>
-      <x:c r="C1" s="17"/>
-      <x:c r="D1" s="17"/>
-      <x:c r="E1" s="17"/>
-      <x:c r="F1" s="17"/>
-      <x:c r="G1" s="17"/>
-      <x:c r="H1" s="17"/>
-      <x:c r="I1" s="17"/>
-      <x:c r="J1" s="17"/>
-    </x:row>
-    <x:row r="2" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A2" s="15" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="B2" s="15"/>
-      <x:c r="C2" s="16" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D2" s="16"/>
-      <x:c r="E2" s="16"/>
-      <x:c r="F2" s="15" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="G2" s="15"/>
-      <x:c r="H2" s="15"/>
-      <x:c r="I2" s="16" t="s">
+      <x:c r="B4" s="19"/>
+      <x:c r="C4" s="20" t="s">
         <x:v>158</x:v>
       </x:c>
-      <x:c r="J2" s="16"/>
-    </x:row>
-    <x:row r="3" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A3" s="15" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B3" s="15"/>
-      <x:c r="C3" s="16" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="D3" s="16"/>
-      <x:c r="E3" s="16"/>
-      <x:c r="F3" s="15" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="G3" s="15"/>
-      <x:c r="H3" s="15"/>
-      <x:c r="I3" s="16"/>
-      <x:c r="J3" s="16"/>
-    </x:row>
-    <x:row r="4" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A4" s="15" t="s">
+      <x:c r="D4" s="20"/>
+      <x:c r="E4" s="20"/>
+      <x:c r="F4" s="19" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="B4" s="15"/>
-      <x:c r="C4" s="16" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D4" s="16"/>
-      <x:c r="E4" s="16"/>
-      <x:c r="F4" s="15" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="G4" s="15"/>
-      <x:c r="H4" s="15"/>
-      <x:c r="I4" s="16" t="s">
-        <x:v>172</x:v>
-      </x:c>
-      <x:c r="J4" s="16"/>
+      <x:c r="G4" s="19"/>
+      <x:c r="H4" s="19"/>
+      <x:c r="I4" s="20" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="J4" s="20"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B5" s="3" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C5" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="E5" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F5" s="3" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B5" s="3" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C5" s="3" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D5" s="3" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="E5" s="3" t="s">
+      <x:c r="G5" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H5" s="3" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="I5" s="3" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="J5" s="3" t="s">
         <x:v>21</x:v>
-      </x:c>
-      <x:c r="F5" s="3" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="G5" s="3" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="H5" s="3" t="s">
-        <x:v>164</x:v>
-      </x:c>
-      <x:c r="I5" s="3" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="J5" s="3" t="s">
-        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A6" s="4">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B6" s="19" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C6" s="18" t="s">
-        <x:v>0</x:v>
+      <x:c r="B6" s="13" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C6" s="12" t="s">
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>36</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -3614,22 +3619,22 @@
       <x:c r="A7" s="4">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B7" s="19" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C7" s="18" t="s">
-        <x:v>70</x:v>
+      <x:c r="B7" s="13" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C7" s="12" t="s">
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E7" s="4"/>
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4" t="s">
-        <x:v>23</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H7" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -3638,20 +3643,20 @@
       <x:c r="A8" s="4">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B8" s="19" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="C8" s="19" t="s">
-        <x:v>22</x:v>
+      <x:c r="B8" s="13" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="C8" s="13" t="s">
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E8" s="4"/>
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -3660,20 +3665,20 @@
       <x:c r="A9" s="4">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B9" s="19" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="C9" s="19" t="s">
-        <x:v>178</x:v>
+      <x:c r="B9" s="13" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C9" s="13" t="s">
+        <x:v>139</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="6"/>
@@ -3802,67 +3807,67 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
-      <x:c r="A20" s="12" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="B20" s="12" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C20" s="13"/>
-      <x:c r="D20" s="13"/>
-      <x:c r="E20" s="13"/>
-      <x:c r="F20" s="13"/>
-      <x:c r="G20" s="13"/>
-      <x:c r="H20" s="13"/>
-      <x:c r="I20" s="13"/>
-      <x:c r="J20" s="13"/>
+      <x:c r="A20" s="16" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="B20" s="16" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C20" s="17"/>
+      <x:c r="D20" s="17"/>
+      <x:c r="E20" s="17"/>
+      <x:c r="F20" s="17"/>
+      <x:c r="G20" s="17"/>
+      <x:c r="H20" s="17"/>
+      <x:c r="I20" s="17"/>
+      <x:c r="J20" s="17"/>
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
-      <x:c r="A21" s="12" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="B21" s="12" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C21" s="14"/>
-      <x:c r="D21" s="13"/>
-      <x:c r="E21" s="13"/>
-      <x:c r="F21" s="13"/>
-      <x:c r="G21" s="13"/>
-      <x:c r="H21" s="13"/>
-      <x:c r="I21" s="13"/>
-      <x:c r="J21" s="13"/>
+      <x:c r="A21" s="16" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B21" s="16" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C21" s="18"/>
+      <x:c r="D21" s="17"/>
+      <x:c r="E21" s="17"/>
+      <x:c r="F21" s="17"/>
+      <x:c r="G21" s="17"/>
+      <x:c r="H21" s="17"/>
+      <x:c r="I21" s="17"/>
+      <x:c r="J21" s="17"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="17">
@@ -3896,8 +3901,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:J21"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E7" activeCellId="0" sqref="E7:E7"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="J11" activeCellId="0" sqref="J11:J11"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
@@ -3916,129 +3921,129 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A1" s="17" t="s">
+      <x:c r="A1" s="21" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="B1" s="21"/>
+      <x:c r="C1" s="21"/>
+      <x:c r="D1" s="21"/>
+      <x:c r="E1" s="21"/>
+      <x:c r="F1" s="21"/>
+      <x:c r="G1" s="21"/>
+      <x:c r="H1" s="21"/>
+      <x:c r="I1" s="21"/>
+      <x:c r="J1" s="21"/>
+    </x:row>
+    <x:row r="2" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A2" s="19" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B2" s="19"/>
+      <x:c r="C2" s="20" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D2" s="20"/>
+      <x:c r="E2" s="20"/>
+      <x:c r="F2" s="19" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="G2" s="19"/>
+      <x:c r="H2" s="19"/>
+      <x:c r="I2" s="20" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="J2" s="20"/>
+    </x:row>
+    <x:row r="3" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A3" s="19" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B3" s="19"/>
+      <x:c r="C3" s="20" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D3" s="20"/>
+      <x:c r="E3" s="20"/>
+      <x:c r="F3" s="19" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="G3" s="19"/>
+      <x:c r="H3" s="19"/>
+      <x:c r="I3" s="20"/>
+      <x:c r="J3" s="20"/>
+    </x:row>
+    <x:row r="4" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A4" s="19" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="B1" s="17"/>
-      <x:c r="C1" s="17"/>
-      <x:c r="D1" s="17"/>
-      <x:c r="E1" s="17"/>
-      <x:c r="F1" s="17"/>
-      <x:c r="G1" s="17"/>
-      <x:c r="H1" s="17"/>
-      <x:c r="I1" s="17"/>
-      <x:c r="J1" s="17"/>
-    </x:row>
-    <x:row r="2" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A2" s="15" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="B2" s="15"/>
-      <x:c r="C2" s="16" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D2" s="16"/>
-      <x:c r="E2" s="16"/>
-      <x:c r="F2" s="15" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="G2" s="15"/>
-      <x:c r="H2" s="15"/>
-      <x:c r="I2" s="16" t="s">
-        <x:v>158</x:v>
-      </x:c>
-      <x:c r="J2" s="16"/>
-    </x:row>
-    <x:row r="3" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A3" s="15" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B3" s="15"/>
-      <x:c r="C3" s="16" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="D3" s="16"/>
-      <x:c r="E3" s="16"/>
-      <x:c r="F3" s="15" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="G3" s="15"/>
-      <x:c r="H3" s="15"/>
-      <x:c r="I3" s="16"/>
-      <x:c r="J3" s="16"/>
-    </x:row>
-    <x:row r="4" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A4" s="15" t="s">
+      <x:c r="B4" s="19"/>
+      <x:c r="C4" s="20" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="D4" s="20"/>
+      <x:c r="E4" s="20"/>
+      <x:c r="F4" s="19" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="B4" s="15"/>
-      <x:c r="C4" s="16" t="s">
-        <x:v>168</x:v>
-      </x:c>
-      <x:c r="D4" s="16"/>
-      <x:c r="E4" s="16"/>
-      <x:c r="F4" s="15" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="G4" s="15"/>
-      <x:c r="H4" s="15"/>
-      <x:c r="I4" s="16" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="J4" s="16"/>
+      <x:c r="G4" s="19"/>
+      <x:c r="H4" s="19"/>
+      <x:c r="I4" s="20" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="J4" s="20"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B5" s="3" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C5" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="E5" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F5" s="3" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B5" s="3" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C5" s="3" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D5" s="3" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="E5" s="3" t="s">
+      <x:c r="G5" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H5" s="3" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="I5" s="3" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="J5" s="3" t="s">
         <x:v>21</x:v>
-      </x:c>
-      <x:c r="F5" s="3" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="G5" s="3" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="H5" s="3" t="s">
-        <x:v>164</x:v>
-      </x:c>
-      <x:c r="I5" s="3" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="J5" s="3" t="s">
-        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A6" s="4">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B6" s="19" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C6" s="19" t="s">
-        <x:v>67</x:v>
+      <x:c r="B6" s="13" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C6" s="13" t="s">
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>36</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -4047,22 +4052,22 @@
       <x:c r="A7" s="4">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B7" s="19" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C7" s="19" t="s">
-        <x:v>57</x:v>
+      <x:c r="B7" s="13" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C7" s="13" t="s">
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E7" s="4"/>
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4" t="s">
-        <x:v>23</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H7" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -4071,22 +4076,22 @@
       <x:c r="A8" s="4">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B8" s="19" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C8" s="18" t="s">
-        <x:v>70</x:v>
+      <x:c r="B8" s="13" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C8" s="12" t="s">
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E8" s="4"/>
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4" t="s">
-        <x:v>23</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H8" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -4095,20 +4100,20 @@
       <x:c r="A9" s="4">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B9" s="19" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="C9" s="19" t="s">
-        <x:v>142</x:v>
+      <x:c r="B9" s="13" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C9" s="13" t="s">
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="5"/>
@@ -4117,20 +4122,20 @@
       <x:c r="A10" s="4">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B10" s="19" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="C10" s="19" t="s">
-        <x:v>127</x:v>
+      <x:c r="B10" s="13" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C10" s="13" t="s">
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>77</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="11"/>
@@ -4139,42 +4144,46 @@
       <x:c r="A11" s="4">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B11" s="19" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="C11" s="19" t="s">
-        <x:v>130</x:v>
+      <x:c r="B11" s="13" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C11" s="13" t="s">
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E11" s="4"/>
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="E11" s="4">
+        <x:v>10</x:v>
+      </x:c>
       <x:c r="F11" s="4"/>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="I11" s="7"/>
-      <x:c r="J11" s="5"/>
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="I11" s="4"/>
+      <x:c r="J11" s="5" t="s">
+        <x:v>153</x:v>
+      </x:c>
     </x:row>
     <x:row r="12" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A12" s="4">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B12" s="19" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="C12" s="19" t="s">
-        <x:v>22</x:v>
+      <x:c r="B12" s="13" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="C12" s="13" t="s">
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D12" s="4" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E12" s="4"/>
       <x:c r="F12" s="4"/>
       <x:c r="G12" s="4"/>
       <x:c r="H12" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I12" s="7"/>
       <x:c r="J12" s="8"/>
@@ -4183,20 +4192,20 @@
       <x:c r="A13" s="4">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B13" s="19" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="C13" s="19" t="s">
-        <x:v>123</x:v>
+      <x:c r="B13" s="13" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C13" s="13" t="s">
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D13" s="4" t="s">
-        <x:v>156</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E13" s="7"/>
       <x:c r="F13" s="7"/>
       <x:c r="G13" s="7"/>
       <x:c r="H13" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I13" s="7"/>
       <x:c r="J13" s="8"/>
@@ -4263,67 +4272,67 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
-      <x:c r="A20" s="12" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="B20" s="12" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C20" s="13"/>
-      <x:c r="D20" s="13"/>
-      <x:c r="E20" s="13"/>
-      <x:c r="F20" s="13"/>
-      <x:c r="G20" s="13"/>
-      <x:c r="H20" s="13"/>
-      <x:c r="I20" s="13"/>
-      <x:c r="J20" s="13"/>
+      <x:c r="A20" s="16" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="B20" s="16" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C20" s="17"/>
+      <x:c r="D20" s="17"/>
+      <x:c r="E20" s="17"/>
+      <x:c r="F20" s="17"/>
+      <x:c r="G20" s="17"/>
+      <x:c r="H20" s="17"/>
+      <x:c r="I20" s="17"/>
+      <x:c r="J20" s="17"/>
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
-      <x:c r="A21" s="12" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="B21" s="12" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C21" s="14"/>
-      <x:c r="D21" s="13"/>
-      <x:c r="E21" s="13"/>
-      <x:c r="F21" s="13"/>
-      <x:c r="G21" s="13"/>
-      <x:c r="H21" s="13"/>
-      <x:c r="I21" s="13"/>
-      <x:c r="J21" s="13"/>
+      <x:c r="A21" s="16" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B21" s="16" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C21" s="18"/>
+      <x:c r="D21" s="17"/>
+      <x:c r="E21" s="17"/>
+      <x:c r="F21" s="17"/>
+      <x:c r="G21" s="17"/>
+      <x:c r="H21" s="17"/>
+      <x:c r="I21" s="17"/>
+      <x:c r="J21" s="17"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="17">
@@ -4357,8 +4366,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:J21"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B8" activeCellId="0" sqref="B8:B8"/>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="E8" activeCellId="0" sqref="E8:J8"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
@@ -4377,129 +4386,129 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A1" s="17" t="s">
+      <x:c r="A1" s="21" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="B1" s="21"/>
+      <x:c r="C1" s="21"/>
+      <x:c r="D1" s="21"/>
+      <x:c r="E1" s="21"/>
+      <x:c r="F1" s="21"/>
+      <x:c r="G1" s="21"/>
+      <x:c r="H1" s="21"/>
+      <x:c r="I1" s="21"/>
+      <x:c r="J1" s="21"/>
+    </x:row>
+    <x:row r="2" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A2" s="19" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B2" s="19"/>
+      <x:c r="C2" s="20" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D2" s="20"/>
+      <x:c r="E2" s="20"/>
+      <x:c r="F2" s="19" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="G2" s="19"/>
+      <x:c r="H2" s="19"/>
+      <x:c r="I2" s="20" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="J2" s="20"/>
+    </x:row>
+    <x:row r="3" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A3" s="19" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B3" s="19"/>
+      <x:c r="C3" s="20" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D3" s="20"/>
+      <x:c r="E3" s="20"/>
+      <x:c r="F3" s="19" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="G3" s="19"/>
+      <x:c r="H3" s="19"/>
+      <x:c r="I3" s="20"/>
+      <x:c r="J3" s="20"/>
+    </x:row>
+    <x:row r="4" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A4" s="19" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="B1" s="17"/>
-      <x:c r="C1" s="17"/>
-      <x:c r="D1" s="17"/>
-      <x:c r="E1" s="17"/>
-      <x:c r="F1" s="17"/>
-      <x:c r="G1" s="17"/>
-      <x:c r="H1" s="17"/>
-      <x:c r="I1" s="17"/>
-      <x:c r="J1" s="17"/>
-    </x:row>
-    <x:row r="2" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A2" s="15" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="B2" s="15"/>
-      <x:c r="C2" s="16" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D2" s="16"/>
-      <x:c r="E2" s="16"/>
-      <x:c r="F2" s="15" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="G2" s="15"/>
-      <x:c r="H2" s="15"/>
-      <x:c r="I2" s="16" t="s">
-        <x:v>158</x:v>
-      </x:c>
-      <x:c r="J2" s="16"/>
-    </x:row>
-    <x:row r="3" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A3" s="15" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B3" s="15"/>
-      <x:c r="C3" s="16" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D3" s="16"/>
-      <x:c r="E3" s="16"/>
-      <x:c r="F3" s="15" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="G3" s="15"/>
-      <x:c r="H3" s="15"/>
-      <x:c r="I3" s="16"/>
-      <x:c r="J3" s="16"/>
-    </x:row>
-    <x:row r="4" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A4" s="15" t="s">
+      <x:c r="B4" s="19"/>
+      <x:c r="C4" s="20" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="D4" s="20"/>
+      <x:c r="E4" s="20"/>
+      <x:c r="F4" s="19" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="B4" s="15"/>
-      <x:c r="C4" s="16" t="s">
-        <x:v>176</x:v>
-      </x:c>
-      <x:c r="D4" s="16"/>
-      <x:c r="E4" s="16"/>
-      <x:c r="F4" s="15" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="G4" s="15"/>
-      <x:c r="H4" s="15"/>
-      <x:c r="I4" s="16" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="J4" s="16"/>
+      <x:c r="G4" s="19"/>
+      <x:c r="H4" s="19"/>
+      <x:c r="I4" s="20" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="J4" s="20"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B5" s="3" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C5" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="E5" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F5" s="3" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B5" s="3" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C5" s="3" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D5" s="3" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="E5" s="3" t="s">
+      <x:c r="G5" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H5" s="3" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="I5" s="3" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="J5" s="3" t="s">
         <x:v>21</x:v>
-      </x:c>
-      <x:c r="F5" s="3" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="G5" s="3" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="H5" s="3" t="s">
-        <x:v>164</x:v>
-      </x:c>
-      <x:c r="I5" s="3" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="J5" s="3" t="s">
-        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A6" s="4">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B6" s="19" t="s">
-        <x:v>175</x:v>
+      <x:c r="B6" s="13" t="s">
+        <x:v>138</x:v>
       </x:c>
       <x:c r="C6" s="9" t="s">
-        <x:v>173</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>36</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -4508,22 +4517,22 @@
       <x:c r="A7" s="4">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B7" s="19" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C7" s="19" t="s">
-        <x:v>70</x:v>
+      <x:c r="B7" s="13" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C7" s="13" t="s">
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E7" s="4"/>
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4" t="s">
-        <x:v>23</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H7" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -4532,14 +4541,14 @@
       <x:c r="A8" s="4">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B8" s="19" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="C8" s="18" t="s">
-        <x:v>130</x:v>
+      <x:c r="B8" s="13" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C8" s="12" t="s">
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>76</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E8" s="4">
         <x:v>10</x:v>
@@ -4547,19 +4556,19 @@
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="5" t="s">
-        <x:v>177</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A9" s="4">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B9" s="19"/>
-      <x:c r="C9" s="19"/>
+      <x:c r="B9" s="13"/>
+      <x:c r="C9" s="13"/>
       <x:c r="D9" s="4"/>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
@@ -4572,8 +4581,8 @@
       <x:c r="A10" s="4">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B10" s="19"/>
-      <x:c r="C10" s="19"/>
+      <x:c r="B10" s="13"/>
+      <x:c r="C10" s="13"/>
       <x:c r="D10" s="4"/>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
@@ -4586,8 +4595,8 @@
       <x:c r="A11" s="4">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B11" s="19"/>
-      <x:c r="C11" s="19"/>
+      <x:c r="B11" s="13"/>
+      <x:c r="C11" s="13"/>
       <x:c r="D11" s="4"/>
       <x:c r="E11" s="4"/>
       <x:c r="F11" s="4"/>
@@ -4600,8 +4609,8 @@
       <x:c r="A12" s="4">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B12" s="19"/>
-      <x:c r="C12" s="19"/>
+      <x:c r="B12" s="13"/>
+      <x:c r="C12" s="13"/>
       <x:c r="D12" s="4"/>
       <x:c r="E12" s="4"/>
       <x:c r="F12" s="4"/>
@@ -4614,8 +4623,8 @@
       <x:c r="A13" s="4">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B13" s="19"/>
-      <x:c r="C13" s="19"/>
+      <x:c r="B13" s="13"/>
+      <x:c r="C13" s="13"/>
       <x:c r="D13" s="4"/>
       <x:c r="E13" s="7"/>
       <x:c r="F13" s="7"/>
@@ -4686,67 +4695,67 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
-      <x:c r="A20" s="12" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="B20" s="12" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C20" s="13"/>
-      <x:c r="D20" s="13"/>
-      <x:c r="E20" s="13"/>
-      <x:c r="F20" s="13"/>
-      <x:c r="G20" s="13"/>
-      <x:c r="H20" s="13"/>
-      <x:c r="I20" s="13"/>
-      <x:c r="J20" s="13"/>
+      <x:c r="A20" s="16" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="B20" s="16" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C20" s="17"/>
+      <x:c r="D20" s="17"/>
+      <x:c r="E20" s="17"/>
+      <x:c r="F20" s="17"/>
+      <x:c r="G20" s="17"/>
+      <x:c r="H20" s="17"/>
+      <x:c r="I20" s="17"/>
+      <x:c r="J20" s="17"/>
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
-      <x:c r="A21" s="12" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="B21" s="12" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C21" s="14"/>
-      <x:c r="D21" s="13"/>
-      <x:c r="E21" s="13"/>
-      <x:c r="F21" s="13"/>
-      <x:c r="G21" s="13"/>
-      <x:c r="H21" s="13"/>
-      <x:c r="I21" s="13"/>
-      <x:c r="J21" s="13"/>
+      <x:c r="A21" s="16" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B21" s="16" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C21" s="18"/>
+      <x:c r="D21" s="17"/>
+      <x:c r="E21" s="17"/>
+      <x:c r="F21" s="17"/>
+      <x:c r="G21" s="17"/>
+      <x:c r="H21" s="17"/>
+      <x:c r="I21" s="17"/>
+      <x:c r="J21" s="17"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="17">
@@ -4800,107 +4809,107 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A1" s="17" t="s">
+      <x:c r="A1" s="21" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="B1" s="21"/>
+      <x:c r="C1" s="21"/>
+      <x:c r="D1" s="21"/>
+      <x:c r="E1" s="21"/>
+      <x:c r="F1" s="21"/>
+      <x:c r="G1" s="21"/>
+      <x:c r="H1" s="21"/>
+      <x:c r="I1" s="21"/>
+      <x:c r="J1" s="21"/>
+    </x:row>
+    <x:row r="2" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A2" s="19" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B2" s="19"/>
+      <x:c r="C2" s="20" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D2" s="20"/>
+      <x:c r="E2" s="20"/>
+      <x:c r="F2" s="19" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="G2" s="19"/>
+      <x:c r="H2" s="19"/>
+      <x:c r="I2" s="20" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="J2" s="20"/>
+    </x:row>
+    <x:row r="3" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A3" s="19" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B3" s="19"/>
+      <x:c r="C3" s="20" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D3" s="20"/>
+      <x:c r="E3" s="20"/>
+      <x:c r="F3" s="19" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="G3" s="19"/>
+      <x:c r="H3" s="19"/>
+      <x:c r="I3" s="20"/>
+      <x:c r="J3" s="20"/>
+    </x:row>
+    <x:row r="4" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A4" s="19" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="B1" s="17"/>
-      <x:c r="C1" s="17"/>
-      <x:c r="D1" s="17"/>
-      <x:c r="E1" s="17"/>
-      <x:c r="F1" s="17"/>
-      <x:c r="G1" s="17"/>
-      <x:c r="H1" s="17"/>
-      <x:c r="I1" s="17"/>
-      <x:c r="J1" s="17"/>
-    </x:row>
-    <x:row r="2" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A2" s="15" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="B2" s="15"/>
-      <x:c r="C2" s="16" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D2" s="16"/>
-      <x:c r="E2" s="16"/>
-      <x:c r="F2" s="15" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="G2" s="15"/>
-      <x:c r="H2" s="15"/>
-      <x:c r="I2" s="16" t="s">
-        <x:v>158</x:v>
-      </x:c>
-      <x:c r="J2" s="16"/>
-    </x:row>
-    <x:row r="3" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A3" s="15" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B3" s="15"/>
-      <x:c r="C3" s="16" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D3" s="16"/>
-      <x:c r="E3" s="16"/>
-      <x:c r="F3" s="15" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="G3" s="15"/>
-      <x:c r="H3" s="15"/>
-      <x:c r="I3" s="16"/>
-      <x:c r="J3" s="16"/>
-    </x:row>
-    <x:row r="4" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A4" s="15" t="s">
+      <x:c r="B4" s="19"/>
+      <x:c r="C4" s="20" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="D4" s="20"/>
+      <x:c r="E4" s="20"/>
+      <x:c r="F4" s="19" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="B4" s="15"/>
-      <x:c r="C4" s="16" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="D4" s="16"/>
-      <x:c r="E4" s="16"/>
-      <x:c r="F4" s="15" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="G4" s="15"/>
-      <x:c r="H4" s="15"/>
-      <x:c r="I4" s="16" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="J4" s="16"/>
+      <x:c r="G4" s="19"/>
+      <x:c r="H4" s="19"/>
+      <x:c r="I4" s="20" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="J4" s="20"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B5" s="3" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C5" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="E5" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F5" s="3" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B5" s="3" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C5" s="3" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D5" s="3" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="E5" s="3" t="s">
+      <x:c r="G5" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H5" s="3" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="I5" s="3" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="J5" s="3" t="s">
         <x:v>21</x:v>
-      </x:c>
-      <x:c r="F5" s="3" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="G5" s="3" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="H5" s="3" t="s">
-        <x:v>164</x:v>
-      </x:c>
-      <x:c r="I5" s="3" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="J5" s="3" t="s">
-        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -4908,21 +4917,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
-        <x:v>15</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C6" s="10" t="s">
-        <x:v>60</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>36</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -4932,13 +4941,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>97</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>76</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>100</x:v>
@@ -4946,7 +4955,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -4956,13 +4965,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
-        <x:v>141</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C8" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>76</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E8" s="4">
         <x:v>3000</x:v>
@@ -4970,7 +4979,7 @@
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -4980,13 +4989,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="10" t="s">
-        <x:v>167</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>73</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>76</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E9" s="4">
         <x:v>10</x:v>
@@ -4994,7 +5003,7 @@
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="5"/>
@@ -5004,21 +5013,21 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="10" t="s">
-        <x:v>28</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>152</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4" t="s">
-        <x:v>23</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H10" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="11"/>
@@ -5028,19 +5037,19 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B11" s="10" t="s">
-        <x:v>95</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C11" s="10" t="s">
-        <x:v>123</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>156</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E11" s="4"/>
       <x:c r="F11" s="4"/>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I11" s="7"/>
       <x:c r="J11" s="5"/>
@@ -5131,67 +5140,67 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
-      <x:c r="A20" s="12" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="B20" s="12" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C20" s="13"/>
-      <x:c r="D20" s="13"/>
-      <x:c r="E20" s="13"/>
-      <x:c r="F20" s="13"/>
-      <x:c r="G20" s="13"/>
-      <x:c r="H20" s="13"/>
-      <x:c r="I20" s="13"/>
-      <x:c r="J20" s="13"/>
+      <x:c r="A20" s="16" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="B20" s="16" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C20" s="17"/>
+      <x:c r="D20" s="17"/>
+      <x:c r="E20" s="17"/>
+      <x:c r="F20" s="17"/>
+      <x:c r="G20" s="17"/>
+      <x:c r="H20" s="17"/>
+      <x:c r="I20" s="17"/>
+      <x:c r="J20" s="17"/>
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
-      <x:c r="A21" s="12" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="B21" s="12" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C21" s="14"/>
-      <x:c r="D21" s="13"/>
-      <x:c r="E21" s="13"/>
-      <x:c r="F21" s="13"/>
-      <x:c r="G21" s="13"/>
-      <x:c r="H21" s="13"/>
-      <x:c r="I21" s="13"/>
-      <x:c r="J21" s="13"/>
+      <x:c r="A21" s="16" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B21" s="16" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C21" s="18"/>
+      <x:c r="D21" s="17"/>
+      <x:c r="E21" s="17"/>
+      <x:c r="F21" s="17"/>
+      <x:c r="G21" s="17"/>
+      <x:c r="H21" s="17"/>
+      <x:c r="I21" s="17"/>
+      <x:c r="J21" s="17"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="17">
@@ -5245,107 +5254,107 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A1" s="17" t="s">
+      <x:c r="A1" s="21" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="B1" s="21"/>
+      <x:c r="C1" s="21"/>
+      <x:c r="D1" s="21"/>
+      <x:c r="E1" s="21"/>
+      <x:c r="F1" s="21"/>
+      <x:c r="G1" s="21"/>
+      <x:c r="H1" s="21"/>
+      <x:c r="I1" s="21"/>
+      <x:c r="J1" s="21"/>
+    </x:row>
+    <x:row r="2" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A2" s="19" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B2" s="19"/>
+      <x:c r="C2" s="20" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D2" s="20"/>
+      <x:c r="E2" s="20"/>
+      <x:c r="F2" s="19" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="G2" s="19"/>
+      <x:c r="H2" s="19"/>
+      <x:c r="I2" s="20" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="J2" s="20"/>
+    </x:row>
+    <x:row r="3" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A3" s="19" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B3" s="19"/>
+      <x:c r="C3" s="20" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D3" s="20"/>
+      <x:c r="E3" s="20"/>
+      <x:c r="F3" s="19" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="G3" s="19"/>
+      <x:c r="H3" s="19"/>
+      <x:c r="I3" s="20"/>
+      <x:c r="J3" s="20"/>
+    </x:row>
+    <x:row r="4" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A4" s="19" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="B1" s="17"/>
-      <x:c r="C1" s="17"/>
-      <x:c r="D1" s="17"/>
-      <x:c r="E1" s="17"/>
-      <x:c r="F1" s="17"/>
-      <x:c r="G1" s="17"/>
-      <x:c r="H1" s="17"/>
-      <x:c r="I1" s="17"/>
-      <x:c r="J1" s="17"/>
-    </x:row>
-    <x:row r="2" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A2" s="15" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="B2" s="15"/>
-      <x:c r="C2" s="16" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D2" s="16"/>
-      <x:c r="E2" s="16"/>
-      <x:c r="F2" s="15" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="G2" s="15"/>
-      <x:c r="H2" s="15"/>
-      <x:c r="I2" s="16" t="s">
-        <x:v>158</x:v>
-      </x:c>
-      <x:c r="J2" s="16"/>
-    </x:row>
-    <x:row r="3" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A3" s="15" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B3" s="15"/>
-      <x:c r="C3" s="16" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D3" s="16"/>
-      <x:c r="E3" s="16"/>
-      <x:c r="F3" s="15" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="G3" s="15"/>
-      <x:c r="H3" s="15"/>
-      <x:c r="I3" s="16"/>
-      <x:c r="J3" s="16"/>
-    </x:row>
-    <x:row r="4" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A4" s="15" t="s">
+      <x:c r="B4" s="19"/>
+      <x:c r="C4" s="20" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="D4" s="20"/>
+      <x:c r="E4" s="20"/>
+      <x:c r="F4" s="19" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="B4" s="15"/>
-      <x:c r="C4" s="16" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="D4" s="16"/>
-      <x:c r="E4" s="16"/>
-      <x:c r="F4" s="15" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="G4" s="15"/>
-      <x:c r="H4" s="15"/>
-      <x:c r="I4" s="16" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="J4" s="16"/>
+      <x:c r="G4" s="19"/>
+      <x:c r="H4" s="19"/>
+      <x:c r="I4" s="20" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="J4" s="20"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B5" s="3" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C5" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="E5" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F5" s="3" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B5" s="3" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C5" s="3" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D5" s="3" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="E5" s="3" t="s">
+      <x:c r="G5" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H5" s="3" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="I5" s="3" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="J5" s="3" t="s">
         <x:v>21</x:v>
-      </x:c>
-      <x:c r="F5" s="3" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="G5" s="3" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="H5" s="3" t="s">
-        <x:v>164</x:v>
-      </x:c>
-      <x:c r="I5" s="3" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="J5" s="3" t="s">
-        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -5353,21 +5362,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
-        <x:v>144</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C6" s="10" t="s">
-        <x:v>69</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>36</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -5377,13 +5386,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>91</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>76</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>500</x:v>
@@ -5391,7 +5400,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -5401,21 +5410,21 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
-        <x:v>28</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C8" s="10" t="s">
-        <x:v>152</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E8" s="4"/>
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4" t="s">
-        <x:v>23</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H8" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -5425,21 +5434,21 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="10" t="s">
-        <x:v>15</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>148</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4" t="s">
-        <x:v>23</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H9" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="5"/>
@@ -5449,19 +5458,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="10" t="s">
-        <x:v>95</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>123</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>156</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="11"/>
@@ -5564,67 +5573,67 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
-      <x:c r="A20" s="12" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="B20" s="12" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C20" s="13"/>
-      <x:c r="D20" s="13"/>
-      <x:c r="E20" s="13"/>
-      <x:c r="F20" s="13"/>
-      <x:c r="G20" s="13"/>
-      <x:c r="H20" s="13"/>
-      <x:c r="I20" s="13"/>
-      <x:c r="J20" s="13"/>
+      <x:c r="A20" s="16" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="B20" s="16" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C20" s="17"/>
+      <x:c r="D20" s="17"/>
+      <x:c r="E20" s="17"/>
+      <x:c r="F20" s="17"/>
+      <x:c r="G20" s="17"/>
+      <x:c r="H20" s="17"/>
+      <x:c r="I20" s="17"/>
+      <x:c r="J20" s="17"/>
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
-      <x:c r="A21" s="12" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="B21" s="12" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C21" s="14"/>
-      <x:c r="D21" s="13"/>
-      <x:c r="E21" s="13"/>
-      <x:c r="F21" s="13"/>
-      <x:c r="G21" s="13"/>
-      <x:c r="H21" s="13"/>
-      <x:c r="I21" s="13"/>
-      <x:c r="J21" s="13"/>
+      <x:c r="A21" s="16" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B21" s="16" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C21" s="18"/>
+      <x:c r="D21" s="17"/>
+      <x:c r="E21" s="17"/>
+      <x:c r="F21" s="17"/>
+      <x:c r="G21" s="17"/>
+      <x:c r="H21" s="17"/>
+      <x:c r="I21" s="17"/>
+      <x:c r="J21" s="17"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="17">
@@ -5678,107 +5687,107 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A1" s="17" t="s">
+      <x:c r="A1" s="21" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="B1" s="21"/>
+      <x:c r="C1" s="21"/>
+      <x:c r="D1" s="21"/>
+      <x:c r="E1" s="21"/>
+      <x:c r="F1" s="21"/>
+      <x:c r="G1" s="21"/>
+      <x:c r="H1" s="21"/>
+      <x:c r="I1" s="21"/>
+      <x:c r="J1" s="21"/>
+    </x:row>
+    <x:row r="2" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A2" s="19" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B2" s="19"/>
+      <x:c r="C2" s="20" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D2" s="20"/>
+      <x:c r="E2" s="20"/>
+      <x:c r="F2" s="19" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="G2" s="19"/>
+      <x:c r="H2" s="19"/>
+      <x:c r="I2" s="20" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="J2" s="20"/>
+    </x:row>
+    <x:row r="3" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A3" s="19" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B3" s="19"/>
+      <x:c r="C3" s="20" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D3" s="20"/>
+      <x:c r="E3" s="20"/>
+      <x:c r="F3" s="19" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="G3" s="19"/>
+      <x:c r="H3" s="19"/>
+      <x:c r="I3" s="20"/>
+      <x:c r="J3" s="20"/>
+    </x:row>
+    <x:row r="4" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A4" s="19" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="B1" s="17"/>
-      <x:c r="C1" s="17"/>
-      <x:c r="D1" s="17"/>
-      <x:c r="E1" s="17"/>
-      <x:c r="F1" s="17"/>
-      <x:c r="G1" s="17"/>
-      <x:c r="H1" s="17"/>
-      <x:c r="I1" s="17"/>
-      <x:c r="J1" s="17"/>
-    </x:row>
-    <x:row r="2" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A2" s="15" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="B2" s="15"/>
-      <x:c r="C2" s="16" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D2" s="16"/>
-      <x:c r="E2" s="16"/>
-      <x:c r="F2" s="15" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="G2" s="15"/>
-      <x:c r="H2" s="15"/>
-      <x:c r="I2" s="16" t="s">
-        <x:v>158</x:v>
-      </x:c>
-      <x:c r="J2" s="16"/>
-    </x:row>
-    <x:row r="3" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A3" s="15" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B3" s="15"/>
-      <x:c r="C3" s="16" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="D3" s="16"/>
-      <x:c r="E3" s="16"/>
-      <x:c r="F3" s="15" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="G3" s="15"/>
-      <x:c r="H3" s="15"/>
-      <x:c r="I3" s="16"/>
-      <x:c r="J3" s="16"/>
-    </x:row>
-    <x:row r="4" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A4" s="15" t="s">
+      <x:c r="B4" s="19"/>
+      <x:c r="C4" s="20" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="D4" s="20"/>
+      <x:c r="E4" s="20"/>
+      <x:c r="F4" s="19" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="B4" s="15"/>
-      <x:c r="C4" s="16" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="D4" s="16"/>
-      <x:c r="E4" s="16"/>
-      <x:c r="F4" s="15" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="G4" s="15"/>
-      <x:c r="H4" s="15"/>
-      <x:c r="I4" s="16" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="J4" s="16"/>
+      <x:c r="G4" s="19"/>
+      <x:c r="H4" s="19"/>
+      <x:c r="I4" s="20" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="J4" s="20"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B5" s="3" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C5" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="E5" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F5" s="3" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B5" s="3" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C5" s="3" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D5" s="3" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="E5" s="3" t="s">
+      <x:c r="G5" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H5" s="3" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="I5" s="3" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="J5" s="3" t="s">
         <x:v>21</x:v>
-      </x:c>
-      <x:c r="F5" s="3" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="G5" s="3" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="H5" s="3" t="s">
-        <x:v>164</x:v>
-      </x:c>
-      <x:c r="I5" s="3" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="J5" s="3" t="s">
-        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -5786,21 +5795,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="10" t="s">
-        <x:v>62</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>36</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -5810,13 +5819,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>108</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>76</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>100</x:v>
@@ -5824,7 +5833,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -5834,13 +5843,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
-        <x:v>79</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C8" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>76</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E8" s="4">
         <x:v>3000</x:v>
@@ -5848,7 +5857,7 @@
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -5858,21 +5867,21 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="10" t="s">
-        <x:v>28</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>152</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4" t="s">
-        <x:v>23</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H9" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="5"/>
@@ -5882,21 +5891,21 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="10" t="s">
-        <x:v>31</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>64</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4" t="s">
-        <x:v>23</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H10" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="11"/>
@@ -5906,19 +5915,19 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B11" s="10" t="s">
-        <x:v>95</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C11" s="10" t="s">
-        <x:v>123</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>156</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E11" s="4"/>
       <x:c r="F11" s="4"/>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I11" s="7"/>
       <x:c r="J11" s="5"/>
@@ -6009,67 +6018,67 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
-      <x:c r="A20" s="12" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="B20" s="12" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C20" s="13"/>
-      <x:c r="D20" s="13"/>
-      <x:c r="E20" s="13"/>
-      <x:c r="F20" s="13"/>
-      <x:c r="G20" s="13"/>
-      <x:c r="H20" s="13"/>
-      <x:c r="I20" s="13"/>
-      <x:c r="J20" s="13"/>
+      <x:c r="A20" s="16" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="B20" s="16" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C20" s="17"/>
+      <x:c r="D20" s="17"/>
+      <x:c r="E20" s="17"/>
+      <x:c r="F20" s="17"/>
+      <x:c r="G20" s="17"/>
+      <x:c r="H20" s="17"/>
+      <x:c r="I20" s="17"/>
+      <x:c r="J20" s="17"/>
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
-      <x:c r="A21" s="12" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="B21" s="12" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C21" s="14"/>
-      <x:c r="D21" s="13"/>
-      <x:c r="E21" s="13"/>
-      <x:c r="F21" s="13"/>
-      <x:c r="G21" s="13"/>
-      <x:c r="H21" s="13"/>
-      <x:c r="I21" s="13"/>
-      <x:c r="J21" s="13"/>
+      <x:c r="A21" s="16" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B21" s="16" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C21" s="18"/>
+      <x:c r="D21" s="17"/>
+      <x:c r="E21" s="17"/>
+      <x:c r="F21" s="17"/>
+      <x:c r="G21" s="17"/>
+      <x:c r="H21" s="17"/>
+      <x:c r="I21" s="17"/>
+      <x:c r="J21" s="17"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="17">

--- a/exiter/etc/테이블DB.xlsx
+++ b/exiter/etc/테이블DB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="17160" windowHeight="11670" tabRatio="500" activeTab="4"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11700" tabRatio="500" activeTab="4"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="User" sheetId="1" r:id="rId4"/>
@@ -28,18 +28,192 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="178">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="182">
+  <x:si>
+    <x:t>ThemeReservationTime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user 테이블 키값(FK), 작성자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Board 테이블 키값(FK), 게시글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xxx-xxxx-xxxx(하이픈포함)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ThemePrice Table key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Question 테이블 키값(FK), 질문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xxx-xxxx-xxxx (하이픈포함)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Company 테이블 키값(FK), 작성자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방린이 - 방소년 - 방으른 - 엑시터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xxxxxxxxxx(하이픈 미포함) 10자리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ThemeReservationTime 테이블 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reservation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bCategory</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NULLABLE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comPocus</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tCategory</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ThemePrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comAddress2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Major Code</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comAddress3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Question</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Not Null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업자정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Theme Table key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테마정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer 테이블 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>답변정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user 테이블 키값(FK)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Question 테이블 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>질문정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BoardComment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Board 테이블 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Table key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ex) 10:00 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지점이 없는 경우 null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Theme 테이블 키값(FK)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BoardComment 테이블 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Company Table key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테마예약시간 정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테마가격 정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A(관리자) / U(일반회원)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Company 테이블 키값(FK)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈퇴유무 true / false</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reservation 테이블 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지점명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>길이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK</x:t>
+  </x:si>
   <x:si>
     <x:t>좌표x</x:t>
   </x:si>
   <x:si>
+    <x:t>bid</x:t>
+  </x:si>
+  <x:si>
     <x:t>qid</x:t>
   </x:si>
   <x:si>
-    <x:t>FK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>길이</x:t>
+    <x:t>인원수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>답변</x:t>
+  </x:si>
+  <x:si>
+    <x:t>U</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매장명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aid</x:t>
   </x:si>
   <x:si>
     <x:t>금액</x:t>
@@ -48,61 +222,52 @@
     <x:t>난이도</x:t>
   </x:si>
   <x:si>
-    <x:t>지점명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인원수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>답변</x:t>
-  </x:si>
-  <x:si>
-    <x:t>U</x:t>
-  </x:si>
-  <x:si>
-    <x:t>매장명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>aid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내용</x:t>
+    <x:t>좌표y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엑시터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬럼명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테마</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
   </x:si>
   <x:si>
     <x:t>rid</x:t>
   </x:si>
   <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>컬럼명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>좌표y</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엑시터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테마</x:t>
+    <x:t>cid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>질문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장르</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INT</x:t>
   </x:si>
   <x:si>
     <x:t>테마명</x:t>
@@ -111,52 +276,283 @@
     <x:t>댓글</x:t>
   </x:si>
   <x:si>
-    <x:t>cid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INT</x:t>
+    <x:t>이미지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KEY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>줄거리</x:t>
   </x:si>
   <x:si>
     <x:t>NO</x:t>
   </x:si>
   <x:si>
-    <x:t>이미지</x:t>
+    <x:t>연락처</x:t>
   </x:si>
   <x:si>
     <x:t>방린이</x:t>
   </x:si>
   <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KEY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>줄거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장르</x:t>
-  </x:si>
-  <x:si>
-    <x:t>질문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연락처</x:t>
+    <x:t>DATE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uPhone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rPrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tPrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로젝트명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Theme</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카테고리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comTel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TYPE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qDef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상세주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uPasswd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rTime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작  성  일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우편주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tTime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tpid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업무규칙</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bcDef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지번주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테마예약시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업자번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날짜시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DOUBLE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BOOLEAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uGrade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작  성  자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도로명주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BIGINT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 정의서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인  덱  스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aDef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 연락처</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업자 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬럼ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모  듈  명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>regDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uCheck</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Board</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약일자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Company</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tImage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tpNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tLevel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약금액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈퇴 유무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테마가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bcid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tDef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>trid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bDef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>trTime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인원당 금액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 등급</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인원수(MAX)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comAddress4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업자 비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TIMESTAMP</x:t>
   </x:si>
   <x:si>
     <x:t>2022.09.12</x:t>
@@ -165,403 +561,19 @@
     <x:t>comAddress1</x:t>
   </x:si>
   <x:si>
-    <x:t>사업자 비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comAddress4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인원수(MAX)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TIMESTAMP</x:t>
-  </x:si>
-  <x:si>
     <x:t>comPasswd</x:t>
   </x:si>
   <x:si>
-    <x:t>ThemeReservationTime 테이블 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xxxxxxxxxx(하이픈 미포함) 10자리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BoardComment 테이블 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Company 테이블 키값(FK)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Company Table key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈퇴유무 true / false</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Theme 테이블 키값(FK)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테마예약시간 정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reservation 테이블 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테마가격 정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A(관리자) / U(일반회원)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카테고리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tTime</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qDef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테마예약시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상세주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로젝트명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uPasswd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우편주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tpid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uPhone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지번주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rPrice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bcDef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Theme</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rTime</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comTel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TYPE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작  성  일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업무규칙</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tPrice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬럼ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uGrade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BIGINT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Answer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>regDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 정의서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인  덱  스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작  성  자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도로명주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모  듈  명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업자번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날짜시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>aDef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 연락처</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업자 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DOUBLE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uCheck</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Board</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BOOLEAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈퇴 유무</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Company</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 등급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tLevel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uType</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tDef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tImage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약일자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tpNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bcid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약금액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>trTime</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테마가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>trid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인원당 금액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bDef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>답변정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Answer 테이블 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Theme Table key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테마정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업자정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user 테이블 키값(FK)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User Table key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BoardComment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>질문정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ex) 10:00 AM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Board 테이블 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Question 테이블 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지점이 없는 경우 null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ThemePrice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xxx-xxxx-xxxx (하이픈포함)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Question 테이블 키값(FK), 질문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ThemePrice Table key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Company 테이블 키값(FK), 작성자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xxx-xxxx-xxxx(하이픈포함)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ThemeReservationTime</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Board 테이블 키값(FK), 게시글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방린이 - 방소년 - 방으른 - 엑시터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user 테이블 키값(FK), 작성자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comPocus</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comAddress2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Major Code</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comAddress3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tCategory</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reservation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bCategory</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NULLABLE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Not Null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Question</x:t>
+    <x:t>N(예약중) / Y(예약취소)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rCheck</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약취소유무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -834,7 +846,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -917,7 +928,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -952,7 +962,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -997,7 +1006,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1041,7 +1049,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1126,7 +1133,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1147,7 +1153,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1178,7 +1183,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1511,7 +1515,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
       <x:c r="A1" s="21" t="s">
-        <x:v>95</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B1" s="21"/>
       <x:c r="C1" s="21"/>
@@ -1525,36 +1529,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="19" t="s">
-        <x:v>66</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B2" s="19"/>
       <x:c r="C2" s="20" t="s">
-        <x:v>20</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D2" s="20"/>
       <x:c r="E2" s="20"/>
       <x:c r="F2" s="19" t="s">
-        <x:v>81</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="G2" s="19"/>
       <x:c r="H2" s="19"/>
       <x:c r="I2" s="20" t="s">
-        <x:v>43</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="J2" s="20"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="19" t="s">
-        <x:v>100</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B3" s="19"/>
       <x:c r="C3" s="20" t="s">
-        <x:v>33</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D3" s="20"/>
       <x:c r="E3" s="20"/>
       <x:c r="F3" s="19" t="s">
-        <x:v>98</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G3" s="19"/>
       <x:c r="H3" s="19"/>
@@ -1563,54 +1567,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="19" t="s">
-        <x:v>104</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B4" s="19"/>
       <x:c r="C4" s="20" t="s">
-        <x:v>102</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="D4" s="20"/>
       <x:c r="E4" s="20"/>
       <x:c r="F4" s="19" t="s">
-        <x:v>119</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="G4" s="19"/>
       <x:c r="H4" s="19"/>
       <x:c r="I4" s="20" t="s">
-        <x:v>150</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J4" s="20"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>29</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="E5" s="3" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F5" s="3" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="G5" s="3" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="H5" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="I5" s="3" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D5" s="3" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E5" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F5" s="3" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="G5" s="3" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="H5" s="3" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="I5" s="3" t="s">
-        <x:v>170</x:v>
-      </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -1618,21 +1622,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="12" t="s">
-        <x:v>13</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C6" s="12" t="s">
-        <x:v>149</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -1642,13 +1646,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="12" t="s">
-        <x:v>118</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C7" s="12" t="s">
-        <x:v>83</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>68</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>20</x:v>
@@ -1656,7 +1660,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -1666,13 +1670,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="12" t="s">
-        <x:v>67</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C8" s="13" t="s">
-        <x:v>113</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>68</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E8" s="4">
         <x:v>16</x:v>
@@ -1680,7 +1684,7 @@
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -1690,13 +1694,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="12" t="s">
-        <x:v>132</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="C9" s="13" t="s">
-        <x:v>112</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>68</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E9" s="4">
         <x:v>20</x:v>
@@ -1704,7 +1708,7 @@
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="6"/>
@@ -1714,13 +1718,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="12" t="s">
-        <x:v>72</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C10" s="13" t="s">
-        <x:v>108</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>68</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E10" s="4">
         <x:v>13</x:v>
@@ -1728,11 +1732,11 @@
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="5" t="s">
-        <x:v>163</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -1740,27 +1744,27 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B11" s="13" t="s">
-        <x:v>88</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C11" s="13" t="s">
-        <x:v>121</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>68</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E11" s="4">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F11" s="4" t="s">
-        <x:v>31</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I11" s="7"/>
       <x:c r="J11" s="5" t="s">
-        <x:v>166</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -1768,27 +1772,27 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B12" s="13" t="s">
-        <x:v>124</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="C12" s="14" t="s">
-        <x:v>90</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="D12" s="4" t="s">
-        <x:v>87</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="E12" s="7">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F12" s="7" t="s">
-        <x:v>10</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G12" s="7"/>
       <x:c r="H12" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I12" s="7"/>
       <x:c r="J12" s="8" t="s">
-        <x:v>60</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -1796,13 +1800,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B13" s="13" t="s">
-        <x:v>114</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C13" s="14" t="s">
-        <x:v>117</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="D13" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E13" s="7"/>
       <x:c r="F13" s="7" t="b">
@@ -1810,11 +1814,11 @@
       </x:c>
       <x:c r="G13" s="7"/>
       <x:c r="H13" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I13" s="7"/>
       <x:c r="J13" s="8" t="s">
-        <x:v>55</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -1822,19 +1826,19 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B14" s="13" t="s">
-        <x:v>92</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C14" s="14" t="s">
-        <x:v>105</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D14" s="7" t="s">
-        <x:v>48</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="E14" s="7"/>
       <x:c r="F14" s="7"/>
       <x:c r="G14" s="7"/>
       <x:c r="H14" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I14" s="7"/>
       <x:c r="J14" s="8"/>
@@ -1889,42 +1893,42 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A20" s="16" t="s">
-        <x:v>97</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B20" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C20" s="17"/>
       <x:c r="D20" s="17"/>
@@ -1937,10 +1941,10 @@
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A21" s="16" t="s">
-        <x:v>82</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B21" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C21" s="18"/>
       <x:c r="D21" s="17"/>
@@ -2004,7 +2008,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
       <x:c r="A1" s="21" t="s">
-        <x:v>95</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B1" s="21"/>
       <x:c r="C1" s="21"/>
@@ -2018,36 +2022,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="19" t="s">
-        <x:v>66</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B2" s="19"/>
       <x:c r="C2" s="20" t="s">
-        <x:v>20</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D2" s="20"/>
       <x:c r="E2" s="20"/>
       <x:c r="F2" s="19" t="s">
-        <x:v>81</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="G2" s="19"/>
       <x:c r="H2" s="19"/>
       <x:c r="I2" s="20" t="s">
-        <x:v>43</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="J2" s="20"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="19" t="s">
-        <x:v>100</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B3" s="19"/>
       <x:c r="C3" s="20" t="s">
-        <x:v>9</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D3" s="20"/>
       <x:c r="E3" s="20"/>
       <x:c r="F3" s="19" t="s">
-        <x:v>98</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G3" s="19"/>
       <x:c r="H3" s="19"/>
@@ -2056,54 +2060,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="19" t="s">
-        <x:v>104</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B4" s="19"/>
       <x:c r="C4" s="20" t="s">
-        <x:v>91</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="D4" s="20"/>
       <x:c r="E4" s="20"/>
       <x:c r="F4" s="19" t="s">
-        <x:v>119</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="G4" s="19"/>
       <x:c r="H4" s="19"/>
       <x:c r="I4" s="20" t="s">
-        <x:v>141</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J4" s="20"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>29</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="E5" s="3" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F5" s="3" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="G5" s="3" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="H5" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="I5" s="3" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D5" s="3" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E5" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F5" s="3" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="G5" s="3" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="H5" s="3" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="I5" s="3" t="s">
-        <x:v>170</x:v>
-      </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -2111,21 +2115,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
-        <x:v>12</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C6" s="10" t="s">
-        <x:v>142</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -2135,13 +2139,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>107</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>15</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>68</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>1000</x:v>
@@ -2149,7 +2153,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -2159,21 +2163,21 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
-        <x:v>1</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C8" s="10" t="s">
-        <x:v>160</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E8" s="4"/>
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H8" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -2183,21 +2187,21 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="10" t="s">
-        <x:v>27</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>162</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H9" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="5"/>
@@ -2207,19 +2211,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="10" t="s">
-        <x:v>92</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>105</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>48</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="11"/>
@@ -2322,42 +2326,42 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A20" s="16" t="s">
-        <x:v>97</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B20" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C20" s="17"/>
       <x:c r="D20" s="17"/>
@@ -2370,10 +2374,10 @@
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A21" s="16" t="s">
-        <x:v>82</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B21" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C21" s="18"/>
       <x:c r="D21" s="17"/>
@@ -2437,7 +2441,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
       <x:c r="A1" s="21" t="s">
-        <x:v>95</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B1" s="21"/>
       <x:c r="C1" s="21"/>
@@ -2451,36 +2455,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="19" t="s">
-        <x:v>66</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B2" s="19"/>
       <x:c r="C2" s="20" t="s">
-        <x:v>20</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D2" s="20"/>
       <x:c r="E2" s="20"/>
       <x:c r="F2" s="19" t="s">
-        <x:v>81</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="G2" s="19"/>
       <x:c r="H2" s="19"/>
       <x:c r="I2" s="20" t="s">
-        <x:v>43</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="J2" s="20"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="19" t="s">
-        <x:v>100</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B3" s="19"/>
       <x:c r="C3" s="20" t="s">
-        <x:v>36</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D3" s="20"/>
       <x:c r="E3" s="20"/>
       <x:c r="F3" s="19" t="s">
-        <x:v>98</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G3" s="19"/>
       <x:c r="H3" s="19"/>
@@ -2489,54 +2493,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="19" t="s">
-        <x:v>104</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B4" s="19"/>
       <x:c r="C4" s="20" t="s">
-        <x:v>120</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D4" s="20"/>
       <x:c r="E4" s="20"/>
       <x:c r="F4" s="19" t="s">
-        <x:v>119</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="G4" s="19"/>
       <x:c r="H4" s="19"/>
       <x:c r="I4" s="20" t="s">
-        <x:v>146</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J4" s="20"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>29</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="E5" s="3" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F5" s="3" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="G5" s="3" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="H5" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="I5" s="3" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D5" s="3" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E5" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F5" s="3" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="G5" s="3" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="H5" s="3" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="I5" s="3" t="s">
-        <x:v>170</x:v>
-      </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -2544,21 +2548,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="13" t="s">
-        <x:v>27</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C6" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -2568,13 +2572,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="13" t="s">
-        <x:v>125</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="C7" s="13" t="s">
-        <x:v>109</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>68</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>20</x:v>
@@ -2582,7 +2586,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -2592,13 +2596,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="13" t="s">
-        <x:v>49</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="C8" s="13" t="s">
-        <x:v>45</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>68</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E8" s="4">
         <x:v>16</x:v>
@@ -2606,7 +2610,7 @@
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -2616,13 +2620,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="13" t="s">
-        <x:v>127</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="C9" s="13" t="s">
-        <x:v>11</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>68</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E9" s="4">
         <x:v>20</x:v>
@@ -2630,7 +2634,7 @@
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="6"/>
@@ -2640,13 +2644,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="15" t="s">
-        <x:v>168</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C10" s="15" t="s">
-        <x:v>6</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>68</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E10" s="4">
         <x:v>20</x:v>
@@ -2654,11 +2658,11 @@
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>101</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="5" t="s">
-        <x:v>156</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -2666,13 +2670,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B11" s="13" t="s">
-        <x:v>73</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C11" s="13" t="s">
-        <x:v>103</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>68</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E11" s="4">
         <x:v>10</x:v>
@@ -2680,11 +2684,11 @@
       <x:c r="F11" s="4"/>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I11" s="4"/>
       <x:c r="J11" s="5" t="s">
-        <x:v>51</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -2692,13 +2696,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B12" s="13" t="s">
-        <x:v>44</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C12" s="13" t="s">
-        <x:v>70</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D12" s="4" t="s">
-        <x:v>68</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E12" s="4">
         <x:v>10</x:v>
@@ -2706,7 +2710,7 @@
       <x:c r="F12" s="4"/>
       <x:c r="G12" s="4"/>
       <x:c r="H12" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I12" s="7"/>
       <x:c r="J12" s="10"/>
@@ -2716,13 +2720,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B13" s="13" t="s">
-        <x:v>169</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C13" s="13" t="s">
-        <x:v>99</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D13" s="4" t="s">
-        <x:v>68</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E13" s="4">
         <x:v>50</x:v>
@@ -2730,7 +2734,7 @@
       <x:c r="F13" s="4"/>
       <x:c r="G13" s="4"/>
       <x:c r="H13" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I13" s="7"/>
       <x:c r="J13" s="10"/>
@@ -2740,13 +2744,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B14" s="13" t="s">
-        <x:v>171</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C14" s="13" t="s">
-        <x:v>74</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D14" s="4" t="s">
-        <x:v>68</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E14" s="4">
         <x:v>50</x:v>
@@ -2754,7 +2758,7 @@
       <x:c r="F14" s="4"/>
       <x:c r="G14" s="4"/>
       <x:c r="H14" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I14" s="7"/>
       <x:c r="J14" s="10"/>
@@ -2764,13 +2768,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B15" s="13" t="s">
-        <x:v>46</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="C15" s="13" t="s">
-        <x:v>65</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D15" s="4" t="s">
-        <x:v>68</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E15" s="4">
         <x:v>50</x:v>
@@ -2778,7 +2782,7 @@
       <x:c r="F15" s="4"/>
       <x:c r="G15" s="4"/>
       <x:c r="H15" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I15" s="7"/>
       <x:c r="J15" s="10"/>
@@ -2788,13 +2792,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B16" s="13" t="s">
-        <x:v>79</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C16" s="13" t="s">
-        <x:v>42</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D16" s="4" t="s">
-        <x:v>68</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E16" s="7">
         <x:v>13</x:v>
@@ -2802,11 +2806,11 @@
       <x:c r="F16" s="7"/>
       <x:c r="G16" s="7"/>
       <x:c r="H16" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I16" s="7"/>
       <x:c r="J16" s="8" t="s">
-        <x:v>159</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -2814,19 +2818,19 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B17" s="13" t="s">
-        <x:v>93</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C17" s="13" t="s">
-        <x:v>0</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D17" s="4" t="s">
-        <x:v>110</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E17" s="7"/>
       <x:c r="F17" s="7"/>
       <x:c r="G17" s="7"/>
       <x:c r="H17" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I17" s="7"/>
       <x:c r="J17" s="8"/>
@@ -2836,19 +2840,19 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B18" s="13" t="s">
-        <x:v>106</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C18" s="13" t="s">
-        <x:v>19</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D18" s="4" t="s">
-        <x:v>110</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E18" s="7"/>
       <x:c r="F18" s="7"/>
       <x:c r="G18" s="7"/>
       <x:c r="H18" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I18" s="7"/>
       <x:c r="J18" s="8"/>
@@ -2858,61 +2862,61 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B19" s="13" t="s">
-        <x:v>92</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C19" s="13" t="s">
-        <x:v>105</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>48</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="E19" s="7"/>
       <x:c r="F19" s="7"/>
       <x:c r="G19" s="7"/>
       <x:c r="H19" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I19" s="7"/>
       <x:c r="J19" s="8"/>
     </x:row>
     <x:row r="20" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A20" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B20" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C20" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D20" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E20" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F20" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G20" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H20" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I20" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="J20" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A21" s="16" t="s">
-        <x:v>97</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B21" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C21" s="17"/>
       <x:c r="D21" s="17"/>
@@ -2925,10 +2929,10 @@
     </x:row>
     <x:row r="22" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A22" s="16" t="s">
-        <x:v>82</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B22" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C22" s="18"/>
       <x:c r="D22" s="17"/>
@@ -2992,7 +2996,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
       <x:c r="A1" s="21" t="s">
-        <x:v>95</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B1" s="21"/>
       <x:c r="C1" s="21"/>
@@ -3006,36 +3010,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="19" t="s">
-        <x:v>66</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B2" s="19"/>
       <x:c r="C2" s="20" t="s">
-        <x:v>20</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D2" s="20"/>
       <x:c r="E2" s="20"/>
       <x:c r="F2" s="19" t="s">
-        <x:v>81</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="G2" s="19"/>
       <x:c r="H2" s="19"/>
       <x:c r="I2" s="20" t="s">
-        <x:v>43</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="J2" s="20"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="19" t="s">
-        <x:v>100</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B3" s="19"/>
       <x:c r="C3" s="20" t="s">
-        <x:v>24</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D3" s="20"/>
       <x:c r="E3" s="20"/>
       <x:c r="F3" s="19" t="s">
-        <x:v>98</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G3" s="19"/>
       <x:c r="H3" s="19"/>
@@ -3044,54 +3048,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="19" t="s">
-        <x:v>104</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B4" s="19"/>
       <x:c r="C4" s="20" t="s">
-        <x:v>77</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D4" s="20"/>
       <x:c r="E4" s="20"/>
       <x:c r="F4" s="19" t="s">
-        <x:v>119</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="G4" s="19"/>
       <x:c r="H4" s="19"/>
       <x:c r="I4" s="20" t="s">
-        <x:v>145</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J4" s="20"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>29</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="E5" s="3" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F5" s="3" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="G5" s="3" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="H5" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="I5" s="3" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D5" s="3" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E5" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F5" s="3" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="G5" s="3" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="H5" s="3" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="I5" s="3" t="s">
-        <x:v>170</x:v>
-      </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -3099,21 +3103,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="13" t="s">
-        <x:v>37</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C6" s="12" t="s">
-        <x:v>143</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -3123,13 +3127,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="13" t="s">
-        <x:v>111</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C7" s="13" t="s">
-        <x:v>25</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>68</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>20</x:v>
@@ -3137,7 +3141,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -3147,13 +3151,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="13" t="s">
-        <x:v>172</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C8" s="13" t="s">
-        <x:v>40</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>68</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E8" s="4">
         <x:v>10</x:v>
@@ -3161,7 +3165,7 @@
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -3171,19 +3175,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="13" t="s">
-        <x:v>123</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="C9" s="13" t="s">
-        <x:v>5</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="6"/>
@@ -3193,19 +3197,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="13" t="s">
-        <x:v>134</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="C10" s="13" t="s">
-        <x:v>47</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="5"/>
@@ -3215,19 +3219,19 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B11" s="13" t="s">
-        <x:v>84</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C11" s="13" t="s">
-        <x:v>4</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E11" s="4"/>
       <x:c r="F11" s="4"/>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I11" s="7"/>
       <x:c r="J11" s="5"/>
@@ -3237,13 +3241,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B12" s="13" t="s">
-        <x:v>126</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="C12" s="13" t="s">
-        <x:v>39</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D12" s="4" t="s">
-        <x:v>68</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E12" s="7">
         <x:v>500</x:v>
@@ -3251,7 +3255,7 @@
       <x:c r="F12" s="7"/>
       <x:c r="G12" s="7"/>
       <x:c r="H12" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I12" s="7"/>
       <x:c r="J12" s="8"/>
@@ -3261,19 +3265,19 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B13" s="13" t="s">
-        <x:v>62</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C13" s="13" t="s">
-        <x:v>22</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D13" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E13" s="7"/>
       <x:c r="F13" s="7"/>
       <x:c r="G13" s="7"/>
       <x:c r="H13" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I13" s="7"/>
       <x:c r="J13" s="8"/>
@@ -3283,13 +3287,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B14" s="13" t="s">
-        <x:v>128</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="C14" s="13" t="s">
-        <x:v>30</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D14" s="4" t="s">
-        <x:v>68</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E14" s="7">
         <x:v>100</x:v>
@@ -3297,7 +3301,7 @@
       <x:c r="F14" s="7"/>
       <x:c r="G14" s="7"/>
       <x:c r="H14" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I14" s="7"/>
       <x:c r="J14" s="8"/>
@@ -3307,21 +3311,21 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B15" s="13" t="s">
-        <x:v>27</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C15" s="13" t="s">
-        <x:v>53</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D15" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E15" s="7"/>
       <x:c r="F15" s="7"/>
       <x:c r="G15" s="7" t="s">
-        <x:v>2</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H15" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I15" s="7"/>
       <x:c r="J15" s="8"/>
@@ -3331,19 +3335,19 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B16" s="13" t="s">
-        <x:v>92</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C16" s="13" t="s">
-        <x:v>105</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D16" s="7" t="s">
-        <x:v>48</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="E16" s="7"/>
       <x:c r="F16" s="7"/>
       <x:c r="G16" s="7"/>
       <x:c r="H16" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I16" s="7"/>
       <x:c r="J16" s="8"/>
@@ -3374,42 +3378,42 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A20" s="16" t="s">
-        <x:v>97</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B20" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C20" s="17"/>
       <x:c r="D20" s="17"/>
@@ -3422,10 +3426,10 @@
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A21" s="16" t="s">
-        <x:v>82</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B21" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C21" s="18"/>
       <x:c r="D21" s="17"/>
@@ -3489,7 +3493,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
       <x:c r="A1" s="21" t="s">
-        <x:v>95</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B1" s="21"/>
       <x:c r="C1" s="21"/>
@@ -3503,36 +3507,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="19" t="s">
-        <x:v>66</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B2" s="19"/>
       <x:c r="C2" s="20" t="s">
-        <x:v>20</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D2" s="20"/>
       <x:c r="E2" s="20"/>
       <x:c r="F2" s="19" t="s">
-        <x:v>81</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="G2" s="19"/>
       <x:c r="H2" s="19"/>
       <x:c r="I2" s="20" t="s">
-        <x:v>43</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="J2" s="20"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="19" t="s">
-        <x:v>100</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B3" s="19"/>
       <x:c r="C3" s="20" t="s">
-        <x:v>137</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D3" s="20"/>
       <x:c r="E3" s="20"/>
       <x:c r="F3" s="19" t="s">
-        <x:v>98</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G3" s="19"/>
       <x:c r="H3" s="19"/>
@@ -3541,54 +3545,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="19" t="s">
-        <x:v>104</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B4" s="19"/>
       <x:c r="C4" s="20" t="s">
-        <x:v>158</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D4" s="20"/>
       <x:c r="E4" s="20"/>
       <x:c r="F4" s="19" t="s">
-        <x:v>119</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="G4" s="19"/>
       <x:c r="H4" s="19"/>
       <x:c r="I4" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="J4" s="20"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>29</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="E5" s="3" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F5" s="3" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="G5" s="3" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="H5" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="I5" s="3" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D5" s="3" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E5" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F5" s="3" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="G5" s="3" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="H5" s="3" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="I5" s="3" t="s">
-        <x:v>170</x:v>
-      </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -3596,21 +3600,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="13" t="s">
-        <x:v>71</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C6" s="12" t="s">
-        <x:v>161</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -3620,21 +3624,21 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="13" t="s">
-        <x:v>37</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C7" s="12" t="s">
-        <x:v>56</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E7" s="4"/>
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H7" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -3644,19 +3648,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="13" t="s">
-        <x:v>130</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="C8" s="13" t="s">
-        <x:v>8</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E8" s="4"/>
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -3666,19 +3670,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="13" t="s">
-        <x:v>84</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C9" s="13" t="s">
-        <x:v>139</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="6"/>
@@ -3807,42 +3811,42 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A20" s="16" t="s">
-        <x:v>97</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B20" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C20" s="17"/>
       <x:c r="D20" s="17"/>
@@ -3855,10 +3859,10 @@
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A21" s="16" t="s">
-        <x:v>82</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B21" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C21" s="18"/>
       <x:c r="D21" s="17"/>
@@ -3902,7 +3906,7 @@
   <x:dimension ref="A1:J21"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="J11" activeCellId="0" sqref="J11:J11"/>
+      <x:selection activeCell="J13" activeCellId="0" sqref="J13:J13"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
@@ -3922,7 +3926,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
       <x:c r="A1" s="21" t="s">
-        <x:v>95</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B1" s="21"/>
       <x:c r="C1" s="21"/>
@@ -3936,36 +3940,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="19" t="s">
-        <x:v>66</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B2" s="19"/>
       <x:c r="C2" s="20" t="s">
-        <x:v>20</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D2" s="20"/>
       <x:c r="E2" s="20"/>
       <x:c r="F2" s="19" t="s">
-        <x:v>81</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="G2" s="19"/>
       <x:c r="H2" s="19"/>
       <x:c r="I2" s="20" t="s">
-        <x:v>43</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="J2" s="20"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="19" t="s">
-        <x:v>100</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B3" s="19"/>
       <x:c r="C3" s="20" t="s">
-        <x:v>38</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D3" s="20"/>
       <x:c r="E3" s="20"/>
       <x:c r="F3" s="19" t="s">
-        <x:v>98</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G3" s="19"/>
       <x:c r="H3" s="19"/>
@@ -3974,54 +3978,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="19" t="s">
-        <x:v>104</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B4" s="19"/>
       <x:c r="C4" s="20" t="s">
-        <x:v>173</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D4" s="20"/>
       <x:c r="E4" s="20"/>
       <x:c r="F4" s="19" t="s">
-        <x:v>119</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="G4" s="19"/>
       <x:c r="H4" s="19"/>
       <x:c r="I4" s="20" t="s">
-        <x:v>157</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="J4" s="20"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>29</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="E5" s="3" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F5" s="3" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="G5" s="3" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="H5" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="I5" s="3" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D5" s="3" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E5" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F5" s="3" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="G5" s="3" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="H5" s="3" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="I5" s="3" t="s">
-        <x:v>170</x:v>
-      </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -4029,21 +4033,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="13" t="s">
-        <x:v>16</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C6" s="13" t="s">
-        <x:v>58</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -4053,21 +4057,21 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="13" t="s">
-        <x:v>13</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C7" s="13" t="s">
-        <x:v>148</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E7" s="4"/>
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H7" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -4077,21 +4081,21 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="13" t="s">
-        <x:v>37</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C8" s="12" t="s">
-        <x:v>56</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E8" s="4"/>
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H8" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -4101,19 +4105,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="13" t="s">
-        <x:v>75</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C9" s="13" t="s">
-        <x:v>135</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="5"/>
@@ -4123,19 +4127,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="13" t="s">
-        <x:v>94</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C10" s="13" t="s">
-        <x:v>129</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="11"/>
@@ -4145,13 +4149,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B11" s="13" t="s">
-        <x:v>78</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C11" s="13" t="s">
-        <x:v>122</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>68</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E11" s="4">
         <x:v>10</x:v>
@@ -4159,11 +4163,11 @@
       <x:c r="F11" s="4"/>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I11" s="4"/>
       <x:c r="J11" s="5" t="s">
-        <x:v>153</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -4171,19 +4175,19 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B12" s="13" t="s">
-        <x:v>131</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C12" s="13" t="s">
-        <x:v>8</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D12" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E12" s="4"/>
       <x:c r="F12" s="4"/>
       <x:c r="G12" s="4"/>
       <x:c r="H12" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I12" s="7"/>
       <x:c r="J12" s="8"/>
@@ -4193,32 +4197,46 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B13" s="13" t="s">
-        <x:v>92</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="C13" s="13" t="s">
-        <x:v>105</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="D13" s="4" t="s">
-        <x:v>48</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="E13" s="7"/>
-      <x:c r="F13" s="7"/>
+      <x:c r="F13" s="7" t="s">
+        <x:v>181</x:v>
+      </x:c>
       <x:c r="G13" s="7"/>
       <x:c r="H13" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I13" s="7"/>
-      <x:c r="J13" s="8"/>
+      <x:c r="J13" s="8" t="s">
+        <x:v>178</x:v>
+      </x:c>
     </x:row>
     <x:row r="14" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <x:c r="A14" s="4"/>
-      <x:c r="B14" s="10"/>
-      <x:c r="C14" s="10"/>
-      <x:c r="D14" s="4"/>
+      <x:c r="A14" s="4">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B14" s="13" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="C14" s="13" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="D14" s="4" t="s">
+        <x:v>174</x:v>
+      </x:c>
       <x:c r="E14" s="7"/>
       <x:c r="F14" s="7"/>
       <x:c r="G14" s="7"/>
-      <x:c r="H14" s="4"/>
+      <x:c r="H14" s="4" t="s">
+        <x:v>21</x:v>
+      </x:c>
       <x:c r="I14" s="7"/>
       <x:c r="J14" s="8"/>
     </x:row>
@@ -4272,42 +4290,42 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A20" s="16" t="s">
-        <x:v>97</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B20" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C20" s="17"/>
       <x:c r="D20" s="17"/>
@@ -4320,10 +4338,10 @@
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A21" s="16" t="s">
-        <x:v>82</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B21" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C21" s="18"/>
       <x:c r="D21" s="17"/>
@@ -4387,7 +4405,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
       <x:c r="A1" s="21" t="s">
-        <x:v>95</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B1" s="21"/>
       <x:c r="C1" s="21"/>
@@ -4401,36 +4419,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="19" t="s">
-        <x:v>66</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B2" s="19"/>
       <x:c r="C2" s="20" t="s">
-        <x:v>20</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D2" s="20"/>
       <x:c r="E2" s="20"/>
       <x:c r="F2" s="19" t="s">
-        <x:v>81</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="G2" s="19"/>
       <x:c r="H2" s="19"/>
       <x:c r="I2" s="20" t="s">
-        <x:v>43</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="J2" s="20"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="19" t="s">
-        <x:v>100</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B3" s="19"/>
       <x:c r="C3" s="20" t="s">
-        <x:v>64</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D3" s="20"/>
       <x:c r="E3" s="20"/>
       <x:c r="F3" s="19" t="s">
-        <x:v>98</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G3" s="19"/>
       <x:c r="H3" s="19"/>
@@ -4439,54 +4457,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="19" t="s">
-        <x:v>104</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B4" s="19"/>
       <x:c r="C4" s="20" t="s">
-        <x:v>164</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D4" s="20"/>
       <x:c r="E4" s="20"/>
       <x:c r="F4" s="19" t="s">
-        <x:v>119</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="G4" s="19"/>
       <x:c r="H4" s="19"/>
       <x:c r="I4" s="20" t="s">
-        <x:v>57</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="J4" s="20"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>29</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="E5" s="3" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F5" s="3" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="G5" s="3" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="H5" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="I5" s="3" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D5" s="3" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E5" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F5" s="3" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="G5" s="3" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="H5" s="3" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="I5" s="3" t="s">
-        <x:v>170</x:v>
-      </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -4494,21 +4512,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="13" t="s">
-        <x:v>138</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C6" s="9" t="s">
-        <x:v>50</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -4518,21 +4536,21 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="13" t="s">
-        <x:v>37</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C7" s="13" t="s">
-        <x:v>56</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E7" s="4"/>
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H7" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -4542,13 +4560,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="13" t="s">
-        <x:v>136</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="C8" s="12" t="s">
-        <x:v>122</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>68</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E8" s="4">
         <x:v>10</x:v>
@@ -4556,11 +4574,11 @@
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="5" t="s">
-        <x:v>153</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -4695,42 +4713,42 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A20" s="16" t="s">
-        <x:v>97</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B20" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C20" s="17"/>
       <x:c r="D20" s="17"/>
@@ -4743,10 +4761,10 @@
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A21" s="16" t="s">
-        <x:v>82</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B21" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C21" s="18"/>
       <x:c r="D21" s="17"/>
@@ -4810,7 +4828,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
       <x:c r="A1" s="21" t="s">
-        <x:v>95</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B1" s="21"/>
       <x:c r="C1" s="21"/>
@@ -4824,36 +4842,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="19" t="s">
-        <x:v>66</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B2" s="19"/>
       <x:c r="C2" s="20" t="s">
-        <x:v>20</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D2" s="20"/>
       <x:c r="E2" s="20"/>
       <x:c r="F2" s="19" t="s">
-        <x:v>81</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="G2" s="19"/>
       <x:c r="H2" s="19"/>
       <x:c r="I2" s="20" t="s">
-        <x:v>43</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="J2" s="20"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="19" t="s">
-        <x:v>100</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B3" s="19"/>
       <x:c r="C3" s="20" t="s">
-        <x:v>23</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D3" s="20"/>
       <x:c r="E3" s="20"/>
       <x:c r="F3" s="19" t="s">
-        <x:v>98</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G3" s="19"/>
       <x:c r="H3" s="19"/>
@@ -4862,54 +4880,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="19" t="s">
-        <x:v>104</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B4" s="19"/>
       <x:c r="C4" s="20" t="s">
-        <x:v>115</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D4" s="20"/>
       <x:c r="E4" s="20"/>
       <x:c r="F4" s="19" t="s">
-        <x:v>119</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="G4" s="19"/>
       <x:c r="H4" s="19"/>
       <x:c r="I4" s="20" t="s">
-        <x:v>147</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J4" s="20"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>29</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="E5" s="3" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F5" s="3" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="G5" s="3" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="H5" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="I5" s="3" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D5" s="3" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E5" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F5" s="3" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="G5" s="3" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="H5" s="3" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="I5" s="3" t="s">
-        <x:v>170</x:v>
-      </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -4917,21 +4935,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
-        <x:v>7</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C6" s="10" t="s">
-        <x:v>154</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -4941,13 +4959,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>85</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>14</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>68</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>100</x:v>
@@ -4955,7 +4973,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -4965,13 +4983,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
-        <x:v>140</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C8" s="10" t="s">
-        <x:v>15</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>68</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E8" s="4">
         <x:v>3000</x:v>
@@ -4979,7 +4997,7 @@
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -4989,13 +5007,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="10" t="s">
-        <x:v>174</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>68</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E9" s="4">
         <x:v>10</x:v>
@@ -5003,7 +5021,7 @@
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="5"/>
@@ -5013,21 +5031,21 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="10" t="s">
-        <x:v>13</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>167</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H10" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="11"/>
@@ -5037,19 +5055,19 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B11" s="10" t="s">
-        <x:v>92</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C11" s="10" t="s">
-        <x:v>105</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>48</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="E11" s="4"/>
       <x:c r="F11" s="4"/>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I11" s="7"/>
       <x:c r="J11" s="5"/>
@@ -5140,42 +5158,42 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A20" s="16" t="s">
-        <x:v>97</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B20" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C20" s="17"/>
       <x:c r="D20" s="17"/>
@@ -5188,10 +5206,10 @@
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A21" s="16" t="s">
-        <x:v>82</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B21" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C21" s="18"/>
       <x:c r="D21" s="17"/>
@@ -5255,7 +5273,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
       <x:c r="A1" s="21" t="s">
-        <x:v>95</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B1" s="21"/>
       <x:c r="C1" s="21"/>
@@ -5269,36 +5287,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="19" t="s">
-        <x:v>66</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B2" s="19"/>
       <x:c r="C2" s="20" t="s">
-        <x:v>20</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D2" s="20"/>
       <x:c r="E2" s="20"/>
       <x:c r="F2" s="19" t="s">
-        <x:v>81</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="G2" s="19"/>
       <x:c r="H2" s="19"/>
       <x:c r="I2" s="20" t="s">
-        <x:v>43</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="J2" s="20"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="19" t="s">
-        <x:v>100</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B3" s="19"/>
       <x:c r="C3" s="20" t="s">
-        <x:v>26</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D3" s="20"/>
       <x:c r="E3" s="20"/>
       <x:c r="F3" s="19" t="s">
-        <x:v>98</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G3" s="19"/>
       <x:c r="H3" s="19"/>
@@ -5307,54 +5325,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="19" t="s">
-        <x:v>104</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B4" s="19"/>
       <x:c r="C4" s="20" t="s">
-        <x:v>151</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D4" s="20"/>
       <x:c r="E4" s="20"/>
       <x:c r="F4" s="19" t="s">
-        <x:v>119</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="G4" s="19"/>
       <x:c r="H4" s="19"/>
       <x:c r="I4" s="20" t="s">
-        <x:v>144</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="J4" s="20"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>29</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="E5" s="3" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F5" s="3" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="G5" s="3" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="H5" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="I5" s="3" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D5" s="3" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E5" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F5" s="3" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="G5" s="3" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="H5" s="3" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="I5" s="3" t="s">
-        <x:v>170</x:v>
-      </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -5362,21 +5380,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
-        <x:v>133</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="C6" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -5386,13 +5404,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>76</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>15</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>68</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>500</x:v>
@@ -5400,7 +5418,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -5410,21 +5428,21 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
-        <x:v>13</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C8" s="10" t="s">
-        <x:v>167</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E8" s="4"/>
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H8" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -5434,21 +5452,21 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="10" t="s">
-        <x:v>7</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>165</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H9" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="5"/>
@@ -5458,19 +5476,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="10" t="s">
-        <x:v>92</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>105</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>48</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="11"/>
@@ -5573,42 +5591,42 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A20" s="16" t="s">
-        <x:v>97</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B20" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C20" s="17"/>
       <x:c r="D20" s="17"/>
@@ -5621,10 +5639,10 @@
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A21" s="16" t="s">
-        <x:v>82</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B21" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C21" s="18"/>
       <x:c r="D21" s="17"/>
@@ -5688,7 +5706,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
       <x:c r="A1" s="21" t="s">
-        <x:v>95</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B1" s="21"/>
       <x:c r="C1" s="21"/>
@@ -5702,36 +5720,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="19" t="s">
-        <x:v>66</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B2" s="19"/>
       <x:c r="C2" s="20" t="s">
-        <x:v>20</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D2" s="20"/>
       <x:c r="E2" s="20"/>
       <x:c r="F2" s="19" t="s">
-        <x:v>81</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="G2" s="19"/>
       <x:c r="H2" s="19"/>
       <x:c r="I2" s="20" t="s">
-        <x:v>43</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="J2" s="20"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="19" t="s">
-        <x:v>100</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B3" s="19"/>
       <x:c r="C3" s="20" t="s">
-        <x:v>41</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D3" s="20"/>
       <x:c r="E3" s="20"/>
       <x:c r="F3" s="19" t="s">
-        <x:v>98</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G3" s="19"/>
       <x:c r="H3" s="19"/>
@@ -5740,54 +5758,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="19" t="s">
-        <x:v>104</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B4" s="19"/>
       <x:c r="C4" s="20" t="s">
-        <x:v>177</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D4" s="20"/>
       <x:c r="E4" s="20"/>
       <x:c r="F4" s="19" t="s">
-        <x:v>119</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="G4" s="19"/>
       <x:c r="H4" s="19"/>
       <x:c r="I4" s="20" t="s">
-        <x:v>152</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="J4" s="20"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>29</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="E5" s="3" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F5" s="3" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="G5" s="3" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="H5" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="I5" s="3" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D5" s="3" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E5" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F5" s="3" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="G5" s="3" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="H5" s="3" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="I5" s="3" t="s">
-        <x:v>170</x:v>
-      </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -5795,21 +5813,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
-        <x:v>1</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C6" s="10" t="s">
-        <x:v>155</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
       <x:c r="G6" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="6"/>
@@ -5819,13 +5837,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>96</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>14</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>68</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>100</x:v>
@@ -5833,7 +5851,7 @@
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="6"/>
@@ -5843,13 +5861,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
-        <x:v>63</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C8" s="10" t="s">
-        <x:v>15</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>68</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E8" s="4">
         <x:v>3000</x:v>
@@ -5857,7 +5875,7 @@
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="6"/>
@@ -5867,21 +5885,21 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="10" t="s">
-        <x:v>13</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>167</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H9" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="5"/>
@@ -5891,21 +5909,21 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="10" t="s">
-        <x:v>27</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>53</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H10" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="11"/>
@@ -5915,19 +5933,19 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B11" s="10" t="s">
-        <x:v>92</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C11" s="10" t="s">
-        <x:v>105</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>48</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="E11" s="4"/>
       <x:c r="F11" s="4"/>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I11" s="7"/>
       <x:c r="J11" s="5"/>
@@ -6018,42 +6036,42 @@
     </x:row>
     <x:row r="19" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A20" s="16" t="s">
-        <x:v>97</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B20" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C20" s="17"/>
       <x:c r="D20" s="17"/>
@@ -6066,10 +6084,10 @@
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A21" s="16" t="s">
-        <x:v>82</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B21" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C21" s="18"/>
       <x:c r="D21" s="17"/>
